--- a/内部設計書/内部設計書_2_1_結果一覧画面.xlsx
+++ b/内部設計書/内部設計書_2_1_結果一覧画面.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7a503a00dd146cc3/桌面/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="11_D8A6BF9EC97118C6A1E06F06A7255671FA37C8E1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19858DDF-CA04-4115-940F-F0A981666BFC}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="2.処理内容" sheetId="6" r:id="rId1"/>
@@ -34,12 +28,12 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2.処理内容'!$1:$6</definedName>
     <definedName name="Print_Titles_0" localSheetId="0">'2.処理内容'!$1:$6</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>システム名</t>
   </si>
@@ -395,15 +389,19 @@
     <t>AllResultOutputForm.点数</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>showResultList</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1083,66 +1081,40 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1156,6 +1128,95 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1202,83 +1263,20 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="TableStyleLight1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="TableStyleLight1" xfId="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1616,128 +1614,128 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AS8" sqref="AS8:CI8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="0.6640625" style="6"/>
-    <col min="2" max="87" width="1.6640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="0.625" style="6"/>
+    <col min="2" max="87" width="1.625" style="6" customWidth="1"/>
     <col min="88" max="1025" width="9" style="6"/>
     <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1025" ht="18" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="68" t="s">
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
-      <c r="W1" s="69" t="s">
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
-      <c r="Z1" s="69"/>
-      <c r="AA1" s="69"/>
-      <c r="AB1" s="69"/>
-      <c r="AC1" s="69"/>
-      <c r="AD1" s="69"/>
-      <c r="AE1" s="69"/>
-      <c r="AF1" s="69"/>
-      <c r="AG1" s="69"/>
-      <c r="AH1" s="69"/>
-      <c r="AI1" s="69"/>
-      <c r="AJ1" s="69"/>
-      <c r="AK1" s="69"/>
-      <c r="AL1" s="69"/>
-      <c r="AM1" s="69"/>
-      <c r="AN1" s="69"/>
-      <c r="AO1" s="69"/>
-      <c r="AP1" s="69"/>
-      <c r="AQ1" s="69"/>
-      <c r="AR1" s="69"/>
-      <c r="AS1" s="69"/>
-      <c r="AT1" s="69"/>
-      <c r="AU1" s="69"/>
-      <c r="AV1" s="69"/>
-      <c r="AW1" s="69"/>
-      <c r="AX1" s="69"/>
-      <c r="AY1" s="69"/>
-      <c r="AZ1" s="69"/>
-      <c r="BA1" s="69"/>
-      <c r="BB1" s="69"/>
-      <c r="BC1" s="69"/>
-      <c r="BD1" s="69"/>
-      <c r="BE1" s="69"/>
-      <c r="BF1" s="69"/>
-      <c r="BG1" s="69"/>
-      <c r="BH1" s="69"/>
-      <c r="BI1" s="69"/>
-      <c r="BJ1" s="69"/>
-      <c r="BK1" s="69"/>
-      <c r="BL1" s="70" t="s">
+      <c r="X1" s="90"/>
+      <c r="Y1" s="90"/>
+      <c r="Z1" s="90"/>
+      <c r="AA1" s="90"/>
+      <c r="AB1" s="90"/>
+      <c r="AC1" s="90"/>
+      <c r="AD1" s="90"/>
+      <c r="AE1" s="90"/>
+      <c r="AF1" s="90"/>
+      <c r="AG1" s="90"/>
+      <c r="AH1" s="90"/>
+      <c r="AI1" s="90"/>
+      <c r="AJ1" s="90"/>
+      <c r="AK1" s="90"/>
+      <c r="AL1" s="90"/>
+      <c r="AM1" s="90"/>
+      <c r="AN1" s="90"/>
+      <c r="AO1" s="90"/>
+      <c r="AP1" s="90"/>
+      <c r="AQ1" s="90"/>
+      <c r="AR1" s="90"/>
+      <c r="AS1" s="90"/>
+      <c r="AT1" s="90"/>
+      <c r="AU1" s="90"/>
+      <c r="AV1" s="90"/>
+      <c r="AW1" s="90"/>
+      <c r="AX1" s="90"/>
+      <c r="AY1" s="90"/>
+      <c r="AZ1" s="90"/>
+      <c r="BA1" s="90"/>
+      <c r="BB1" s="90"/>
+      <c r="BC1" s="90"/>
+      <c r="BD1" s="90"/>
+      <c r="BE1" s="90"/>
+      <c r="BF1" s="90"/>
+      <c r="BG1" s="90"/>
+      <c r="BH1" s="90"/>
+      <c r="BI1" s="90"/>
+      <c r="BJ1" s="90"/>
+      <c r="BK1" s="90"/>
+      <c r="BL1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="BM1" s="70"/>
-      <c r="BN1" s="70"/>
-      <c r="BO1" s="70"/>
-      <c r="BP1" s="71" t="s">
+      <c r="BM1" s="91"/>
+      <c r="BN1" s="91"/>
+      <c r="BO1" s="91"/>
+      <c r="BP1" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="BQ1" s="71"/>
-      <c r="BR1" s="71"/>
-      <c r="BS1" s="71"/>
-      <c r="BT1" s="71"/>
-      <c r="BU1" s="71"/>
-      <c r="BV1" s="71"/>
-      <c r="BW1" s="71"/>
-      <c r="BX1" s="72" t="s">
+      <c r="BQ1" s="92"/>
+      <c r="BR1" s="92"/>
+      <c r="BS1" s="92"/>
+      <c r="BT1" s="92"/>
+      <c r="BU1" s="92"/>
+      <c r="BV1" s="92"/>
+      <c r="BW1" s="92"/>
+      <c r="BX1" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="BY1" s="72"/>
-      <c r="BZ1" s="72"/>
-      <c r="CA1" s="72"/>
-      <c r="CB1" s="58"/>
-      <c r="CC1" s="58"/>
-      <c r="CD1" s="58"/>
-      <c r="CE1" s="58"/>
-      <c r="CF1" s="58"/>
-      <c r="CG1" s="58"/>
-      <c r="CH1" s="58"/>
-      <c r="CI1" s="58"/>
+      <c r="BY1" s="93"/>
+      <c r="BZ1" s="93"/>
+      <c r="CA1" s="93"/>
+      <c r="CB1" s="79"/>
+      <c r="CC1" s="79"/>
+      <c r="CD1" s="79"/>
+      <c r="CE1" s="79"/>
+      <c r="CF1" s="79"/>
+      <c r="CG1" s="79"/>
+      <c r="CH1" s="79"/>
+      <c r="CI1" s="79"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -2677,106 +2675,106 @@
       <c r="AMJ1" s="1"/>
       <c r="AMK1" s="2"/>
     </row>
-    <row r="2" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="60" t="s">
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="61" t="s">
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81"/>
+      <c r="W2" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="61"/>
-      <c r="AG2" s="61"/>
-      <c r="AH2" s="61"/>
-      <c r="AI2" s="61"/>
-      <c r="AJ2" s="61"/>
-      <c r="AK2" s="61"/>
-      <c r="AL2" s="61"/>
-      <c r="AM2" s="61"/>
-      <c r="AN2" s="61"/>
-      <c r="AO2" s="61"/>
-      <c r="AP2" s="61"/>
-      <c r="AQ2" s="61"/>
-      <c r="AR2" s="61"/>
-      <c r="AS2" s="61"/>
-      <c r="AT2" s="61"/>
-      <c r="AU2" s="61"/>
-      <c r="AV2" s="61"/>
-      <c r="AW2" s="61"/>
-      <c r="AX2" s="61"/>
-      <c r="AY2" s="61"/>
-      <c r="AZ2" s="61"/>
-      <c r="BA2" s="61"/>
-      <c r="BB2" s="61"/>
-      <c r="BC2" s="61"/>
-      <c r="BD2" s="61"/>
-      <c r="BE2" s="61"/>
-      <c r="BF2" s="61"/>
-      <c r="BG2" s="61"/>
-      <c r="BH2" s="61"/>
-      <c r="BI2" s="61"/>
-      <c r="BJ2" s="61"/>
-      <c r="BK2" s="61"/>
-      <c r="BL2" s="62" t="s">
+      <c r="X2" s="82"/>
+      <c r="Y2" s="82"/>
+      <c r="Z2" s="82"/>
+      <c r="AA2" s="82"/>
+      <c r="AB2" s="82"/>
+      <c r="AC2" s="82"/>
+      <c r="AD2" s="82"/>
+      <c r="AE2" s="82"/>
+      <c r="AF2" s="82"/>
+      <c r="AG2" s="82"/>
+      <c r="AH2" s="82"/>
+      <c r="AI2" s="82"/>
+      <c r="AJ2" s="82"/>
+      <c r="AK2" s="82"/>
+      <c r="AL2" s="82"/>
+      <c r="AM2" s="82"/>
+      <c r="AN2" s="82"/>
+      <c r="AO2" s="82"/>
+      <c r="AP2" s="82"/>
+      <c r="AQ2" s="82"/>
+      <c r="AR2" s="82"/>
+      <c r="AS2" s="82"/>
+      <c r="AT2" s="82"/>
+      <c r="AU2" s="82"/>
+      <c r="AV2" s="82"/>
+      <c r="AW2" s="82"/>
+      <c r="AX2" s="82"/>
+      <c r="AY2" s="82"/>
+      <c r="AZ2" s="82"/>
+      <c r="BA2" s="82"/>
+      <c r="BB2" s="82"/>
+      <c r="BC2" s="82"/>
+      <c r="BD2" s="82"/>
+      <c r="BE2" s="82"/>
+      <c r="BF2" s="82"/>
+      <c r="BG2" s="82"/>
+      <c r="BH2" s="82"/>
+      <c r="BI2" s="82"/>
+      <c r="BJ2" s="82"/>
+      <c r="BK2" s="82"/>
+      <c r="BL2" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="62"/>
-      <c r="BN2" s="62"/>
-      <c r="BO2" s="62"/>
-      <c r="BP2" s="63">
+      <c r="BM2" s="83"/>
+      <c r="BN2" s="83"/>
+      <c r="BO2" s="83"/>
+      <c r="BP2" s="84">
         <v>44691</v>
       </c>
-      <c r="BQ2" s="63"/>
-      <c r="BR2" s="63"/>
-      <c r="BS2" s="63"/>
-      <c r="BT2" s="63"/>
-      <c r="BU2" s="63"/>
-      <c r="BV2" s="63"/>
-      <c r="BW2" s="63"/>
-      <c r="BX2" s="64" t="s">
+      <c r="BQ2" s="84"/>
+      <c r="BR2" s="84"/>
+      <c r="BS2" s="84"/>
+      <c r="BT2" s="84"/>
+      <c r="BU2" s="84"/>
+      <c r="BV2" s="84"/>
+      <c r="BW2" s="84"/>
+      <c r="BX2" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="64"/>
-      <c r="BZ2" s="64"/>
-      <c r="CA2" s="64"/>
-      <c r="CB2" s="65"/>
-      <c r="CC2" s="66"/>
-      <c r="CD2" s="66"/>
-      <c r="CE2" s="66"/>
-      <c r="CF2" s="66"/>
-      <c r="CG2" s="66"/>
-      <c r="CH2" s="66"/>
-      <c r="CI2" s="66"/>
+      <c r="BY2" s="85"/>
+      <c r="BZ2" s="85"/>
+      <c r="CA2" s="85"/>
+      <c r="CB2" s="86"/>
+      <c r="CC2" s="87"/>
+      <c r="CD2" s="87"/>
+      <c r="CE2" s="87"/>
+      <c r="CF2" s="87"/>
+      <c r="CG2" s="87"/>
+      <c r="CH2" s="87"/>
+      <c r="CI2" s="87"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
@@ -3716,7 +3714,7 @@
       <c r="AMJ2" s="1"/>
       <c r="AMK2" s="2"/>
     </row>
-    <row r="3" spans="1:1025" s="3" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1025" s="3" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
@@ -3804,102 +3802,102 @@
       <c r="CH3" s="25"/>
       <c r="CI3" s="25"/>
     </row>
-    <row r="4" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1025" ht="18" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="74" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="74"/>
-      <c r="S4" s="74"/>
-      <c r="T4" s="74"/>
-      <c r="U4" s="74"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="74"/>
-      <c r="X4" s="74"/>
-      <c r="Y4" s="74" t="s">
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="78"/>
+      <c r="O4" s="78"/>
+      <c r="P4" s="78"/>
+      <c r="Q4" s="78"/>
+      <c r="R4" s="78"/>
+      <c r="S4" s="78"/>
+      <c r="T4" s="78"/>
+      <c r="U4" s="78"/>
+      <c r="V4" s="78"/>
+      <c r="W4" s="78"/>
+      <c r="X4" s="78"/>
+      <c r="Y4" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="Z4" s="74"/>
-      <c r="AA4" s="74"/>
-      <c r="AB4" s="74"/>
-      <c r="AC4" s="74"/>
-      <c r="AD4" s="74"/>
-      <c r="AE4" s="74"/>
-      <c r="AF4" s="74"/>
-      <c r="AG4" s="74"/>
-      <c r="AH4" s="74"/>
-      <c r="AI4" s="74"/>
-      <c r="AJ4" s="74"/>
-      <c r="AK4" s="74"/>
-      <c r="AL4" s="74"/>
-      <c r="AM4" s="74"/>
-      <c r="AN4" s="74"/>
-      <c r="AO4" s="74"/>
-      <c r="AP4" s="74"/>
-      <c r="AQ4" s="74"/>
-      <c r="AR4" s="74"/>
-      <c r="AS4" s="32" t="s">
+      <c r="Z4" s="78"/>
+      <c r="AA4" s="78"/>
+      <c r="AB4" s="78"/>
+      <c r="AC4" s="78"/>
+      <c r="AD4" s="78"/>
+      <c r="AE4" s="78"/>
+      <c r="AF4" s="78"/>
+      <c r="AG4" s="78"/>
+      <c r="AH4" s="78"/>
+      <c r="AI4" s="78"/>
+      <c r="AJ4" s="78"/>
+      <c r="AK4" s="78"/>
+      <c r="AL4" s="78"/>
+      <c r="AM4" s="78"/>
+      <c r="AN4" s="78"/>
+      <c r="AO4" s="78"/>
+      <c r="AP4" s="78"/>
+      <c r="AQ4" s="78"/>
+      <c r="AR4" s="78"/>
+      <c r="AS4" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="AT4" s="32"/>
-      <c r="AU4" s="32"/>
-      <c r="AV4" s="32"/>
-      <c r="AW4" s="32"/>
-      <c r="AX4" s="32"/>
-      <c r="AY4" s="32"/>
-      <c r="AZ4" s="32"/>
-      <c r="BA4" s="32"/>
-      <c r="BB4" s="32"/>
-      <c r="BC4" s="32"/>
-      <c r="BD4" s="32"/>
-      <c r="BE4" s="32"/>
-      <c r="BF4" s="32"/>
-      <c r="BG4" s="32"/>
-      <c r="BH4" s="32"/>
-      <c r="BI4" s="32"/>
-      <c r="BJ4" s="32"/>
-      <c r="BK4" s="32"/>
-      <c r="BL4" s="32"/>
-      <c r="BM4" s="32"/>
-      <c r="BN4" s="32"/>
-      <c r="BO4" s="32"/>
-      <c r="BP4" s="32"/>
-      <c r="BQ4" s="32"/>
-      <c r="BR4" s="32"/>
-      <c r="BS4" s="32"/>
-      <c r="BT4" s="32"/>
-      <c r="BU4" s="32"/>
-      <c r="BV4" s="32"/>
-      <c r="BW4" s="32"/>
-      <c r="BX4" s="32"/>
-      <c r="BY4" s="32"/>
-      <c r="BZ4" s="32"/>
-      <c r="CA4" s="32"/>
-      <c r="CB4" s="32"/>
-      <c r="CC4" s="32"/>
-      <c r="CD4" s="32"/>
-      <c r="CE4" s="32"/>
-      <c r="CF4" s="32"/>
-      <c r="CG4" s="32"/>
-      <c r="CH4" s="32"/>
-      <c r="CI4" s="32"/>
+      <c r="AT4" s="53"/>
+      <c r="AU4" s="53"/>
+      <c r="AV4" s="53"/>
+      <c r="AW4" s="53"/>
+      <c r="AX4" s="53"/>
+      <c r="AY4" s="53"/>
+      <c r="AZ4" s="53"/>
+      <c r="BA4" s="53"/>
+      <c r="BB4" s="53"/>
+      <c r="BC4" s="53"/>
+      <c r="BD4" s="53"/>
+      <c r="BE4" s="53"/>
+      <c r="BF4" s="53"/>
+      <c r="BG4" s="53"/>
+      <c r="BH4" s="53"/>
+      <c r="BI4" s="53"/>
+      <c r="BJ4" s="53"/>
+      <c r="BK4" s="53"/>
+      <c r="BL4" s="53"/>
+      <c r="BM4" s="53"/>
+      <c r="BN4" s="53"/>
+      <c r="BO4" s="53"/>
+      <c r="BP4" s="53"/>
+      <c r="BQ4" s="53"/>
+      <c r="BR4" s="53"/>
+      <c r="BS4" s="53"/>
+      <c r="BT4" s="53"/>
+      <c r="BU4" s="53"/>
+      <c r="BV4" s="53"/>
+      <c r="BW4" s="53"/>
+      <c r="BX4" s="53"/>
+      <c r="BY4" s="53"/>
+      <c r="BZ4" s="53"/>
+      <c r="CA4" s="53"/>
+      <c r="CB4" s="53"/>
+      <c r="CC4" s="53"/>
+      <c r="CD4" s="53"/>
+      <c r="CE4" s="53"/>
+      <c r="CF4" s="53"/>
+      <c r="CG4" s="53"/>
+      <c r="CH4" s="53"/>
+      <c r="CI4" s="53"/>
       <c r="CJ4" s="2"/>
       <c r="CK4" s="2"/>
       <c r="CL4" s="2"/>
@@ -4839,102 +4837,102 @@
       <c r="AMJ4" s="2"/>
       <c r="AMK4" s="2"/>
     </row>
-    <row r="5" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A5" s="2"/>
-      <c r="B5" s="33">
+      <c r="B5" s="39">
         <v>1</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="78" t="s">
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="79"/>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="79"/>
-      <c r="T5" s="79"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
-      <c r="W5" s="79"/>
-      <c r="X5" s="79"/>
-      <c r="Y5" s="79" t="s">
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="71"/>
+      <c r="T5" s="71"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
+      <c r="W5" s="71"/>
+      <c r="X5" s="71"/>
+      <c r="Y5" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="Z5" s="79"/>
-      <c r="AA5" s="79"/>
-      <c r="AB5" s="79"/>
-      <c r="AC5" s="79"/>
-      <c r="AD5" s="79"/>
-      <c r="AE5" s="79"/>
-      <c r="AF5" s="79"/>
-      <c r="AG5" s="79"/>
-      <c r="AH5" s="79"/>
-      <c r="AI5" s="79"/>
-      <c r="AJ5" s="79"/>
-      <c r="AK5" s="79"/>
-      <c r="AL5" s="79"/>
-      <c r="AM5" s="79"/>
-      <c r="AN5" s="79"/>
-      <c r="AO5" s="79"/>
-      <c r="AP5" s="79"/>
-      <c r="AQ5" s="79"/>
-      <c r="AR5" s="79"/>
-      <c r="AS5" s="80" t="s">
+      <c r="Z5" s="71"/>
+      <c r="AA5" s="71"/>
+      <c r="AB5" s="71"/>
+      <c r="AC5" s="71"/>
+      <c r="AD5" s="71"/>
+      <c r="AE5" s="71"/>
+      <c r="AF5" s="71"/>
+      <c r="AG5" s="71"/>
+      <c r="AH5" s="71"/>
+      <c r="AI5" s="71"/>
+      <c r="AJ5" s="71"/>
+      <c r="AK5" s="71"/>
+      <c r="AL5" s="71"/>
+      <c r="AM5" s="71"/>
+      <c r="AN5" s="71"/>
+      <c r="AO5" s="71"/>
+      <c r="AP5" s="71"/>
+      <c r="AQ5" s="71"/>
+      <c r="AR5" s="71"/>
+      <c r="AS5" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="AT5" s="80"/>
-      <c r="AU5" s="80"/>
-      <c r="AV5" s="80"/>
-      <c r="AW5" s="80"/>
-      <c r="AX5" s="80"/>
-      <c r="AY5" s="80"/>
-      <c r="AZ5" s="80"/>
-      <c r="BA5" s="80"/>
-      <c r="BB5" s="80"/>
-      <c r="BC5" s="80"/>
-      <c r="BD5" s="80"/>
-      <c r="BE5" s="80"/>
-      <c r="BF5" s="80"/>
-      <c r="BG5" s="80"/>
-      <c r="BH5" s="80"/>
-      <c r="BI5" s="80"/>
-      <c r="BJ5" s="80"/>
-      <c r="BK5" s="80"/>
-      <c r="BL5" s="80"/>
-      <c r="BM5" s="80"/>
-      <c r="BN5" s="80"/>
-      <c r="BO5" s="80"/>
-      <c r="BP5" s="80"/>
-      <c r="BQ5" s="80"/>
-      <c r="BR5" s="80"/>
-      <c r="BS5" s="80"/>
-      <c r="BT5" s="80"/>
-      <c r="BU5" s="80"/>
-      <c r="BV5" s="80"/>
-      <c r="BW5" s="80"/>
-      <c r="BX5" s="80"/>
-      <c r="BY5" s="80"/>
-      <c r="BZ5" s="80"/>
-      <c r="CA5" s="80"/>
-      <c r="CB5" s="80"/>
-      <c r="CC5" s="80"/>
-      <c r="CD5" s="80"/>
-      <c r="CE5" s="80"/>
-      <c r="CF5" s="80"/>
-      <c r="CG5" s="80"/>
-      <c r="CH5" s="80"/>
-      <c r="CI5" s="80"/>
+      <c r="AT5" s="72"/>
+      <c r="AU5" s="72"/>
+      <c r="AV5" s="72"/>
+      <c r="AW5" s="72"/>
+      <c r="AX5" s="72"/>
+      <c r="AY5" s="72"/>
+      <c r="AZ5" s="72"/>
+      <c r="BA5" s="72"/>
+      <c r="BB5" s="72"/>
+      <c r="BC5" s="72"/>
+      <c r="BD5" s="72"/>
+      <c r="BE5" s="72"/>
+      <c r="BF5" s="72"/>
+      <c r="BG5" s="72"/>
+      <c r="BH5" s="72"/>
+      <c r="BI5" s="72"/>
+      <c r="BJ5" s="72"/>
+      <c r="BK5" s="72"/>
+      <c r="BL5" s="72"/>
+      <c r="BM5" s="72"/>
+      <c r="BN5" s="72"/>
+      <c r="BO5" s="72"/>
+      <c r="BP5" s="72"/>
+      <c r="BQ5" s="72"/>
+      <c r="BR5" s="72"/>
+      <c r="BS5" s="72"/>
+      <c r="BT5" s="72"/>
+      <c r="BU5" s="72"/>
+      <c r="BV5" s="72"/>
+      <c r="BW5" s="72"/>
+      <c r="BX5" s="72"/>
+      <c r="BY5" s="72"/>
+      <c r="BZ5" s="72"/>
+      <c r="CA5" s="72"/>
+      <c r="CB5" s="72"/>
+      <c r="CC5" s="72"/>
+      <c r="CD5" s="72"/>
+      <c r="CE5" s="72"/>
+      <c r="CF5" s="72"/>
+      <c r="CG5" s="72"/>
+      <c r="CH5" s="72"/>
+      <c r="CI5" s="72"/>
       <c r="CJ5" s="2"/>
       <c r="CK5" s="2"/>
       <c r="CL5" s="2"/>
@@ -5874,7 +5872,7 @@
       <c r="AMJ5" s="2"/>
       <c r="AMK5" s="2"/>
     </row>
-    <row r="6" spans="1:1025" s="3" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1025" s="3" customFormat="1" ht="13.9" customHeight="1" thickBot="1">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -5962,200 +5960,202 @@
       <c r="CH6" s="5"/>
       <c r="CI6" s="5"/>
     </row>
-    <row r="7" spans="1:1025" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="73" t="s">
+    <row r="7" spans="1:1025" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="B7" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="28" t="s">
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="29" t="s">
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="35"/>
+      <c r="X7" s="35"/>
+      <c r="Y7" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="Z7" s="30"/>
-      <c r="AA7" s="30"/>
-      <c r="AB7" s="30"/>
-      <c r="AC7" s="30"/>
-      <c r="AD7" s="30"/>
-      <c r="AE7" s="30"/>
-      <c r="AF7" s="30"/>
-      <c r="AG7" s="30"/>
-      <c r="AH7" s="31"/>
-      <c r="AI7" s="29" t="s">
+      <c r="Z7" s="74"/>
+      <c r="AA7" s="74"/>
+      <c r="AB7" s="74"/>
+      <c r="AC7" s="74"/>
+      <c r="AD7" s="74"/>
+      <c r="AE7" s="74"/>
+      <c r="AF7" s="74"/>
+      <c r="AG7" s="74"/>
+      <c r="AH7" s="75"/>
+      <c r="AI7" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="AJ7" s="30"/>
-      <c r="AK7" s="30"/>
-      <c r="AL7" s="30"/>
-      <c r="AM7" s="30"/>
-      <c r="AN7" s="30"/>
-      <c r="AO7" s="30"/>
-      <c r="AP7" s="30"/>
-      <c r="AQ7" s="30"/>
-      <c r="AR7" s="31"/>
-      <c r="AS7" s="32" t="s">
+      <c r="AJ7" s="74"/>
+      <c r="AK7" s="74"/>
+      <c r="AL7" s="74"/>
+      <c r="AM7" s="74"/>
+      <c r="AN7" s="74"/>
+      <c r="AO7" s="74"/>
+      <c r="AP7" s="74"/>
+      <c r="AQ7" s="74"/>
+      <c r="AR7" s="75"/>
+      <c r="AS7" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="AT7" s="32"/>
-      <c r="AU7" s="32"/>
-      <c r="AV7" s="32"/>
-      <c r="AW7" s="32"/>
-      <c r="AX7" s="32"/>
-      <c r="AY7" s="32"/>
-      <c r="AZ7" s="32"/>
-      <c r="BA7" s="32"/>
-      <c r="BB7" s="32"/>
-      <c r="BC7" s="32"/>
-      <c r="BD7" s="32"/>
-      <c r="BE7" s="32"/>
-      <c r="BF7" s="32"/>
-      <c r="BG7" s="32"/>
-      <c r="BH7" s="32"/>
-      <c r="BI7" s="32"/>
-      <c r="BJ7" s="32"/>
-      <c r="BK7" s="32"/>
-      <c r="BL7" s="32"/>
-      <c r="BM7" s="32"/>
-      <c r="BN7" s="32"/>
-      <c r="BO7" s="32"/>
-      <c r="BP7" s="32"/>
-      <c r="BQ7" s="32"/>
-      <c r="BR7" s="32"/>
-      <c r="BS7" s="32"/>
-      <c r="BT7" s="32"/>
-      <c r="BU7" s="32"/>
-      <c r="BV7" s="32"/>
-      <c r="BW7" s="32"/>
-      <c r="BX7" s="32"/>
-      <c r="BY7" s="32"/>
-      <c r="BZ7" s="32"/>
-      <c r="CA7" s="32"/>
-      <c r="CB7" s="32"/>
-      <c r="CC7" s="32"/>
-      <c r="CD7" s="32"/>
-      <c r="CE7" s="32"/>
-      <c r="CF7" s="32"/>
-      <c r="CG7" s="32"/>
-      <c r="CH7" s="32"/>
-      <c r="CI7" s="32"/>
+      <c r="AT7" s="53"/>
+      <c r="AU7" s="53"/>
+      <c r="AV7" s="53"/>
+      <c r="AW7" s="53"/>
+      <c r="AX7" s="53"/>
+      <c r="AY7" s="53"/>
+      <c r="AZ7" s="53"/>
+      <c r="BA7" s="53"/>
+      <c r="BB7" s="53"/>
+      <c r="BC7" s="53"/>
+      <c r="BD7" s="53"/>
+      <c r="BE7" s="53"/>
+      <c r="BF7" s="53"/>
+      <c r="BG7" s="53"/>
+      <c r="BH7" s="53"/>
+      <c r="BI7" s="53"/>
+      <c r="BJ7" s="53"/>
+      <c r="BK7" s="53"/>
+      <c r="BL7" s="53"/>
+      <c r="BM7" s="53"/>
+      <c r="BN7" s="53"/>
+      <c r="BO7" s="53"/>
+      <c r="BP7" s="53"/>
+      <c r="BQ7" s="53"/>
+      <c r="BR7" s="53"/>
+      <c r="BS7" s="53"/>
+      <c r="BT7" s="53"/>
+      <c r="BU7" s="53"/>
+      <c r="BV7" s="53"/>
+      <c r="BW7" s="53"/>
+      <c r="BX7" s="53"/>
+      <c r="BY7" s="53"/>
+      <c r="BZ7" s="53"/>
+      <c r="CA7" s="53"/>
+      <c r="CB7" s="53"/>
+      <c r="CC7" s="53"/>
+      <c r="CD7" s="53"/>
+      <c r="CE7" s="53"/>
+      <c r="CF7" s="53"/>
+      <c r="CG7" s="53"/>
+      <c r="CH7" s="53"/>
+      <c r="CI7" s="53"/>
     </row>
-    <row r="8" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="33">
-        <v>1</v>
+      <c r="B8" s="39">
+        <v>2</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="34" t="s">
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="35"/>
-      <c r="V8" s="35"/>
-      <c r="W8" s="35"/>
-      <c r="X8" s="36"/>
-      <c r="Y8" s="34" t="s">
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="95"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="95"/>
+      <c r="P8" s="95"/>
+      <c r="Q8" s="95"/>
+      <c r="R8" s="95"/>
+      <c r="S8" s="95"/>
+      <c r="T8" s="95"/>
+      <c r="U8" s="95"/>
+      <c r="V8" s="95"/>
+      <c r="W8" s="95"/>
+      <c r="X8" s="96"/>
+      <c r="Y8" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="Z8" s="35"/>
-      <c r="AA8" s="35"/>
-      <c r="AB8" s="35"/>
-      <c r="AC8" s="35"/>
-      <c r="AD8" s="35"/>
-      <c r="AE8" s="35"/>
-      <c r="AF8" s="35"/>
-      <c r="AG8" s="35"/>
-      <c r="AH8" s="36"/>
-      <c r="AI8" s="34" t="s">
+      <c r="Z8" s="95"/>
+      <c r="AA8" s="95"/>
+      <c r="AB8" s="95"/>
+      <c r="AC8" s="95"/>
+      <c r="AD8" s="95"/>
+      <c r="AE8" s="95"/>
+      <c r="AF8" s="95"/>
+      <c r="AG8" s="95"/>
+      <c r="AH8" s="96"/>
+      <c r="AI8" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="AJ8" s="35"/>
-      <c r="AK8" s="35"/>
-      <c r="AL8" s="35"/>
-      <c r="AM8" s="35"/>
-      <c r="AN8" s="35"/>
-      <c r="AO8" s="35"/>
-      <c r="AP8" s="35"/>
-      <c r="AQ8" s="35"/>
-      <c r="AR8" s="36"/>
-      <c r="AS8" s="37"/>
-      <c r="AT8" s="37"/>
-      <c r="AU8" s="37"/>
-      <c r="AV8" s="37"/>
-      <c r="AW8" s="37"/>
-      <c r="AX8" s="37"/>
-      <c r="AY8" s="37"/>
-      <c r="AZ8" s="37"/>
-      <c r="BA8" s="37"/>
-      <c r="BB8" s="37"/>
-      <c r="BC8" s="37"/>
-      <c r="BD8" s="37"/>
-      <c r="BE8" s="37"/>
-      <c r="BF8" s="37"/>
-      <c r="BG8" s="37"/>
-      <c r="BH8" s="37"/>
-      <c r="BI8" s="37"/>
-      <c r="BJ8" s="37"/>
-      <c r="BK8" s="37"/>
-      <c r="BL8" s="37"/>
-      <c r="BM8" s="37"/>
-      <c r="BN8" s="37"/>
-      <c r="BO8" s="37"/>
-      <c r="BP8" s="37"/>
-      <c r="BQ8" s="37"/>
-      <c r="BR8" s="37"/>
-      <c r="BS8" s="37"/>
-      <c r="BT8" s="37"/>
-      <c r="BU8" s="37"/>
-      <c r="BV8" s="37"/>
-      <c r="BW8" s="37"/>
-      <c r="BX8" s="37"/>
-      <c r="BY8" s="37"/>
-      <c r="BZ8" s="37"/>
-      <c r="CA8" s="37"/>
-      <c r="CB8" s="37"/>
-      <c r="CC8" s="37"/>
-      <c r="CD8" s="37"/>
-      <c r="CE8" s="37"/>
-      <c r="CF8" s="37"/>
-      <c r="CG8" s="37"/>
-      <c r="CH8" s="37"/>
-      <c r="CI8" s="37"/>
+      <c r="AJ8" s="95"/>
+      <c r="AK8" s="95"/>
+      <c r="AL8" s="95"/>
+      <c r="AM8" s="95"/>
+      <c r="AN8" s="95"/>
+      <c r="AO8" s="95"/>
+      <c r="AP8" s="95"/>
+      <c r="AQ8" s="95"/>
+      <c r="AR8" s="96"/>
+      <c r="AS8" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT8" s="44"/>
+      <c r="AU8" s="44"/>
+      <c r="AV8" s="44"/>
+      <c r="AW8" s="44"/>
+      <c r="AX8" s="44"/>
+      <c r="AY8" s="44"/>
+      <c r="AZ8" s="44"/>
+      <c r="BA8" s="44"/>
+      <c r="BB8" s="44"/>
+      <c r="BC8" s="44"/>
+      <c r="BD8" s="44"/>
+      <c r="BE8" s="44"/>
+      <c r="BF8" s="44"/>
+      <c r="BG8" s="44"/>
+      <c r="BH8" s="44"/>
+      <c r="BI8" s="44"/>
+      <c r="BJ8" s="44"/>
+      <c r="BK8" s="44"/>
+      <c r="BL8" s="44"/>
+      <c r="BM8" s="44"/>
+      <c r="BN8" s="44"/>
+      <c r="BO8" s="44"/>
+      <c r="BP8" s="44"/>
+      <c r="BQ8" s="44"/>
+      <c r="BR8" s="44"/>
+      <c r="BS8" s="44"/>
+      <c r="BT8" s="44"/>
+      <c r="BU8" s="44"/>
+      <c r="BV8" s="44"/>
+      <c r="BW8" s="44"/>
+      <c r="BX8" s="44"/>
+      <c r="BY8" s="44"/>
+      <c r="BZ8" s="44"/>
+      <c r="CA8" s="44"/>
+      <c r="CB8" s="44"/>
+      <c r="CC8" s="44"/>
+      <c r="CD8" s="44"/>
+      <c r="CE8" s="44"/>
+      <c r="CF8" s="44"/>
+      <c r="CG8" s="44"/>
+      <c r="CH8" s="44"/>
+      <c r="CI8" s="44"/>
       <c r="CJ8" s="1"/>
       <c r="CK8" s="1"/>
       <c r="CL8" s="1"/>
@@ -7094,7 +7094,7 @@
       <c r="AMI8" s="1"/>
       <c r="AMJ8" s="1"/>
     </row>
-    <row r="9" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1025" ht="18" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
@@ -8120,7 +8120,7 @@
       <c r="AMI9" s="1"/>
       <c r="AMJ9" s="1"/>
     </row>
-    <row r="10" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1025" ht="18" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="10"/>
       <c r="C10" s="13"/>
@@ -9150,7 +9150,7 @@
       <c r="AMI10" s="1"/>
       <c r="AMJ10" s="1"/>
     </row>
-    <row r="11" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1025" ht="18" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="10"/>
       <c r="C11" s="13"/>
@@ -10176,7 +10176,7 @@
       <c r="AMI11" s="1"/>
       <c r="AMJ11" s="1"/>
     </row>
-    <row r="12" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1025" ht="18" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="10"/>
       <c r="C12" s="13"/>
@@ -11206,7 +11206,7 @@
       <c r="AMI12" s="1"/>
       <c r="AMJ12" s="1"/>
     </row>
-    <row r="13" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A13" s="1"/>
       <c r="B13" s="16"/>
       <c r="C13" s="17"/>
@@ -12232,7 +12232,7 @@
       <c r="AMI13" s="1"/>
       <c r="AMJ13" s="1"/>
     </row>
-    <row r="14" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -13258,202 +13258,202 @@
       <c r="AMI14" s="1"/>
       <c r="AMJ14" s="1"/>
     </row>
-    <row r="15" spans="1:1025" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="73" t="s">
+    <row r="15" spans="1:1025" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="B15" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="28" t="s">
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="28"/>
-      <c r="W15" s="28"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="29" t="s">
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="35"/>
+      <c r="X15" s="35"/>
+      <c r="Y15" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="Z15" s="30"/>
-      <c r="AA15" s="30"/>
-      <c r="AB15" s="30"/>
-      <c r="AC15" s="30"/>
-      <c r="AD15" s="30"/>
-      <c r="AE15" s="30"/>
-      <c r="AF15" s="30"/>
-      <c r="AG15" s="30"/>
-      <c r="AH15" s="31"/>
-      <c r="AI15" s="29" t="s">
+      <c r="Z15" s="74"/>
+      <c r="AA15" s="74"/>
+      <c r="AB15" s="74"/>
+      <c r="AC15" s="74"/>
+      <c r="AD15" s="74"/>
+      <c r="AE15" s="74"/>
+      <c r="AF15" s="74"/>
+      <c r="AG15" s="74"/>
+      <c r="AH15" s="75"/>
+      <c r="AI15" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="AJ15" s="30"/>
-      <c r="AK15" s="30"/>
-      <c r="AL15" s="30"/>
-      <c r="AM15" s="30"/>
-      <c r="AN15" s="30"/>
-      <c r="AO15" s="30"/>
-      <c r="AP15" s="30"/>
-      <c r="AQ15" s="30"/>
-      <c r="AR15" s="31"/>
-      <c r="AS15" s="32" t="s">
+      <c r="AJ15" s="74"/>
+      <c r="AK15" s="74"/>
+      <c r="AL15" s="74"/>
+      <c r="AM15" s="74"/>
+      <c r="AN15" s="74"/>
+      <c r="AO15" s="74"/>
+      <c r="AP15" s="74"/>
+      <c r="AQ15" s="74"/>
+      <c r="AR15" s="75"/>
+      <c r="AS15" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="AT15" s="32"/>
-      <c r="AU15" s="32"/>
-      <c r="AV15" s="32"/>
-      <c r="AW15" s="32"/>
-      <c r="AX15" s="32"/>
-      <c r="AY15" s="32"/>
-      <c r="AZ15" s="32"/>
-      <c r="BA15" s="32"/>
-      <c r="BB15" s="32"/>
-      <c r="BC15" s="32"/>
-      <c r="BD15" s="32"/>
-      <c r="BE15" s="32"/>
-      <c r="BF15" s="32"/>
-      <c r="BG15" s="32"/>
-      <c r="BH15" s="32"/>
-      <c r="BI15" s="32"/>
-      <c r="BJ15" s="32"/>
-      <c r="BK15" s="32"/>
-      <c r="BL15" s="32"/>
-      <c r="BM15" s="32"/>
-      <c r="BN15" s="32"/>
-      <c r="BO15" s="32"/>
-      <c r="BP15" s="32"/>
-      <c r="BQ15" s="32"/>
-      <c r="BR15" s="32"/>
-      <c r="BS15" s="32"/>
-      <c r="BT15" s="32"/>
-      <c r="BU15" s="32"/>
-      <c r="BV15" s="32"/>
-      <c r="BW15" s="32"/>
-      <c r="BX15" s="32"/>
-      <c r="BY15" s="32"/>
-      <c r="BZ15" s="32"/>
-      <c r="CA15" s="32"/>
-      <c r="CB15" s="32"/>
-      <c r="CC15" s="32"/>
-      <c r="CD15" s="32"/>
-      <c r="CE15" s="32"/>
-      <c r="CF15" s="32"/>
-      <c r="CG15" s="32"/>
-      <c r="CH15" s="32"/>
-      <c r="CI15" s="32"/>
+      <c r="AT15" s="53"/>
+      <c r="AU15" s="53"/>
+      <c r="AV15" s="53"/>
+      <c r="AW15" s="53"/>
+      <c r="AX15" s="53"/>
+      <c r="AY15" s="53"/>
+      <c r="AZ15" s="53"/>
+      <c r="BA15" s="53"/>
+      <c r="BB15" s="53"/>
+      <c r="BC15" s="53"/>
+      <c r="BD15" s="53"/>
+      <c r="BE15" s="53"/>
+      <c r="BF15" s="53"/>
+      <c r="BG15" s="53"/>
+      <c r="BH15" s="53"/>
+      <c r="BI15" s="53"/>
+      <c r="BJ15" s="53"/>
+      <c r="BK15" s="53"/>
+      <c r="BL15" s="53"/>
+      <c r="BM15" s="53"/>
+      <c r="BN15" s="53"/>
+      <c r="BO15" s="53"/>
+      <c r="BP15" s="53"/>
+      <c r="BQ15" s="53"/>
+      <c r="BR15" s="53"/>
+      <c r="BS15" s="53"/>
+      <c r="BT15" s="53"/>
+      <c r="BU15" s="53"/>
+      <c r="BV15" s="53"/>
+      <c r="BW15" s="53"/>
+      <c r="BX15" s="53"/>
+      <c r="BY15" s="53"/>
+      <c r="BZ15" s="53"/>
+      <c r="CA15" s="53"/>
+      <c r="CB15" s="53"/>
+      <c r="CC15" s="53"/>
+      <c r="CD15" s="53"/>
+      <c r="CE15" s="53"/>
+      <c r="CF15" s="53"/>
+      <c r="CG15" s="53"/>
+      <c r="CH15" s="53"/>
+      <c r="CI15" s="53"/>
     </row>
-    <row r="16" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="33">
-        <v>1</v>
+      <c r="B16" s="39">
+        <v>3</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="54" t="s">
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="54"/>
-      <c r="S16" s="54"/>
-      <c r="T16" s="54"/>
-      <c r="U16" s="54"/>
-      <c r="V16" s="54"/>
-      <c r="W16" s="54"/>
-      <c r="X16" s="54"/>
-      <c r="Y16" s="55" t="s">
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="40"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="40"/>
+      <c r="W16" s="40"/>
+      <c r="X16" s="40"/>
+      <c r="Y16" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="Z16" s="56"/>
-      <c r="AA16" s="56"/>
-      <c r="AB16" s="56"/>
-      <c r="AC16" s="56"/>
-      <c r="AD16" s="56"/>
-      <c r="AE16" s="56"/>
-      <c r="AF16" s="56"/>
-      <c r="AG16" s="56"/>
-      <c r="AH16" s="57"/>
-      <c r="AI16" s="55" t="s">
+      <c r="Z16" s="42"/>
+      <c r="AA16" s="42"/>
+      <c r="AB16" s="42"/>
+      <c r="AC16" s="42"/>
+      <c r="AD16" s="42"/>
+      <c r="AE16" s="42"/>
+      <c r="AF16" s="42"/>
+      <c r="AG16" s="42"/>
+      <c r="AH16" s="43"/>
+      <c r="AI16" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="AJ16" s="56"/>
-      <c r="AK16" s="56"/>
-      <c r="AL16" s="56"/>
-      <c r="AM16" s="56"/>
-      <c r="AN16" s="56"/>
-      <c r="AO16" s="56"/>
-      <c r="AP16" s="56"/>
-      <c r="AQ16" s="56"/>
-      <c r="AR16" s="57"/>
-      <c r="AS16" s="37" t="s">
+      <c r="AJ16" s="42"/>
+      <c r="AK16" s="42"/>
+      <c r="AL16" s="42"/>
+      <c r="AM16" s="42"/>
+      <c r="AN16" s="42"/>
+      <c r="AO16" s="42"/>
+      <c r="AP16" s="42"/>
+      <c r="AQ16" s="42"/>
+      <c r="AR16" s="43"/>
+      <c r="AS16" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="AT16" s="37"/>
-      <c r="AU16" s="37"/>
-      <c r="AV16" s="37"/>
-      <c r="AW16" s="37"/>
-      <c r="AX16" s="37"/>
-      <c r="AY16" s="37"/>
-      <c r="AZ16" s="37"/>
-      <c r="BA16" s="37"/>
-      <c r="BB16" s="37"/>
-      <c r="BC16" s="37"/>
-      <c r="BD16" s="37"/>
-      <c r="BE16" s="37"/>
-      <c r="BF16" s="37"/>
-      <c r="BG16" s="37"/>
-      <c r="BH16" s="37"/>
-      <c r="BI16" s="37"/>
-      <c r="BJ16" s="37"/>
-      <c r="BK16" s="37"/>
-      <c r="BL16" s="37"/>
-      <c r="BM16" s="37"/>
-      <c r="BN16" s="37"/>
-      <c r="BO16" s="37"/>
-      <c r="BP16" s="37"/>
-      <c r="BQ16" s="37"/>
-      <c r="BR16" s="37"/>
-      <c r="BS16" s="37"/>
-      <c r="BT16" s="37"/>
-      <c r="BU16" s="37"/>
-      <c r="BV16" s="37"/>
-      <c r="BW16" s="37"/>
-      <c r="BX16" s="37"/>
-      <c r="BY16" s="37"/>
-      <c r="BZ16" s="37"/>
-      <c r="CA16" s="37"/>
-      <c r="CB16" s="37"/>
-      <c r="CC16" s="37"/>
-      <c r="CD16" s="37"/>
-      <c r="CE16" s="37"/>
-      <c r="CF16" s="37"/>
-      <c r="CG16" s="37"/>
-      <c r="CH16" s="37"/>
-      <c r="CI16" s="37"/>
+      <c r="AT16" s="44"/>
+      <c r="AU16" s="44"/>
+      <c r="AV16" s="44"/>
+      <c r="AW16" s="44"/>
+      <c r="AX16" s="44"/>
+      <c r="AY16" s="44"/>
+      <c r="AZ16" s="44"/>
+      <c r="BA16" s="44"/>
+      <c r="BB16" s="44"/>
+      <c r="BC16" s="44"/>
+      <c r="BD16" s="44"/>
+      <c r="BE16" s="44"/>
+      <c r="BF16" s="44"/>
+      <c r="BG16" s="44"/>
+      <c r="BH16" s="44"/>
+      <c r="BI16" s="44"/>
+      <c r="BJ16" s="44"/>
+      <c r="BK16" s="44"/>
+      <c r="BL16" s="44"/>
+      <c r="BM16" s="44"/>
+      <c r="BN16" s="44"/>
+      <c r="BO16" s="44"/>
+      <c r="BP16" s="44"/>
+      <c r="BQ16" s="44"/>
+      <c r="BR16" s="44"/>
+      <c r="BS16" s="44"/>
+      <c r="BT16" s="44"/>
+      <c r="BU16" s="44"/>
+      <c r="BV16" s="44"/>
+      <c r="BW16" s="44"/>
+      <c r="BX16" s="44"/>
+      <c r="BY16" s="44"/>
+      <c r="BZ16" s="44"/>
+      <c r="CA16" s="44"/>
+      <c r="CB16" s="44"/>
+      <c r="CC16" s="44"/>
+      <c r="CD16" s="44"/>
+      <c r="CE16" s="44"/>
+      <c r="CF16" s="44"/>
+      <c r="CG16" s="44"/>
+      <c r="CH16" s="44"/>
+      <c r="CI16" s="44"/>
       <c r="CJ16" s="1"/>
       <c r="CK16" s="1"/>
       <c r="CL16" s="1"/>
@@ -14392,7 +14392,7 @@
       <c r="AMI16" s="1"/>
       <c r="AMJ16" s="1"/>
     </row>
-    <row r="17" spans="2:87 1025:1025" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:87 1025:1025" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B17" s="7"/>
       <c r="C17" s="8"/>
       <c r="D17" s="20"/>
@@ -14481,98 +14481,98 @@
       <c r="CI17" s="9"/>
       <c r="AMK17" s="6"/>
     </row>
-    <row r="18" spans="2:87 1025:1025" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="81" t="s">
+    <row r="18" spans="2:87 1025:1025" s="1" customFormat="1">
+      <c r="B18" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="82"/>
-      <c r="N18" s="82"/>
-      <c r="O18" s="82"/>
-      <c r="P18" s="82"/>
-      <c r="Q18" s="82"/>
-      <c r="R18" s="82"/>
-      <c r="S18" s="82"/>
-      <c r="T18" s="82"/>
-      <c r="U18" s="82"/>
-      <c r="V18" s="82"/>
-      <c r="W18" s="82"/>
-      <c r="X18" s="82"/>
-      <c r="Y18" s="82"/>
-      <c r="Z18" s="82"/>
-      <c r="AA18" s="82"/>
-      <c r="AB18" s="82"/>
-      <c r="AC18" s="82"/>
-      <c r="AD18" s="82"/>
-      <c r="AE18" s="82"/>
-      <c r="AF18" s="82"/>
-      <c r="AG18" s="82"/>
-      <c r="AH18" s="82"/>
-      <c r="AI18" s="82"/>
-      <c r="AJ18" s="82"/>
-      <c r="AK18" s="82"/>
-      <c r="AL18" s="82"/>
-      <c r="AM18" s="82"/>
-      <c r="AN18" s="82"/>
-      <c r="AO18" s="82"/>
-      <c r="AP18" s="82"/>
-      <c r="AQ18" s="82"/>
-      <c r="AR18" s="82"/>
-      <c r="AS18" s="82"/>
-      <c r="AT18" s="82"/>
-      <c r="AU18" s="82"/>
-      <c r="AV18" s="82"/>
-      <c r="AW18" s="82"/>
-      <c r="AX18" s="82"/>
-      <c r="AY18" s="82"/>
-      <c r="AZ18" s="82"/>
-      <c r="BA18" s="82"/>
-      <c r="BB18" s="82"/>
-      <c r="BC18" s="82"/>
-      <c r="BD18" s="82"/>
-      <c r="BE18" s="82"/>
-      <c r="BF18" s="82"/>
-      <c r="BG18" s="82"/>
-      <c r="BH18" s="82"/>
-      <c r="BI18" s="82"/>
-      <c r="BJ18" s="82"/>
-      <c r="BK18" s="82"/>
-      <c r="BL18" s="82"/>
-      <c r="BM18" s="82"/>
-      <c r="BN18" s="82"/>
-      <c r="BO18" s="82"/>
-      <c r="BP18" s="82"/>
-      <c r="BQ18" s="82"/>
-      <c r="BR18" s="82"/>
-      <c r="BS18" s="82"/>
-      <c r="BT18" s="82"/>
-      <c r="BU18" s="82"/>
-      <c r="BV18" s="82"/>
-      <c r="BW18" s="82"/>
-      <c r="BX18" s="82"/>
-      <c r="BY18" s="82"/>
-      <c r="BZ18" s="82"/>
-      <c r="CA18" s="82"/>
-      <c r="CB18" s="82"/>
-      <c r="CC18" s="82"/>
-      <c r="CD18" s="82"/>
-      <c r="CE18" s="82"/>
-      <c r="CF18" s="82"/>
-      <c r="CG18" s="82"/>
-      <c r="CH18" s="82"/>
-      <c r="CI18" s="83"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="37"/>
+      <c r="AA18" s="37"/>
+      <c r="AB18" s="37"/>
+      <c r="AC18" s="37"/>
+      <c r="AD18" s="37"/>
+      <c r="AE18" s="37"/>
+      <c r="AF18" s="37"/>
+      <c r="AG18" s="37"/>
+      <c r="AH18" s="37"/>
+      <c r="AI18" s="37"/>
+      <c r="AJ18" s="37"/>
+      <c r="AK18" s="37"/>
+      <c r="AL18" s="37"/>
+      <c r="AM18" s="37"/>
+      <c r="AN18" s="37"/>
+      <c r="AO18" s="37"/>
+      <c r="AP18" s="37"/>
+      <c r="AQ18" s="37"/>
+      <c r="AR18" s="37"/>
+      <c r="AS18" s="37"/>
+      <c r="AT18" s="37"/>
+      <c r="AU18" s="37"/>
+      <c r="AV18" s="37"/>
+      <c r="AW18" s="37"/>
+      <c r="AX18" s="37"/>
+      <c r="AY18" s="37"/>
+      <c r="AZ18" s="37"/>
+      <c r="BA18" s="37"/>
+      <c r="BB18" s="37"/>
+      <c r="BC18" s="37"/>
+      <c r="BD18" s="37"/>
+      <c r="BE18" s="37"/>
+      <c r="BF18" s="37"/>
+      <c r="BG18" s="37"/>
+      <c r="BH18" s="37"/>
+      <c r="BI18" s="37"/>
+      <c r="BJ18" s="37"/>
+      <c r="BK18" s="37"/>
+      <c r="BL18" s="37"/>
+      <c r="BM18" s="37"/>
+      <c r="BN18" s="37"/>
+      <c r="BO18" s="37"/>
+      <c r="BP18" s="37"/>
+      <c r="BQ18" s="37"/>
+      <c r="BR18" s="37"/>
+      <c r="BS18" s="37"/>
+      <c r="BT18" s="37"/>
+      <c r="BU18" s="37"/>
+      <c r="BV18" s="37"/>
+      <c r="BW18" s="37"/>
+      <c r="BX18" s="37"/>
+      <c r="BY18" s="37"/>
+      <c r="BZ18" s="37"/>
+      <c r="CA18" s="37"/>
+      <c r="CB18" s="37"/>
+      <c r="CC18" s="37"/>
+      <c r="CD18" s="37"/>
+      <c r="CE18" s="37"/>
+      <c r="CF18" s="37"/>
+      <c r="CG18" s="37"/>
+      <c r="CH18" s="37"/>
+      <c r="CI18" s="38"/>
       <c r="AMK18" s="6"/>
     </row>
-    <row r="19" spans="2:87 1025:1025" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:87 1025:1025" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
       <c r="D19" s="21"/>
@@ -14661,75 +14661,75 @@
       <c r="CI19" s="15"/>
       <c r="AMK19" s="6"/>
     </row>
-    <row r="20" spans="2:87 1025:1025" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:87 1025:1025" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
       <c r="D20" s="21"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
-      <c r="G20" s="38" t="s">
+      <c r="G20" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="50"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="52" t="s">
+      <c r="H20" s="49"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="53"/>
-      <c r="Q20" s="53"/>
-      <c r="R20" s="53"/>
-      <c r="S20" s="53"/>
-      <c r="T20" s="50"/>
-      <c r="U20" s="50"/>
-      <c r="V20" s="50"/>
-      <c r="W20" s="50"/>
-      <c r="X20" s="51"/>
-      <c r="Y20" s="38" t="s">
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="52"/>
+      <c r="T20" s="49"/>
+      <c r="U20" s="49"/>
+      <c r="V20" s="49"/>
+      <c r="W20" s="49"/>
+      <c r="X20" s="50"/>
+      <c r="Y20" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="Z20" s="39"/>
-      <c r="AA20" s="39"/>
-      <c r="AB20" s="39"/>
-      <c r="AC20" s="39"/>
-      <c r="AD20" s="39"/>
-      <c r="AE20" s="39"/>
-      <c r="AF20" s="39"/>
-      <c r="AG20" s="39"/>
-      <c r="AH20" s="39"/>
-      <c r="AI20" s="39"/>
-      <c r="AJ20" s="39"/>
-      <c r="AK20" s="39"/>
-      <c r="AL20" s="39"/>
-      <c r="AM20" s="39"/>
-      <c r="AN20" s="39"/>
-      <c r="AO20" s="39"/>
-      <c r="AP20" s="39"/>
-      <c r="AQ20" s="39"/>
-      <c r="AR20" s="39"/>
-      <c r="AS20" s="39"/>
-      <c r="AT20" s="39"/>
-      <c r="AU20" s="39"/>
-      <c r="AV20" s="39"/>
-      <c r="AW20" s="39"/>
-      <c r="AX20" s="39"/>
-      <c r="AY20" s="39"/>
-      <c r="AZ20" s="39"/>
-      <c r="BA20" s="39"/>
-      <c r="BB20" s="39"/>
-      <c r="BC20" s="39"/>
-      <c r="BD20" s="39"/>
-      <c r="BE20" s="39"/>
-      <c r="BF20" s="39"/>
-      <c r="BG20" s="39"/>
-      <c r="BH20" s="39"/>
-      <c r="BI20" s="39"/>
-      <c r="BJ20" s="39"/>
-      <c r="BK20" s="40"/>
+      <c r="Z20" s="76"/>
+      <c r="AA20" s="76"/>
+      <c r="AB20" s="76"/>
+      <c r="AC20" s="76"/>
+      <c r="AD20" s="76"/>
+      <c r="AE20" s="76"/>
+      <c r="AF20" s="76"/>
+      <c r="AG20" s="76"/>
+      <c r="AH20" s="76"/>
+      <c r="AI20" s="76"/>
+      <c r="AJ20" s="76"/>
+      <c r="AK20" s="76"/>
+      <c r="AL20" s="76"/>
+      <c r="AM20" s="76"/>
+      <c r="AN20" s="76"/>
+      <c r="AO20" s="76"/>
+      <c r="AP20" s="76"/>
+      <c r="AQ20" s="76"/>
+      <c r="AR20" s="76"/>
+      <c r="AS20" s="76"/>
+      <c r="AT20" s="76"/>
+      <c r="AU20" s="76"/>
+      <c r="AV20" s="76"/>
+      <c r="AW20" s="76"/>
+      <c r="AX20" s="76"/>
+      <c r="AY20" s="76"/>
+      <c r="AZ20" s="76"/>
+      <c r="BA20" s="76"/>
+      <c r="BB20" s="76"/>
+      <c r="BC20" s="76"/>
+      <c r="BD20" s="76"/>
+      <c r="BE20" s="76"/>
+      <c r="BF20" s="76"/>
+      <c r="BG20" s="76"/>
+      <c r="BH20" s="76"/>
+      <c r="BI20" s="76"/>
+      <c r="BJ20" s="76"/>
+      <c r="BK20" s="77"/>
       <c r="BL20" s="21"/>
       <c r="BM20" s="21"/>
       <c r="BN20" s="21"/>
@@ -14756,75 +14756,75 @@
       <c r="CI20" s="15"/>
       <c r="AMK20" s="6"/>
     </row>
-    <row r="21" spans="2:87 1025:1025" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:87 1025:1025" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B21" s="10"/>
       <c r="C21" s="11"/>
       <c r="D21" s="21"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
-      <c r="G21" s="55">
+      <c r="G21" s="41">
         <v>1</v>
       </c>
-      <c r="H21" s="39"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="75" t="s">
+      <c r="H21" s="76"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="K21" s="76"/>
-      <c r="L21" s="76"/>
-      <c r="M21" s="76"/>
-      <c r="N21" s="76"/>
-      <c r="O21" s="76"/>
-      <c r="P21" s="76"/>
-      <c r="Q21" s="76"/>
-      <c r="R21" s="76"/>
-      <c r="S21" s="76"/>
-      <c r="T21" s="76"/>
-      <c r="U21" s="76"/>
-      <c r="V21" s="76"/>
-      <c r="W21" s="76"/>
-      <c r="X21" s="77"/>
-      <c r="Y21" s="55" t="s">
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="46"/>
+      <c r="T21" s="46"/>
+      <c r="U21" s="46"/>
+      <c r="V21" s="46"/>
+      <c r="W21" s="46"/>
+      <c r="X21" s="47"/>
+      <c r="Y21" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="Z21" s="39"/>
-      <c r="AA21" s="39"/>
-      <c r="AB21" s="39"/>
-      <c r="AC21" s="39"/>
-      <c r="AD21" s="39"/>
-      <c r="AE21" s="39"/>
-      <c r="AF21" s="39"/>
-      <c r="AG21" s="39"/>
-      <c r="AH21" s="39"/>
-      <c r="AI21" s="39"/>
-      <c r="AJ21" s="39"/>
-      <c r="AK21" s="39"/>
-      <c r="AL21" s="39"/>
-      <c r="AM21" s="39"/>
-      <c r="AN21" s="39"/>
-      <c r="AO21" s="39"/>
-      <c r="AP21" s="39"/>
-      <c r="AQ21" s="39"/>
-      <c r="AR21" s="39"/>
-      <c r="AS21" s="39"/>
-      <c r="AT21" s="39"/>
-      <c r="AU21" s="39"/>
-      <c r="AV21" s="39"/>
-      <c r="AW21" s="39"/>
-      <c r="AX21" s="39"/>
-      <c r="AY21" s="39"/>
-      <c r="AZ21" s="39"/>
-      <c r="BA21" s="39"/>
-      <c r="BB21" s="39"/>
-      <c r="BC21" s="39"/>
-      <c r="BD21" s="39"/>
-      <c r="BE21" s="39"/>
-      <c r="BF21" s="39"/>
-      <c r="BG21" s="39"/>
-      <c r="BH21" s="39"/>
-      <c r="BI21" s="39"/>
-      <c r="BJ21" s="39"/>
-      <c r="BK21" s="40"/>
+      <c r="Z21" s="76"/>
+      <c r="AA21" s="76"/>
+      <c r="AB21" s="76"/>
+      <c r="AC21" s="76"/>
+      <c r="AD21" s="76"/>
+      <c r="AE21" s="76"/>
+      <c r="AF21" s="76"/>
+      <c r="AG21" s="76"/>
+      <c r="AH21" s="76"/>
+      <c r="AI21" s="76"/>
+      <c r="AJ21" s="76"/>
+      <c r="AK21" s="76"/>
+      <c r="AL21" s="76"/>
+      <c r="AM21" s="76"/>
+      <c r="AN21" s="76"/>
+      <c r="AO21" s="76"/>
+      <c r="AP21" s="76"/>
+      <c r="AQ21" s="76"/>
+      <c r="AR21" s="76"/>
+      <c r="AS21" s="76"/>
+      <c r="AT21" s="76"/>
+      <c r="AU21" s="76"/>
+      <c r="AV21" s="76"/>
+      <c r="AW21" s="76"/>
+      <c r="AX21" s="76"/>
+      <c r="AY21" s="76"/>
+      <c r="AZ21" s="76"/>
+      <c r="BA21" s="76"/>
+      <c r="BB21" s="76"/>
+      <c r="BC21" s="76"/>
+      <c r="BD21" s="76"/>
+      <c r="BE21" s="76"/>
+      <c r="BF21" s="76"/>
+      <c r="BG21" s="76"/>
+      <c r="BH21" s="76"/>
+      <c r="BI21" s="76"/>
+      <c r="BJ21" s="76"/>
+      <c r="BK21" s="77"/>
       <c r="BL21" s="21"/>
       <c r="BM21" s="21"/>
       <c r="BN21" s="21"/>
@@ -14851,75 +14851,75 @@
       <c r="CI21" s="15"/>
       <c r="AMK21" s="6"/>
     </row>
-    <row r="22" spans="2:87 1025:1025" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:87 1025:1025" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
       <c r="D22" s="21"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
-      <c r="G22" s="55">
+      <c r="G22" s="41">
         <v>2</v>
       </c>
-      <c r="H22" s="39"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="75" t="s">
+      <c r="H22" s="76"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="K22" s="76"/>
-      <c r="L22" s="76"/>
-      <c r="M22" s="76"/>
-      <c r="N22" s="76"/>
-      <c r="O22" s="76"/>
-      <c r="P22" s="76"/>
-      <c r="Q22" s="76"/>
-      <c r="R22" s="76"/>
-      <c r="S22" s="76"/>
-      <c r="T22" s="76"/>
-      <c r="U22" s="76"/>
-      <c r="V22" s="76"/>
-      <c r="W22" s="76"/>
-      <c r="X22" s="77"/>
-      <c r="Y22" s="55" t="s">
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="46"/>
+      <c r="T22" s="46"/>
+      <c r="U22" s="46"/>
+      <c r="V22" s="46"/>
+      <c r="W22" s="46"/>
+      <c r="X22" s="47"/>
+      <c r="Y22" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="Z22" s="39"/>
-      <c r="AA22" s="39"/>
-      <c r="AB22" s="39"/>
-      <c r="AC22" s="39"/>
-      <c r="AD22" s="39"/>
-      <c r="AE22" s="39"/>
-      <c r="AF22" s="39"/>
-      <c r="AG22" s="39"/>
-      <c r="AH22" s="39"/>
-      <c r="AI22" s="39"/>
-      <c r="AJ22" s="39"/>
-      <c r="AK22" s="39"/>
-      <c r="AL22" s="39"/>
-      <c r="AM22" s="39"/>
-      <c r="AN22" s="39"/>
-      <c r="AO22" s="39"/>
-      <c r="AP22" s="39"/>
-      <c r="AQ22" s="39"/>
-      <c r="AR22" s="39"/>
-      <c r="AS22" s="39"/>
-      <c r="AT22" s="39"/>
-      <c r="AU22" s="39"/>
-      <c r="AV22" s="39"/>
-      <c r="AW22" s="39"/>
-      <c r="AX22" s="39"/>
-      <c r="AY22" s="39"/>
-      <c r="AZ22" s="39"/>
-      <c r="BA22" s="39"/>
-      <c r="BB22" s="39"/>
-      <c r="BC22" s="39"/>
-      <c r="BD22" s="39"/>
-      <c r="BE22" s="39"/>
-      <c r="BF22" s="39"/>
-      <c r="BG22" s="39"/>
-      <c r="BH22" s="39"/>
-      <c r="BI22" s="39"/>
-      <c r="BJ22" s="39"/>
-      <c r="BK22" s="40"/>
+      <c r="Z22" s="76"/>
+      <c r="AA22" s="76"/>
+      <c r="AB22" s="76"/>
+      <c r="AC22" s="76"/>
+      <c r="AD22" s="76"/>
+      <c r="AE22" s="76"/>
+      <c r="AF22" s="76"/>
+      <c r="AG22" s="76"/>
+      <c r="AH22" s="76"/>
+      <c r="AI22" s="76"/>
+      <c r="AJ22" s="76"/>
+      <c r="AK22" s="76"/>
+      <c r="AL22" s="76"/>
+      <c r="AM22" s="76"/>
+      <c r="AN22" s="76"/>
+      <c r="AO22" s="76"/>
+      <c r="AP22" s="76"/>
+      <c r="AQ22" s="76"/>
+      <c r="AR22" s="76"/>
+      <c r="AS22" s="76"/>
+      <c r="AT22" s="76"/>
+      <c r="AU22" s="76"/>
+      <c r="AV22" s="76"/>
+      <c r="AW22" s="76"/>
+      <c r="AX22" s="76"/>
+      <c r="AY22" s="76"/>
+      <c r="AZ22" s="76"/>
+      <c r="BA22" s="76"/>
+      <c r="BB22" s="76"/>
+      <c r="BC22" s="76"/>
+      <c r="BD22" s="76"/>
+      <c r="BE22" s="76"/>
+      <c r="BF22" s="76"/>
+      <c r="BG22" s="76"/>
+      <c r="BH22" s="76"/>
+      <c r="BI22" s="76"/>
+      <c r="BJ22" s="76"/>
+      <c r="BK22" s="77"/>
       <c r="BL22" s="21"/>
       <c r="BM22" s="21"/>
       <c r="BN22" s="21"/>
@@ -14946,7 +14946,7 @@
       <c r="CI22" s="15"/>
       <c r="AMK22" s="6"/>
     </row>
-    <row r="23" spans="2:87 1025:1025" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:87 1025:1025" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B23" s="10"/>
       <c r="C23" s="11"/>
       <c r="D23" s="21"/>
@@ -15035,98 +15035,98 @@
       <c r="CI23" s="15"/>
       <c r="AMK23" s="6"/>
     </row>
-    <row r="24" spans="2:87 1025:1025" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="81" t="s">
+    <row r="24" spans="2:87 1025:1025" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="B24" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="82"/>
-      <c r="M24" s="82"/>
-      <c r="N24" s="82"/>
-      <c r="O24" s="82"/>
-      <c r="P24" s="82"/>
-      <c r="Q24" s="82"/>
-      <c r="R24" s="82"/>
-      <c r="S24" s="82"/>
-      <c r="T24" s="82"/>
-      <c r="U24" s="82"/>
-      <c r="V24" s="82"/>
-      <c r="W24" s="82"/>
-      <c r="X24" s="82"/>
-      <c r="Y24" s="82"/>
-      <c r="Z24" s="82"/>
-      <c r="AA24" s="82"/>
-      <c r="AB24" s="82"/>
-      <c r="AC24" s="82"/>
-      <c r="AD24" s="82"/>
-      <c r="AE24" s="82"/>
-      <c r="AF24" s="82"/>
-      <c r="AG24" s="82"/>
-      <c r="AH24" s="82"/>
-      <c r="AI24" s="82"/>
-      <c r="AJ24" s="82"/>
-      <c r="AK24" s="82"/>
-      <c r="AL24" s="82"/>
-      <c r="AM24" s="82"/>
-      <c r="AN24" s="82"/>
-      <c r="AO24" s="82"/>
-      <c r="AP24" s="82"/>
-      <c r="AQ24" s="82"/>
-      <c r="AR24" s="82"/>
-      <c r="AS24" s="82"/>
-      <c r="AT24" s="82"/>
-      <c r="AU24" s="82"/>
-      <c r="AV24" s="82"/>
-      <c r="AW24" s="82"/>
-      <c r="AX24" s="82"/>
-      <c r="AY24" s="82"/>
-      <c r="AZ24" s="82"/>
-      <c r="BA24" s="82"/>
-      <c r="BB24" s="82"/>
-      <c r="BC24" s="82"/>
-      <c r="BD24" s="82"/>
-      <c r="BE24" s="82"/>
-      <c r="BF24" s="82"/>
-      <c r="BG24" s="82"/>
-      <c r="BH24" s="82"/>
-      <c r="BI24" s="82"/>
-      <c r="BJ24" s="82"/>
-      <c r="BK24" s="82"/>
-      <c r="BL24" s="82"/>
-      <c r="BM24" s="82"/>
-      <c r="BN24" s="82"/>
-      <c r="BO24" s="82"/>
-      <c r="BP24" s="82"/>
-      <c r="BQ24" s="82"/>
-      <c r="BR24" s="82"/>
-      <c r="BS24" s="82"/>
-      <c r="BT24" s="82"/>
-      <c r="BU24" s="82"/>
-      <c r="BV24" s="82"/>
-      <c r="BW24" s="82"/>
-      <c r="BX24" s="82"/>
-      <c r="BY24" s="82"/>
-      <c r="BZ24" s="82"/>
-      <c r="CA24" s="82"/>
-      <c r="CB24" s="82"/>
-      <c r="CC24" s="82"/>
-      <c r="CD24" s="82"/>
-      <c r="CE24" s="82"/>
-      <c r="CF24" s="82"/>
-      <c r="CG24" s="82"/>
-      <c r="CH24" s="82"/>
-      <c r="CI24" s="83"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="37"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="37"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="37"/>
+      <c r="W24" s="37"/>
+      <c r="X24" s="37"/>
+      <c r="Y24" s="37"/>
+      <c r="Z24" s="37"/>
+      <c r="AA24" s="37"/>
+      <c r="AB24" s="37"/>
+      <c r="AC24" s="37"/>
+      <c r="AD24" s="37"/>
+      <c r="AE24" s="37"/>
+      <c r="AF24" s="37"/>
+      <c r="AG24" s="37"/>
+      <c r="AH24" s="37"/>
+      <c r="AI24" s="37"/>
+      <c r="AJ24" s="37"/>
+      <c r="AK24" s="37"/>
+      <c r="AL24" s="37"/>
+      <c r="AM24" s="37"/>
+      <c r="AN24" s="37"/>
+      <c r="AO24" s="37"/>
+      <c r="AP24" s="37"/>
+      <c r="AQ24" s="37"/>
+      <c r="AR24" s="37"/>
+      <c r="AS24" s="37"/>
+      <c r="AT24" s="37"/>
+      <c r="AU24" s="37"/>
+      <c r="AV24" s="37"/>
+      <c r="AW24" s="37"/>
+      <c r="AX24" s="37"/>
+      <c r="AY24" s="37"/>
+      <c r="AZ24" s="37"/>
+      <c r="BA24" s="37"/>
+      <c r="BB24" s="37"/>
+      <c r="BC24" s="37"/>
+      <c r="BD24" s="37"/>
+      <c r="BE24" s="37"/>
+      <c r="BF24" s="37"/>
+      <c r="BG24" s="37"/>
+      <c r="BH24" s="37"/>
+      <c r="BI24" s="37"/>
+      <c r="BJ24" s="37"/>
+      <c r="BK24" s="37"/>
+      <c r="BL24" s="37"/>
+      <c r="BM24" s="37"/>
+      <c r="BN24" s="37"/>
+      <c r="BO24" s="37"/>
+      <c r="BP24" s="37"/>
+      <c r="BQ24" s="37"/>
+      <c r="BR24" s="37"/>
+      <c r="BS24" s="37"/>
+      <c r="BT24" s="37"/>
+      <c r="BU24" s="37"/>
+      <c r="BV24" s="37"/>
+      <c r="BW24" s="37"/>
+      <c r="BX24" s="37"/>
+      <c r="BY24" s="37"/>
+      <c r="BZ24" s="37"/>
+      <c r="CA24" s="37"/>
+      <c r="CB24" s="37"/>
+      <c r="CC24" s="37"/>
+      <c r="CD24" s="37"/>
+      <c r="CE24" s="37"/>
+      <c r="CF24" s="37"/>
+      <c r="CG24" s="37"/>
+      <c r="CH24" s="37"/>
+      <c r="CI24" s="38"/>
       <c r="AMK24" s="6"/>
     </row>
-    <row r="25" spans="2:87 1025:1025" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:87 1025:1025" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B25" s="10"/>
       <c r="C25" s="11"/>
       <c r="D25" s="21"/>
@@ -15215,75 +15215,75 @@
       <c r="CI25" s="15"/>
       <c r="AMK25" s="6"/>
     </row>
-    <row r="26" spans="2:87 1025:1025" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:87 1025:1025" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
       <c r="D26" s="21"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
-      <c r="G26" s="38" t="s">
+      <c r="G26" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="H26" s="50"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="52" t="s">
+      <c r="H26" s="49"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="53"/>
-      <c r="R26" s="53"/>
-      <c r="S26" s="53"/>
-      <c r="T26" s="50"/>
-      <c r="U26" s="50"/>
-      <c r="V26" s="50"/>
-      <c r="W26" s="50"/>
-      <c r="X26" s="51"/>
-      <c r="Y26" s="38" t="s">
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="52"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="52"/>
+      <c r="T26" s="49"/>
+      <c r="U26" s="49"/>
+      <c r="V26" s="49"/>
+      <c r="W26" s="49"/>
+      <c r="X26" s="50"/>
+      <c r="Y26" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="Z26" s="39"/>
-      <c r="AA26" s="39"/>
-      <c r="AB26" s="39"/>
-      <c r="AC26" s="39"/>
-      <c r="AD26" s="39"/>
-      <c r="AE26" s="39"/>
-      <c r="AF26" s="39"/>
-      <c r="AG26" s="39"/>
-      <c r="AH26" s="39"/>
-      <c r="AI26" s="39"/>
-      <c r="AJ26" s="39"/>
-      <c r="AK26" s="39"/>
-      <c r="AL26" s="39"/>
-      <c r="AM26" s="39"/>
-      <c r="AN26" s="39"/>
-      <c r="AO26" s="39"/>
-      <c r="AP26" s="39"/>
-      <c r="AQ26" s="39"/>
-      <c r="AR26" s="39"/>
-      <c r="AS26" s="39"/>
-      <c r="AT26" s="39"/>
-      <c r="AU26" s="39"/>
-      <c r="AV26" s="39"/>
-      <c r="AW26" s="39"/>
-      <c r="AX26" s="39"/>
-      <c r="AY26" s="39"/>
-      <c r="AZ26" s="39"/>
-      <c r="BA26" s="39"/>
-      <c r="BB26" s="39"/>
-      <c r="BC26" s="39"/>
-      <c r="BD26" s="39"/>
-      <c r="BE26" s="39"/>
-      <c r="BF26" s="39"/>
-      <c r="BG26" s="39"/>
-      <c r="BH26" s="39"/>
-      <c r="BI26" s="39"/>
-      <c r="BJ26" s="39"/>
-      <c r="BK26" s="40"/>
+      <c r="Z26" s="76"/>
+      <c r="AA26" s="76"/>
+      <c r="AB26" s="76"/>
+      <c r="AC26" s="76"/>
+      <c r="AD26" s="76"/>
+      <c r="AE26" s="76"/>
+      <c r="AF26" s="76"/>
+      <c r="AG26" s="76"/>
+      <c r="AH26" s="76"/>
+      <c r="AI26" s="76"/>
+      <c r="AJ26" s="76"/>
+      <c r="AK26" s="76"/>
+      <c r="AL26" s="76"/>
+      <c r="AM26" s="76"/>
+      <c r="AN26" s="76"/>
+      <c r="AO26" s="76"/>
+      <c r="AP26" s="76"/>
+      <c r="AQ26" s="76"/>
+      <c r="AR26" s="76"/>
+      <c r="AS26" s="76"/>
+      <c r="AT26" s="76"/>
+      <c r="AU26" s="76"/>
+      <c r="AV26" s="76"/>
+      <c r="AW26" s="76"/>
+      <c r="AX26" s="76"/>
+      <c r="AY26" s="76"/>
+      <c r="AZ26" s="76"/>
+      <c r="BA26" s="76"/>
+      <c r="BB26" s="76"/>
+      <c r="BC26" s="76"/>
+      <c r="BD26" s="76"/>
+      <c r="BE26" s="76"/>
+      <c r="BF26" s="76"/>
+      <c r="BG26" s="76"/>
+      <c r="BH26" s="76"/>
+      <c r="BI26" s="76"/>
+      <c r="BJ26" s="76"/>
+      <c r="BK26" s="77"/>
       <c r="BL26" s="21"/>
       <c r="BM26" s="21"/>
       <c r="BN26" s="21"/>
@@ -15310,75 +15310,75 @@
       <c r="CI26" s="15"/>
       <c r="AMK26" s="6"/>
     </row>
-    <row r="27" spans="2:87 1025:1025" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:87 1025:1025" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B27" s="10"/>
       <c r="C27" s="11"/>
       <c r="D27" s="21"/>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
-      <c r="G27" s="55">
+      <c r="G27" s="41">
         <v>1</v>
       </c>
-      <c r="H27" s="39"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="55" t="s">
+      <c r="H27" s="76"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="39"/>
-      <c r="S27" s="39"/>
-      <c r="T27" s="39"/>
-      <c r="U27" s="39"/>
-      <c r="V27" s="39"/>
-      <c r="W27" s="39"/>
-      <c r="X27" s="40"/>
-      <c r="Y27" s="55" t="s">
+      <c r="K27" s="76"/>
+      <c r="L27" s="76"/>
+      <c r="M27" s="76"/>
+      <c r="N27" s="76"/>
+      <c r="O27" s="76"/>
+      <c r="P27" s="76"/>
+      <c r="Q27" s="76"/>
+      <c r="R27" s="76"/>
+      <c r="S27" s="76"/>
+      <c r="T27" s="76"/>
+      <c r="U27" s="76"/>
+      <c r="V27" s="76"/>
+      <c r="W27" s="76"/>
+      <c r="X27" s="77"/>
+      <c r="Y27" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="Z27" s="39"/>
-      <c r="AA27" s="39"/>
-      <c r="AB27" s="39"/>
-      <c r="AC27" s="39"/>
-      <c r="AD27" s="39"/>
-      <c r="AE27" s="39"/>
-      <c r="AF27" s="39"/>
-      <c r="AG27" s="39"/>
-      <c r="AH27" s="39"/>
-      <c r="AI27" s="39"/>
-      <c r="AJ27" s="39"/>
-      <c r="AK27" s="39"/>
-      <c r="AL27" s="39"/>
-      <c r="AM27" s="39"/>
-      <c r="AN27" s="39"/>
-      <c r="AO27" s="39"/>
-      <c r="AP27" s="39"/>
-      <c r="AQ27" s="39"/>
-      <c r="AR27" s="39"/>
-      <c r="AS27" s="39"/>
-      <c r="AT27" s="39"/>
-      <c r="AU27" s="39"/>
-      <c r="AV27" s="39"/>
-      <c r="AW27" s="39"/>
-      <c r="AX27" s="39"/>
-      <c r="AY27" s="39"/>
-      <c r="AZ27" s="39"/>
-      <c r="BA27" s="39"/>
-      <c r="BB27" s="39"/>
-      <c r="BC27" s="39"/>
-      <c r="BD27" s="39"/>
-      <c r="BE27" s="39"/>
-      <c r="BF27" s="39"/>
-      <c r="BG27" s="39"/>
-      <c r="BH27" s="39"/>
-      <c r="BI27" s="39"/>
-      <c r="BJ27" s="39"/>
-      <c r="BK27" s="40"/>
+      <c r="Z27" s="76"/>
+      <c r="AA27" s="76"/>
+      <c r="AB27" s="76"/>
+      <c r="AC27" s="76"/>
+      <c r="AD27" s="76"/>
+      <c r="AE27" s="76"/>
+      <c r="AF27" s="76"/>
+      <c r="AG27" s="76"/>
+      <c r="AH27" s="76"/>
+      <c r="AI27" s="76"/>
+      <c r="AJ27" s="76"/>
+      <c r="AK27" s="76"/>
+      <c r="AL27" s="76"/>
+      <c r="AM27" s="76"/>
+      <c r="AN27" s="76"/>
+      <c r="AO27" s="76"/>
+      <c r="AP27" s="76"/>
+      <c r="AQ27" s="76"/>
+      <c r="AR27" s="76"/>
+      <c r="AS27" s="76"/>
+      <c r="AT27" s="76"/>
+      <c r="AU27" s="76"/>
+      <c r="AV27" s="76"/>
+      <c r="AW27" s="76"/>
+      <c r="AX27" s="76"/>
+      <c r="AY27" s="76"/>
+      <c r="AZ27" s="76"/>
+      <c r="BA27" s="76"/>
+      <c r="BB27" s="76"/>
+      <c r="BC27" s="76"/>
+      <c r="BD27" s="76"/>
+      <c r="BE27" s="76"/>
+      <c r="BF27" s="76"/>
+      <c r="BG27" s="76"/>
+      <c r="BH27" s="76"/>
+      <c r="BI27" s="76"/>
+      <c r="BJ27" s="76"/>
+      <c r="BK27" s="77"/>
       <c r="BL27" s="21"/>
       <c r="BM27" s="21"/>
       <c r="BN27" s="21"/>
@@ -15405,69 +15405,69 @@
       <c r="CI27" s="15"/>
       <c r="AMK27" s="6"/>
     </row>
-    <row r="28" spans="2:87 1025:1025" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:87 1025:1025" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
       <c r="D28" s="21"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="84"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
       <c r="G28" s="21"/>
-      <c r="H28" s="85"/>
-      <c r="I28" s="85"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
       <c r="J28" s="21"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="85"/>
-      <c r="M28" s="85"/>
-      <c r="N28" s="85"/>
-      <c r="O28" s="85"/>
-      <c r="P28" s="85"/>
-      <c r="Q28" s="85"/>
-      <c r="R28" s="85"/>
-      <c r="S28" s="85"/>
-      <c r="T28" s="85"/>
-      <c r="U28" s="85"/>
-      <c r="V28" s="85"/>
-      <c r="W28" s="85"/>
-      <c r="X28" s="85"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="29"/>
+      <c r="V28" s="29"/>
+      <c r="W28" s="29"/>
+      <c r="X28" s="29"/>
       <c r="Y28" s="21"/>
-      <c r="Z28" s="85"/>
-      <c r="AA28" s="85"/>
-      <c r="AB28" s="85"/>
-      <c r="AC28" s="85"/>
-      <c r="AD28" s="85"/>
-      <c r="AE28" s="85"/>
-      <c r="AF28" s="85"/>
-      <c r="AG28" s="85"/>
-      <c r="AH28" s="85"/>
-      <c r="AI28" s="85"/>
-      <c r="AJ28" s="85"/>
-      <c r="AK28" s="85"/>
-      <c r="AL28" s="85"/>
-      <c r="AM28" s="85"/>
-      <c r="AN28" s="85"/>
-      <c r="AO28" s="85"/>
-      <c r="AP28" s="85"/>
-      <c r="AQ28" s="85"/>
-      <c r="AR28" s="85"/>
-      <c r="AS28" s="85"/>
-      <c r="AT28" s="85"/>
-      <c r="AU28" s="85"/>
-      <c r="AV28" s="85"/>
-      <c r="AW28" s="85"/>
-      <c r="AX28" s="85"/>
-      <c r="AY28" s="85"/>
-      <c r="AZ28" s="85"/>
-      <c r="BA28" s="85"/>
-      <c r="BB28" s="85"/>
-      <c r="BC28" s="85"/>
-      <c r="BD28" s="85"/>
-      <c r="BE28" s="85"/>
-      <c r="BF28" s="85"/>
-      <c r="BG28" s="85"/>
-      <c r="BH28" s="85"/>
-      <c r="BI28" s="85"/>
-      <c r="BJ28" s="85"/>
-      <c r="BK28" s="85"/>
+      <c r="Z28" s="29"/>
+      <c r="AA28" s="29"/>
+      <c r="AB28" s="29"/>
+      <c r="AC28" s="29"/>
+      <c r="AD28" s="29"/>
+      <c r="AE28" s="29"/>
+      <c r="AF28" s="29"/>
+      <c r="AG28" s="29"/>
+      <c r="AH28" s="29"/>
+      <c r="AI28" s="29"/>
+      <c r="AJ28" s="29"/>
+      <c r="AK28" s="29"/>
+      <c r="AL28" s="29"/>
+      <c r="AM28" s="29"/>
+      <c r="AN28" s="29"/>
+      <c r="AO28" s="29"/>
+      <c r="AP28" s="29"/>
+      <c r="AQ28" s="29"/>
+      <c r="AR28" s="29"/>
+      <c r="AS28" s="29"/>
+      <c r="AT28" s="29"/>
+      <c r="AU28" s="29"/>
+      <c r="AV28" s="29"/>
+      <c r="AW28" s="29"/>
+      <c r="AX28" s="29"/>
+      <c r="AY28" s="29"/>
+      <c r="AZ28" s="29"/>
+      <c r="BA28" s="29"/>
+      <c r="BB28" s="29"/>
+      <c r="BC28" s="29"/>
+      <c r="BD28" s="29"/>
+      <c r="BE28" s="29"/>
+      <c r="BF28" s="29"/>
+      <c r="BG28" s="29"/>
+      <c r="BH28" s="29"/>
+      <c r="BI28" s="29"/>
+      <c r="BJ28" s="29"/>
+      <c r="BK28" s="29"/>
       <c r="BL28" s="21"/>
       <c r="BM28" s="21"/>
       <c r="BN28" s="21"/>
@@ -15494,160 +15494,160 @@
       <c r="CI28" s="15"/>
       <c r="AMK28" s="6"/>
     </row>
-    <row r="29" spans="2:87 1025:1025" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:87 1025:1025" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B29" s="10"/>
-      <c r="C29" s="86" t="s">
+      <c r="C29" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="86"/>
-      <c r="I29" s="86"/>
-      <c r="J29" s="86"/>
-      <c r="K29" s="86"/>
-      <c r="L29" s="86"/>
-      <c r="M29" s="86"/>
-      <c r="N29" s="86"/>
-      <c r="O29" s="86"/>
-      <c r="P29" s="86"/>
-      <c r="Q29" s="86"/>
-      <c r="R29" s="86"/>
-      <c r="S29" s="86"/>
-      <c r="T29" s="86"/>
-      <c r="U29" s="86"/>
-      <c r="V29" s="86"/>
-      <c r="W29" s="86"/>
-      <c r="X29" s="86"/>
-      <c r="Y29" s="86"/>
-      <c r="Z29" s="86"/>
-      <c r="AA29" s="86"/>
-      <c r="AB29" s="86"/>
-      <c r="AC29" s="86"/>
-      <c r="AD29" s="86"/>
-      <c r="AE29" s="86"/>
-      <c r="AF29" s="86"/>
-      <c r="AG29" s="86"/>
-      <c r="AH29" s="86"/>
-      <c r="AI29" s="86"/>
-      <c r="AJ29" s="86"/>
-      <c r="AK29" s="86"/>
-      <c r="AL29" s="86"/>
-      <c r="AM29" s="86"/>
-      <c r="AN29" s="86"/>
-      <c r="AO29" s="86"/>
-      <c r="AP29" s="86"/>
-      <c r="AQ29" s="86"/>
-      <c r="AR29" s="86"/>
-      <c r="AS29" s="86"/>
-      <c r="AT29" s="86"/>
-      <c r="AU29" s="86"/>
-      <c r="AV29" s="86"/>
-      <c r="AW29" s="86"/>
-      <c r="AX29" s="86"/>
-      <c r="AY29" s="86"/>
-      <c r="AZ29" s="86"/>
-      <c r="BA29" s="86"/>
-      <c r="BB29" s="86"/>
-      <c r="BC29" s="86"/>
-      <c r="BD29" s="86"/>
-      <c r="BE29" s="86"/>
-      <c r="BF29" s="86"/>
-      <c r="BG29" s="86"/>
-      <c r="BH29" s="86"/>
-      <c r="BI29" s="86"/>
-      <c r="BJ29" s="86"/>
-      <c r="BK29" s="86"/>
-      <c r="BL29" s="86"/>
-      <c r="BM29" s="86"/>
-      <c r="BN29" s="86"/>
-      <c r="BO29" s="86"/>
-      <c r="BP29" s="86"/>
-      <c r="BQ29" s="86"/>
-      <c r="BR29" s="86"/>
-      <c r="BS29" s="86"/>
-      <c r="BT29" s="86"/>
-      <c r="BU29" s="86"/>
-      <c r="BV29" s="86"/>
-      <c r="BW29" s="86"/>
-      <c r="BX29" s="86"/>
-      <c r="BY29" s="86"/>
-      <c r="BZ29" s="86"/>
-      <c r="CA29" s="86"/>
-      <c r="CB29" s="86"/>
-      <c r="CC29" s="86"/>
-      <c r="CD29" s="86"/>
-      <c r="CE29" s="86"/>
-      <c r="CF29" s="86"/>
-      <c r="CG29" s="86"/>
-      <c r="CH29" s="86"/>
-      <c r="CI29" s="87"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="54"/>
+      <c r="S29" s="54"/>
+      <c r="T29" s="54"/>
+      <c r="U29" s="54"/>
+      <c r="V29" s="54"/>
+      <c r="W29" s="54"/>
+      <c r="X29" s="54"/>
+      <c r="Y29" s="54"/>
+      <c r="Z29" s="54"/>
+      <c r="AA29" s="54"/>
+      <c r="AB29" s="54"/>
+      <c r="AC29" s="54"/>
+      <c r="AD29" s="54"/>
+      <c r="AE29" s="54"/>
+      <c r="AF29" s="54"/>
+      <c r="AG29" s="54"/>
+      <c r="AH29" s="54"/>
+      <c r="AI29" s="54"/>
+      <c r="AJ29" s="54"/>
+      <c r="AK29" s="54"/>
+      <c r="AL29" s="54"/>
+      <c r="AM29" s="54"/>
+      <c r="AN29" s="54"/>
+      <c r="AO29" s="54"/>
+      <c r="AP29" s="54"/>
+      <c r="AQ29" s="54"/>
+      <c r="AR29" s="54"/>
+      <c r="AS29" s="54"/>
+      <c r="AT29" s="54"/>
+      <c r="AU29" s="54"/>
+      <c r="AV29" s="54"/>
+      <c r="AW29" s="54"/>
+      <c r="AX29" s="54"/>
+      <c r="AY29" s="54"/>
+      <c r="AZ29" s="54"/>
+      <c r="BA29" s="54"/>
+      <c r="BB29" s="54"/>
+      <c r="BC29" s="54"/>
+      <c r="BD29" s="54"/>
+      <c r="BE29" s="54"/>
+      <c r="BF29" s="54"/>
+      <c r="BG29" s="54"/>
+      <c r="BH29" s="54"/>
+      <c r="BI29" s="54"/>
+      <c r="BJ29" s="54"/>
+      <c r="BK29" s="54"/>
+      <c r="BL29" s="54"/>
+      <c r="BM29" s="54"/>
+      <c r="BN29" s="54"/>
+      <c r="BO29" s="54"/>
+      <c r="BP29" s="54"/>
+      <c r="BQ29" s="54"/>
+      <c r="BR29" s="54"/>
+      <c r="BS29" s="54"/>
+      <c r="BT29" s="54"/>
+      <c r="BU29" s="54"/>
+      <c r="BV29" s="54"/>
+      <c r="BW29" s="54"/>
+      <c r="BX29" s="54"/>
+      <c r="BY29" s="54"/>
+      <c r="BZ29" s="54"/>
+      <c r="CA29" s="54"/>
+      <c r="CB29" s="54"/>
+      <c r="CC29" s="54"/>
+      <c r="CD29" s="54"/>
+      <c r="CE29" s="54"/>
+      <c r="CF29" s="54"/>
+      <c r="CG29" s="54"/>
+      <c r="CH29" s="54"/>
+      <c r="CI29" s="55"/>
       <c r="AMK29" s="6"/>
     </row>
-    <row r="30" spans="2:87 1025:1025" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:87 1025:1025" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="B30" s="10"/>
       <c r="C30" s="11"/>
       <c r="D30" s="21"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="84"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
       <c r="G30" s="21"/>
-      <c r="H30" s="85"/>
-      <c r="I30" s="85"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
       <c r="J30" s="21"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="85"/>
-      <c r="M30" s="85"/>
-      <c r="N30" s="85"/>
-      <c r="O30" s="85"/>
-      <c r="P30" s="85"/>
-      <c r="Q30" s="85"/>
-      <c r="R30" s="85"/>
-      <c r="S30" s="85"/>
-      <c r="T30" s="85"/>
-      <c r="U30" s="85"/>
-      <c r="V30" s="85"/>
-      <c r="W30" s="85"/>
-      <c r="X30" s="85"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="29"/>
+      <c r="V30" s="29"/>
+      <c r="W30" s="29"/>
+      <c r="X30" s="29"/>
       <c r="Y30" s="21"/>
-      <c r="Z30" s="85"/>
-      <c r="AA30" s="85"/>
-      <c r="AB30" s="85"/>
-      <c r="AC30" s="85"/>
-      <c r="AD30" s="85"/>
-      <c r="AE30" s="85"/>
-      <c r="AF30" s="85"/>
-      <c r="AG30" s="85"/>
-      <c r="AH30" s="85"/>
-      <c r="AI30" s="85"/>
-      <c r="AJ30" s="85"/>
-      <c r="AK30" s="85"/>
-      <c r="AL30" s="85"/>
-      <c r="AM30" s="85"/>
-      <c r="AN30" s="85"/>
-      <c r="AO30" s="85"/>
-      <c r="AP30" s="85"/>
-      <c r="AQ30" s="85"/>
-      <c r="AR30" s="85"/>
-      <c r="AS30" s="85"/>
-      <c r="AT30" s="85"/>
-      <c r="AU30" s="85"/>
-      <c r="AV30" s="85"/>
-      <c r="AW30" s="85"/>
-      <c r="AX30" s="85"/>
-      <c r="AY30" s="85"/>
-      <c r="AZ30" s="85"/>
-      <c r="BA30" s="85"/>
-      <c r="BB30" s="85"/>
-      <c r="BC30" s="85"/>
-      <c r="BD30" s="85"/>
-      <c r="BE30" s="85"/>
-      <c r="BF30" s="85"/>
-      <c r="BG30" s="85"/>
-      <c r="BH30" s="85"/>
-      <c r="BI30" s="85"/>
-      <c r="BJ30" s="85"/>
-      <c r="BK30" s="85"/>
+      <c r="Z30" s="29"/>
+      <c r="AA30" s="29"/>
+      <c r="AB30" s="29"/>
+      <c r="AC30" s="29"/>
+      <c r="AD30" s="29"/>
+      <c r="AE30" s="29"/>
+      <c r="AF30" s="29"/>
+      <c r="AG30" s="29"/>
+      <c r="AH30" s="29"/>
+      <c r="AI30" s="29"/>
+      <c r="AJ30" s="29"/>
+      <c r="AK30" s="29"/>
+      <c r="AL30" s="29"/>
+      <c r="AM30" s="29"/>
+      <c r="AN30" s="29"/>
+      <c r="AO30" s="29"/>
+      <c r="AP30" s="29"/>
+      <c r="AQ30" s="29"/>
+      <c r="AR30" s="29"/>
+      <c r="AS30" s="29"/>
+      <c r="AT30" s="29"/>
+      <c r="AU30" s="29"/>
+      <c r="AV30" s="29"/>
+      <c r="AW30" s="29"/>
+      <c r="AX30" s="29"/>
+      <c r="AY30" s="29"/>
+      <c r="AZ30" s="29"/>
+      <c r="BA30" s="29"/>
+      <c r="BB30" s="29"/>
+      <c r="BC30" s="29"/>
+      <c r="BD30" s="29"/>
+      <c r="BE30" s="29"/>
+      <c r="BF30" s="29"/>
+      <c r="BG30" s="29"/>
+      <c r="BH30" s="29"/>
+      <c r="BI30" s="29"/>
+      <c r="BJ30" s="29"/>
+      <c r="BK30" s="29"/>
       <c r="BL30" s="21"/>
       <c r="BM30" s="21"/>
       <c r="BN30" s="21"/>
@@ -15674,71 +15674,71 @@
       <c r="CI30" s="15"/>
       <c r="AMK30" s="6"/>
     </row>
-    <row r="31" spans="2:87 1025:1025" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:87 1025:1025" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="B31" s="10"/>
       <c r="C31" s="11"/>
       <c r="D31" s="21"/>
-      <c r="E31" s="84"/>
-      <c r="F31" s="84"/>
-      <c r="G31" s="88" t="s">
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="H31" s="89"/>
-      <c r="I31" s="89"/>
-      <c r="J31" s="89"/>
-      <c r="K31" s="89"/>
-      <c r="L31" s="89"/>
-      <c r="M31" s="89"/>
-      <c r="N31" s="89"/>
-      <c r="O31" s="89"/>
-      <c r="P31" s="89"/>
-      <c r="Q31" s="89"/>
-      <c r="R31" s="89"/>
-      <c r="S31" s="89"/>
-      <c r="T31" s="89"/>
-      <c r="U31" s="89"/>
-      <c r="V31" s="89"/>
-      <c r="W31" s="89"/>
-      <c r="X31" s="89"/>
-      <c r="Y31" s="89"/>
-      <c r="Z31" s="89"/>
-      <c r="AA31" s="89"/>
-      <c r="AB31" s="89"/>
-      <c r="AC31" s="89"/>
-      <c r="AD31" s="89"/>
-      <c r="AE31" s="89"/>
-      <c r="AF31" s="89"/>
-      <c r="AG31" s="89"/>
-      <c r="AH31" s="89"/>
-      <c r="AI31" s="89"/>
-      <c r="AJ31" s="89"/>
-      <c r="AK31" s="89"/>
-      <c r="AL31" s="89"/>
-      <c r="AM31" s="89"/>
-      <c r="AN31" s="89"/>
-      <c r="AO31" s="89"/>
-      <c r="AP31" s="89"/>
-      <c r="AQ31" s="89"/>
-      <c r="AR31" s="89"/>
-      <c r="AS31" s="89"/>
-      <c r="AT31" s="89"/>
-      <c r="AU31" s="89"/>
-      <c r="AV31" s="89"/>
-      <c r="AW31" s="89"/>
-      <c r="AX31" s="89"/>
-      <c r="AY31" s="89"/>
-      <c r="AZ31" s="89"/>
-      <c r="BA31" s="89"/>
-      <c r="BB31" s="89"/>
-      <c r="BC31" s="89"/>
-      <c r="BD31" s="89"/>
-      <c r="BE31" s="89"/>
-      <c r="BF31" s="89"/>
-      <c r="BG31" s="89"/>
-      <c r="BH31" s="89"/>
-      <c r="BI31" s="89"/>
-      <c r="BJ31" s="89"/>
-      <c r="BK31" s="96"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="57"/>
+      <c r="Q31" s="57"/>
+      <c r="R31" s="57"/>
+      <c r="S31" s="57"/>
+      <c r="T31" s="57"/>
+      <c r="U31" s="57"/>
+      <c r="V31" s="57"/>
+      <c r="W31" s="57"/>
+      <c r="X31" s="57"/>
+      <c r="Y31" s="57"/>
+      <c r="Z31" s="57"/>
+      <c r="AA31" s="57"/>
+      <c r="AB31" s="57"/>
+      <c r="AC31" s="57"/>
+      <c r="AD31" s="57"/>
+      <c r="AE31" s="57"/>
+      <c r="AF31" s="57"/>
+      <c r="AG31" s="57"/>
+      <c r="AH31" s="57"/>
+      <c r="AI31" s="57"/>
+      <c r="AJ31" s="57"/>
+      <c r="AK31" s="57"/>
+      <c r="AL31" s="57"/>
+      <c r="AM31" s="57"/>
+      <c r="AN31" s="57"/>
+      <c r="AO31" s="57"/>
+      <c r="AP31" s="57"/>
+      <c r="AQ31" s="57"/>
+      <c r="AR31" s="57"/>
+      <c r="AS31" s="57"/>
+      <c r="AT31" s="57"/>
+      <c r="AU31" s="57"/>
+      <c r="AV31" s="57"/>
+      <c r="AW31" s="57"/>
+      <c r="AX31" s="57"/>
+      <c r="AY31" s="57"/>
+      <c r="AZ31" s="57"/>
+      <c r="BA31" s="57"/>
+      <c r="BB31" s="57"/>
+      <c r="BC31" s="57"/>
+      <c r="BD31" s="57"/>
+      <c r="BE31" s="57"/>
+      <c r="BF31" s="57"/>
+      <c r="BG31" s="57"/>
+      <c r="BH31" s="57"/>
+      <c r="BI31" s="57"/>
+      <c r="BJ31" s="57"/>
+      <c r="BK31" s="33"/>
       <c r="BL31" s="21"/>
       <c r="BM31" s="21"/>
       <c r="BN31" s="21"/>
@@ -15765,71 +15765,71 @@
       <c r="CI31" s="15"/>
       <c r="AMK31" s="6"/>
     </row>
-    <row r="32" spans="2:87 1025:1025" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:87 1025:1025" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B32" s="10"/>
       <c r="C32" s="11"/>
       <c r="D32" s="21"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="41" t="s">
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="42"/>
-      <c r="P32" s="42"/>
-      <c r="Q32" s="42"/>
-      <c r="R32" s="42"/>
-      <c r="S32" s="42"/>
-      <c r="T32" s="42"/>
-      <c r="U32" s="42"/>
-      <c r="V32" s="42"/>
-      <c r="W32" s="42"/>
-      <c r="X32" s="42"/>
-      <c r="Y32" s="42"/>
-      <c r="Z32" s="42"/>
-      <c r="AA32" s="42"/>
-      <c r="AB32" s="42"/>
-      <c r="AC32" s="42"/>
-      <c r="AD32" s="42"/>
-      <c r="AE32" s="42"/>
-      <c r="AF32" s="42"/>
-      <c r="AG32" s="42"/>
-      <c r="AH32" s="42"/>
-      <c r="AI32" s="42"/>
-      <c r="AJ32" s="42"/>
-      <c r="AK32" s="42"/>
-      <c r="AL32" s="42"/>
-      <c r="AM32" s="42"/>
-      <c r="AN32" s="42"/>
-      <c r="AO32" s="42"/>
-      <c r="AP32" s="42"/>
-      <c r="AQ32" s="42"/>
-      <c r="AR32" s="42"/>
-      <c r="AS32" s="42"/>
-      <c r="AT32" s="42"/>
-      <c r="AU32" s="42"/>
-      <c r="AV32" s="42"/>
-      <c r="AW32" s="42"/>
-      <c r="AX32" s="42"/>
-      <c r="AY32" s="42"/>
-      <c r="AZ32" s="42"/>
-      <c r="BA32" s="42"/>
-      <c r="BB32" s="42"/>
-      <c r="BC32" s="42"/>
-      <c r="BD32" s="42"/>
-      <c r="BE32" s="42"/>
-      <c r="BF32" s="42"/>
-      <c r="BG32" s="42"/>
-      <c r="BH32" s="42"/>
-      <c r="BI32" s="42"/>
-      <c r="BJ32" s="42"/>
-      <c r="BK32" s="43"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="59"/>
+      <c r="N32" s="59"/>
+      <c r="O32" s="59"/>
+      <c r="P32" s="59"/>
+      <c r="Q32" s="59"/>
+      <c r="R32" s="59"/>
+      <c r="S32" s="59"/>
+      <c r="T32" s="59"/>
+      <c r="U32" s="59"/>
+      <c r="V32" s="59"/>
+      <c r="W32" s="59"/>
+      <c r="X32" s="59"/>
+      <c r="Y32" s="59"/>
+      <c r="Z32" s="59"/>
+      <c r="AA32" s="59"/>
+      <c r="AB32" s="59"/>
+      <c r="AC32" s="59"/>
+      <c r="AD32" s="59"/>
+      <c r="AE32" s="59"/>
+      <c r="AF32" s="59"/>
+      <c r="AG32" s="59"/>
+      <c r="AH32" s="59"/>
+      <c r="AI32" s="59"/>
+      <c r="AJ32" s="59"/>
+      <c r="AK32" s="59"/>
+      <c r="AL32" s="59"/>
+      <c r="AM32" s="59"/>
+      <c r="AN32" s="59"/>
+      <c r="AO32" s="59"/>
+      <c r="AP32" s="59"/>
+      <c r="AQ32" s="59"/>
+      <c r="AR32" s="59"/>
+      <c r="AS32" s="59"/>
+      <c r="AT32" s="59"/>
+      <c r="AU32" s="59"/>
+      <c r="AV32" s="59"/>
+      <c r="AW32" s="59"/>
+      <c r="AX32" s="59"/>
+      <c r="AY32" s="59"/>
+      <c r="AZ32" s="59"/>
+      <c r="BA32" s="59"/>
+      <c r="BB32" s="59"/>
+      <c r="BC32" s="59"/>
+      <c r="BD32" s="59"/>
+      <c r="BE32" s="59"/>
+      <c r="BF32" s="59"/>
+      <c r="BG32" s="59"/>
+      <c r="BH32" s="59"/>
+      <c r="BI32" s="59"/>
+      <c r="BJ32" s="59"/>
+      <c r="BK32" s="60"/>
       <c r="BL32" s="21"/>
       <c r="BM32" s="21"/>
       <c r="BN32" s="21"/>
@@ -15856,70 +15856,70 @@
       <c r="CI32" s="15"/>
       <c r="AMK32" s="6"/>
     </row>
-    <row r="33" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1024" ht="18" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="10"/>
       <c r="C33" s="11"/>
       <c r="D33" s="21"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="45"/>
-      <c r="N33" s="45"/>
-      <c r="O33" s="45"/>
-      <c r="P33" s="45"/>
-      <c r="Q33" s="45"/>
-      <c r="R33" s="45"/>
-      <c r="S33" s="45"/>
-      <c r="T33" s="45"/>
-      <c r="U33" s="45"/>
-      <c r="V33" s="45"/>
-      <c r="W33" s="45"/>
-      <c r="X33" s="45"/>
-      <c r="Y33" s="45"/>
-      <c r="Z33" s="45"/>
-      <c r="AA33" s="45"/>
-      <c r="AB33" s="45"/>
-      <c r="AC33" s="45"/>
-      <c r="AD33" s="45"/>
-      <c r="AE33" s="45"/>
-      <c r="AF33" s="45"/>
-      <c r="AG33" s="45"/>
-      <c r="AH33" s="45"/>
-      <c r="AI33" s="45"/>
-      <c r="AJ33" s="45"/>
-      <c r="AK33" s="45"/>
-      <c r="AL33" s="45"/>
-      <c r="AM33" s="45"/>
-      <c r="AN33" s="45"/>
-      <c r="AO33" s="45"/>
-      <c r="AP33" s="45"/>
-      <c r="AQ33" s="45"/>
-      <c r="AR33" s="45"/>
-      <c r="AS33" s="45"/>
-      <c r="AT33" s="45"/>
-      <c r="AU33" s="45"/>
-      <c r="AV33" s="45"/>
-      <c r="AW33" s="45"/>
-      <c r="AX33" s="45"/>
-      <c r="AY33" s="45"/>
-      <c r="AZ33" s="45"/>
-      <c r="BA33" s="45"/>
-      <c r="BB33" s="45"/>
-      <c r="BC33" s="45"/>
-      <c r="BD33" s="45"/>
-      <c r="BE33" s="45"/>
-      <c r="BF33" s="45"/>
-      <c r="BG33" s="45"/>
-      <c r="BH33" s="45"/>
-      <c r="BI33" s="45"/>
-      <c r="BJ33" s="45"/>
-      <c r="BK33" s="46"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="62"/>
+      <c r="O33" s="62"/>
+      <c r="P33" s="62"/>
+      <c r="Q33" s="62"/>
+      <c r="R33" s="62"/>
+      <c r="S33" s="62"/>
+      <c r="T33" s="62"/>
+      <c r="U33" s="62"/>
+      <c r="V33" s="62"/>
+      <c r="W33" s="62"/>
+      <c r="X33" s="62"/>
+      <c r="Y33" s="62"/>
+      <c r="Z33" s="62"/>
+      <c r="AA33" s="62"/>
+      <c r="AB33" s="62"/>
+      <c r="AC33" s="62"/>
+      <c r="AD33" s="62"/>
+      <c r="AE33" s="62"/>
+      <c r="AF33" s="62"/>
+      <c r="AG33" s="62"/>
+      <c r="AH33" s="62"/>
+      <c r="AI33" s="62"/>
+      <c r="AJ33" s="62"/>
+      <c r="AK33" s="62"/>
+      <c r="AL33" s="62"/>
+      <c r="AM33" s="62"/>
+      <c r="AN33" s="62"/>
+      <c r="AO33" s="62"/>
+      <c r="AP33" s="62"/>
+      <c r="AQ33" s="62"/>
+      <c r="AR33" s="62"/>
+      <c r="AS33" s="62"/>
+      <c r="AT33" s="62"/>
+      <c r="AU33" s="62"/>
+      <c r="AV33" s="62"/>
+      <c r="AW33" s="62"/>
+      <c r="AX33" s="62"/>
+      <c r="AY33" s="62"/>
+      <c r="AZ33" s="62"/>
+      <c r="BA33" s="62"/>
+      <c r="BB33" s="62"/>
+      <c r="BC33" s="62"/>
+      <c r="BD33" s="62"/>
+      <c r="BE33" s="62"/>
+      <c r="BF33" s="62"/>
+      <c r="BG33" s="62"/>
+      <c r="BH33" s="62"/>
+      <c r="BI33" s="62"/>
+      <c r="BJ33" s="62"/>
+      <c r="BK33" s="63"/>
       <c r="BL33" s="21"/>
       <c r="BM33" s="21"/>
       <c r="BN33" s="21"/>
@@ -16882,70 +16882,70 @@
       <c r="AMI33" s="1"/>
       <c r="AMJ33" s="1"/>
     </row>
-    <row r="34" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1024" ht="18" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="10"/>
       <c r="C34" s="11"/>
       <c r="D34" s="21"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="84"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="48"/>
-      <c r="N34" s="48"/>
-      <c r="O34" s="48"/>
-      <c r="P34" s="48"/>
-      <c r="Q34" s="48"/>
-      <c r="R34" s="48"/>
-      <c r="S34" s="48"/>
-      <c r="T34" s="48"/>
-      <c r="U34" s="48"/>
-      <c r="V34" s="48"/>
-      <c r="W34" s="48"/>
-      <c r="X34" s="48"/>
-      <c r="Y34" s="48"/>
-      <c r="Z34" s="48"/>
-      <c r="AA34" s="48"/>
-      <c r="AB34" s="48"/>
-      <c r="AC34" s="48"/>
-      <c r="AD34" s="48"/>
-      <c r="AE34" s="48"/>
-      <c r="AF34" s="48"/>
-      <c r="AG34" s="48"/>
-      <c r="AH34" s="48"/>
-      <c r="AI34" s="48"/>
-      <c r="AJ34" s="48"/>
-      <c r="AK34" s="48"/>
-      <c r="AL34" s="48"/>
-      <c r="AM34" s="48"/>
-      <c r="AN34" s="48"/>
-      <c r="AO34" s="48"/>
-      <c r="AP34" s="48"/>
-      <c r="AQ34" s="48"/>
-      <c r="AR34" s="48"/>
-      <c r="AS34" s="48"/>
-      <c r="AT34" s="48"/>
-      <c r="AU34" s="48"/>
-      <c r="AV34" s="48"/>
-      <c r="AW34" s="48"/>
-      <c r="AX34" s="48"/>
-      <c r="AY34" s="48"/>
-      <c r="AZ34" s="48"/>
-      <c r="BA34" s="48"/>
-      <c r="BB34" s="48"/>
-      <c r="BC34" s="48"/>
-      <c r="BD34" s="48"/>
-      <c r="BE34" s="48"/>
-      <c r="BF34" s="48"/>
-      <c r="BG34" s="48"/>
-      <c r="BH34" s="48"/>
-      <c r="BI34" s="48"/>
-      <c r="BJ34" s="48"/>
-      <c r="BK34" s="49"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="65"/>
+      <c r="J34" s="65"/>
+      <c r="K34" s="65"/>
+      <c r="L34" s="65"/>
+      <c r="M34" s="65"/>
+      <c r="N34" s="65"/>
+      <c r="O34" s="65"/>
+      <c r="P34" s="65"/>
+      <c r="Q34" s="65"/>
+      <c r="R34" s="65"/>
+      <c r="S34" s="65"/>
+      <c r="T34" s="65"/>
+      <c r="U34" s="65"/>
+      <c r="V34" s="65"/>
+      <c r="W34" s="65"/>
+      <c r="X34" s="65"/>
+      <c r="Y34" s="65"/>
+      <c r="Z34" s="65"/>
+      <c r="AA34" s="65"/>
+      <c r="AB34" s="65"/>
+      <c r="AC34" s="65"/>
+      <c r="AD34" s="65"/>
+      <c r="AE34" s="65"/>
+      <c r="AF34" s="65"/>
+      <c r="AG34" s="65"/>
+      <c r="AH34" s="65"/>
+      <c r="AI34" s="65"/>
+      <c r="AJ34" s="65"/>
+      <c r="AK34" s="65"/>
+      <c r="AL34" s="65"/>
+      <c r="AM34" s="65"/>
+      <c r="AN34" s="65"/>
+      <c r="AO34" s="65"/>
+      <c r="AP34" s="65"/>
+      <c r="AQ34" s="65"/>
+      <c r="AR34" s="65"/>
+      <c r="AS34" s="65"/>
+      <c r="AT34" s="65"/>
+      <c r="AU34" s="65"/>
+      <c r="AV34" s="65"/>
+      <c r="AW34" s="65"/>
+      <c r="AX34" s="65"/>
+      <c r="AY34" s="65"/>
+      <c r="AZ34" s="65"/>
+      <c r="BA34" s="65"/>
+      <c r="BB34" s="65"/>
+      <c r="BC34" s="65"/>
+      <c r="BD34" s="65"/>
+      <c r="BE34" s="65"/>
+      <c r="BF34" s="65"/>
+      <c r="BG34" s="65"/>
+      <c r="BH34" s="65"/>
+      <c r="BI34" s="65"/>
+      <c r="BJ34" s="65"/>
+      <c r="BK34" s="66"/>
       <c r="BL34" s="21"/>
       <c r="BM34" s="21"/>
       <c r="BN34" s="21"/>
@@ -17908,7 +17908,7 @@
       <c r="AMI34" s="1"/>
       <c r="AMJ34" s="1"/>
     </row>
-    <row r="35" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1024" ht="18" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="10"/>
       <c r="C35" s="11"/>
@@ -18934,96 +18934,96 @@
       <c r="AMI35" s="1"/>
       <c r="AMJ35" s="1"/>
     </row>
-    <row r="36" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1024" ht="18" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="81" t="s">
+      <c r="B36" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="82"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="82"/>
-      <c r="F36" s="82"/>
-      <c r="G36" s="82"/>
-      <c r="H36" s="82"/>
-      <c r="I36" s="82"/>
-      <c r="J36" s="82"/>
-      <c r="K36" s="82"/>
-      <c r="L36" s="82"/>
-      <c r="M36" s="82"/>
-      <c r="N36" s="82"/>
-      <c r="O36" s="82"/>
-      <c r="P36" s="82"/>
-      <c r="Q36" s="82"/>
-      <c r="R36" s="82"/>
-      <c r="S36" s="82"/>
-      <c r="T36" s="82"/>
-      <c r="U36" s="82"/>
-      <c r="V36" s="82"/>
-      <c r="W36" s="82"/>
-      <c r="X36" s="82"/>
-      <c r="Y36" s="82"/>
-      <c r="Z36" s="82"/>
-      <c r="AA36" s="82"/>
-      <c r="AB36" s="82"/>
-      <c r="AC36" s="82"/>
-      <c r="AD36" s="82"/>
-      <c r="AE36" s="82"/>
-      <c r="AF36" s="82"/>
-      <c r="AG36" s="82"/>
-      <c r="AH36" s="82"/>
-      <c r="AI36" s="82"/>
-      <c r="AJ36" s="82"/>
-      <c r="AK36" s="82"/>
-      <c r="AL36" s="82"/>
-      <c r="AM36" s="82"/>
-      <c r="AN36" s="82"/>
-      <c r="AO36" s="82"/>
-      <c r="AP36" s="82"/>
-      <c r="AQ36" s="82"/>
-      <c r="AR36" s="82"/>
-      <c r="AS36" s="82"/>
-      <c r="AT36" s="82"/>
-      <c r="AU36" s="82"/>
-      <c r="AV36" s="82"/>
-      <c r="AW36" s="82"/>
-      <c r="AX36" s="82"/>
-      <c r="AY36" s="82"/>
-      <c r="AZ36" s="82"/>
-      <c r="BA36" s="82"/>
-      <c r="BB36" s="82"/>
-      <c r="BC36" s="82"/>
-      <c r="BD36" s="82"/>
-      <c r="BE36" s="82"/>
-      <c r="BF36" s="82"/>
-      <c r="BG36" s="82"/>
-      <c r="BH36" s="82"/>
-      <c r="BI36" s="82"/>
-      <c r="BJ36" s="82"/>
-      <c r="BK36" s="82"/>
-      <c r="BL36" s="82"/>
-      <c r="BM36" s="82"/>
-      <c r="BN36" s="82"/>
-      <c r="BO36" s="82"/>
-      <c r="BP36" s="82"/>
-      <c r="BQ36" s="82"/>
-      <c r="BR36" s="82"/>
-      <c r="BS36" s="82"/>
-      <c r="BT36" s="82"/>
-      <c r="BU36" s="82"/>
-      <c r="BV36" s="82"/>
-      <c r="BW36" s="82"/>
-      <c r="BX36" s="82"/>
-      <c r="BY36" s="82"/>
-      <c r="BZ36" s="82"/>
-      <c r="CA36" s="82"/>
-      <c r="CB36" s="82"/>
-      <c r="CC36" s="82"/>
-      <c r="CD36" s="82"/>
-      <c r="CE36" s="82"/>
-      <c r="CF36" s="82"/>
-      <c r="CG36" s="82"/>
-      <c r="CH36" s="82"/>
-      <c r="CI36" s="83"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="37"/>
+      <c r="U36" s="37"/>
+      <c r="V36" s="37"/>
+      <c r="W36" s="37"/>
+      <c r="X36" s="37"/>
+      <c r="Y36" s="37"/>
+      <c r="Z36" s="37"/>
+      <c r="AA36" s="37"/>
+      <c r="AB36" s="37"/>
+      <c r="AC36" s="37"/>
+      <c r="AD36" s="37"/>
+      <c r="AE36" s="37"/>
+      <c r="AF36" s="37"/>
+      <c r="AG36" s="37"/>
+      <c r="AH36" s="37"/>
+      <c r="AI36" s="37"/>
+      <c r="AJ36" s="37"/>
+      <c r="AK36" s="37"/>
+      <c r="AL36" s="37"/>
+      <c r="AM36" s="37"/>
+      <c r="AN36" s="37"/>
+      <c r="AO36" s="37"/>
+      <c r="AP36" s="37"/>
+      <c r="AQ36" s="37"/>
+      <c r="AR36" s="37"/>
+      <c r="AS36" s="37"/>
+      <c r="AT36" s="37"/>
+      <c r="AU36" s="37"/>
+      <c r="AV36" s="37"/>
+      <c r="AW36" s="37"/>
+      <c r="AX36" s="37"/>
+      <c r="AY36" s="37"/>
+      <c r="AZ36" s="37"/>
+      <c r="BA36" s="37"/>
+      <c r="BB36" s="37"/>
+      <c r="BC36" s="37"/>
+      <c r="BD36" s="37"/>
+      <c r="BE36" s="37"/>
+      <c r="BF36" s="37"/>
+      <c r="BG36" s="37"/>
+      <c r="BH36" s="37"/>
+      <c r="BI36" s="37"/>
+      <c r="BJ36" s="37"/>
+      <c r="BK36" s="37"/>
+      <c r="BL36" s="37"/>
+      <c r="BM36" s="37"/>
+      <c r="BN36" s="37"/>
+      <c r="BO36" s="37"/>
+      <c r="BP36" s="37"/>
+      <c r="BQ36" s="37"/>
+      <c r="BR36" s="37"/>
+      <c r="BS36" s="37"/>
+      <c r="BT36" s="37"/>
+      <c r="BU36" s="37"/>
+      <c r="BV36" s="37"/>
+      <c r="BW36" s="37"/>
+      <c r="BX36" s="37"/>
+      <c r="BY36" s="37"/>
+      <c r="BZ36" s="37"/>
+      <c r="CA36" s="37"/>
+      <c r="CB36" s="37"/>
+      <c r="CC36" s="37"/>
+      <c r="CD36" s="37"/>
+      <c r="CE36" s="37"/>
+      <c r="CF36" s="37"/>
+      <c r="CG36" s="37"/>
+      <c r="CH36" s="37"/>
+      <c r="CI36" s="38"/>
       <c r="CJ36" s="1"/>
       <c r="CK36" s="1"/>
       <c r="CL36" s="1"/>
@@ -19962,94 +19962,94 @@
       <c r="AMI36" s="1"/>
       <c r="AMJ36" s="1"/>
     </row>
-    <row r="37" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1024" ht="18" customHeight="1">
       <c r="A37" s="1"/>
-      <c r="B37" s="93"/>
-      <c r="C37" s="94"/>
-      <c r="D37" s="94"/>
-      <c r="E37" s="94"/>
-      <c r="F37" s="94"/>
-      <c r="G37" s="94"/>
-      <c r="H37" s="94"/>
-      <c r="I37" s="94"/>
-      <c r="J37" s="94"/>
-      <c r="K37" s="94"/>
-      <c r="L37" s="94"/>
-      <c r="M37" s="94"/>
-      <c r="N37" s="94"/>
-      <c r="O37" s="94"/>
-      <c r="P37" s="94"/>
-      <c r="Q37" s="94"/>
-      <c r="R37" s="94"/>
-      <c r="S37" s="94"/>
-      <c r="T37" s="94"/>
-      <c r="U37" s="94"/>
-      <c r="V37" s="94"/>
-      <c r="W37" s="94"/>
-      <c r="X37" s="94"/>
-      <c r="Y37" s="94"/>
-      <c r="Z37" s="94"/>
-      <c r="AA37" s="94"/>
-      <c r="AB37" s="94"/>
-      <c r="AC37" s="94"/>
-      <c r="AD37" s="94"/>
-      <c r="AE37" s="94"/>
-      <c r="AF37" s="94"/>
-      <c r="AG37" s="94"/>
-      <c r="AH37" s="94"/>
-      <c r="AI37" s="94"/>
-      <c r="AJ37" s="94"/>
-      <c r="AK37" s="94"/>
-      <c r="AL37" s="94"/>
-      <c r="AM37" s="94"/>
-      <c r="AN37" s="94"/>
-      <c r="AO37" s="94"/>
-      <c r="AP37" s="94"/>
-      <c r="AQ37" s="94"/>
-      <c r="AR37" s="94"/>
-      <c r="AS37" s="94"/>
-      <c r="AT37" s="94"/>
-      <c r="AU37" s="94"/>
-      <c r="AV37" s="94"/>
-      <c r="AW37" s="94"/>
-      <c r="AX37" s="94"/>
-      <c r="AY37" s="94"/>
-      <c r="AZ37" s="94"/>
-      <c r="BA37" s="94"/>
-      <c r="BB37" s="94"/>
-      <c r="BC37" s="94"/>
-      <c r="BD37" s="94"/>
-      <c r="BE37" s="94"/>
-      <c r="BF37" s="94"/>
-      <c r="BG37" s="94"/>
-      <c r="BH37" s="94"/>
-      <c r="BI37" s="94"/>
-      <c r="BJ37" s="94"/>
-      <c r="BK37" s="94"/>
-      <c r="BL37" s="94"/>
-      <c r="BM37" s="94"/>
-      <c r="BN37" s="94"/>
-      <c r="BO37" s="94"/>
-      <c r="BP37" s="94"/>
-      <c r="BQ37" s="94"/>
-      <c r="BR37" s="94"/>
-      <c r="BS37" s="94"/>
-      <c r="BT37" s="94"/>
-      <c r="BU37" s="94"/>
-      <c r="BV37" s="94"/>
-      <c r="BW37" s="94"/>
-      <c r="BX37" s="94"/>
-      <c r="BY37" s="94"/>
-      <c r="BZ37" s="94"/>
-      <c r="CA37" s="94"/>
-      <c r="CB37" s="94"/>
-      <c r="CC37" s="94"/>
-      <c r="CD37" s="94"/>
-      <c r="CE37" s="94"/>
-      <c r="CF37" s="94"/>
-      <c r="CG37" s="94"/>
-      <c r="CH37" s="94"/>
-      <c r="CI37" s="95"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="31"/>
+      <c r="S37" s="31"/>
+      <c r="T37" s="31"/>
+      <c r="U37" s="31"/>
+      <c r="V37" s="31"/>
+      <c r="W37" s="31"/>
+      <c r="X37" s="31"/>
+      <c r="Y37" s="31"/>
+      <c r="Z37" s="31"/>
+      <c r="AA37" s="31"/>
+      <c r="AB37" s="31"/>
+      <c r="AC37" s="31"/>
+      <c r="AD37" s="31"/>
+      <c r="AE37" s="31"/>
+      <c r="AF37" s="31"/>
+      <c r="AG37" s="31"/>
+      <c r="AH37" s="31"/>
+      <c r="AI37" s="31"/>
+      <c r="AJ37" s="31"/>
+      <c r="AK37" s="31"/>
+      <c r="AL37" s="31"/>
+      <c r="AM37" s="31"/>
+      <c r="AN37" s="31"/>
+      <c r="AO37" s="31"/>
+      <c r="AP37" s="31"/>
+      <c r="AQ37" s="31"/>
+      <c r="AR37" s="31"/>
+      <c r="AS37" s="31"/>
+      <c r="AT37" s="31"/>
+      <c r="AU37" s="31"/>
+      <c r="AV37" s="31"/>
+      <c r="AW37" s="31"/>
+      <c r="AX37" s="31"/>
+      <c r="AY37" s="31"/>
+      <c r="AZ37" s="31"/>
+      <c r="BA37" s="31"/>
+      <c r="BB37" s="31"/>
+      <c r="BC37" s="31"/>
+      <c r="BD37" s="31"/>
+      <c r="BE37" s="31"/>
+      <c r="BF37" s="31"/>
+      <c r="BG37" s="31"/>
+      <c r="BH37" s="31"/>
+      <c r="BI37" s="31"/>
+      <c r="BJ37" s="31"/>
+      <c r="BK37" s="31"/>
+      <c r="BL37" s="31"/>
+      <c r="BM37" s="31"/>
+      <c r="BN37" s="31"/>
+      <c r="BO37" s="31"/>
+      <c r="BP37" s="31"/>
+      <c r="BQ37" s="31"/>
+      <c r="BR37" s="31"/>
+      <c r="BS37" s="31"/>
+      <c r="BT37" s="31"/>
+      <c r="BU37" s="31"/>
+      <c r="BV37" s="31"/>
+      <c r="BW37" s="31"/>
+      <c r="BX37" s="31"/>
+      <c r="BY37" s="31"/>
+      <c r="BZ37" s="31"/>
+      <c r="CA37" s="31"/>
+      <c r="CB37" s="31"/>
+      <c r="CC37" s="31"/>
+      <c r="CD37" s="31"/>
+      <c r="CE37" s="31"/>
+      <c r="CF37" s="31"/>
+      <c r="CG37" s="31"/>
+      <c r="CH37" s="31"/>
+      <c r="CI37" s="32"/>
       <c r="CJ37" s="1"/>
       <c r="CK37" s="1"/>
       <c r="CL37" s="1"/>
@@ -20988,96 +20988,96 @@
       <c r="AMI37" s="1"/>
       <c r="AMJ37" s="1"/>
     </row>
-    <row r="38" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:1024" ht="18" customHeight="1" thickBot="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="90" t="s">
+      <c r="B38" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="91"/>
-      <c r="D38" s="91"/>
-      <c r="E38" s="91"/>
-      <c r="F38" s="91"/>
-      <c r="G38" s="91"/>
-      <c r="H38" s="91"/>
-      <c r="I38" s="91"/>
-      <c r="J38" s="91"/>
-      <c r="K38" s="91"/>
-      <c r="L38" s="91"/>
-      <c r="M38" s="91"/>
-      <c r="N38" s="91"/>
-      <c r="O38" s="91"/>
-      <c r="P38" s="91"/>
-      <c r="Q38" s="91"/>
-      <c r="R38" s="91"/>
-      <c r="S38" s="91"/>
-      <c r="T38" s="91"/>
-      <c r="U38" s="91"/>
-      <c r="V38" s="91"/>
-      <c r="W38" s="91"/>
-      <c r="X38" s="91"/>
-      <c r="Y38" s="91"/>
-      <c r="Z38" s="91"/>
-      <c r="AA38" s="91"/>
-      <c r="AB38" s="91"/>
-      <c r="AC38" s="91"/>
-      <c r="AD38" s="91"/>
-      <c r="AE38" s="91"/>
-      <c r="AF38" s="91"/>
-      <c r="AG38" s="91"/>
-      <c r="AH38" s="91"/>
-      <c r="AI38" s="91"/>
-      <c r="AJ38" s="91"/>
-      <c r="AK38" s="91"/>
-      <c r="AL38" s="91"/>
-      <c r="AM38" s="91"/>
-      <c r="AN38" s="91"/>
-      <c r="AO38" s="91"/>
-      <c r="AP38" s="91"/>
-      <c r="AQ38" s="91"/>
-      <c r="AR38" s="91"/>
-      <c r="AS38" s="91"/>
-      <c r="AT38" s="91"/>
-      <c r="AU38" s="91"/>
-      <c r="AV38" s="91"/>
-      <c r="AW38" s="91"/>
-      <c r="AX38" s="91"/>
-      <c r="AY38" s="91"/>
-      <c r="AZ38" s="91"/>
-      <c r="BA38" s="91"/>
-      <c r="BB38" s="91"/>
-      <c r="BC38" s="91"/>
-      <c r="BD38" s="91"/>
-      <c r="BE38" s="91"/>
-      <c r="BF38" s="91"/>
-      <c r="BG38" s="91"/>
-      <c r="BH38" s="91"/>
-      <c r="BI38" s="91"/>
-      <c r="BJ38" s="91"/>
-      <c r="BK38" s="91"/>
-      <c r="BL38" s="91"/>
-      <c r="BM38" s="91"/>
-      <c r="BN38" s="91"/>
-      <c r="BO38" s="91"/>
-      <c r="BP38" s="91"/>
-      <c r="BQ38" s="91"/>
-      <c r="BR38" s="91"/>
-      <c r="BS38" s="91"/>
-      <c r="BT38" s="91"/>
-      <c r="BU38" s="91"/>
-      <c r="BV38" s="91"/>
-      <c r="BW38" s="91"/>
-      <c r="BX38" s="91"/>
-      <c r="BY38" s="91"/>
-      <c r="BZ38" s="91"/>
-      <c r="CA38" s="91"/>
-      <c r="CB38" s="91"/>
-      <c r="CC38" s="91"/>
-      <c r="CD38" s="91"/>
-      <c r="CE38" s="91"/>
-      <c r="CF38" s="91"/>
-      <c r="CG38" s="91"/>
-      <c r="CH38" s="91"/>
-      <c r="CI38" s="92"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="68"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="68"/>
+      <c r="L38" s="68"/>
+      <c r="M38" s="68"/>
+      <c r="N38" s="68"/>
+      <c r="O38" s="68"/>
+      <c r="P38" s="68"/>
+      <c r="Q38" s="68"/>
+      <c r="R38" s="68"/>
+      <c r="S38" s="68"/>
+      <c r="T38" s="68"/>
+      <c r="U38" s="68"/>
+      <c r="V38" s="68"/>
+      <c r="W38" s="68"/>
+      <c r="X38" s="68"/>
+      <c r="Y38" s="68"/>
+      <c r="Z38" s="68"/>
+      <c r="AA38" s="68"/>
+      <c r="AB38" s="68"/>
+      <c r="AC38" s="68"/>
+      <c r="AD38" s="68"/>
+      <c r="AE38" s="68"/>
+      <c r="AF38" s="68"/>
+      <c r="AG38" s="68"/>
+      <c r="AH38" s="68"/>
+      <c r="AI38" s="68"/>
+      <c r="AJ38" s="68"/>
+      <c r="AK38" s="68"/>
+      <c r="AL38" s="68"/>
+      <c r="AM38" s="68"/>
+      <c r="AN38" s="68"/>
+      <c r="AO38" s="68"/>
+      <c r="AP38" s="68"/>
+      <c r="AQ38" s="68"/>
+      <c r="AR38" s="68"/>
+      <c r="AS38" s="68"/>
+      <c r="AT38" s="68"/>
+      <c r="AU38" s="68"/>
+      <c r="AV38" s="68"/>
+      <c r="AW38" s="68"/>
+      <c r="AX38" s="68"/>
+      <c r="AY38" s="68"/>
+      <c r="AZ38" s="68"/>
+      <c r="BA38" s="68"/>
+      <c r="BB38" s="68"/>
+      <c r="BC38" s="68"/>
+      <c r="BD38" s="68"/>
+      <c r="BE38" s="68"/>
+      <c r="BF38" s="68"/>
+      <c r="BG38" s="68"/>
+      <c r="BH38" s="68"/>
+      <c r="BI38" s="68"/>
+      <c r="BJ38" s="68"/>
+      <c r="BK38" s="68"/>
+      <c r="BL38" s="68"/>
+      <c r="BM38" s="68"/>
+      <c r="BN38" s="68"/>
+      <c r="BO38" s="68"/>
+      <c r="BP38" s="68"/>
+      <c r="BQ38" s="68"/>
+      <c r="BR38" s="68"/>
+      <c r="BS38" s="68"/>
+      <c r="BT38" s="68"/>
+      <c r="BU38" s="68"/>
+      <c r="BV38" s="68"/>
+      <c r="BW38" s="68"/>
+      <c r="BX38" s="68"/>
+      <c r="BY38" s="68"/>
+      <c r="BZ38" s="68"/>
+      <c r="CA38" s="68"/>
+      <c r="CB38" s="68"/>
+      <c r="CC38" s="68"/>
+      <c r="CD38" s="68"/>
+      <c r="CE38" s="68"/>
+      <c r="CF38" s="68"/>
+      <c r="CG38" s="68"/>
+      <c r="CH38" s="68"/>
+      <c r="CI38" s="69"/>
       <c r="CJ38" s="1"/>
       <c r="CK38" s="1"/>
       <c r="CL38" s="1"/>
@@ -22016,7 +22016,7 @@
       <c r="AMI38" s="1"/>
       <c r="AMJ38" s="1"/>
     </row>
-    <row r="39" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1024" ht="18" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -23044,41 +23044,18 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:X15"/>
-    <mergeCell ref="B18:CI18"/>
-    <mergeCell ref="B24:CI24"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:X16"/>
-    <mergeCell ref="Y16:AH16"/>
-    <mergeCell ref="AI16:AR16"/>
-    <mergeCell ref="AS16:CI16"/>
-    <mergeCell ref="J21:X21"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:X20"/>
-    <mergeCell ref="AS15:CI15"/>
-    <mergeCell ref="B36:CI36"/>
-    <mergeCell ref="C29:CI29"/>
-    <mergeCell ref="G31:BJ31"/>
-    <mergeCell ref="G32:BK34"/>
-    <mergeCell ref="B38:CI38"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:X5"/>
-    <mergeCell ref="Y5:AR5"/>
-    <mergeCell ref="AS5:CI5"/>
-    <mergeCell ref="Y15:AH15"/>
-    <mergeCell ref="AI15:AR15"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:X27"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:X4"/>
-    <mergeCell ref="Y4:AR4"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:X22"/>
-    <mergeCell ref="Y22:BK22"/>
-    <mergeCell ref="Y20:BK20"/>
-    <mergeCell ref="Y21:BK21"/>
+    <mergeCell ref="BP1:BW1"/>
+    <mergeCell ref="BX1:CA1"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:X26"/>
+    <mergeCell ref="E7:X7"/>
+    <mergeCell ref="Y7:AH7"/>
+    <mergeCell ref="AI7:AR7"/>
+    <mergeCell ref="AS7:CI7"/>
+    <mergeCell ref="E8:X8"/>
+    <mergeCell ref="Y8:AH8"/>
+    <mergeCell ref="AI8:AR8"/>
+    <mergeCell ref="AS8:CI8"/>
     <mergeCell ref="Y26:BK26"/>
     <mergeCell ref="Y27:BK27"/>
     <mergeCell ref="B7:D7"/>
@@ -23095,19 +23072,42 @@
     <mergeCell ref="H1:V1"/>
     <mergeCell ref="W1:BK1"/>
     <mergeCell ref="BL1:BO1"/>
-    <mergeCell ref="BP1:BW1"/>
-    <mergeCell ref="BX1:CA1"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:X26"/>
-    <mergeCell ref="E7:X7"/>
-    <mergeCell ref="Y7:AH7"/>
-    <mergeCell ref="AI7:AR7"/>
-    <mergeCell ref="AS7:CI7"/>
+    <mergeCell ref="Y4:AR4"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:X22"/>
+    <mergeCell ref="Y22:BK22"/>
+    <mergeCell ref="Y20:BK20"/>
+    <mergeCell ref="Y21:BK21"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:X27"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:X4"/>
     <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:X8"/>
-    <mergeCell ref="Y8:AH8"/>
-    <mergeCell ref="AI8:AR8"/>
-    <mergeCell ref="AS8:CI8"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:X5"/>
+    <mergeCell ref="Y5:AR5"/>
+    <mergeCell ref="AS5:CI5"/>
+    <mergeCell ref="Y15:AH15"/>
+    <mergeCell ref="AI15:AR15"/>
+    <mergeCell ref="B36:CI36"/>
+    <mergeCell ref="C29:CI29"/>
+    <mergeCell ref="G31:BJ31"/>
+    <mergeCell ref="G32:BK34"/>
+    <mergeCell ref="B38:CI38"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:X15"/>
+    <mergeCell ref="B18:CI18"/>
+    <mergeCell ref="B24:CI24"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:X16"/>
+    <mergeCell ref="Y16:AH16"/>
+    <mergeCell ref="AI16:AR16"/>
+    <mergeCell ref="AS16:CI16"/>
+    <mergeCell ref="J21:X21"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:X20"/>
+    <mergeCell ref="AS15:CI15"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/内部設計書/内部設計書_2_1_結果一覧画面.xlsx
+++ b/内部設計書/内部設計書_2_1_結果一覧画面.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7a503a00dd146cc3/文档/GitHub/sleepyProject/内部設計書/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_76B3054A5236E76435D45ABD984747847198827B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F806C41-5C44-4540-B5DF-2B5305723474}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="2.処理内容" sheetId="6" r:id="rId1"/>
@@ -304,26 +298,12 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>GetResult</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>　　　　3. AllResultOutputFormに以下の項目を追加する</t>
     <rPh sb="27" eb="29">
       <t>イカ</t>
     </rPh>
     <rPh sb="30" eb="32">
       <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>試験結果を取得サービス</t>
-    <rPh sb="0" eb="4">
-      <t>シケンケッカ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シュトク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -361,15 +341,29 @@
     <t>AllResultEntity.点数リスト</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>試験結果を取得するサービス</t>
+    <rPh sb="0" eb="4">
+      <t>シケンケッカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>getResult</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -983,11 +977,39 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1004,8 +1026,85 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1016,32 +1115,11 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1082,110 +1160,26 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="TableStyleLight1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="TableStyleLight1" xfId="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1523,128 +1517,128 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AS29" sqref="AS29:CI29"/>
+      <selection activeCell="BP2" sqref="BP2:BW2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="0.6640625" style="4"/>
-    <col min="2" max="87" width="1.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="0.625" style="4"/>
+    <col min="2" max="87" width="1.625" style="4" customWidth="1"/>
     <col min="88" max="1025" width="9" style="4"/>
     <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1025" ht="18" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="53" t="s">
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="54" t="s">
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
-      <c r="AF1" s="54"/>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="54"/>
-      <c r="AI1" s="54"/>
-      <c r="AJ1" s="54"/>
-      <c r="AK1" s="54"/>
-      <c r="AL1" s="54"/>
-      <c r="AM1" s="54"/>
-      <c r="AN1" s="54"/>
-      <c r="AO1" s="54"/>
-      <c r="AP1" s="54"/>
-      <c r="AQ1" s="54"/>
-      <c r="AR1" s="54"/>
-      <c r="AS1" s="54"/>
-      <c r="AT1" s="54"/>
-      <c r="AU1" s="54"/>
-      <c r="AV1" s="54"/>
-      <c r="AW1" s="54"/>
-      <c r="AX1" s="54"/>
-      <c r="AY1" s="54"/>
-      <c r="AZ1" s="54"/>
-      <c r="BA1" s="54"/>
-      <c r="BB1" s="54"/>
-      <c r="BC1" s="54"/>
-      <c r="BD1" s="54"/>
-      <c r="BE1" s="54"/>
-      <c r="BF1" s="54"/>
-      <c r="BG1" s="54"/>
-      <c r="BH1" s="54"/>
-      <c r="BI1" s="54"/>
-      <c r="BJ1" s="54"/>
-      <c r="BK1" s="54"/>
-      <c r="BL1" s="55" t="s">
+      <c r="X1" s="90"/>
+      <c r="Y1" s="90"/>
+      <c r="Z1" s="90"/>
+      <c r="AA1" s="90"/>
+      <c r="AB1" s="90"/>
+      <c r="AC1" s="90"/>
+      <c r="AD1" s="90"/>
+      <c r="AE1" s="90"/>
+      <c r="AF1" s="90"/>
+      <c r="AG1" s="90"/>
+      <c r="AH1" s="90"/>
+      <c r="AI1" s="90"/>
+      <c r="AJ1" s="90"/>
+      <c r="AK1" s="90"/>
+      <c r="AL1" s="90"/>
+      <c r="AM1" s="90"/>
+      <c r="AN1" s="90"/>
+      <c r="AO1" s="90"/>
+      <c r="AP1" s="90"/>
+      <c r="AQ1" s="90"/>
+      <c r="AR1" s="90"/>
+      <c r="AS1" s="90"/>
+      <c r="AT1" s="90"/>
+      <c r="AU1" s="90"/>
+      <c r="AV1" s="90"/>
+      <c r="AW1" s="90"/>
+      <c r="AX1" s="90"/>
+      <c r="AY1" s="90"/>
+      <c r="AZ1" s="90"/>
+      <c r="BA1" s="90"/>
+      <c r="BB1" s="90"/>
+      <c r="BC1" s="90"/>
+      <c r="BD1" s="90"/>
+      <c r="BE1" s="90"/>
+      <c r="BF1" s="90"/>
+      <c r="BG1" s="90"/>
+      <c r="BH1" s="90"/>
+      <c r="BI1" s="90"/>
+      <c r="BJ1" s="90"/>
+      <c r="BK1" s="90"/>
+      <c r="BL1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="BM1" s="55"/>
-      <c r="BN1" s="55"/>
-      <c r="BO1" s="55"/>
-      <c r="BP1" s="23" t="s">
+      <c r="BM1" s="91"/>
+      <c r="BN1" s="91"/>
+      <c r="BO1" s="91"/>
+      <c r="BP1" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="BQ1" s="23"/>
-      <c r="BR1" s="23"/>
-      <c r="BS1" s="23"/>
-      <c r="BT1" s="23"/>
-      <c r="BU1" s="23"/>
-      <c r="BV1" s="23"/>
-      <c r="BW1" s="23"/>
-      <c r="BX1" s="24" t="s">
+      <c r="BQ1" s="92"/>
+      <c r="BR1" s="92"/>
+      <c r="BS1" s="92"/>
+      <c r="BT1" s="92"/>
+      <c r="BU1" s="92"/>
+      <c r="BV1" s="92"/>
+      <c r="BW1" s="92"/>
+      <c r="BX1" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="BY1" s="24"/>
-      <c r="BZ1" s="24"/>
-      <c r="CA1" s="24"/>
-      <c r="CB1" s="43"/>
-      <c r="CC1" s="43"/>
-      <c r="CD1" s="43"/>
-      <c r="CE1" s="43"/>
-      <c r="CF1" s="43"/>
-      <c r="CG1" s="43"/>
-      <c r="CH1" s="43"/>
-      <c r="CI1" s="43"/>
+      <c r="BY1" s="93"/>
+      <c r="BZ1" s="93"/>
+      <c r="CA1" s="93"/>
+      <c r="CB1" s="79"/>
+      <c r="CC1" s="79"/>
+      <c r="CD1" s="79"/>
+      <c r="CE1" s="79"/>
+      <c r="CF1" s="79"/>
+      <c r="CG1" s="79"/>
+      <c r="CH1" s="79"/>
+      <c r="CI1" s="79"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -2584,106 +2578,106 @@
       <c r="AMJ1" s="1"/>
       <c r="AMK1" s="2"/>
     </row>
-    <row r="2" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="45" t="s">
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="46" t="s">
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81"/>
+      <c r="W2" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="46"/>
-      <c r="AI2" s="46"/>
-      <c r="AJ2" s="46"/>
-      <c r="AK2" s="46"/>
-      <c r="AL2" s="46"/>
-      <c r="AM2" s="46"/>
-      <c r="AN2" s="46"/>
-      <c r="AO2" s="46"/>
-      <c r="AP2" s="46"/>
-      <c r="AQ2" s="46"/>
-      <c r="AR2" s="46"/>
-      <c r="AS2" s="46"/>
-      <c r="AT2" s="46"/>
-      <c r="AU2" s="46"/>
-      <c r="AV2" s="46"/>
-      <c r="AW2" s="46"/>
-      <c r="AX2" s="46"/>
-      <c r="AY2" s="46"/>
-      <c r="AZ2" s="46"/>
-      <c r="BA2" s="46"/>
-      <c r="BB2" s="46"/>
-      <c r="BC2" s="46"/>
-      <c r="BD2" s="46"/>
-      <c r="BE2" s="46"/>
-      <c r="BF2" s="46"/>
-      <c r="BG2" s="46"/>
-      <c r="BH2" s="46"/>
-      <c r="BI2" s="46"/>
-      <c r="BJ2" s="46"/>
-      <c r="BK2" s="46"/>
-      <c r="BL2" s="47" t="s">
+      <c r="X2" s="82"/>
+      <c r="Y2" s="82"/>
+      <c r="Z2" s="82"/>
+      <c r="AA2" s="82"/>
+      <c r="AB2" s="82"/>
+      <c r="AC2" s="82"/>
+      <c r="AD2" s="82"/>
+      <c r="AE2" s="82"/>
+      <c r="AF2" s="82"/>
+      <c r="AG2" s="82"/>
+      <c r="AH2" s="82"/>
+      <c r="AI2" s="82"/>
+      <c r="AJ2" s="82"/>
+      <c r="AK2" s="82"/>
+      <c r="AL2" s="82"/>
+      <c r="AM2" s="82"/>
+      <c r="AN2" s="82"/>
+      <c r="AO2" s="82"/>
+      <c r="AP2" s="82"/>
+      <c r="AQ2" s="82"/>
+      <c r="AR2" s="82"/>
+      <c r="AS2" s="82"/>
+      <c r="AT2" s="82"/>
+      <c r="AU2" s="82"/>
+      <c r="AV2" s="82"/>
+      <c r="AW2" s="82"/>
+      <c r="AX2" s="82"/>
+      <c r="AY2" s="82"/>
+      <c r="AZ2" s="82"/>
+      <c r="BA2" s="82"/>
+      <c r="BB2" s="82"/>
+      <c r="BC2" s="82"/>
+      <c r="BD2" s="82"/>
+      <c r="BE2" s="82"/>
+      <c r="BF2" s="82"/>
+      <c r="BG2" s="82"/>
+      <c r="BH2" s="82"/>
+      <c r="BI2" s="82"/>
+      <c r="BJ2" s="82"/>
+      <c r="BK2" s="82"/>
+      <c r="BL2" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="47"/>
-      <c r="BN2" s="47"/>
-      <c r="BO2" s="47"/>
-      <c r="BP2" s="48">
+      <c r="BM2" s="83"/>
+      <c r="BN2" s="83"/>
+      <c r="BO2" s="83"/>
+      <c r="BP2" s="84">
         <v>44691</v>
       </c>
-      <c r="BQ2" s="48"/>
-      <c r="BR2" s="48"/>
-      <c r="BS2" s="48"/>
-      <c r="BT2" s="48"/>
-      <c r="BU2" s="48"/>
-      <c r="BV2" s="48"/>
-      <c r="BW2" s="48"/>
-      <c r="BX2" s="49" t="s">
+      <c r="BQ2" s="84"/>
+      <c r="BR2" s="84"/>
+      <c r="BS2" s="84"/>
+      <c r="BT2" s="84"/>
+      <c r="BU2" s="84"/>
+      <c r="BV2" s="84"/>
+      <c r="BW2" s="84"/>
+      <c r="BX2" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="49"/>
-      <c r="BZ2" s="49"/>
-      <c r="CA2" s="49"/>
-      <c r="CB2" s="50"/>
-      <c r="CC2" s="51"/>
-      <c r="CD2" s="51"/>
-      <c r="CE2" s="51"/>
-      <c r="CF2" s="51"/>
-      <c r="CG2" s="51"/>
-      <c r="CH2" s="51"/>
-      <c r="CI2" s="51"/>
+      <c r="BY2" s="85"/>
+      <c r="BZ2" s="85"/>
+      <c r="CA2" s="85"/>
+      <c r="CB2" s="86"/>
+      <c r="CC2" s="87"/>
+      <c r="CD2" s="87"/>
+      <c r="CE2" s="87"/>
+      <c r="CF2" s="87"/>
+      <c r="CG2" s="87"/>
+      <c r="CH2" s="87"/>
+      <c r="CI2" s="87"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
@@ -3623,7 +3617,7 @@
       <c r="AMJ2" s="1"/>
       <c r="AMK2" s="2"/>
     </row>
-    <row r="3" spans="1:1025" s="3" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1025" s="3" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
@@ -3711,102 +3705,102 @@
       <c r="CH3" s="20"/>
       <c r="CI3" s="20"/>
     </row>
-    <row r="4" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1025" ht="18" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="56" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="56"/>
-      <c r="U4" s="56"/>
-      <c r="V4" s="56"/>
-      <c r="W4" s="56"/>
-      <c r="X4" s="56"/>
-      <c r="Y4" s="56" t="s">
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="77"/>
+      <c r="W4" s="77"/>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="Z4" s="56"/>
-      <c r="AA4" s="56"/>
-      <c r="AB4" s="56"/>
-      <c r="AC4" s="56"/>
-      <c r="AD4" s="56"/>
-      <c r="AE4" s="56"/>
-      <c r="AF4" s="56"/>
-      <c r="AG4" s="56"/>
-      <c r="AH4" s="56"/>
-      <c r="AI4" s="56"/>
-      <c r="AJ4" s="56"/>
-      <c r="AK4" s="56"/>
-      <c r="AL4" s="56"/>
-      <c r="AM4" s="56"/>
-      <c r="AN4" s="56"/>
-      <c r="AO4" s="56"/>
-      <c r="AP4" s="56"/>
-      <c r="AQ4" s="56"/>
-      <c r="AR4" s="56"/>
-      <c r="AS4" s="34" t="s">
+      <c r="Z4" s="77"/>
+      <c r="AA4" s="77"/>
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="77"/>
+      <c r="AD4" s="77"/>
+      <c r="AE4" s="77"/>
+      <c r="AF4" s="77"/>
+      <c r="AG4" s="77"/>
+      <c r="AH4" s="77"/>
+      <c r="AI4" s="77"/>
+      <c r="AJ4" s="77"/>
+      <c r="AK4" s="77"/>
+      <c r="AL4" s="77"/>
+      <c r="AM4" s="77"/>
+      <c r="AN4" s="77"/>
+      <c r="AO4" s="77"/>
+      <c r="AP4" s="77"/>
+      <c r="AQ4" s="77"/>
+      <c r="AR4" s="77"/>
+      <c r="AS4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="AT4" s="34"/>
-      <c r="AU4" s="34"/>
-      <c r="AV4" s="34"/>
-      <c r="AW4" s="34"/>
-      <c r="AX4" s="34"/>
-      <c r="AY4" s="34"/>
-      <c r="AZ4" s="34"/>
-      <c r="BA4" s="34"/>
-      <c r="BB4" s="34"/>
-      <c r="BC4" s="34"/>
-      <c r="BD4" s="34"/>
-      <c r="BE4" s="34"/>
-      <c r="BF4" s="34"/>
-      <c r="BG4" s="34"/>
-      <c r="BH4" s="34"/>
-      <c r="BI4" s="34"/>
-      <c r="BJ4" s="34"/>
-      <c r="BK4" s="34"/>
-      <c r="BL4" s="34"/>
-      <c r="BM4" s="34"/>
-      <c r="BN4" s="34"/>
-      <c r="BO4" s="34"/>
-      <c r="BP4" s="34"/>
-      <c r="BQ4" s="34"/>
-      <c r="BR4" s="34"/>
-      <c r="BS4" s="34"/>
-      <c r="BT4" s="34"/>
-      <c r="BU4" s="34"/>
-      <c r="BV4" s="34"/>
-      <c r="BW4" s="34"/>
-      <c r="BX4" s="34"/>
-      <c r="BY4" s="34"/>
-      <c r="BZ4" s="34"/>
-      <c r="CA4" s="34"/>
-      <c r="CB4" s="34"/>
-      <c r="CC4" s="34"/>
-      <c r="CD4" s="34"/>
-      <c r="CE4" s="34"/>
-      <c r="CF4" s="34"/>
-      <c r="CG4" s="34"/>
-      <c r="CH4" s="34"/>
-      <c r="CI4" s="34"/>
+      <c r="AT4" s="71"/>
+      <c r="AU4" s="71"/>
+      <c r="AV4" s="71"/>
+      <c r="AW4" s="71"/>
+      <c r="AX4" s="71"/>
+      <c r="AY4" s="71"/>
+      <c r="AZ4" s="71"/>
+      <c r="BA4" s="71"/>
+      <c r="BB4" s="71"/>
+      <c r="BC4" s="71"/>
+      <c r="BD4" s="71"/>
+      <c r="BE4" s="71"/>
+      <c r="BF4" s="71"/>
+      <c r="BG4" s="71"/>
+      <c r="BH4" s="71"/>
+      <c r="BI4" s="71"/>
+      <c r="BJ4" s="71"/>
+      <c r="BK4" s="71"/>
+      <c r="BL4" s="71"/>
+      <c r="BM4" s="71"/>
+      <c r="BN4" s="71"/>
+      <c r="BO4" s="71"/>
+      <c r="BP4" s="71"/>
+      <c r="BQ4" s="71"/>
+      <c r="BR4" s="71"/>
+      <c r="BS4" s="71"/>
+      <c r="BT4" s="71"/>
+      <c r="BU4" s="71"/>
+      <c r="BV4" s="71"/>
+      <c r="BW4" s="71"/>
+      <c r="BX4" s="71"/>
+      <c r="BY4" s="71"/>
+      <c r="BZ4" s="71"/>
+      <c r="CA4" s="71"/>
+      <c r="CB4" s="71"/>
+      <c r="CC4" s="71"/>
+      <c r="CD4" s="71"/>
+      <c r="CE4" s="71"/>
+      <c r="CF4" s="71"/>
+      <c r="CG4" s="71"/>
+      <c r="CH4" s="71"/>
+      <c r="CI4" s="71"/>
       <c r="CJ4" s="2"/>
       <c r="CK4" s="2"/>
       <c r="CL4" s="2"/>
@@ -4746,102 +4740,102 @@
       <c r="AMJ4" s="2"/>
       <c r="AMK4" s="2"/>
     </row>
-    <row r="5" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A5" s="2"/>
-      <c r="B5" s="60">
+      <c r="B5" s="66">
         <v>1</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="61" t="s">
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="62"/>
-      <c r="T5" s="62"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
-      <c r="W5" s="62"/>
-      <c r="X5" s="62"/>
-      <c r="Y5" s="62" t="s">
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="72"/>
+      <c r="T5" s="72"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
+      <c r="W5" s="72"/>
+      <c r="X5" s="72"/>
+      <c r="Y5" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="Z5" s="62"/>
-      <c r="AA5" s="62"/>
-      <c r="AB5" s="62"/>
-      <c r="AC5" s="62"/>
-      <c r="AD5" s="62"/>
-      <c r="AE5" s="62"/>
-      <c r="AF5" s="62"/>
-      <c r="AG5" s="62"/>
-      <c r="AH5" s="62"/>
-      <c r="AI5" s="62"/>
-      <c r="AJ5" s="62"/>
-      <c r="AK5" s="62"/>
-      <c r="AL5" s="62"/>
-      <c r="AM5" s="62"/>
-      <c r="AN5" s="62"/>
-      <c r="AO5" s="62"/>
-      <c r="AP5" s="62"/>
-      <c r="AQ5" s="62"/>
-      <c r="AR5" s="62"/>
-      <c r="AS5" s="63" t="s">
+      <c r="Z5" s="72"/>
+      <c r="AA5" s="72"/>
+      <c r="AB5" s="72"/>
+      <c r="AC5" s="72"/>
+      <c r="AD5" s="72"/>
+      <c r="AE5" s="72"/>
+      <c r="AF5" s="72"/>
+      <c r="AG5" s="72"/>
+      <c r="AH5" s="72"/>
+      <c r="AI5" s="72"/>
+      <c r="AJ5" s="72"/>
+      <c r="AK5" s="72"/>
+      <c r="AL5" s="72"/>
+      <c r="AM5" s="72"/>
+      <c r="AN5" s="72"/>
+      <c r="AO5" s="72"/>
+      <c r="AP5" s="72"/>
+      <c r="AQ5" s="72"/>
+      <c r="AR5" s="72"/>
+      <c r="AS5" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="AT5" s="63"/>
-      <c r="AU5" s="63"/>
-      <c r="AV5" s="63"/>
-      <c r="AW5" s="63"/>
-      <c r="AX5" s="63"/>
-      <c r="AY5" s="63"/>
-      <c r="AZ5" s="63"/>
-      <c r="BA5" s="63"/>
-      <c r="BB5" s="63"/>
-      <c r="BC5" s="63"/>
-      <c r="BD5" s="63"/>
-      <c r="BE5" s="63"/>
-      <c r="BF5" s="63"/>
-      <c r="BG5" s="63"/>
-      <c r="BH5" s="63"/>
-      <c r="BI5" s="63"/>
-      <c r="BJ5" s="63"/>
-      <c r="BK5" s="63"/>
-      <c r="BL5" s="63"/>
-      <c r="BM5" s="63"/>
-      <c r="BN5" s="63"/>
-      <c r="BO5" s="63"/>
-      <c r="BP5" s="63"/>
-      <c r="BQ5" s="63"/>
-      <c r="BR5" s="63"/>
-      <c r="BS5" s="63"/>
-      <c r="BT5" s="63"/>
-      <c r="BU5" s="63"/>
-      <c r="BV5" s="63"/>
-      <c r="BW5" s="63"/>
-      <c r="BX5" s="63"/>
-      <c r="BY5" s="63"/>
-      <c r="BZ5" s="63"/>
-      <c r="CA5" s="63"/>
-      <c r="CB5" s="63"/>
-      <c r="CC5" s="63"/>
-      <c r="CD5" s="63"/>
-      <c r="CE5" s="63"/>
-      <c r="CF5" s="63"/>
-      <c r="CG5" s="63"/>
-      <c r="CH5" s="63"/>
-      <c r="CI5" s="63"/>
+      <c r="AT5" s="73"/>
+      <c r="AU5" s="73"/>
+      <c r="AV5" s="73"/>
+      <c r="AW5" s="73"/>
+      <c r="AX5" s="73"/>
+      <c r="AY5" s="73"/>
+      <c r="AZ5" s="73"/>
+      <c r="BA5" s="73"/>
+      <c r="BB5" s="73"/>
+      <c r="BC5" s="73"/>
+      <c r="BD5" s="73"/>
+      <c r="BE5" s="73"/>
+      <c r="BF5" s="73"/>
+      <c r="BG5" s="73"/>
+      <c r="BH5" s="73"/>
+      <c r="BI5" s="73"/>
+      <c r="BJ5" s="73"/>
+      <c r="BK5" s="73"/>
+      <c r="BL5" s="73"/>
+      <c r="BM5" s="73"/>
+      <c r="BN5" s="73"/>
+      <c r="BO5" s="73"/>
+      <c r="BP5" s="73"/>
+      <c r="BQ5" s="73"/>
+      <c r="BR5" s="73"/>
+      <c r="BS5" s="73"/>
+      <c r="BT5" s="73"/>
+      <c r="BU5" s="73"/>
+      <c r="BV5" s="73"/>
+      <c r="BW5" s="73"/>
+      <c r="BX5" s="73"/>
+      <c r="BY5" s="73"/>
+      <c r="BZ5" s="73"/>
+      <c r="CA5" s="73"/>
+      <c r="CB5" s="73"/>
+      <c r="CC5" s="73"/>
+      <c r="CD5" s="73"/>
+      <c r="CE5" s="73"/>
+      <c r="CF5" s="73"/>
+      <c r="CG5" s="73"/>
+      <c r="CH5" s="73"/>
+      <c r="CI5" s="73"/>
       <c r="CJ5" s="2"/>
       <c r="CK5" s="2"/>
       <c r="CL5" s="2"/>
@@ -5781,7 +5775,7 @@
       <c r="AMJ5" s="2"/>
       <c r="AMK5" s="2"/>
     </row>
-    <row r="6" spans="1:1025" s="3" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1025" s="3" customFormat="1" ht="13.9" customHeight="1" thickBot="1">
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
@@ -5869,203 +5863,203 @@
       <c r="CH6" s="20"/>
       <c r="CI6" s="20"/>
     </row>
-    <row r="7" spans="1:1025" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="77"/>
-      <c r="B7" s="42" t="s">
+    <row r="7" spans="1:1025" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="26"/>
+      <c r="B7" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="30" t="s">
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="31" t="s">
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="62"/>
+      <c r="T7" s="62"/>
+      <c r="U7" s="62"/>
+      <c r="V7" s="62"/>
+      <c r="W7" s="62"/>
+      <c r="X7" s="62"/>
+      <c r="Y7" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="Z7" s="32"/>
-      <c r="AA7" s="32"/>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="32"/>
-      <c r="AG7" s="32"/>
-      <c r="AH7" s="33"/>
-      <c r="AI7" s="31" t="s">
+      <c r="Z7" s="75"/>
+      <c r="AA7" s="75"/>
+      <c r="AB7" s="75"/>
+      <c r="AC7" s="75"/>
+      <c r="AD7" s="75"/>
+      <c r="AE7" s="75"/>
+      <c r="AF7" s="75"/>
+      <c r="AG7" s="75"/>
+      <c r="AH7" s="76"/>
+      <c r="AI7" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="AJ7" s="32"/>
-      <c r="AK7" s="32"/>
-      <c r="AL7" s="32"/>
-      <c r="AM7" s="32"/>
-      <c r="AN7" s="32"/>
-      <c r="AO7" s="32"/>
-      <c r="AP7" s="32"/>
-      <c r="AQ7" s="32"/>
-      <c r="AR7" s="33"/>
-      <c r="AS7" s="34" t="s">
+      <c r="AJ7" s="75"/>
+      <c r="AK7" s="75"/>
+      <c r="AL7" s="75"/>
+      <c r="AM7" s="75"/>
+      <c r="AN7" s="75"/>
+      <c r="AO7" s="75"/>
+      <c r="AP7" s="75"/>
+      <c r="AQ7" s="75"/>
+      <c r="AR7" s="76"/>
+      <c r="AS7" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="AT7" s="34"/>
-      <c r="AU7" s="34"/>
-      <c r="AV7" s="34"/>
-      <c r="AW7" s="34"/>
-      <c r="AX7" s="34"/>
-      <c r="AY7" s="34"/>
-      <c r="AZ7" s="34"/>
-      <c r="BA7" s="34"/>
-      <c r="BB7" s="34"/>
-      <c r="BC7" s="34"/>
-      <c r="BD7" s="34"/>
-      <c r="BE7" s="34"/>
-      <c r="BF7" s="34"/>
-      <c r="BG7" s="34"/>
-      <c r="BH7" s="34"/>
-      <c r="BI7" s="34"/>
-      <c r="BJ7" s="34"/>
-      <c r="BK7" s="34"/>
-      <c r="BL7" s="34"/>
-      <c r="BM7" s="34"/>
-      <c r="BN7" s="34"/>
-      <c r="BO7" s="34"/>
-      <c r="BP7" s="34"/>
-      <c r="BQ7" s="34"/>
-      <c r="BR7" s="34"/>
-      <c r="BS7" s="34"/>
-      <c r="BT7" s="34"/>
-      <c r="BU7" s="34"/>
-      <c r="BV7" s="34"/>
-      <c r="BW7" s="34"/>
-      <c r="BX7" s="34"/>
-      <c r="BY7" s="34"/>
-      <c r="BZ7" s="34"/>
-      <c r="CA7" s="34"/>
-      <c r="CB7" s="34"/>
-      <c r="CC7" s="34"/>
-      <c r="CD7" s="34"/>
-      <c r="CE7" s="34"/>
-      <c r="CF7" s="34"/>
-      <c r="CG7" s="34"/>
-      <c r="CH7" s="34"/>
-      <c r="CI7" s="34"/>
+      <c r="AT7" s="71"/>
+      <c r="AU7" s="71"/>
+      <c r="AV7" s="71"/>
+      <c r="AW7" s="71"/>
+      <c r="AX7" s="71"/>
+      <c r="AY7" s="71"/>
+      <c r="AZ7" s="71"/>
+      <c r="BA7" s="71"/>
+      <c r="BB7" s="71"/>
+      <c r="BC7" s="71"/>
+      <c r="BD7" s="71"/>
+      <c r="BE7" s="71"/>
+      <c r="BF7" s="71"/>
+      <c r="BG7" s="71"/>
+      <c r="BH7" s="71"/>
+      <c r="BI7" s="71"/>
+      <c r="BJ7" s="71"/>
+      <c r="BK7" s="71"/>
+      <c r="BL7" s="71"/>
+      <c r="BM7" s="71"/>
+      <c r="BN7" s="71"/>
+      <c r="BO7" s="71"/>
+      <c r="BP7" s="71"/>
+      <c r="BQ7" s="71"/>
+      <c r="BR7" s="71"/>
+      <c r="BS7" s="71"/>
+      <c r="BT7" s="71"/>
+      <c r="BU7" s="71"/>
+      <c r="BV7" s="71"/>
+      <c r="BW7" s="71"/>
+      <c r="BX7" s="71"/>
+      <c r="BY7" s="71"/>
+      <c r="BZ7" s="71"/>
+      <c r="CA7" s="71"/>
+      <c r="CB7" s="71"/>
+      <c r="CC7" s="71"/>
+      <c r="CD7" s="71"/>
+      <c r="CE7" s="71"/>
+      <c r="CF7" s="71"/>
+      <c r="CG7" s="71"/>
+      <c r="CH7" s="71"/>
+      <c r="CI7" s="71"/>
     </row>
-    <row r="8" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="78"/>
-      <c r="B8" s="60">
+    <row r="8" spans="1:1025" ht="18" customHeight="1" thickBot="1">
+      <c r="A8" s="27"/>
+      <c r="B8" s="66">
         <v>2</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="35" t="s">
-        <v>43</v>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="94" t="s">
+        <v>46</v>
       </c>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
-      <c r="S8" s="36"/>
-      <c r="T8" s="36"/>
-      <c r="U8" s="36"/>
-      <c r="V8" s="36"/>
-      <c r="W8" s="36"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="35" t="s">
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="95"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="95"/>
+      <c r="P8" s="95"/>
+      <c r="Q8" s="95"/>
+      <c r="R8" s="95"/>
+      <c r="S8" s="95"/>
+      <c r="T8" s="95"/>
+      <c r="U8" s="95"/>
+      <c r="V8" s="95"/>
+      <c r="W8" s="95"/>
+      <c r="X8" s="96"/>
+      <c r="Y8" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="Z8" s="36"/>
-      <c r="AA8" s="36"/>
-      <c r="AB8" s="36"/>
-      <c r="AC8" s="36"/>
-      <c r="AD8" s="36"/>
-      <c r="AE8" s="36"/>
-      <c r="AF8" s="36"/>
-      <c r="AG8" s="36"/>
-      <c r="AH8" s="37"/>
-      <c r="AI8" s="35" t="s">
+      <c r="Z8" s="95"/>
+      <c r="AA8" s="95"/>
+      <c r="AB8" s="95"/>
+      <c r="AC8" s="95"/>
+      <c r="AD8" s="95"/>
+      <c r="AE8" s="95"/>
+      <c r="AF8" s="95"/>
+      <c r="AG8" s="95"/>
+      <c r="AH8" s="96"/>
+      <c r="AI8" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="AJ8" s="36"/>
-      <c r="AK8" s="36"/>
-      <c r="AL8" s="36"/>
-      <c r="AM8" s="36"/>
-      <c r="AN8" s="36"/>
-      <c r="AO8" s="36"/>
-      <c r="AP8" s="36"/>
-      <c r="AQ8" s="36"/>
-      <c r="AR8" s="37"/>
-      <c r="AS8" s="38" t="s">
-        <v>41</v>
+      <c r="AJ8" s="95"/>
+      <c r="AK8" s="95"/>
+      <c r="AL8" s="95"/>
+      <c r="AM8" s="95"/>
+      <c r="AN8" s="95"/>
+      <c r="AO8" s="95"/>
+      <c r="AP8" s="95"/>
+      <c r="AQ8" s="95"/>
+      <c r="AR8" s="96"/>
+      <c r="AS8" s="70" t="s">
+        <v>47</v>
       </c>
-      <c r="AT8" s="38"/>
-      <c r="AU8" s="38"/>
-      <c r="AV8" s="38"/>
-      <c r="AW8" s="38"/>
-      <c r="AX8" s="38"/>
-      <c r="AY8" s="38"/>
-      <c r="AZ8" s="38"/>
-      <c r="BA8" s="38"/>
-      <c r="BB8" s="38"/>
-      <c r="BC8" s="38"/>
-      <c r="BD8" s="38"/>
-      <c r="BE8" s="38"/>
-      <c r="BF8" s="38"/>
-      <c r="BG8" s="38"/>
-      <c r="BH8" s="38"/>
-      <c r="BI8" s="38"/>
-      <c r="BJ8" s="38"/>
-      <c r="BK8" s="38"/>
-      <c r="BL8" s="38"/>
-      <c r="BM8" s="38"/>
-      <c r="BN8" s="38"/>
-      <c r="BO8" s="38"/>
-      <c r="BP8" s="38"/>
-      <c r="BQ8" s="38"/>
-      <c r="BR8" s="38"/>
-      <c r="BS8" s="38"/>
-      <c r="BT8" s="38"/>
-      <c r="BU8" s="38"/>
-      <c r="BV8" s="38"/>
-      <c r="BW8" s="38"/>
-      <c r="BX8" s="38"/>
-      <c r="BY8" s="38"/>
-      <c r="BZ8" s="38"/>
-      <c r="CA8" s="38"/>
-      <c r="CB8" s="38"/>
-      <c r="CC8" s="38"/>
-      <c r="CD8" s="38"/>
-      <c r="CE8" s="38"/>
-      <c r="CF8" s="38"/>
-      <c r="CG8" s="38"/>
-      <c r="CH8" s="38"/>
-      <c r="CI8" s="38"/>
+      <c r="AT8" s="70"/>
+      <c r="AU8" s="70"/>
+      <c r="AV8" s="70"/>
+      <c r="AW8" s="70"/>
+      <c r="AX8" s="70"/>
+      <c r="AY8" s="70"/>
+      <c r="AZ8" s="70"/>
+      <c r="BA8" s="70"/>
+      <c r="BB8" s="70"/>
+      <c r="BC8" s="70"/>
+      <c r="BD8" s="70"/>
+      <c r="BE8" s="70"/>
+      <c r="BF8" s="70"/>
+      <c r="BG8" s="70"/>
+      <c r="BH8" s="70"/>
+      <c r="BI8" s="70"/>
+      <c r="BJ8" s="70"/>
+      <c r="BK8" s="70"/>
+      <c r="BL8" s="70"/>
+      <c r="BM8" s="70"/>
+      <c r="BN8" s="70"/>
+      <c r="BO8" s="70"/>
+      <c r="BP8" s="70"/>
+      <c r="BQ8" s="70"/>
+      <c r="BR8" s="70"/>
+      <c r="BS8" s="70"/>
+      <c r="BT8" s="70"/>
+      <c r="BU8" s="70"/>
+      <c r="BV8" s="70"/>
+      <c r="BW8" s="70"/>
+      <c r="BX8" s="70"/>
+      <c r="BY8" s="70"/>
+      <c r="BZ8" s="70"/>
+      <c r="CA8" s="70"/>
+      <c r="CB8" s="70"/>
+      <c r="CC8" s="70"/>
+      <c r="CD8" s="70"/>
+      <c r="CE8" s="70"/>
+      <c r="CF8" s="70"/>
+      <c r="CG8" s="70"/>
+      <c r="CH8" s="70"/>
+      <c r="CI8" s="70"/>
       <c r="CJ8" s="1"/>
       <c r="CK8" s="1"/>
       <c r="CL8" s="1"/>
@@ -7004,8 +6998,8 @@
       <c r="AMI8" s="1"/>
       <c r="AMJ8" s="1"/>
     </row>
-    <row r="9" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="79"/>
+    <row r="9" spans="1:1025" ht="18" customHeight="1">
+      <c r="A9" s="28"/>
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -8030,17 +8024,17 @@
       <c r="AMI9" s="1"/>
       <c r="AMJ9" s="1"/>
     </row>
-    <row r="10" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="79"/>
+    <row r="10" spans="1:1025" ht="18" customHeight="1">
+      <c r="A10" s="28"/>
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="80" t="s">
+      <c r="E10" s="29" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="81"/>
+      <c r="H10" s="30"/>
       <c r="I10" s="9" t="s">
         <v>36</v>
       </c>
@@ -9060,77 +9054,77 @@
       <c r="AMI10" s="1"/>
       <c r="AMJ10" s="1"/>
     </row>
-    <row r="11" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="79"/>
+    <row r="11" spans="1:1025" ht="18" customHeight="1">
+      <c r="A11" s="28"/>
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="80"/>
+      <c r="E11" s="29"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="28" t="s">
+      <c r="I11" s="38"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="27"/>
-      <c r="Z11" s="25" t="s">
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="38"/>
+      <c r="W11" s="38"/>
+      <c r="X11" s="38"/>
+      <c r="Y11" s="39"/>
+      <c r="Z11" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="AA11" s="39"/>
-      <c r="AB11" s="39"/>
-      <c r="AC11" s="39"/>
-      <c r="AD11" s="39"/>
-      <c r="AE11" s="39"/>
-      <c r="AF11" s="39"/>
-      <c r="AG11" s="39"/>
-      <c r="AH11" s="39"/>
-      <c r="AI11" s="39"/>
-      <c r="AJ11" s="39"/>
-      <c r="AK11" s="39"/>
-      <c r="AL11" s="39"/>
-      <c r="AM11" s="39"/>
-      <c r="AN11" s="39"/>
-      <c r="AO11" s="39"/>
-      <c r="AP11" s="39"/>
-      <c r="AQ11" s="39"/>
-      <c r="AR11" s="39"/>
-      <c r="AS11" s="39"/>
-      <c r="AT11" s="39"/>
-      <c r="AU11" s="39"/>
-      <c r="AV11" s="39"/>
-      <c r="AW11" s="39"/>
-      <c r="AX11" s="39"/>
-      <c r="AY11" s="39"/>
-      <c r="AZ11" s="39"/>
-      <c r="BA11" s="39"/>
-      <c r="BB11" s="39"/>
-      <c r="BC11" s="39"/>
-      <c r="BD11" s="39"/>
-      <c r="BE11" s="39"/>
-      <c r="BF11" s="39"/>
-      <c r="BG11" s="39"/>
-      <c r="BH11" s="39"/>
-      <c r="BI11" s="39"/>
-      <c r="BJ11" s="39"/>
-      <c r="BK11" s="39"/>
-      <c r="BL11" s="40"/>
+      <c r="AA11" s="42"/>
+      <c r="AB11" s="42"/>
+      <c r="AC11" s="42"/>
+      <c r="AD11" s="42"/>
+      <c r="AE11" s="42"/>
+      <c r="AF11" s="42"/>
+      <c r="AG11" s="42"/>
+      <c r="AH11" s="42"/>
+      <c r="AI11" s="42"/>
+      <c r="AJ11" s="42"/>
+      <c r="AK11" s="42"/>
+      <c r="AL11" s="42"/>
+      <c r="AM11" s="42"/>
+      <c r="AN11" s="42"/>
+      <c r="AO11" s="42"/>
+      <c r="AP11" s="42"/>
+      <c r="AQ11" s="42"/>
+      <c r="AR11" s="42"/>
+      <c r="AS11" s="42"/>
+      <c r="AT11" s="42"/>
+      <c r="AU11" s="42"/>
+      <c r="AV11" s="42"/>
+      <c r="AW11" s="42"/>
+      <c r="AX11" s="42"/>
+      <c r="AY11" s="42"/>
+      <c r="AZ11" s="42"/>
+      <c r="BA11" s="42"/>
+      <c r="BB11" s="42"/>
+      <c r="BC11" s="42"/>
+      <c r="BD11" s="42"/>
+      <c r="BE11" s="42"/>
+      <c r="BF11" s="42"/>
+      <c r="BG11" s="42"/>
+      <c r="BH11" s="42"/>
+      <c r="BI11" s="42"/>
+      <c r="BJ11" s="42"/>
+      <c r="BK11" s="42"/>
+      <c r="BL11" s="43"/>
       <c r="BM11" s="9"/>
       <c r="BN11" s="9"/>
       <c r="BO11" s="9"/>
@@ -10092,77 +10086,77 @@
       <c r="AMI11" s="1"/>
       <c r="AMJ11" s="1"/>
     </row>
-    <row r="12" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="79"/>
+    <row r="12" spans="1:1025" ht="18" customHeight="1">
+      <c r="A12" s="28"/>
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="80"/>
+      <c r="E12" s="29"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="41">
+      <c r="H12" s="44">
         <v>1</v>
       </c>
-      <c r="I12" s="39"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="57" t="s">
+      <c r="I12" s="42"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="58"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="58"/>
-      <c r="V12" s="58"/>
-      <c r="W12" s="58"/>
-      <c r="X12" s="58"/>
-      <c r="Y12" s="59"/>
-      <c r="Z12" s="41" t="s">
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="46"/>
+      <c r="W12" s="46"/>
+      <c r="X12" s="46"/>
+      <c r="Y12" s="47"/>
+      <c r="Z12" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="AA12" s="39"/>
-      <c r="AB12" s="39"/>
-      <c r="AC12" s="39"/>
-      <c r="AD12" s="39"/>
-      <c r="AE12" s="39"/>
-      <c r="AF12" s="39"/>
-      <c r="AG12" s="39"/>
-      <c r="AH12" s="39"/>
-      <c r="AI12" s="39"/>
-      <c r="AJ12" s="39"/>
-      <c r="AK12" s="39"/>
-      <c r="AL12" s="39"/>
-      <c r="AM12" s="39"/>
-      <c r="AN12" s="39"/>
-      <c r="AO12" s="39"/>
-      <c r="AP12" s="39"/>
-      <c r="AQ12" s="39"/>
-      <c r="AR12" s="39"/>
-      <c r="AS12" s="39"/>
-      <c r="AT12" s="39"/>
-      <c r="AU12" s="39"/>
-      <c r="AV12" s="39"/>
-      <c r="AW12" s="39"/>
-      <c r="AX12" s="39"/>
-      <c r="AY12" s="39"/>
-      <c r="AZ12" s="39"/>
-      <c r="BA12" s="39"/>
-      <c r="BB12" s="39"/>
-      <c r="BC12" s="39"/>
-      <c r="BD12" s="39"/>
-      <c r="BE12" s="39"/>
-      <c r="BF12" s="39"/>
-      <c r="BG12" s="39"/>
-      <c r="BH12" s="39"/>
-      <c r="BI12" s="39"/>
-      <c r="BJ12" s="39"/>
-      <c r="BK12" s="39"/>
-      <c r="BL12" s="40"/>
+      <c r="AA12" s="42"/>
+      <c r="AB12" s="42"/>
+      <c r="AC12" s="42"/>
+      <c r="AD12" s="42"/>
+      <c r="AE12" s="42"/>
+      <c r="AF12" s="42"/>
+      <c r="AG12" s="42"/>
+      <c r="AH12" s="42"/>
+      <c r="AI12" s="42"/>
+      <c r="AJ12" s="42"/>
+      <c r="AK12" s="42"/>
+      <c r="AL12" s="42"/>
+      <c r="AM12" s="42"/>
+      <c r="AN12" s="42"/>
+      <c r="AO12" s="42"/>
+      <c r="AP12" s="42"/>
+      <c r="AQ12" s="42"/>
+      <c r="AR12" s="42"/>
+      <c r="AS12" s="42"/>
+      <c r="AT12" s="42"/>
+      <c r="AU12" s="42"/>
+      <c r="AV12" s="42"/>
+      <c r="AW12" s="42"/>
+      <c r="AX12" s="42"/>
+      <c r="AY12" s="42"/>
+      <c r="AZ12" s="42"/>
+      <c r="BA12" s="42"/>
+      <c r="BB12" s="42"/>
+      <c r="BC12" s="42"/>
+      <c r="BD12" s="42"/>
+      <c r="BE12" s="42"/>
+      <c r="BF12" s="42"/>
+      <c r="BG12" s="42"/>
+      <c r="BH12" s="42"/>
+      <c r="BI12" s="42"/>
+      <c r="BJ12" s="42"/>
+      <c r="BK12" s="42"/>
+      <c r="BL12" s="43"/>
       <c r="BM12" s="9"/>
       <c r="BN12" s="9"/>
       <c r="BO12" s="9"/>
@@ -11124,8 +11118,8 @@
       <c r="AMI12" s="1"/>
       <c r="AMJ12" s="1"/>
     </row>
-    <row r="13" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="79"/>
+    <row r="13" spans="1:1025" ht="18" customHeight="1">
+      <c r="A13" s="28"/>
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -12150,81 +12144,81 @@
       <c r="AMI13" s="1"/>
       <c r="AMJ13" s="1"/>
     </row>
-    <row r="14" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="79"/>
+    <row r="14" spans="1:1025" ht="18" customHeight="1" thickBot="1">
+      <c r="A14" s="28"/>
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="17"/>
-      <c r="F14" s="84" t="s">
+      <c r="F14" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="84"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="75"/>
-      <c r="O14" s="75"/>
-      <c r="P14" s="75"/>
-      <c r="Q14" s="75"/>
-      <c r="R14" s="75"/>
-      <c r="S14" s="75"/>
-      <c r="T14" s="75"/>
-      <c r="U14" s="75"/>
-      <c r="V14" s="75"/>
-      <c r="W14" s="75"/>
-      <c r="X14" s="75"/>
-      <c r="Y14" s="75"/>
-      <c r="Z14" s="75"/>
-      <c r="AA14" s="75"/>
-      <c r="AB14" s="75"/>
-      <c r="AC14" s="75"/>
-      <c r="AD14" s="75"/>
-      <c r="AE14" s="75"/>
-      <c r="AF14" s="75"/>
-      <c r="AG14" s="75"/>
-      <c r="AH14" s="75"/>
-      <c r="AI14" s="75"/>
-      <c r="AJ14" s="75"/>
-      <c r="AK14" s="75"/>
-      <c r="AL14" s="75"/>
-      <c r="AM14" s="75"/>
-      <c r="AN14" s="75"/>
-      <c r="AO14" s="75"/>
-      <c r="AP14" s="75"/>
-      <c r="AQ14" s="75"/>
-      <c r="AR14" s="75"/>
-      <c r="AS14" s="75"/>
-      <c r="AT14" s="75"/>
-      <c r="AU14" s="75"/>
-      <c r="AV14" s="75"/>
-      <c r="AW14" s="75"/>
-      <c r="AX14" s="75"/>
-      <c r="AY14" s="75"/>
-      <c r="AZ14" s="75"/>
-      <c r="BA14" s="75"/>
-      <c r="BB14" s="75"/>
-      <c r="BC14" s="75"/>
-      <c r="BD14" s="75"/>
-      <c r="BE14" s="75"/>
-      <c r="BF14" s="75"/>
-      <c r="BG14" s="75"/>
-      <c r="BH14" s="75"/>
-      <c r="BI14" s="75"/>
-      <c r="BJ14" s="75"/>
-      <c r="BK14" s="75"/>
-      <c r="BL14" s="75"/>
-      <c r="BM14" s="84"/>
-      <c r="BN14" s="84"/>
-      <c r="BO14" s="84"/>
-      <c r="BP14" s="84"/>
-      <c r="BQ14" s="84"/>
-      <c r="BR14" s="84"/>
-      <c r="BS14" s="84"/>
-      <c r="BT14" s="84"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="49"/>
+      <c r="W14" s="49"/>
+      <c r="X14" s="49"/>
+      <c r="Y14" s="49"/>
+      <c r="Z14" s="49"/>
+      <c r="AA14" s="49"/>
+      <c r="AB14" s="49"/>
+      <c r="AC14" s="49"/>
+      <c r="AD14" s="49"/>
+      <c r="AE14" s="49"/>
+      <c r="AF14" s="49"/>
+      <c r="AG14" s="49"/>
+      <c r="AH14" s="49"/>
+      <c r="AI14" s="49"/>
+      <c r="AJ14" s="49"/>
+      <c r="AK14" s="49"/>
+      <c r="AL14" s="49"/>
+      <c r="AM14" s="49"/>
+      <c r="AN14" s="49"/>
+      <c r="AO14" s="49"/>
+      <c r="AP14" s="49"/>
+      <c r="AQ14" s="49"/>
+      <c r="AR14" s="49"/>
+      <c r="AS14" s="49"/>
+      <c r="AT14" s="49"/>
+      <c r="AU14" s="49"/>
+      <c r="AV14" s="49"/>
+      <c r="AW14" s="49"/>
+      <c r="AX14" s="49"/>
+      <c r="AY14" s="49"/>
+      <c r="AZ14" s="49"/>
+      <c r="BA14" s="49"/>
+      <c r="BB14" s="49"/>
+      <c r="BC14" s="49"/>
+      <c r="BD14" s="49"/>
+      <c r="BE14" s="49"/>
+      <c r="BF14" s="49"/>
+      <c r="BG14" s="49"/>
+      <c r="BH14" s="49"/>
+      <c r="BI14" s="49"/>
+      <c r="BJ14" s="49"/>
+      <c r="BK14" s="49"/>
+      <c r="BL14" s="49"/>
+      <c r="BM14" s="48"/>
+      <c r="BN14" s="48"/>
+      <c r="BO14" s="48"/>
+      <c r="BP14" s="48"/>
+      <c r="BQ14" s="48"/>
+      <c r="BR14" s="48"/>
+      <c r="BS14" s="48"/>
+      <c r="BT14" s="48"/>
       <c r="BU14" s="17"/>
       <c r="BV14" s="17"/>
       <c r="BW14" s="17"/>
@@ -13178,81 +13172,81 @@
       <c r="AMI14" s="1"/>
       <c r="AMJ14" s="1"/>
     </row>
-    <row r="15" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="79"/>
+    <row r="15" spans="1:1025" ht="18" customHeight="1" thickBot="1">
+      <c r="A15" s="28"/>
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="17"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="66" t="s">
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="67"/>
-      <c r="S15" s="67"/>
-      <c r="T15" s="67"/>
-      <c r="U15" s="67"/>
-      <c r="V15" s="67"/>
-      <c r="W15" s="67"/>
-      <c r="X15" s="67"/>
-      <c r="Y15" s="67"/>
-      <c r="Z15" s="67"/>
-      <c r="AA15" s="67"/>
-      <c r="AB15" s="67"/>
-      <c r="AC15" s="67"/>
-      <c r="AD15" s="67"/>
-      <c r="AE15" s="67"/>
-      <c r="AF15" s="67"/>
-      <c r="AG15" s="67"/>
-      <c r="AH15" s="67"/>
-      <c r="AI15" s="67"/>
-      <c r="AJ15" s="67"/>
-      <c r="AK15" s="67"/>
-      <c r="AL15" s="67"/>
-      <c r="AM15" s="67"/>
-      <c r="AN15" s="67"/>
-      <c r="AO15" s="67"/>
-      <c r="AP15" s="67"/>
-      <c r="AQ15" s="67"/>
-      <c r="AR15" s="67"/>
-      <c r="AS15" s="67"/>
-      <c r="AT15" s="67"/>
-      <c r="AU15" s="67"/>
-      <c r="AV15" s="67"/>
-      <c r="AW15" s="67"/>
-      <c r="AX15" s="67"/>
-      <c r="AY15" s="67"/>
-      <c r="AZ15" s="67"/>
-      <c r="BA15" s="67"/>
-      <c r="BB15" s="67"/>
-      <c r="BC15" s="67"/>
-      <c r="BD15" s="67"/>
-      <c r="BE15" s="67"/>
-      <c r="BF15" s="67"/>
-      <c r="BG15" s="67"/>
-      <c r="BH15" s="67"/>
-      <c r="BI15" s="67"/>
-      <c r="BJ15" s="67"/>
-      <c r="BK15" s="67"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="51"/>
+      <c r="U15" s="51"/>
+      <c r="V15" s="51"/>
+      <c r="W15" s="51"/>
+      <c r="X15" s="51"/>
+      <c r="Y15" s="51"/>
+      <c r="Z15" s="51"/>
+      <c r="AA15" s="51"/>
+      <c r="AB15" s="51"/>
+      <c r="AC15" s="51"/>
+      <c r="AD15" s="51"/>
+      <c r="AE15" s="51"/>
+      <c r="AF15" s="51"/>
+      <c r="AG15" s="51"/>
+      <c r="AH15" s="51"/>
+      <c r="AI15" s="51"/>
+      <c r="AJ15" s="51"/>
+      <c r="AK15" s="51"/>
+      <c r="AL15" s="51"/>
+      <c r="AM15" s="51"/>
+      <c r="AN15" s="51"/>
+      <c r="AO15" s="51"/>
+      <c r="AP15" s="51"/>
+      <c r="AQ15" s="51"/>
+      <c r="AR15" s="51"/>
+      <c r="AS15" s="51"/>
+      <c r="AT15" s="51"/>
+      <c r="AU15" s="51"/>
+      <c r="AV15" s="51"/>
+      <c r="AW15" s="51"/>
+      <c r="AX15" s="51"/>
+      <c r="AY15" s="51"/>
+      <c r="AZ15" s="51"/>
+      <c r="BA15" s="51"/>
+      <c r="BB15" s="51"/>
+      <c r="BC15" s="51"/>
+      <c r="BD15" s="51"/>
+      <c r="BE15" s="51"/>
+      <c r="BF15" s="51"/>
+      <c r="BG15" s="51"/>
+      <c r="BH15" s="51"/>
+      <c r="BI15" s="51"/>
+      <c r="BJ15" s="51"/>
+      <c r="BK15" s="51"/>
       <c r="BL15" s="21"/>
-      <c r="BM15" s="83"/>
-      <c r="BN15" s="83"/>
-      <c r="BO15" s="83"/>
-      <c r="BP15" s="83"/>
-      <c r="BQ15" s="83"/>
-      <c r="BR15" s="83"/>
-      <c r="BS15" s="83"/>
-      <c r="BT15" s="83"/>
+      <c r="BM15" s="32"/>
+      <c r="BN15" s="32"/>
+      <c r="BO15" s="32"/>
+      <c r="BP15" s="32"/>
+      <c r="BQ15" s="32"/>
+      <c r="BR15" s="32"/>
+      <c r="BS15" s="32"/>
+      <c r="BT15" s="32"/>
       <c r="BU15" s="17"/>
       <c r="BV15" s="17"/>
       <c r="BW15" s="17"/>
@@ -14206,81 +14200,81 @@
       <c r="AMI15" s="1"/>
       <c r="AMJ15" s="1"/>
     </row>
-    <row r="16" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="79"/>
+    <row r="16" spans="1:1025" ht="18" customHeight="1">
+      <c r="A16" s="28"/>
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="17"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="85" t="s">
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="68"/>
-      <c r="R16" s="68"/>
-      <c r="S16" s="68"/>
-      <c r="T16" s="68"/>
-      <c r="U16" s="68"/>
-      <c r="V16" s="68"/>
-      <c r="W16" s="68"/>
-      <c r="X16" s="68"/>
-      <c r="Y16" s="68"/>
-      <c r="Z16" s="68"/>
-      <c r="AA16" s="68"/>
-      <c r="AB16" s="68"/>
-      <c r="AC16" s="68"/>
-      <c r="AD16" s="68"/>
-      <c r="AE16" s="68"/>
-      <c r="AF16" s="68"/>
-      <c r="AG16" s="68"/>
-      <c r="AH16" s="68"/>
-      <c r="AI16" s="68"/>
-      <c r="AJ16" s="68"/>
-      <c r="AK16" s="68"/>
-      <c r="AL16" s="68"/>
-      <c r="AM16" s="68"/>
-      <c r="AN16" s="68"/>
-      <c r="AO16" s="68"/>
-      <c r="AP16" s="68"/>
-      <c r="AQ16" s="68"/>
-      <c r="AR16" s="68"/>
-      <c r="AS16" s="68"/>
-      <c r="AT16" s="68"/>
-      <c r="AU16" s="68"/>
-      <c r="AV16" s="68"/>
-      <c r="AW16" s="68"/>
-      <c r="AX16" s="68"/>
-      <c r="AY16" s="68"/>
-      <c r="AZ16" s="68"/>
-      <c r="BA16" s="68"/>
-      <c r="BB16" s="68"/>
-      <c r="BC16" s="68"/>
-      <c r="BD16" s="68"/>
-      <c r="BE16" s="68"/>
-      <c r="BF16" s="68"/>
-      <c r="BG16" s="68"/>
-      <c r="BH16" s="68"/>
-      <c r="BI16" s="68"/>
-      <c r="BJ16" s="68"/>
-      <c r="BK16" s="68"/>
-      <c r="BL16" s="86"/>
-      <c r="BM16" s="83"/>
-      <c r="BN16" s="83"/>
-      <c r="BO16" s="83"/>
-      <c r="BP16" s="83"/>
-      <c r="BQ16" s="83"/>
-      <c r="BR16" s="83"/>
-      <c r="BS16" s="83"/>
-      <c r="BT16" s="83"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="53"/>
+      <c r="W16" s="53"/>
+      <c r="X16" s="53"/>
+      <c r="Y16" s="53"/>
+      <c r="Z16" s="53"/>
+      <c r="AA16" s="53"/>
+      <c r="AB16" s="53"/>
+      <c r="AC16" s="53"/>
+      <c r="AD16" s="53"/>
+      <c r="AE16" s="53"/>
+      <c r="AF16" s="53"/>
+      <c r="AG16" s="53"/>
+      <c r="AH16" s="53"/>
+      <c r="AI16" s="53"/>
+      <c r="AJ16" s="53"/>
+      <c r="AK16" s="53"/>
+      <c r="AL16" s="53"/>
+      <c r="AM16" s="53"/>
+      <c r="AN16" s="53"/>
+      <c r="AO16" s="53"/>
+      <c r="AP16" s="53"/>
+      <c r="AQ16" s="53"/>
+      <c r="AR16" s="53"/>
+      <c r="AS16" s="53"/>
+      <c r="AT16" s="53"/>
+      <c r="AU16" s="53"/>
+      <c r="AV16" s="53"/>
+      <c r="AW16" s="53"/>
+      <c r="AX16" s="53"/>
+      <c r="AY16" s="53"/>
+      <c r="AZ16" s="53"/>
+      <c r="BA16" s="53"/>
+      <c r="BB16" s="53"/>
+      <c r="BC16" s="53"/>
+      <c r="BD16" s="53"/>
+      <c r="BE16" s="53"/>
+      <c r="BF16" s="53"/>
+      <c r="BG16" s="53"/>
+      <c r="BH16" s="53"/>
+      <c r="BI16" s="53"/>
+      <c r="BJ16" s="53"/>
+      <c r="BK16" s="53"/>
+      <c r="BL16" s="54"/>
+      <c r="BM16" s="32"/>
+      <c r="BN16" s="32"/>
+      <c r="BO16" s="32"/>
+      <c r="BP16" s="32"/>
+      <c r="BQ16" s="32"/>
+      <c r="BR16" s="32"/>
+      <c r="BS16" s="32"/>
+      <c r="BT16" s="32"/>
       <c r="BU16" s="17"/>
       <c r="BV16" s="17"/>
       <c r="BW16" s="17"/>
@@ -15234,79 +15228,79 @@
       <c r="AMI16" s="1"/>
       <c r="AMJ16" s="1"/>
     </row>
-    <row r="17" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="79"/>
+    <row r="17" spans="1:1024" ht="18" customHeight="1">
+      <c r="A17" s="28"/>
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="17"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="69"/>
-      <c r="O17" s="69"/>
-      <c r="P17" s="69"/>
-      <c r="Q17" s="69"/>
-      <c r="R17" s="69"/>
-      <c r="S17" s="69"/>
-      <c r="T17" s="69"/>
-      <c r="U17" s="69"/>
-      <c r="V17" s="69"/>
-      <c r="W17" s="69"/>
-      <c r="X17" s="69"/>
-      <c r="Y17" s="69"/>
-      <c r="Z17" s="69"/>
-      <c r="AA17" s="69"/>
-      <c r="AB17" s="69"/>
-      <c r="AC17" s="69"/>
-      <c r="AD17" s="69"/>
-      <c r="AE17" s="69"/>
-      <c r="AF17" s="69"/>
-      <c r="AG17" s="69"/>
-      <c r="AH17" s="69"/>
-      <c r="AI17" s="69"/>
-      <c r="AJ17" s="69"/>
-      <c r="AK17" s="69"/>
-      <c r="AL17" s="69"/>
-      <c r="AM17" s="69"/>
-      <c r="AN17" s="69"/>
-      <c r="AO17" s="69"/>
-      <c r="AP17" s="69"/>
-      <c r="AQ17" s="69"/>
-      <c r="AR17" s="69"/>
-      <c r="AS17" s="69"/>
-      <c r="AT17" s="69"/>
-      <c r="AU17" s="69"/>
-      <c r="AV17" s="69"/>
-      <c r="AW17" s="69"/>
-      <c r="AX17" s="69"/>
-      <c r="AY17" s="69"/>
-      <c r="AZ17" s="69"/>
-      <c r="BA17" s="69"/>
-      <c r="BB17" s="69"/>
-      <c r="BC17" s="69"/>
-      <c r="BD17" s="69"/>
-      <c r="BE17" s="69"/>
-      <c r="BF17" s="69"/>
-      <c r="BG17" s="69"/>
-      <c r="BH17" s="69"/>
-      <c r="BI17" s="69"/>
-      <c r="BJ17" s="69"/>
-      <c r="BK17" s="69"/>
-      <c r="BL17" s="88"/>
-      <c r="BM17" s="83"/>
-      <c r="BN17" s="83"/>
-      <c r="BO17" s="83"/>
-      <c r="BP17" s="83"/>
-      <c r="BQ17" s="83"/>
-      <c r="BR17" s="83"/>
-      <c r="BS17" s="83"/>
-      <c r="BT17" s="83"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="56"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="56"/>
+      <c r="X17" s="56"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="56"/>
+      <c r="AA17" s="56"/>
+      <c r="AB17" s="56"/>
+      <c r="AC17" s="56"/>
+      <c r="AD17" s="56"/>
+      <c r="AE17" s="56"/>
+      <c r="AF17" s="56"/>
+      <c r="AG17" s="56"/>
+      <c r="AH17" s="56"/>
+      <c r="AI17" s="56"/>
+      <c r="AJ17" s="56"/>
+      <c r="AK17" s="56"/>
+      <c r="AL17" s="56"/>
+      <c r="AM17" s="56"/>
+      <c r="AN17" s="56"/>
+      <c r="AO17" s="56"/>
+      <c r="AP17" s="56"/>
+      <c r="AQ17" s="56"/>
+      <c r="AR17" s="56"/>
+      <c r="AS17" s="56"/>
+      <c r="AT17" s="56"/>
+      <c r="AU17" s="56"/>
+      <c r="AV17" s="56"/>
+      <c r="AW17" s="56"/>
+      <c r="AX17" s="56"/>
+      <c r="AY17" s="56"/>
+      <c r="AZ17" s="56"/>
+      <c r="BA17" s="56"/>
+      <c r="BB17" s="56"/>
+      <c r="BC17" s="56"/>
+      <c r="BD17" s="56"/>
+      <c r="BE17" s="56"/>
+      <c r="BF17" s="56"/>
+      <c r="BG17" s="56"/>
+      <c r="BH17" s="56"/>
+      <c r="BI17" s="56"/>
+      <c r="BJ17" s="56"/>
+      <c r="BK17" s="56"/>
+      <c r="BL17" s="57"/>
+      <c r="BM17" s="32"/>
+      <c r="BN17" s="32"/>
+      <c r="BO17" s="32"/>
+      <c r="BP17" s="32"/>
+      <c r="BQ17" s="32"/>
+      <c r="BR17" s="32"/>
+      <c r="BS17" s="32"/>
+      <c r="BT17" s="32"/>
       <c r="BU17" s="17"/>
       <c r="BV17" s="17"/>
       <c r="BW17" s="17"/>
@@ -16260,79 +16254,79 @@
       <c r="AMI17" s="1"/>
       <c r="AMJ17" s="1"/>
     </row>
-    <row r="18" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="79"/>
+    <row r="18" spans="1:1024" ht="18" customHeight="1" thickBot="1">
+      <c r="A18" s="28"/>
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="17"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="90"/>
-      <c r="L18" s="90"/>
-      <c r="M18" s="90"/>
-      <c r="N18" s="90"/>
-      <c r="O18" s="90"/>
-      <c r="P18" s="90"/>
-      <c r="Q18" s="90"/>
-      <c r="R18" s="90"/>
-      <c r="S18" s="90"/>
-      <c r="T18" s="90"/>
-      <c r="U18" s="90"/>
-      <c r="V18" s="90"/>
-      <c r="W18" s="90"/>
-      <c r="X18" s="90"/>
-      <c r="Y18" s="90"/>
-      <c r="Z18" s="90"/>
-      <c r="AA18" s="90"/>
-      <c r="AB18" s="90"/>
-      <c r="AC18" s="90"/>
-      <c r="AD18" s="90"/>
-      <c r="AE18" s="90"/>
-      <c r="AF18" s="90"/>
-      <c r="AG18" s="90"/>
-      <c r="AH18" s="90"/>
-      <c r="AI18" s="90"/>
-      <c r="AJ18" s="90"/>
-      <c r="AK18" s="90"/>
-      <c r="AL18" s="90"/>
-      <c r="AM18" s="90"/>
-      <c r="AN18" s="90"/>
-      <c r="AO18" s="90"/>
-      <c r="AP18" s="90"/>
-      <c r="AQ18" s="90"/>
-      <c r="AR18" s="90"/>
-      <c r="AS18" s="90"/>
-      <c r="AT18" s="90"/>
-      <c r="AU18" s="90"/>
-      <c r="AV18" s="90"/>
-      <c r="AW18" s="90"/>
-      <c r="AX18" s="90"/>
-      <c r="AY18" s="90"/>
-      <c r="AZ18" s="90"/>
-      <c r="BA18" s="90"/>
-      <c r="BB18" s="90"/>
-      <c r="BC18" s="90"/>
-      <c r="BD18" s="90"/>
-      <c r="BE18" s="90"/>
-      <c r="BF18" s="90"/>
-      <c r="BG18" s="90"/>
-      <c r="BH18" s="90"/>
-      <c r="BI18" s="90"/>
-      <c r="BJ18" s="90"/>
-      <c r="BK18" s="90"/>
-      <c r="BL18" s="91"/>
-      <c r="BM18" s="83"/>
-      <c r="BN18" s="83"/>
-      <c r="BO18" s="83"/>
-      <c r="BP18" s="83"/>
-      <c r="BQ18" s="83"/>
-      <c r="BR18" s="83"/>
-      <c r="BS18" s="83"/>
-      <c r="BT18" s="83"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="59"/>
+      <c r="S18" s="59"/>
+      <c r="T18" s="59"/>
+      <c r="U18" s="59"/>
+      <c r="V18" s="59"/>
+      <c r="W18" s="59"/>
+      <c r="X18" s="59"/>
+      <c r="Y18" s="59"/>
+      <c r="Z18" s="59"/>
+      <c r="AA18" s="59"/>
+      <c r="AB18" s="59"/>
+      <c r="AC18" s="59"/>
+      <c r="AD18" s="59"/>
+      <c r="AE18" s="59"/>
+      <c r="AF18" s="59"/>
+      <c r="AG18" s="59"/>
+      <c r="AH18" s="59"/>
+      <c r="AI18" s="59"/>
+      <c r="AJ18" s="59"/>
+      <c r="AK18" s="59"/>
+      <c r="AL18" s="59"/>
+      <c r="AM18" s="59"/>
+      <c r="AN18" s="59"/>
+      <c r="AO18" s="59"/>
+      <c r="AP18" s="59"/>
+      <c r="AQ18" s="59"/>
+      <c r="AR18" s="59"/>
+      <c r="AS18" s="59"/>
+      <c r="AT18" s="59"/>
+      <c r="AU18" s="59"/>
+      <c r="AV18" s="59"/>
+      <c r="AW18" s="59"/>
+      <c r="AX18" s="59"/>
+      <c r="AY18" s="59"/>
+      <c r="AZ18" s="59"/>
+      <c r="BA18" s="59"/>
+      <c r="BB18" s="59"/>
+      <c r="BC18" s="59"/>
+      <c r="BD18" s="59"/>
+      <c r="BE18" s="59"/>
+      <c r="BF18" s="59"/>
+      <c r="BG18" s="59"/>
+      <c r="BH18" s="59"/>
+      <c r="BI18" s="59"/>
+      <c r="BJ18" s="59"/>
+      <c r="BK18" s="59"/>
+      <c r="BL18" s="60"/>
+      <c r="BM18" s="32"/>
+      <c r="BN18" s="32"/>
+      <c r="BO18" s="32"/>
+      <c r="BP18" s="32"/>
+      <c r="BQ18" s="32"/>
+      <c r="BR18" s="32"/>
+      <c r="BS18" s="32"/>
+      <c r="BT18" s="32"/>
       <c r="BU18" s="17"/>
       <c r="BV18" s="17"/>
       <c r="BW18" s="17"/>
@@ -17286,14 +17280,14 @@
       <c r="AMI18" s="1"/>
       <c r="AMJ18" s="1"/>
     </row>
-    <row r="19" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="79"/>
+    <row r="19" spans="1:1024" ht="18" customHeight="1">
+      <c r="A19" s="28"/>
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="17"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
       <c r="H19" s="22"/>
       <c r="I19" s="22"/>
       <c r="J19" s="22"/>
@@ -17351,14 +17345,14 @@
       <c r="BJ19" s="22"/>
       <c r="BK19" s="22"/>
       <c r="BL19" s="22"/>
-      <c r="BM19" s="83"/>
-      <c r="BN19" s="83"/>
-      <c r="BO19" s="83"/>
-      <c r="BP19" s="83"/>
-      <c r="BQ19" s="83"/>
-      <c r="BR19" s="83"/>
-      <c r="BS19" s="83"/>
-      <c r="BT19" s="83"/>
+      <c r="BM19" s="32"/>
+      <c r="BN19" s="32"/>
+      <c r="BO19" s="32"/>
+      <c r="BP19" s="32"/>
+      <c r="BQ19" s="32"/>
+      <c r="BR19" s="32"/>
+      <c r="BS19" s="32"/>
+      <c r="BT19" s="32"/>
       <c r="BU19" s="17"/>
       <c r="BV19" s="17"/>
       <c r="BW19" s="17"/>
@@ -18312,96 +18306,96 @@
       <c r="AMI19" s="1"/>
       <c r="AMJ19" s="1"/>
     </row>
-    <row r="20" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="79"/>
-      <c r="B20" s="92" t="s">
-        <v>42</v>
+    <row r="20" spans="1:1024" ht="18" customHeight="1">
+      <c r="A20" s="28"/>
+      <c r="B20" s="34" t="s">
+        <v>41</v>
       </c>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="93"/>
-      <c r="K20" s="93"/>
-      <c r="L20" s="93"/>
-      <c r="M20" s="93"/>
-      <c r="N20" s="93"/>
-      <c r="O20" s="93"/>
-      <c r="P20" s="93"/>
-      <c r="Q20" s="93"/>
-      <c r="R20" s="93"/>
-      <c r="S20" s="93"/>
-      <c r="T20" s="93"/>
-      <c r="U20" s="93"/>
-      <c r="V20" s="93"/>
-      <c r="W20" s="93"/>
-      <c r="X20" s="93"/>
-      <c r="Y20" s="93"/>
-      <c r="Z20" s="93"/>
-      <c r="AA20" s="93"/>
-      <c r="AB20" s="93"/>
-      <c r="AC20" s="93"/>
-      <c r="AD20" s="93"/>
-      <c r="AE20" s="93"/>
-      <c r="AF20" s="93"/>
-      <c r="AG20" s="93"/>
-      <c r="AH20" s="93"/>
-      <c r="AI20" s="93"/>
-      <c r="AJ20" s="93"/>
-      <c r="AK20" s="93"/>
-      <c r="AL20" s="93"/>
-      <c r="AM20" s="93"/>
-      <c r="AN20" s="93"/>
-      <c r="AO20" s="93"/>
-      <c r="AP20" s="93"/>
-      <c r="AQ20" s="93"/>
-      <c r="AR20" s="93"/>
-      <c r="AS20" s="93"/>
-      <c r="AT20" s="93"/>
-      <c r="AU20" s="93"/>
-      <c r="AV20" s="93"/>
-      <c r="AW20" s="93"/>
-      <c r="AX20" s="93"/>
-      <c r="AY20" s="93"/>
-      <c r="AZ20" s="93"/>
-      <c r="BA20" s="93"/>
-      <c r="BB20" s="93"/>
-      <c r="BC20" s="93"/>
-      <c r="BD20" s="93"/>
-      <c r="BE20" s="93"/>
-      <c r="BF20" s="93"/>
-      <c r="BG20" s="93"/>
-      <c r="BH20" s="93"/>
-      <c r="BI20" s="93"/>
-      <c r="BJ20" s="93"/>
-      <c r="BK20" s="93"/>
-      <c r="BL20" s="93"/>
-      <c r="BM20" s="93"/>
-      <c r="BN20" s="93"/>
-      <c r="BO20" s="93"/>
-      <c r="BP20" s="93"/>
-      <c r="BQ20" s="93"/>
-      <c r="BR20" s="93"/>
-      <c r="BS20" s="93"/>
-      <c r="BT20" s="93"/>
-      <c r="BU20" s="93"/>
-      <c r="BV20" s="93"/>
-      <c r="BW20" s="93"/>
-      <c r="BX20" s="93"/>
-      <c r="BY20" s="93"/>
-      <c r="BZ20" s="93"/>
-      <c r="CA20" s="93"/>
-      <c r="CB20" s="93"/>
-      <c r="CC20" s="93"/>
-      <c r="CD20" s="93"/>
-      <c r="CE20" s="93"/>
-      <c r="CF20" s="93"/>
-      <c r="CG20" s="93"/>
-      <c r="CH20" s="93"/>
-      <c r="CI20" s="94"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="35"/>
+      <c r="Y20" s="35"/>
+      <c r="Z20" s="35"/>
+      <c r="AA20" s="35"/>
+      <c r="AB20" s="35"/>
+      <c r="AC20" s="35"/>
+      <c r="AD20" s="35"/>
+      <c r="AE20" s="35"/>
+      <c r="AF20" s="35"/>
+      <c r="AG20" s="35"/>
+      <c r="AH20" s="35"/>
+      <c r="AI20" s="35"/>
+      <c r="AJ20" s="35"/>
+      <c r="AK20" s="35"/>
+      <c r="AL20" s="35"/>
+      <c r="AM20" s="35"/>
+      <c r="AN20" s="35"/>
+      <c r="AO20" s="35"/>
+      <c r="AP20" s="35"/>
+      <c r="AQ20" s="35"/>
+      <c r="AR20" s="35"/>
+      <c r="AS20" s="35"/>
+      <c r="AT20" s="35"/>
+      <c r="AU20" s="35"/>
+      <c r="AV20" s="35"/>
+      <c r="AW20" s="35"/>
+      <c r="AX20" s="35"/>
+      <c r="AY20" s="35"/>
+      <c r="AZ20" s="35"/>
+      <c r="BA20" s="35"/>
+      <c r="BB20" s="35"/>
+      <c r="BC20" s="35"/>
+      <c r="BD20" s="35"/>
+      <c r="BE20" s="35"/>
+      <c r="BF20" s="35"/>
+      <c r="BG20" s="35"/>
+      <c r="BH20" s="35"/>
+      <c r="BI20" s="35"/>
+      <c r="BJ20" s="35"/>
+      <c r="BK20" s="35"/>
+      <c r="BL20" s="35"/>
+      <c r="BM20" s="35"/>
+      <c r="BN20" s="35"/>
+      <c r="BO20" s="35"/>
+      <c r="BP20" s="35"/>
+      <c r="BQ20" s="35"/>
+      <c r="BR20" s="35"/>
+      <c r="BS20" s="35"/>
+      <c r="BT20" s="35"/>
+      <c r="BU20" s="35"/>
+      <c r="BV20" s="35"/>
+      <c r="BW20" s="35"/>
+      <c r="BX20" s="35"/>
+      <c r="BY20" s="35"/>
+      <c r="BZ20" s="35"/>
+      <c r="CA20" s="35"/>
+      <c r="CB20" s="35"/>
+      <c r="CC20" s="35"/>
+      <c r="CD20" s="35"/>
+      <c r="CE20" s="35"/>
+      <c r="CF20" s="35"/>
+      <c r="CG20" s="35"/>
+      <c r="CH20" s="35"/>
+      <c r="CI20" s="36"/>
       <c r="CJ20" s="1"/>
       <c r="CK20" s="1"/>
       <c r="CL20" s="1"/>
@@ -19340,14 +19334,14 @@
       <c r="AMI20" s="1"/>
       <c r="AMJ20" s="1"/>
     </row>
-    <row r="21" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="79"/>
+    <row r="21" spans="1:1024" ht="18" customHeight="1">
+      <c r="A21" s="28"/>
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="17"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
       <c r="H21" s="22"/>
       <c r="I21" s="22"/>
       <c r="J21" s="22"/>
@@ -19405,14 +19399,14 @@
       <c r="BJ21" s="22"/>
       <c r="BK21" s="22"/>
       <c r="BL21" s="22"/>
-      <c r="BM21" s="83"/>
-      <c r="BN21" s="83"/>
-      <c r="BO21" s="83"/>
-      <c r="BP21" s="83"/>
-      <c r="BQ21" s="83"/>
-      <c r="BR21" s="83"/>
-      <c r="BS21" s="83"/>
-      <c r="BT21" s="83"/>
+      <c r="BM21" s="32"/>
+      <c r="BN21" s="32"/>
+      <c r="BO21" s="32"/>
+      <c r="BP21" s="32"/>
+      <c r="BQ21" s="32"/>
+      <c r="BR21" s="32"/>
+      <c r="BS21" s="32"/>
+      <c r="BT21" s="32"/>
       <c r="BU21" s="17"/>
       <c r="BV21" s="17"/>
       <c r="BW21" s="17"/>
@@ -20366,85 +20360,85 @@
       <c r="AMI21" s="1"/>
       <c r="AMJ21" s="1"/>
     </row>
-    <row r="22" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="79"/>
+    <row r="22" spans="1:1024" ht="18" customHeight="1">
+      <c r="A22" s="28"/>
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="17"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="25" t="s">
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="I22" s="26"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="28" t="s">
+      <c r="I22" s="38"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="26"/>
-      <c r="V22" s="26"/>
-      <c r="W22" s="26"/>
-      <c r="X22" s="26"/>
-      <c r="Y22" s="27"/>
-      <c r="Z22" s="25" t="s">
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="38"/>
+      <c r="W22" s="38"/>
+      <c r="X22" s="38"/>
+      <c r="Y22" s="39"/>
+      <c r="Z22" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="AA22" s="39"/>
-      <c r="AB22" s="39"/>
-      <c r="AC22" s="39"/>
-      <c r="AD22" s="39"/>
-      <c r="AE22" s="39"/>
-      <c r="AF22" s="39"/>
-      <c r="AG22" s="39"/>
-      <c r="AH22" s="39"/>
-      <c r="AI22" s="39"/>
-      <c r="AJ22" s="39"/>
-      <c r="AK22" s="39"/>
-      <c r="AL22" s="39"/>
-      <c r="AM22" s="39"/>
-      <c r="AN22" s="39"/>
-      <c r="AO22" s="39"/>
-      <c r="AP22" s="39"/>
-      <c r="AQ22" s="39"/>
-      <c r="AR22" s="39"/>
-      <c r="AS22" s="39"/>
-      <c r="AT22" s="39"/>
-      <c r="AU22" s="39"/>
-      <c r="AV22" s="39"/>
-      <c r="AW22" s="39"/>
-      <c r="AX22" s="39"/>
-      <c r="AY22" s="39"/>
-      <c r="AZ22" s="39"/>
-      <c r="BA22" s="39"/>
-      <c r="BB22" s="39"/>
-      <c r="BC22" s="39"/>
-      <c r="BD22" s="39"/>
-      <c r="BE22" s="39"/>
-      <c r="BF22" s="39"/>
-      <c r="BG22" s="39"/>
-      <c r="BH22" s="39"/>
-      <c r="BI22" s="39"/>
-      <c r="BJ22" s="39"/>
-      <c r="BK22" s="39"/>
-      <c r="BL22" s="40"/>
-      <c r="BM22" s="83"/>
-      <c r="BN22" s="83"/>
-      <c r="BO22" s="83"/>
-      <c r="BP22" s="83"/>
-      <c r="BQ22" s="83"/>
-      <c r="BR22" s="83"/>
-      <c r="BS22" s="83"/>
-      <c r="BT22" s="83"/>
+      <c r="AA22" s="42"/>
+      <c r="AB22" s="42"/>
+      <c r="AC22" s="42"/>
+      <c r="AD22" s="42"/>
+      <c r="AE22" s="42"/>
+      <c r="AF22" s="42"/>
+      <c r="AG22" s="42"/>
+      <c r="AH22" s="42"/>
+      <c r="AI22" s="42"/>
+      <c r="AJ22" s="42"/>
+      <c r="AK22" s="42"/>
+      <c r="AL22" s="42"/>
+      <c r="AM22" s="42"/>
+      <c r="AN22" s="42"/>
+      <c r="AO22" s="42"/>
+      <c r="AP22" s="42"/>
+      <c r="AQ22" s="42"/>
+      <c r="AR22" s="42"/>
+      <c r="AS22" s="42"/>
+      <c r="AT22" s="42"/>
+      <c r="AU22" s="42"/>
+      <c r="AV22" s="42"/>
+      <c r="AW22" s="42"/>
+      <c r="AX22" s="42"/>
+      <c r="AY22" s="42"/>
+      <c r="AZ22" s="42"/>
+      <c r="BA22" s="42"/>
+      <c r="BB22" s="42"/>
+      <c r="BC22" s="42"/>
+      <c r="BD22" s="42"/>
+      <c r="BE22" s="42"/>
+      <c r="BF22" s="42"/>
+      <c r="BG22" s="42"/>
+      <c r="BH22" s="42"/>
+      <c r="BI22" s="42"/>
+      <c r="BJ22" s="42"/>
+      <c r="BK22" s="42"/>
+      <c r="BL22" s="43"/>
+      <c r="BM22" s="32"/>
+      <c r="BN22" s="32"/>
+      <c r="BO22" s="32"/>
+      <c r="BP22" s="32"/>
+      <c r="BQ22" s="32"/>
+      <c r="BR22" s="32"/>
+      <c r="BS22" s="32"/>
+      <c r="BT22" s="32"/>
       <c r="BU22" s="17"/>
       <c r="BV22" s="17"/>
       <c r="BW22" s="17"/>
@@ -21398,85 +21392,85 @@
       <c r="AMI22" s="1"/>
       <c r="AMJ22" s="1"/>
     </row>
-    <row r="23" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="79"/>
+    <row r="23" spans="1:1024" ht="18" customHeight="1">
+      <c r="A23" s="28"/>
       <c r="B23" s="8"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="17"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="41">
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="44">
         <v>1</v>
       </c>
-      <c r="I23" s="39"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="57" t="s">
+      <c r="I23" s="42"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="L23" s="58"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="58"/>
-      <c r="O23" s="58"/>
-      <c r="P23" s="58"/>
-      <c r="Q23" s="58"/>
-      <c r="R23" s="58"/>
-      <c r="S23" s="58"/>
-      <c r="T23" s="58"/>
-      <c r="U23" s="58"/>
-      <c r="V23" s="58"/>
-      <c r="W23" s="58"/>
-      <c r="X23" s="58"/>
-      <c r="Y23" s="59"/>
-      <c r="Z23" s="41" t="s">
-        <v>46</v>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="46"/>
+      <c r="T23" s="46"/>
+      <c r="U23" s="46"/>
+      <c r="V23" s="46"/>
+      <c r="W23" s="46"/>
+      <c r="X23" s="46"/>
+      <c r="Y23" s="47"/>
+      <c r="Z23" s="44" t="s">
+        <v>44</v>
       </c>
-      <c r="AA23" s="39"/>
-      <c r="AB23" s="39"/>
-      <c r="AC23" s="39"/>
-      <c r="AD23" s="39"/>
-      <c r="AE23" s="39"/>
-      <c r="AF23" s="39"/>
-      <c r="AG23" s="39"/>
-      <c r="AH23" s="39"/>
-      <c r="AI23" s="39"/>
-      <c r="AJ23" s="39"/>
-      <c r="AK23" s="39"/>
-      <c r="AL23" s="39"/>
-      <c r="AM23" s="39"/>
-      <c r="AN23" s="39"/>
-      <c r="AO23" s="39"/>
-      <c r="AP23" s="39"/>
-      <c r="AQ23" s="39"/>
-      <c r="AR23" s="39"/>
-      <c r="AS23" s="39"/>
-      <c r="AT23" s="39"/>
-      <c r="AU23" s="39"/>
-      <c r="AV23" s="39"/>
-      <c r="AW23" s="39"/>
-      <c r="AX23" s="39"/>
-      <c r="AY23" s="39"/>
-      <c r="AZ23" s="39"/>
-      <c r="BA23" s="39"/>
-      <c r="BB23" s="39"/>
-      <c r="BC23" s="39"/>
-      <c r="BD23" s="39"/>
-      <c r="BE23" s="39"/>
-      <c r="BF23" s="39"/>
-      <c r="BG23" s="39"/>
-      <c r="BH23" s="39"/>
-      <c r="BI23" s="39"/>
-      <c r="BJ23" s="39"/>
-      <c r="BK23" s="39"/>
-      <c r="BL23" s="40"/>
-      <c r="BM23" s="83"/>
-      <c r="BN23" s="83"/>
-      <c r="BO23" s="83"/>
-      <c r="BP23" s="83"/>
-      <c r="BQ23" s="83"/>
-      <c r="BR23" s="83"/>
-      <c r="BS23" s="83"/>
-      <c r="BT23" s="83"/>
+      <c r="AA23" s="42"/>
+      <c r="AB23" s="42"/>
+      <c r="AC23" s="42"/>
+      <c r="AD23" s="42"/>
+      <c r="AE23" s="42"/>
+      <c r="AF23" s="42"/>
+      <c r="AG23" s="42"/>
+      <c r="AH23" s="42"/>
+      <c r="AI23" s="42"/>
+      <c r="AJ23" s="42"/>
+      <c r="AK23" s="42"/>
+      <c r="AL23" s="42"/>
+      <c r="AM23" s="42"/>
+      <c r="AN23" s="42"/>
+      <c r="AO23" s="42"/>
+      <c r="AP23" s="42"/>
+      <c r="AQ23" s="42"/>
+      <c r="AR23" s="42"/>
+      <c r="AS23" s="42"/>
+      <c r="AT23" s="42"/>
+      <c r="AU23" s="42"/>
+      <c r="AV23" s="42"/>
+      <c r="AW23" s="42"/>
+      <c r="AX23" s="42"/>
+      <c r="AY23" s="42"/>
+      <c r="AZ23" s="42"/>
+      <c r="BA23" s="42"/>
+      <c r="BB23" s="42"/>
+      <c r="BC23" s="42"/>
+      <c r="BD23" s="42"/>
+      <c r="BE23" s="42"/>
+      <c r="BF23" s="42"/>
+      <c r="BG23" s="42"/>
+      <c r="BH23" s="42"/>
+      <c r="BI23" s="42"/>
+      <c r="BJ23" s="42"/>
+      <c r="BK23" s="42"/>
+      <c r="BL23" s="43"/>
+      <c r="BM23" s="32"/>
+      <c r="BN23" s="32"/>
+      <c r="BO23" s="32"/>
+      <c r="BP23" s="32"/>
+      <c r="BQ23" s="32"/>
+      <c r="BR23" s="32"/>
+      <c r="BS23" s="32"/>
+      <c r="BT23" s="32"/>
       <c r="BU23" s="17"/>
       <c r="BV23" s="17"/>
       <c r="BW23" s="17"/>
@@ -22430,85 +22424,85 @@
       <c r="AMI23" s="1"/>
       <c r="AMJ23" s="1"/>
     </row>
-    <row r="24" spans="1:1024" x14ac:dyDescent="0.45">
-      <c r="A24" s="79"/>
+    <row r="24" spans="1:1024">
+      <c r="A24" s="28"/>
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="17"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="41">
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="44">
         <v>2</v>
       </c>
-      <c r="I24" s="39"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="57" t="s">
+      <c r="I24" s="42"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="L24" s="58"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="58"/>
-      <c r="O24" s="58"/>
-      <c r="P24" s="58"/>
-      <c r="Q24" s="58"/>
-      <c r="R24" s="58"/>
-      <c r="S24" s="58"/>
-      <c r="T24" s="58"/>
-      <c r="U24" s="58"/>
-      <c r="V24" s="58"/>
-      <c r="W24" s="58"/>
-      <c r="X24" s="58"/>
-      <c r="Y24" s="59"/>
-      <c r="Z24" s="41" t="s">
-        <v>47</v>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="46"/>
+      <c r="Q24" s="46"/>
+      <c r="R24" s="46"/>
+      <c r="S24" s="46"/>
+      <c r="T24" s="46"/>
+      <c r="U24" s="46"/>
+      <c r="V24" s="46"/>
+      <c r="W24" s="46"/>
+      <c r="X24" s="46"/>
+      <c r="Y24" s="47"/>
+      <c r="Z24" s="44" t="s">
+        <v>45</v>
       </c>
-      <c r="AA24" s="39"/>
-      <c r="AB24" s="39"/>
-      <c r="AC24" s="39"/>
-      <c r="AD24" s="39"/>
-      <c r="AE24" s="39"/>
-      <c r="AF24" s="39"/>
-      <c r="AG24" s="39"/>
-      <c r="AH24" s="39"/>
-      <c r="AI24" s="39"/>
-      <c r="AJ24" s="39"/>
-      <c r="AK24" s="39"/>
-      <c r="AL24" s="39"/>
-      <c r="AM24" s="39"/>
-      <c r="AN24" s="39"/>
-      <c r="AO24" s="39"/>
-      <c r="AP24" s="39"/>
-      <c r="AQ24" s="39"/>
-      <c r="AR24" s="39"/>
-      <c r="AS24" s="39"/>
-      <c r="AT24" s="39"/>
-      <c r="AU24" s="39"/>
-      <c r="AV24" s="39"/>
-      <c r="AW24" s="39"/>
-      <c r="AX24" s="39"/>
-      <c r="AY24" s="39"/>
-      <c r="AZ24" s="39"/>
-      <c r="BA24" s="39"/>
-      <c r="BB24" s="39"/>
-      <c r="BC24" s="39"/>
-      <c r="BD24" s="39"/>
-      <c r="BE24" s="39"/>
-      <c r="BF24" s="39"/>
-      <c r="BG24" s="39"/>
-      <c r="BH24" s="39"/>
-      <c r="BI24" s="39"/>
-      <c r="BJ24" s="39"/>
-      <c r="BK24" s="39"/>
-      <c r="BL24" s="40"/>
-      <c r="BM24" s="83"/>
-      <c r="BN24" s="83"/>
-      <c r="BO24" s="83"/>
-      <c r="BP24" s="83"/>
-      <c r="BQ24" s="83"/>
-      <c r="BR24" s="83"/>
-      <c r="BS24" s="83"/>
-      <c r="BT24" s="83"/>
+      <c r="AA24" s="42"/>
+      <c r="AB24" s="42"/>
+      <c r="AC24" s="42"/>
+      <c r="AD24" s="42"/>
+      <c r="AE24" s="42"/>
+      <c r="AF24" s="42"/>
+      <c r="AG24" s="42"/>
+      <c r="AH24" s="42"/>
+      <c r="AI24" s="42"/>
+      <c r="AJ24" s="42"/>
+      <c r="AK24" s="42"/>
+      <c r="AL24" s="42"/>
+      <c r="AM24" s="42"/>
+      <c r="AN24" s="42"/>
+      <c r="AO24" s="42"/>
+      <c r="AP24" s="42"/>
+      <c r="AQ24" s="42"/>
+      <c r="AR24" s="42"/>
+      <c r="AS24" s="42"/>
+      <c r="AT24" s="42"/>
+      <c r="AU24" s="42"/>
+      <c r="AV24" s="42"/>
+      <c r="AW24" s="42"/>
+      <c r="AX24" s="42"/>
+      <c r="AY24" s="42"/>
+      <c r="AZ24" s="42"/>
+      <c r="BA24" s="42"/>
+      <c r="BB24" s="42"/>
+      <c r="BC24" s="42"/>
+      <c r="BD24" s="42"/>
+      <c r="BE24" s="42"/>
+      <c r="BF24" s="42"/>
+      <c r="BG24" s="42"/>
+      <c r="BH24" s="42"/>
+      <c r="BI24" s="42"/>
+      <c r="BJ24" s="42"/>
+      <c r="BK24" s="42"/>
+      <c r="BL24" s="43"/>
+      <c r="BM24" s="32"/>
+      <c r="BN24" s="32"/>
+      <c r="BO24" s="32"/>
+      <c r="BP24" s="32"/>
+      <c r="BQ24" s="32"/>
+      <c r="BR24" s="32"/>
+      <c r="BS24" s="32"/>
+      <c r="BT24" s="32"/>
       <c r="BU24" s="17"/>
       <c r="BV24" s="17"/>
       <c r="BW24" s="17"/>
@@ -23462,90 +23456,90 @@
       <c r="AMI24" s="1"/>
       <c r="AMJ24" s="1"/>
     </row>
-    <row r="25" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="73"/>
+    <row r="25" spans="1:1024" ht="18" customHeight="1" thickBot="1">
+      <c r="A25" s="23"/>
       <c r="B25" s="12"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="82"/>
-      <c r="L25" s="82"/>
-      <c r="M25" s="82"/>
-      <c r="N25" s="82"/>
-      <c r="O25" s="82"/>
-      <c r="P25" s="82"/>
-      <c r="Q25" s="82"/>
-      <c r="R25" s="82"/>
-      <c r="S25" s="82"/>
-      <c r="T25" s="82"/>
-      <c r="U25" s="82"/>
-      <c r="V25" s="82"/>
-      <c r="W25" s="82"/>
-      <c r="X25" s="82"/>
-      <c r="Y25" s="82"/>
-      <c r="Z25" s="82"/>
-      <c r="AA25" s="82"/>
-      <c r="AB25" s="82"/>
-      <c r="AC25" s="82"/>
-      <c r="AD25" s="82"/>
-      <c r="AE25" s="82"/>
-      <c r="AF25" s="82"/>
-      <c r="AG25" s="82"/>
-      <c r="AH25" s="82"/>
-      <c r="AI25" s="82"/>
-      <c r="AJ25" s="82"/>
-      <c r="AK25" s="82"/>
-      <c r="AL25" s="82"/>
-      <c r="AM25" s="82"/>
-      <c r="AN25" s="82"/>
-      <c r="AO25" s="82"/>
-      <c r="AP25" s="82"/>
-      <c r="AQ25" s="82"/>
-      <c r="AR25" s="82"/>
-      <c r="AS25" s="82"/>
-      <c r="AT25" s="82"/>
-      <c r="AU25" s="82"/>
-      <c r="AV25" s="82"/>
-      <c r="AW25" s="82"/>
-      <c r="AX25" s="82"/>
-      <c r="AY25" s="82"/>
-      <c r="AZ25" s="82"/>
-      <c r="BA25" s="82"/>
-      <c r="BB25" s="82"/>
-      <c r="BC25" s="82"/>
-      <c r="BD25" s="82"/>
-      <c r="BE25" s="82"/>
-      <c r="BF25" s="82"/>
-      <c r="BG25" s="82"/>
-      <c r="BH25" s="82"/>
-      <c r="BI25" s="82"/>
-      <c r="BJ25" s="82"/>
-      <c r="BK25" s="82"/>
-      <c r="BL25" s="82"/>
-      <c r="BM25" s="82"/>
-      <c r="BN25" s="82"/>
-      <c r="BO25" s="82"/>
-      <c r="BP25" s="82"/>
-      <c r="BQ25" s="82"/>
-      <c r="BR25" s="82"/>
-      <c r="BS25" s="82"/>
-      <c r="BT25" s="76"/>
-      <c r="BU25" s="76"/>
-      <c r="BV25" s="76"/>
-      <c r="BW25" s="76"/>
-      <c r="BX25" s="76"/>
-      <c r="BY25" s="76"/>
-      <c r="BZ25" s="76"/>
-      <c r="CA25" s="76"/>
-      <c r="CB25" s="76"/>
-      <c r="CC25" s="76"/>
-      <c r="CD25" s="76"/>
-      <c r="CE25" s="76"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="31"/>
+      <c r="T25" s="31"/>
+      <c r="U25" s="31"/>
+      <c r="V25" s="31"/>
+      <c r="W25" s="31"/>
+      <c r="X25" s="31"/>
+      <c r="Y25" s="31"/>
+      <c r="Z25" s="31"/>
+      <c r="AA25" s="31"/>
+      <c r="AB25" s="31"/>
+      <c r="AC25" s="31"/>
+      <c r="AD25" s="31"/>
+      <c r="AE25" s="31"/>
+      <c r="AF25" s="31"/>
+      <c r="AG25" s="31"/>
+      <c r="AH25" s="31"/>
+      <c r="AI25" s="31"/>
+      <c r="AJ25" s="31"/>
+      <c r="AK25" s="31"/>
+      <c r="AL25" s="31"/>
+      <c r="AM25" s="31"/>
+      <c r="AN25" s="31"/>
+      <c r="AO25" s="31"/>
+      <c r="AP25" s="31"/>
+      <c r="AQ25" s="31"/>
+      <c r="AR25" s="31"/>
+      <c r="AS25" s="31"/>
+      <c r="AT25" s="31"/>
+      <c r="AU25" s="31"/>
+      <c r="AV25" s="31"/>
+      <c r="AW25" s="31"/>
+      <c r="AX25" s="31"/>
+      <c r="AY25" s="31"/>
+      <c r="AZ25" s="31"/>
+      <c r="BA25" s="31"/>
+      <c r="BB25" s="31"/>
+      <c r="BC25" s="31"/>
+      <c r="BD25" s="31"/>
+      <c r="BE25" s="31"/>
+      <c r="BF25" s="31"/>
+      <c r="BG25" s="31"/>
+      <c r="BH25" s="31"/>
+      <c r="BI25" s="31"/>
+      <c r="BJ25" s="31"/>
+      <c r="BK25" s="31"/>
+      <c r="BL25" s="31"/>
+      <c r="BM25" s="31"/>
+      <c r="BN25" s="31"/>
+      <c r="BO25" s="31"/>
+      <c r="BP25" s="31"/>
+      <c r="BQ25" s="31"/>
+      <c r="BR25" s="31"/>
+      <c r="BS25" s="31"/>
+      <c r="BT25" s="25"/>
+      <c r="BU25" s="25"/>
+      <c r="BV25" s="25"/>
+      <c r="BW25" s="25"/>
+      <c r="BX25" s="25"/>
+      <c r="BY25" s="25"/>
+      <c r="BZ25" s="25"/>
+      <c r="CA25" s="25"/>
+      <c r="CB25" s="25"/>
+      <c r="CC25" s="25"/>
+      <c r="CD25" s="25"/>
+      <c r="CE25" s="25"/>
       <c r="CF25" s="14"/>
       <c r="CG25" s="14"/>
       <c r="CH25" s="14"/>
@@ -24488,78 +24482,78 @@
       <c r="AMI25" s="1"/>
       <c r="AMJ25" s="1"/>
     </row>
-    <row r="26" spans="1:1024" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1024">
       <c r="A26" s="1"/>
       <c r="B26" s="10"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="74"/>
-      <c r="M26" s="74"/>
-      <c r="N26" s="74"/>
-      <c r="O26" s="74"/>
-      <c r="P26" s="74"/>
-      <c r="Q26" s="74"/>
-      <c r="R26" s="74"/>
-      <c r="S26" s="74"/>
-      <c r="T26" s="74"/>
-      <c r="U26" s="74"/>
-      <c r="V26" s="74"/>
-      <c r="W26" s="74"/>
-      <c r="X26" s="74"/>
-      <c r="Y26" s="74"/>
-      <c r="Z26" s="74"/>
-      <c r="AA26" s="74"/>
-      <c r="AB26" s="74"/>
-      <c r="AC26" s="74"/>
-      <c r="AD26" s="74"/>
-      <c r="AE26" s="74"/>
-      <c r="AF26" s="74"/>
-      <c r="AG26" s="74"/>
-      <c r="AH26" s="74"/>
-      <c r="AI26" s="74"/>
-      <c r="AJ26" s="74"/>
-      <c r="AK26" s="74"/>
-      <c r="AL26" s="74"/>
-      <c r="AM26" s="74"/>
-      <c r="AN26" s="74"/>
-      <c r="AO26" s="74"/>
-      <c r="AP26" s="74"/>
-      <c r="AQ26" s="74"/>
-      <c r="AR26" s="74"/>
-      <c r="AS26" s="74"/>
-      <c r="AT26" s="74"/>
-      <c r="AU26" s="74"/>
-      <c r="AV26" s="74"/>
-      <c r="AW26" s="74"/>
-      <c r="AX26" s="74"/>
-      <c r="AY26" s="74"/>
-      <c r="AZ26" s="74"/>
-      <c r="BA26" s="74"/>
-      <c r="BB26" s="74"/>
-      <c r="BC26" s="74"/>
-      <c r="BD26" s="74"/>
-      <c r="BE26" s="74"/>
-      <c r="BF26" s="74"/>
-      <c r="BG26" s="74"/>
-      <c r="BH26" s="74"/>
-      <c r="BI26" s="74"/>
-      <c r="BJ26" s="74"/>
-      <c r="BK26" s="74"/>
-      <c r="BL26" s="74"/>
-      <c r="BM26" s="74"/>
-      <c r="BN26" s="74"/>
-      <c r="BO26" s="74"/>
-      <c r="BP26" s="74"/>
-      <c r="BQ26" s="74"/>
-      <c r="BR26" s="74"/>
-      <c r="BS26" s="74"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="24"/>
+      <c r="V26" s="24"/>
+      <c r="W26" s="24"/>
+      <c r="X26" s="24"/>
+      <c r="Y26" s="24"/>
+      <c r="Z26" s="24"/>
+      <c r="AA26" s="24"/>
+      <c r="AB26" s="24"/>
+      <c r="AC26" s="24"/>
+      <c r="AD26" s="24"/>
+      <c r="AE26" s="24"/>
+      <c r="AF26" s="24"/>
+      <c r="AG26" s="24"/>
+      <c r="AH26" s="24"/>
+      <c r="AI26" s="24"/>
+      <c r="AJ26" s="24"/>
+      <c r="AK26" s="24"/>
+      <c r="AL26" s="24"/>
+      <c r="AM26" s="24"/>
+      <c r="AN26" s="24"/>
+      <c r="AO26" s="24"/>
+      <c r="AP26" s="24"/>
+      <c r="AQ26" s="24"/>
+      <c r="AR26" s="24"/>
+      <c r="AS26" s="24"/>
+      <c r="AT26" s="24"/>
+      <c r="AU26" s="24"/>
+      <c r="AV26" s="24"/>
+      <c r="AW26" s="24"/>
+      <c r="AX26" s="24"/>
+      <c r="AY26" s="24"/>
+      <c r="AZ26" s="24"/>
+      <c r="BA26" s="24"/>
+      <c r="BB26" s="24"/>
+      <c r="BC26" s="24"/>
+      <c r="BD26" s="24"/>
+      <c r="BE26" s="24"/>
+      <c r="BF26" s="24"/>
+      <c r="BG26" s="24"/>
+      <c r="BH26" s="24"/>
+      <c r="BI26" s="24"/>
+      <c r="BJ26" s="24"/>
+      <c r="BK26" s="24"/>
+      <c r="BL26" s="24"/>
+      <c r="BM26" s="24"/>
+      <c r="BN26" s="24"/>
+      <c r="BO26" s="24"/>
+      <c r="BP26" s="24"/>
+      <c r="BQ26" s="24"/>
+      <c r="BR26" s="24"/>
+      <c r="BS26" s="24"/>
       <c r="BT26" s="9"/>
       <c r="BU26" s="9"/>
       <c r="BV26" s="9"/>
@@ -25514,7 +25508,7 @@
       <c r="AMI26" s="1"/>
       <c r="AMJ26" s="1"/>
     </row>
-    <row r="27" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:1024" ht="18" customHeight="1" thickBot="1">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -26540,202 +26534,202 @@
       <c r="AMI27" s="1"/>
       <c r="AMJ27" s="1"/>
     </row>
-    <row r="28" spans="1:1024" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="42" t="s">
+    <row r="28" spans="1:1024" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="B28" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="30" t="s">
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="30"/>
-      <c r="U28" s="30"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="30"/>
-      <c r="X28" s="30"/>
-      <c r="Y28" s="31" t="s">
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="62"/>
+      <c r="M28" s="62"/>
+      <c r="N28" s="62"/>
+      <c r="O28" s="62"/>
+      <c r="P28" s="62"/>
+      <c r="Q28" s="62"/>
+      <c r="R28" s="62"/>
+      <c r="S28" s="62"/>
+      <c r="T28" s="62"/>
+      <c r="U28" s="62"/>
+      <c r="V28" s="62"/>
+      <c r="W28" s="62"/>
+      <c r="X28" s="62"/>
+      <c r="Y28" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="Z28" s="32"/>
-      <c r="AA28" s="32"/>
-      <c r="AB28" s="32"/>
-      <c r="AC28" s="32"/>
-      <c r="AD28" s="32"/>
-      <c r="AE28" s="32"/>
-      <c r="AF28" s="32"/>
-      <c r="AG28" s="32"/>
-      <c r="AH28" s="33"/>
-      <c r="AI28" s="31" t="s">
+      <c r="Z28" s="75"/>
+      <c r="AA28" s="75"/>
+      <c r="AB28" s="75"/>
+      <c r="AC28" s="75"/>
+      <c r="AD28" s="75"/>
+      <c r="AE28" s="75"/>
+      <c r="AF28" s="75"/>
+      <c r="AG28" s="75"/>
+      <c r="AH28" s="76"/>
+      <c r="AI28" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="AJ28" s="32"/>
-      <c r="AK28" s="32"/>
-      <c r="AL28" s="32"/>
-      <c r="AM28" s="32"/>
-      <c r="AN28" s="32"/>
-      <c r="AO28" s="32"/>
-      <c r="AP28" s="32"/>
-      <c r="AQ28" s="32"/>
-      <c r="AR28" s="33"/>
-      <c r="AS28" s="34" t="s">
+      <c r="AJ28" s="75"/>
+      <c r="AK28" s="75"/>
+      <c r="AL28" s="75"/>
+      <c r="AM28" s="75"/>
+      <c r="AN28" s="75"/>
+      <c r="AO28" s="75"/>
+      <c r="AP28" s="75"/>
+      <c r="AQ28" s="75"/>
+      <c r="AR28" s="76"/>
+      <c r="AS28" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="AT28" s="34"/>
-      <c r="AU28" s="34"/>
-      <c r="AV28" s="34"/>
-      <c r="AW28" s="34"/>
-      <c r="AX28" s="34"/>
-      <c r="AY28" s="34"/>
-      <c r="AZ28" s="34"/>
-      <c r="BA28" s="34"/>
-      <c r="BB28" s="34"/>
-      <c r="BC28" s="34"/>
-      <c r="BD28" s="34"/>
-      <c r="BE28" s="34"/>
-      <c r="BF28" s="34"/>
-      <c r="BG28" s="34"/>
-      <c r="BH28" s="34"/>
-      <c r="BI28" s="34"/>
-      <c r="BJ28" s="34"/>
-      <c r="BK28" s="34"/>
-      <c r="BL28" s="34"/>
-      <c r="BM28" s="34"/>
-      <c r="BN28" s="34"/>
-      <c r="BO28" s="34"/>
-      <c r="BP28" s="34"/>
-      <c r="BQ28" s="34"/>
-      <c r="BR28" s="34"/>
-      <c r="BS28" s="34"/>
-      <c r="BT28" s="34"/>
-      <c r="BU28" s="34"/>
-      <c r="BV28" s="34"/>
-      <c r="BW28" s="34"/>
-      <c r="BX28" s="34"/>
-      <c r="BY28" s="34"/>
-      <c r="BZ28" s="34"/>
-      <c r="CA28" s="34"/>
-      <c r="CB28" s="34"/>
-      <c r="CC28" s="34"/>
-      <c r="CD28" s="34"/>
-      <c r="CE28" s="34"/>
-      <c r="CF28" s="34"/>
-      <c r="CG28" s="34"/>
-      <c r="CH28" s="34"/>
-      <c r="CI28" s="34"/>
+      <c r="AT28" s="71"/>
+      <c r="AU28" s="71"/>
+      <c r="AV28" s="71"/>
+      <c r="AW28" s="71"/>
+      <c r="AX28" s="71"/>
+      <c r="AY28" s="71"/>
+      <c r="AZ28" s="71"/>
+      <c r="BA28" s="71"/>
+      <c r="BB28" s="71"/>
+      <c r="BC28" s="71"/>
+      <c r="BD28" s="71"/>
+      <c r="BE28" s="71"/>
+      <c r="BF28" s="71"/>
+      <c r="BG28" s="71"/>
+      <c r="BH28" s="71"/>
+      <c r="BI28" s="71"/>
+      <c r="BJ28" s="71"/>
+      <c r="BK28" s="71"/>
+      <c r="BL28" s="71"/>
+      <c r="BM28" s="71"/>
+      <c r="BN28" s="71"/>
+      <c r="BO28" s="71"/>
+      <c r="BP28" s="71"/>
+      <c r="BQ28" s="71"/>
+      <c r="BR28" s="71"/>
+      <c r="BS28" s="71"/>
+      <c r="BT28" s="71"/>
+      <c r="BU28" s="71"/>
+      <c r="BV28" s="71"/>
+      <c r="BW28" s="71"/>
+      <c r="BX28" s="71"/>
+      <c r="BY28" s="71"/>
+      <c r="BZ28" s="71"/>
+      <c r="CA28" s="71"/>
+      <c r="CB28" s="71"/>
+      <c r="CC28" s="71"/>
+      <c r="CD28" s="71"/>
+      <c r="CE28" s="71"/>
+      <c r="CF28" s="71"/>
+      <c r="CG28" s="71"/>
+      <c r="CH28" s="71"/>
+      <c r="CI28" s="71"/>
     </row>
-    <row r="29" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:1024" ht="18" customHeight="1" thickBot="1">
       <c r="A29" s="2"/>
-      <c r="B29" s="60">
+      <c r="B29" s="66">
         <v>3</v>
       </c>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="70" t="s">
-        <v>44</v>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="67" t="s">
+        <v>42</v>
       </c>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="70"/>
-      <c r="N29" s="70"/>
-      <c r="O29" s="70"/>
-      <c r="P29" s="70"/>
-      <c r="Q29" s="70"/>
-      <c r="R29" s="70"/>
-      <c r="S29" s="70"/>
-      <c r="T29" s="70"/>
-      <c r="U29" s="70"/>
-      <c r="V29" s="70"/>
-      <c r="W29" s="70"/>
-      <c r="X29" s="70"/>
-      <c r="Y29" s="41" t="s">
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="67"/>
+      <c r="L29" s="67"/>
+      <c r="M29" s="67"/>
+      <c r="N29" s="67"/>
+      <c r="O29" s="67"/>
+      <c r="P29" s="67"/>
+      <c r="Q29" s="67"/>
+      <c r="R29" s="67"/>
+      <c r="S29" s="67"/>
+      <c r="T29" s="67"/>
+      <c r="U29" s="67"/>
+      <c r="V29" s="67"/>
+      <c r="W29" s="67"/>
+      <c r="X29" s="67"/>
+      <c r="Y29" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="Z29" s="71"/>
-      <c r="AA29" s="71"/>
-      <c r="AB29" s="71"/>
-      <c r="AC29" s="71"/>
-      <c r="AD29" s="71"/>
-      <c r="AE29" s="71"/>
-      <c r="AF29" s="71"/>
-      <c r="AG29" s="71"/>
-      <c r="AH29" s="72"/>
-      <c r="AI29" s="41" t="s">
+      <c r="Z29" s="68"/>
+      <c r="AA29" s="68"/>
+      <c r="AB29" s="68"/>
+      <c r="AC29" s="68"/>
+      <c r="AD29" s="68"/>
+      <c r="AE29" s="68"/>
+      <c r="AF29" s="68"/>
+      <c r="AG29" s="68"/>
+      <c r="AH29" s="69"/>
+      <c r="AI29" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="AJ29" s="71"/>
-      <c r="AK29" s="71"/>
-      <c r="AL29" s="71"/>
-      <c r="AM29" s="71"/>
-      <c r="AN29" s="71"/>
-      <c r="AO29" s="71"/>
-      <c r="AP29" s="71"/>
-      <c r="AQ29" s="71"/>
-      <c r="AR29" s="72"/>
-      <c r="AS29" s="38" t="s">
+      <c r="AJ29" s="68"/>
+      <c r="AK29" s="68"/>
+      <c r="AL29" s="68"/>
+      <c r="AM29" s="68"/>
+      <c r="AN29" s="68"/>
+      <c r="AO29" s="68"/>
+      <c r="AP29" s="68"/>
+      <c r="AQ29" s="68"/>
+      <c r="AR29" s="69"/>
+      <c r="AS29" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="AT29" s="38"/>
-      <c r="AU29" s="38"/>
-      <c r="AV29" s="38"/>
-      <c r="AW29" s="38"/>
-      <c r="AX29" s="38"/>
-      <c r="AY29" s="38"/>
-      <c r="AZ29" s="38"/>
-      <c r="BA29" s="38"/>
-      <c r="BB29" s="38"/>
-      <c r="BC29" s="38"/>
-      <c r="BD29" s="38"/>
-      <c r="BE29" s="38"/>
-      <c r="BF29" s="38"/>
-      <c r="BG29" s="38"/>
-      <c r="BH29" s="38"/>
-      <c r="BI29" s="38"/>
-      <c r="BJ29" s="38"/>
-      <c r="BK29" s="38"/>
-      <c r="BL29" s="38"/>
-      <c r="BM29" s="38"/>
-      <c r="BN29" s="38"/>
-      <c r="BO29" s="38"/>
-      <c r="BP29" s="38"/>
-      <c r="BQ29" s="38"/>
-      <c r="BR29" s="38"/>
-      <c r="BS29" s="38"/>
-      <c r="BT29" s="38"/>
-      <c r="BU29" s="38"/>
-      <c r="BV29" s="38"/>
-      <c r="BW29" s="38"/>
-      <c r="BX29" s="38"/>
-      <c r="BY29" s="38"/>
-      <c r="BZ29" s="38"/>
-      <c r="CA29" s="38"/>
-      <c r="CB29" s="38"/>
-      <c r="CC29" s="38"/>
-      <c r="CD29" s="38"/>
-      <c r="CE29" s="38"/>
-      <c r="CF29" s="38"/>
-      <c r="CG29" s="38"/>
-      <c r="CH29" s="38"/>
-      <c r="CI29" s="38"/>
+      <c r="AT29" s="70"/>
+      <c r="AU29" s="70"/>
+      <c r="AV29" s="70"/>
+      <c r="AW29" s="70"/>
+      <c r="AX29" s="70"/>
+      <c r="AY29" s="70"/>
+      <c r="AZ29" s="70"/>
+      <c r="BA29" s="70"/>
+      <c r="BB29" s="70"/>
+      <c r="BC29" s="70"/>
+      <c r="BD29" s="70"/>
+      <c r="BE29" s="70"/>
+      <c r="BF29" s="70"/>
+      <c r="BG29" s="70"/>
+      <c r="BH29" s="70"/>
+      <c r="BI29" s="70"/>
+      <c r="BJ29" s="70"/>
+      <c r="BK29" s="70"/>
+      <c r="BL29" s="70"/>
+      <c r="BM29" s="70"/>
+      <c r="BN29" s="70"/>
+      <c r="BO29" s="70"/>
+      <c r="BP29" s="70"/>
+      <c r="BQ29" s="70"/>
+      <c r="BR29" s="70"/>
+      <c r="BS29" s="70"/>
+      <c r="BT29" s="70"/>
+      <c r="BU29" s="70"/>
+      <c r="BV29" s="70"/>
+      <c r="BW29" s="70"/>
+      <c r="BX29" s="70"/>
+      <c r="BY29" s="70"/>
+      <c r="BZ29" s="70"/>
+      <c r="CA29" s="70"/>
+      <c r="CB29" s="70"/>
+      <c r="CC29" s="70"/>
+      <c r="CD29" s="70"/>
+      <c r="CE29" s="70"/>
+      <c r="CF29" s="70"/>
+      <c r="CG29" s="70"/>
+      <c r="CH29" s="70"/>
+      <c r="CI29" s="70"/>
       <c r="CJ29" s="1"/>
       <c r="CK29" s="1"/>
       <c r="CL29" s="1"/>
@@ -27674,7 +27668,7 @@
       <c r="AMI29" s="1"/>
       <c r="AMJ29" s="1"/>
     </row>
-    <row r="30" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1024" ht="18" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
@@ -28700,95 +28694,95 @@
       <c r="AMI30" s="1"/>
       <c r="AMJ30" s="1"/>
     </row>
-    <row r="31" spans="1:1024" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1024">
       <c r="A31" s="1"/>
-      <c r="B31" s="64" t="s">
-        <v>45</v>
+      <c r="B31" s="63" t="s">
+        <v>43</v>
       </c>
-      <c r="C31" s="95"/>
-      <c r="D31" s="95"/>
-      <c r="E31" s="95"/>
-      <c r="F31" s="95"/>
-      <c r="G31" s="95"/>
-      <c r="H31" s="95"/>
-      <c r="I31" s="95"/>
-      <c r="J31" s="95"/>
-      <c r="K31" s="95"/>
-      <c r="L31" s="95"/>
-      <c r="M31" s="95"/>
-      <c r="N31" s="95"/>
-      <c r="O31" s="95"/>
-      <c r="P31" s="95"/>
-      <c r="Q31" s="95"/>
-      <c r="R31" s="95"/>
-      <c r="S31" s="95"/>
-      <c r="T31" s="95"/>
-      <c r="U31" s="95"/>
-      <c r="V31" s="95"/>
-      <c r="W31" s="95"/>
-      <c r="X31" s="95"/>
-      <c r="Y31" s="95"/>
-      <c r="Z31" s="95"/>
-      <c r="AA31" s="95"/>
-      <c r="AB31" s="95"/>
-      <c r="AC31" s="95"/>
-      <c r="AD31" s="95"/>
-      <c r="AE31" s="95"/>
-      <c r="AF31" s="95"/>
-      <c r="AG31" s="95"/>
-      <c r="AH31" s="95"/>
-      <c r="AI31" s="95"/>
-      <c r="AJ31" s="95"/>
-      <c r="AK31" s="95"/>
-      <c r="AL31" s="95"/>
-      <c r="AM31" s="95"/>
-      <c r="AN31" s="95"/>
-      <c r="AO31" s="95"/>
-      <c r="AP31" s="95"/>
-      <c r="AQ31" s="95"/>
-      <c r="AR31" s="95"/>
-      <c r="AS31" s="95"/>
-      <c r="AT31" s="95"/>
-      <c r="AU31" s="95"/>
-      <c r="AV31" s="95"/>
-      <c r="AW31" s="95"/>
-      <c r="AX31" s="95"/>
-      <c r="AY31" s="95"/>
-      <c r="AZ31" s="95"/>
-      <c r="BA31" s="95"/>
-      <c r="BB31" s="95"/>
-      <c r="BC31" s="95"/>
-      <c r="BD31" s="95"/>
-      <c r="BE31" s="95"/>
-      <c r="BF31" s="95"/>
-      <c r="BG31" s="95"/>
-      <c r="BH31" s="95"/>
-      <c r="BI31" s="95"/>
-      <c r="BJ31" s="95"/>
-      <c r="BK31" s="95"/>
-      <c r="BL31" s="95"/>
-      <c r="BM31" s="95"/>
-      <c r="BN31" s="95"/>
-      <c r="BO31" s="95"/>
-      <c r="BP31" s="95"/>
-      <c r="BQ31" s="95"/>
-      <c r="BR31" s="95"/>
-      <c r="BS31" s="95"/>
-      <c r="BT31" s="95"/>
-      <c r="BU31" s="95"/>
-      <c r="BV31" s="95"/>
-      <c r="BW31" s="95"/>
-      <c r="BX31" s="95"/>
-      <c r="BY31" s="95"/>
-      <c r="BZ31" s="95"/>
-      <c r="CA31" s="95"/>
-      <c r="CB31" s="95"/>
-      <c r="CC31" s="95"/>
-      <c r="CD31" s="95"/>
-      <c r="CE31" s="95"/>
-      <c r="CF31" s="95"/>
-      <c r="CG31" s="95"/>
-      <c r="CH31" s="95"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="64"/>
+      <c r="L31" s="64"/>
+      <c r="M31" s="64"/>
+      <c r="N31" s="64"/>
+      <c r="O31" s="64"/>
+      <c r="P31" s="64"/>
+      <c r="Q31" s="64"/>
+      <c r="R31" s="64"/>
+      <c r="S31" s="64"/>
+      <c r="T31" s="64"/>
+      <c r="U31" s="64"/>
+      <c r="V31" s="64"/>
+      <c r="W31" s="64"/>
+      <c r="X31" s="64"/>
+      <c r="Y31" s="64"/>
+      <c r="Z31" s="64"/>
+      <c r="AA31" s="64"/>
+      <c r="AB31" s="64"/>
+      <c r="AC31" s="64"/>
+      <c r="AD31" s="64"/>
+      <c r="AE31" s="64"/>
+      <c r="AF31" s="64"/>
+      <c r="AG31" s="64"/>
+      <c r="AH31" s="64"/>
+      <c r="AI31" s="64"/>
+      <c r="AJ31" s="64"/>
+      <c r="AK31" s="64"/>
+      <c r="AL31" s="64"/>
+      <c r="AM31" s="64"/>
+      <c r="AN31" s="64"/>
+      <c r="AO31" s="64"/>
+      <c r="AP31" s="64"/>
+      <c r="AQ31" s="64"/>
+      <c r="AR31" s="64"/>
+      <c r="AS31" s="64"/>
+      <c r="AT31" s="64"/>
+      <c r="AU31" s="64"/>
+      <c r="AV31" s="64"/>
+      <c r="AW31" s="64"/>
+      <c r="AX31" s="64"/>
+      <c r="AY31" s="64"/>
+      <c r="AZ31" s="64"/>
+      <c r="BA31" s="64"/>
+      <c r="BB31" s="64"/>
+      <c r="BC31" s="64"/>
+      <c r="BD31" s="64"/>
+      <c r="BE31" s="64"/>
+      <c r="BF31" s="64"/>
+      <c r="BG31" s="64"/>
+      <c r="BH31" s="64"/>
+      <c r="BI31" s="64"/>
+      <c r="BJ31" s="64"/>
+      <c r="BK31" s="64"/>
+      <c r="BL31" s="64"/>
+      <c r="BM31" s="64"/>
+      <c r="BN31" s="64"/>
+      <c r="BO31" s="64"/>
+      <c r="BP31" s="64"/>
+      <c r="BQ31" s="64"/>
+      <c r="BR31" s="64"/>
+      <c r="BS31" s="64"/>
+      <c r="BT31" s="64"/>
+      <c r="BU31" s="64"/>
+      <c r="BV31" s="64"/>
+      <c r="BW31" s="64"/>
+      <c r="BX31" s="64"/>
+      <c r="BY31" s="64"/>
+      <c r="BZ31" s="64"/>
+      <c r="CA31" s="64"/>
+      <c r="CB31" s="64"/>
+      <c r="CC31" s="64"/>
+      <c r="CD31" s="64"/>
+      <c r="CE31" s="64"/>
+      <c r="CF31" s="64"/>
+      <c r="CG31" s="64"/>
+      <c r="CH31" s="64"/>
       <c r="CI31" s="65"/>
       <c r="CJ31" s="1"/>
       <c r="CK31" s="1"/>
@@ -29728,7 +29722,7 @@
       <c r="AMI31" s="1"/>
       <c r="AMJ31" s="1"/>
     </row>
-    <row r="32" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:1024" ht="18" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="8"/>
       <c r="C32" s="9"/>
@@ -30754,7 +30748,7 @@
       <c r="AMI32" s="1"/>
       <c r="AMJ32" s="1"/>
     </row>
-    <row r="33" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1024" ht="18" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="8"/>
       <c r="C33" s="9"/>
@@ -31780,95 +31774,95 @@
       <c r="AMI33" s="1"/>
       <c r="AMJ33" s="1"/>
     </row>
-    <row r="34" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1024" ht="18" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="64" t="s">
+      <c r="B34" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="95"/>
-      <c r="D34" s="95"/>
-      <c r="E34" s="95"/>
-      <c r="F34" s="95"/>
-      <c r="G34" s="95"/>
-      <c r="H34" s="95"/>
-      <c r="I34" s="95"/>
-      <c r="J34" s="95"/>
-      <c r="K34" s="95"/>
-      <c r="L34" s="95"/>
-      <c r="M34" s="95"/>
-      <c r="N34" s="95"/>
-      <c r="O34" s="95"/>
-      <c r="P34" s="95"/>
-      <c r="Q34" s="95"/>
-      <c r="R34" s="95"/>
-      <c r="S34" s="95"/>
-      <c r="T34" s="95"/>
-      <c r="U34" s="95"/>
-      <c r="V34" s="95"/>
-      <c r="W34" s="95"/>
-      <c r="X34" s="95"/>
-      <c r="Y34" s="95"/>
-      <c r="Z34" s="95"/>
-      <c r="AA34" s="95"/>
-      <c r="AB34" s="95"/>
-      <c r="AC34" s="95"/>
-      <c r="AD34" s="95"/>
-      <c r="AE34" s="95"/>
-      <c r="AF34" s="95"/>
-      <c r="AG34" s="95"/>
-      <c r="AH34" s="95"/>
-      <c r="AI34" s="95"/>
-      <c r="AJ34" s="95"/>
-      <c r="AK34" s="95"/>
-      <c r="AL34" s="95"/>
-      <c r="AM34" s="95"/>
-      <c r="AN34" s="95"/>
-      <c r="AO34" s="95"/>
-      <c r="AP34" s="95"/>
-      <c r="AQ34" s="95"/>
-      <c r="AR34" s="95"/>
-      <c r="AS34" s="95"/>
-      <c r="AT34" s="95"/>
-      <c r="AU34" s="95"/>
-      <c r="AV34" s="95"/>
-      <c r="AW34" s="95"/>
-      <c r="AX34" s="95"/>
-      <c r="AY34" s="95"/>
-      <c r="AZ34" s="95"/>
-      <c r="BA34" s="95"/>
-      <c r="BB34" s="95"/>
-      <c r="BC34" s="95"/>
-      <c r="BD34" s="95"/>
-      <c r="BE34" s="95"/>
-      <c r="BF34" s="95"/>
-      <c r="BG34" s="95"/>
-      <c r="BH34" s="95"/>
-      <c r="BI34" s="95"/>
-      <c r="BJ34" s="95"/>
-      <c r="BK34" s="95"/>
-      <c r="BL34" s="95"/>
-      <c r="BM34" s="95"/>
-      <c r="BN34" s="95"/>
-      <c r="BO34" s="95"/>
-      <c r="BP34" s="95"/>
-      <c r="BQ34" s="95"/>
-      <c r="BR34" s="95"/>
-      <c r="BS34" s="95"/>
-      <c r="BT34" s="95"/>
-      <c r="BU34" s="95"/>
-      <c r="BV34" s="95"/>
-      <c r="BW34" s="95"/>
-      <c r="BX34" s="95"/>
-      <c r="BY34" s="95"/>
-      <c r="BZ34" s="95"/>
-      <c r="CA34" s="95"/>
-      <c r="CB34" s="95"/>
-      <c r="CC34" s="95"/>
-      <c r="CD34" s="95"/>
-      <c r="CE34" s="95"/>
-      <c r="CF34" s="95"/>
-      <c r="CG34" s="95"/>
-      <c r="CH34" s="95"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="64"/>
+      <c r="L34" s="64"/>
+      <c r="M34" s="64"/>
+      <c r="N34" s="64"/>
+      <c r="O34" s="64"/>
+      <c r="P34" s="64"/>
+      <c r="Q34" s="64"/>
+      <c r="R34" s="64"/>
+      <c r="S34" s="64"/>
+      <c r="T34" s="64"/>
+      <c r="U34" s="64"/>
+      <c r="V34" s="64"/>
+      <c r="W34" s="64"/>
+      <c r="X34" s="64"/>
+      <c r="Y34" s="64"/>
+      <c r="Z34" s="64"/>
+      <c r="AA34" s="64"/>
+      <c r="AB34" s="64"/>
+      <c r="AC34" s="64"/>
+      <c r="AD34" s="64"/>
+      <c r="AE34" s="64"/>
+      <c r="AF34" s="64"/>
+      <c r="AG34" s="64"/>
+      <c r="AH34" s="64"/>
+      <c r="AI34" s="64"/>
+      <c r="AJ34" s="64"/>
+      <c r="AK34" s="64"/>
+      <c r="AL34" s="64"/>
+      <c r="AM34" s="64"/>
+      <c r="AN34" s="64"/>
+      <c r="AO34" s="64"/>
+      <c r="AP34" s="64"/>
+      <c r="AQ34" s="64"/>
+      <c r="AR34" s="64"/>
+      <c r="AS34" s="64"/>
+      <c r="AT34" s="64"/>
+      <c r="AU34" s="64"/>
+      <c r="AV34" s="64"/>
+      <c r="AW34" s="64"/>
+      <c r="AX34" s="64"/>
+      <c r="AY34" s="64"/>
+      <c r="AZ34" s="64"/>
+      <c r="BA34" s="64"/>
+      <c r="BB34" s="64"/>
+      <c r="BC34" s="64"/>
+      <c r="BD34" s="64"/>
+      <c r="BE34" s="64"/>
+      <c r="BF34" s="64"/>
+      <c r="BG34" s="64"/>
+      <c r="BH34" s="64"/>
+      <c r="BI34" s="64"/>
+      <c r="BJ34" s="64"/>
+      <c r="BK34" s="64"/>
+      <c r="BL34" s="64"/>
+      <c r="BM34" s="64"/>
+      <c r="BN34" s="64"/>
+      <c r="BO34" s="64"/>
+      <c r="BP34" s="64"/>
+      <c r="BQ34" s="64"/>
+      <c r="BR34" s="64"/>
+      <c r="BS34" s="64"/>
+      <c r="BT34" s="64"/>
+      <c r="BU34" s="64"/>
+      <c r="BV34" s="64"/>
+      <c r="BW34" s="64"/>
+      <c r="BX34" s="64"/>
+      <c r="BY34" s="64"/>
+      <c r="BZ34" s="64"/>
+      <c r="CA34" s="64"/>
+      <c r="CB34" s="64"/>
+      <c r="CC34" s="64"/>
+      <c r="CD34" s="64"/>
+      <c r="CE34" s="64"/>
+      <c r="CF34" s="64"/>
+      <c r="CG34" s="64"/>
+      <c r="CH34" s="64"/>
       <c r="CI34" s="65"/>
       <c r="CJ34" s="1"/>
       <c r="CK34" s="1"/>
@@ -32808,7 +32802,7 @@
       <c r="AMI34" s="1"/>
       <c r="AMJ34" s="1"/>
     </row>
-    <row r="35" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1024" ht="18" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="8"/>
       <c r="C35" s="9"/>
@@ -33834,76 +33828,76 @@
       <c r="AMI35" s="1"/>
       <c r="AMJ35" s="1"/>
     </row>
-    <row r="36" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1024" ht="18" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="8"/>
       <c r="C36" s="9"/>
       <c r="D36" s="17"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="25" t="s">
+      <c r="G36" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="H36" s="26"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="28" t="s">
+      <c r="H36" s="38"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="29"/>
-      <c r="S36" s="29"/>
-      <c r="T36" s="26"/>
-      <c r="U36" s="26"/>
-      <c r="V36" s="26"/>
-      <c r="W36" s="26"/>
-      <c r="X36" s="27"/>
-      <c r="Y36" s="25" t="s">
+      <c r="K36" s="41"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="41"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="41"/>
+      <c r="S36" s="41"/>
+      <c r="T36" s="38"/>
+      <c r="U36" s="38"/>
+      <c r="V36" s="38"/>
+      <c r="W36" s="38"/>
+      <c r="X36" s="39"/>
+      <c r="Y36" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="Z36" s="39"/>
-      <c r="AA36" s="39"/>
-      <c r="AB36" s="39"/>
-      <c r="AC36" s="39"/>
-      <c r="AD36" s="39"/>
-      <c r="AE36" s="39"/>
-      <c r="AF36" s="39"/>
-      <c r="AG36" s="39"/>
-      <c r="AH36" s="39"/>
-      <c r="AI36" s="39"/>
-      <c r="AJ36" s="39"/>
-      <c r="AK36" s="39"/>
-      <c r="AL36" s="39"/>
-      <c r="AM36" s="39"/>
-      <c r="AN36" s="39"/>
-      <c r="AO36" s="39"/>
-      <c r="AP36" s="39"/>
-      <c r="AQ36" s="39"/>
-      <c r="AR36" s="39"/>
-      <c r="AS36" s="39"/>
-      <c r="AT36" s="39"/>
-      <c r="AU36" s="39"/>
-      <c r="AV36" s="39"/>
-      <c r="AW36" s="39"/>
-      <c r="AX36" s="39"/>
-      <c r="AY36" s="39"/>
-      <c r="AZ36" s="39"/>
-      <c r="BA36" s="39"/>
-      <c r="BB36" s="39"/>
-      <c r="BC36" s="39"/>
-      <c r="BD36" s="39"/>
-      <c r="BE36" s="39"/>
-      <c r="BF36" s="39"/>
-      <c r="BG36" s="39"/>
-      <c r="BH36" s="39"/>
-      <c r="BI36" s="39"/>
-      <c r="BJ36" s="39"/>
-      <c r="BK36" s="40"/>
+      <c r="Z36" s="42"/>
+      <c r="AA36" s="42"/>
+      <c r="AB36" s="42"/>
+      <c r="AC36" s="42"/>
+      <c r="AD36" s="42"/>
+      <c r="AE36" s="42"/>
+      <c r="AF36" s="42"/>
+      <c r="AG36" s="42"/>
+      <c r="AH36" s="42"/>
+      <c r="AI36" s="42"/>
+      <c r="AJ36" s="42"/>
+      <c r="AK36" s="42"/>
+      <c r="AL36" s="42"/>
+      <c r="AM36" s="42"/>
+      <c r="AN36" s="42"/>
+      <c r="AO36" s="42"/>
+      <c r="AP36" s="42"/>
+      <c r="AQ36" s="42"/>
+      <c r="AR36" s="42"/>
+      <c r="AS36" s="42"/>
+      <c r="AT36" s="42"/>
+      <c r="AU36" s="42"/>
+      <c r="AV36" s="42"/>
+      <c r="AW36" s="42"/>
+      <c r="AX36" s="42"/>
+      <c r="AY36" s="42"/>
+      <c r="AZ36" s="42"/>
+      <c r="BA36" s="42"/>
+      <c r="BB36" s="42"/>
+      <c r="BC36" s="42"/>
+      <c r="BD36" s="42"/>
+      <c r="BE36" s="42"/>
+      <c r="BF36" s="42"/>
+      <c r="BG36" s="42"/>
+      <c r="BH36" s="42"/>
+      <c r="BI36" s="42"/>
+      <c r="BJ36" s="42"/>
+      <c r="BK36" s="43"/>
       <c r="BL36" s="17"/>
       <c r="BM36" s="17"/>
       <c r="BN36" s="17"/>
@@ -34866,76 +34860,76 @@
       <c r="AMI36" s="1"/>
       <c r="AMJ36" s="1"/>
     </row>
-    <row r="37" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1024" ht="18" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="8"/>
       <c r="C37" s="9"/>
       <c r="D37" s="17"/>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
-      <c r="G37" s="41">
+      <c r="G37" s="44">
         <v>1</v>
       </c>
-      <c r="H37" s="39"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="41" t="s">
+      <c r="H37" s="42"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="K37" s="39"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="39"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="39"/>
-      <c r="Q37" s="39"/>
-      <c r="R37" s="39"/>
-      <c r="S37" s="39"/>
-      <c r="T37" s="39"/>
-      <c r="U37" s="39"/>
-      <c r="V37" s="39"/>
-      <c r="W37" s="39"/>
-      <c r="X37" s="40"/>
-      <c r="Y37" s="41" t="s">
+      <c r="K37" s="42"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="42"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="42"/>
+      <c r="P37" s="42"/>
+      <c r="Q37" s="42"/>
+      <c r="R37" s="42"/>
+      <c r="S37" s="42"/>
+      <c r="T37" s="42"/>
+      <c r="U37" s="42"/>
+      <c r="V37" s="42"/>
+      <c r="W37" s="42"/>
+      <c r="X37" s="43"/>
+      <c r="Y37" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="Z37" s="39"/>
-      <c r="AA37" s="39"/>
-      <c r="AB37" s="39"/>
-      <c r="AC37" s="39"/>
-      <c r="AD37" s="39"/>
-      <c r="AE37" s="39"/>
-      <c r="AF37" s="39"/>
-      <c r="AG37" s="39"/>
-      <c r="AH37" s="39"/>
-      <c r="AI37" s="39"/>
-      <c r="AJ37" s="39"/>
-      <c r="AK37" s="39"/>
-      <c r="AL37" s="39"/>
-      <c r="AM37" s="39"/>
-      <c r="AN37" s="39"/>
-      <c r="AO37" s="39"/>
-      <c r="AP37" s="39"/>
-      <c r="AQ37" s="39"/>
-      <c r="AR37" s="39"/>
-      <c r="AS37" s="39"/>
-      <c r="AT37" s="39"/>
-      <c r="AU37" s="39"/>
-      <c r="AV37" s="39"/>
-      <c r="AW37" s="39"/>
-      <c r="AX37" s="39"/>
-      <c r="AY37" s="39"/>
-      <c r="AZ37" s="39"/>
-      <c r="BA37" s="39"/>
-      <c r="BB37" s="39"/>
-      <c r="BC37" s="39"/>
-      <c r="BD37" s="39"/>
-      <c r="BE37" s="39"/>
-      <c r="BF37" s="39"/>
-      <c r="BG37" s="39"/>
-      <c r="BH37" s="39"/>
-      <c r="BI37" s="39"/>
-      <c r="BJ37" s="39"/>
-      <c r="BK37" s="40"/>
+      <c r="Z37" s="42"/>
+      <c r="AA37" s="42"/>
+      <c r="AB37" s="42"/>
+      <c r="AC37" s="42"/>
+      <c r="AD37" s="42"/>
+      <c r="AE37" s="42"/>
+      <c r="AF37" s="42"/>
+      <c r="AG37" s="42"/>
+      <c r="AH37" s="42"/>
+      <c r="AI37" s="42"/>
+      <c r="AJ37" s="42"/>
+      <c r="AK37" s="42"/>
+      <c r="AL37" s="42"/>
+      <c r="AM37" s="42"/>
+      <c r="AN37" s="42"/>
+      <c r="AO37" s="42"/>
+      <c r="AP37" s="42"/>
+      <c r="AQ37" s="42"/>
+      <c r="AR37" s="42"/>
+      <c r="AS37" s="42"/>
+      <c r="AT37" s="42"/>
+      <c r="AU37" s="42"/>
+      <c r="AV37" s="42"/>
+      <c r="AW37" s="42"/>
+      <c r="AX37" s="42"/>
+      <c r="AY37" s="42"/>
+      <c r="AZ37" s="42"/>
+      <c r="BA37" s="42"/>
+      <c r="BB37" s="42"/>
+      <c r="BC37" s="42"/>
+      <c r="BD37" s="42"/>
+      <c r="BE37" s="42"/>
+      <c r="BF37" s="42"/>
+      <c r="BG37" s="42"/>
+      <c r="BH37" s="42"/>
+      <c r="BI37" s="42"/>
+      <c r="BJ37" s="42"/>
+      <c r="BK37" s="43"/>
       <c r="BL37" s="17"/>
       <c r="BM37" s="17"/>
       <c r="BN37" s="17"/>
@@ -35898,78 +35892,78 @@
       <c r="AMI37" s="1"/>
       <c r="AMJ37" s="1"/>
     </row>
-    <row r="38" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:1024" ht="18" customHeight="1" thickBot="1">
       <c r="A38" s="1"/>
       <c r="B38" s="12"/>
       <c r="C38" s="13"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="76"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="76"/>
-      <c r="H38" s="96"/>
-      <c r="I38" s="96"/>
-      <c r="J38" s="76"/>
-      <c r="K38" s="96"/>
-      <c r="L38" s="96"/>
-      <c r="M38" s="96"/>
-      <c r="N38" s="96"/>
-      <c r="O38" s="96"/>
-      <c r="P38" s="96"/>
-      <c r="Q38" s="96"/>
-      <c r="R38" s="96"/>
-      <c r="S38" s="96"/>
-      <c r="T38" s="96"/>
-      <c r="U38" s="96"/>
-      <c r="V38" s="96"/>
-      <c r="W38" s="96"/>
-      <c r="X38" s="96"/>
-      <c r="Y38" s="76"/>
-      <c r="Z38" s="96"/>
-      <c r="AA38" s="96"/>
-      <c r="AB38" s="96"/>
-      <c r="AC38" s="96"/>
-      <c r="AD38" s="96"/>
-      <c r="AE38" s="96"/>
-      <c r="AF38" s="96"/>
-      <c r="AG38" s="96"/>
-      <c r="AH38" s="96"/>
-      <c r="AI38" s="96"/>
-      <c r="AJ38" s="96"/>
-      <c r="AK38" s="96"/>
-      <c r="AL38" s="96"/>
-      <c r="AM38" s="96"/>
-      <c r="AN38" s="96"/>
-      <c r="AO38" s="96"/>
-      <c r="AP38" s="96"/>
-      <c r="AQ38" s="96"/>
-      <c r="AR38" s="96"/>
-      <c r="AS38" s="96"/>
-      <c r="AT38" s="96"/>
-      <c r="AU38" s="96"/>
-      <c r="AV38" s="96"/>
-      <c r="AW38" s="96"/>
-      <c r="AX38" s="96"/>
-      <c r="AY38" s="96"/>
-      <c r="AZ38" s="96"/>
-      <c r="BA38" s="96"/>
-      <c r="BB38" s="96"/>
-      <c r="BC38" s="96"/>
-      <c r="BD38" s="96"/>
-      <c r="BE38" s="96"/>
-      <c r="BF38" s="96"/>
-      <c r="BG38" s="96"/>
-      <c r="BH38" s="96"/>
-      <c r="BI38" s="96"/>
-      <c r="BJ38" s="96"/>
-      <c r="BK38" s="96"/>
-      <c r="BL38" s="76"/>
-      <c r="BM38" s="76"/>
-      <c r="BN38" s="76"/>
-      <c r="BO38" s="76"/>
-      <c r="BP38" s="76"/>
-      <c r="BQ38" s="76"/>
-      <c r="BR38" s="76"/>
-      <c r="BS38" s="76"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="33"/>
+      <c r="Q38" s="33"/>
+      <c r="R38" s="33"/>
+      <c r="S38" s="33"/>
+      <c r="T38" s="33"/>
+      <c r="U38" s="33"/>
+      <c r="V38" s="33"/>
+      <c r="W38" s="33"/>
+      <c r="X38" s="33"/>
+      <c r="Y38" s="25"/>
+      <c r="Z38" s="33"/>
+      <c r="AA38" s="33"/>
+      <c r="AB38" s="33"/>
+      <c r="AC38" s="33"/>
+      <c r="AD38" s="33"/>
+      <c r="AE38" s="33"/>
+      <c r="AF38" s="33"/>
+      <c r="AG38" s="33"/>
+      <c r="AH38" s="33"/>
+      <c r="AI38" s="33"/>
+      <c r="AJ38" s="33"/>
+      <c r="AK38" s="33"/>
+      <c r="AL38" s="33"/>
+      <c r="AM38" s="33"/>
+      <c r="AN38" s="33"/>
+      <c r="AO38" s="33"/>
+      <c r="AP38" s="33"/>
+      <c r="AQ38" s="33"/>
+      <c r="AR38" s="33"/>
+      <c r="AS38" s="33"/>
+      <c r="AT38" s="33"/>
+      <c r="AU38" s="33"/>
+      <c r="AV38" s="33"/>
+      <c r="AW38" s="33"/>
+      <c r="AX38" s="33"/>
+      <c r="AY38" s="33"/>
+      <c r="AZ38" s="33"/>
+      <c r="BA38" s="33"/>
+      <c r="BB38" s="33"/>
+      <c r="BC38" s="33"/>
+      <c r="BD38" s="33"/>
+      <c r="BE38" s="33"/>
+      <c r="BF38" s="33"/>
+      <c r="BG38" s="33"/>
+      <c r="BH38" s="33"/>
+      <c r="BI38" s="33"/>
+      <c r="BJ38" s="33"/>
+      <c r="BK38" s="33"/>
+      <c r="BL38" s="25"/>
+      <c r="BM38" s="25"/>
+      <c r="BN38" s="25"/>
+      <c r="BO38" s="25"/>
+      <c r="BP38" s="25"/>
+      <c r="BQ38" s="25"/>
+      <c r="BR38" s="25"/>
+      <c r="BS38" s="25"/>
       <c r="BT38" s="13"/>
       <c r="BU38" s="13"/>
       <c r="BV38" s="13"/>
@@ -36924,7 +36918,7 @@
       <c r="AMI38" s="1"/>
       <c r="AMJ38" s="1"/>
     </row>
-    <row r="39" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1024" ht="18" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -37952,49 +37946,7 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="B20:CI20"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:Y22"/>
-    <mergeCell ref="Z22:BL22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:Y23"/>
-    <mergeCell ref="Z23:BL23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:Y24"/>
-    <mergeCell ref="Z24:BL24"/>
-    <mergeCell ref="F14:BT14"/>
-    <mergeCell ref="H15:BK15"/>
-    <mergeCell ref="H16:BL18"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:X28"/>
-    <mergeCell ref="B31:CI31"/>
-    <mergeCell ref="B34:CI34"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:X29"/>
-    <mergeCell ref="Y29:AH29"/>
-    <mergeCell ref="AI29:AR29"/>
-    <mergeCell ref="AS29:CI29"/>
-    <mergeCell ref="AS28:CI28"/>
-    <mergeCell ref="Y5:AR5"/>
-    <mergeCell ref="AS5:CI5"/>
-    <mergeCell ref="Y28:AH28"/>
-    <mergeCell ref="AI28:AR28"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:Y11"/>
-    <mergeCell ref="Z11:BL11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:Y12"/>
-    <mergeCell ref="Z12:BL12"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:X4"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:X5"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:X37"/>
-    <mergeCell ref="Y37:BK37"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="AS4:CI4"/>
+    <mergeCell ref="Y36:BK36"/>
     <mergeCell ref="CB1:CI1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="H2:V2"/>
@@ -38007,9 +37959,14 @@
     <mergeCell ref="H1:V1"/>
     <mergeCell ref="W1:BK1"/>
     <mergeCell ref="BL1:BO1"/>
-    <mergeCell ref="Y4:AR4"/>
     <mergeCell ref="BP1:BW1"/>
     <mergeCell ref="BX1:CA1"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:X37"/>
+    <mergeCell ref="Y37:BK37"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="AS4:CI4"/>
+    <mergeCell ref="Y4:AR4"/>
     <mergeCell ref="G36:I36"/>
     <mergeCell ref="J36:X36"/>
     <mergeCell ref="E7:X7"/>
@@ -38020,7 +37977,44 @@
     <mergeCell ref="Y8:AH8"/>
     <mergeCell ref="AI8:AR8"/>
     <mergeCell ref="AS8:CI8"/>
-    <mergeCell ref="Y36:BK36"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:X4"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:X5"/>
+    <mergeCell ref="Y5:AR5"/>
+    <mergeCell ref="AS5:CI5"/>
+    <mergeCell ref="Y28:AH28"/>
+    <mergeCell ref="AI28:AR28"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:Y11"/>
+    <mergeCell ref="Z11:BL11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:Y12"/>
+    <mergeCell ref="Z12:BL12"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:X28"/>
+    <mergeCell ref="B31:CI31"/>
+    <mergeCell ref="B34:CI34"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:X29"/>
+    <mergeCell ref="Y29:AH29"/>
+    <mergeCell ref="AI29:AR29"/>
+    <mergeCell ref="AS29:CI29"/>
+    <mergeCell ref="AS28:CI28"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:Y24"/>
+    <mergeCell ref="Z24:BL24"/>
+    <mergeCell ref="F14:BT14"/>
+    <mergeCell ref="H15:BK15"/>
+    <mergeCell ref="H16:BL18"/>
+    <mergeCell ref="B20:CI20"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:Y22"/>
+    <mergeCell ref="Z22:BL22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:Y23"/>
+    <mergeCell ref="Z23:BL23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/内部設計書/内部設計書_2_1_結果一覧画面.xlsx
+++ b/内部設計書/内部設計書_2_1_結果一覧画面.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
   <si>
     <t>システム名</t>
   </si>
@@ -213,23 +213,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>SELECT 解答日時,点数                                                                                                         　　　　　 FROM 試験結果
-WHERE ユーザID = 引数のユーザID</t>
-    <rPh sb="7" eb="9">
-      <t>カイトウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>テンスウ</t>
-    </rPh>
-    <rPh sb="130" eb="134">
-      <t>シケンケッカ</t>
-    </rPh>
-    <rPh sb="149" eb="151">
-      <t>ヒキスウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>点数</t>
     <rPh sb="0" eb="2">
       <t>テンスウ</t>
@@ -247,19 +230,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>2.　試験の結果がなかった場合にはModelに以下の項目を追加。</t>
-    <rPh sb="3" eb="5">
-      <t>シケン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>サービスには以下の引数を渡す</t>
     <rPh sb="6" eb="8">
       <t>イカ</t>
@@ -273,38 +243,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ユーザid</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LoginForm.ユーザid</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2.SQL文でuser_resultのデータベースからデータを取り出す</t>
-    <rPh sb="5" eb="6">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　　　　3. AllResultOutputFormに以下の項目を追加する</t>
-    <rPh sb="27" eb="29">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>コウモク</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -321,27 +260,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>１．項番２から戻ってきたAllResultOutputFormをModelに追加</t>
-    <rPh sb="2" eb="4">
-      <t>コウバン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AllResultEntity.解答日時リスト</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AllResultEntity.点数リスト</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>試験結果を取得するサービス</t>
     <rPh sb="0" eb="4">
       <t>シケンケッカ</t>
@@ -353,6 +271,113 @@
   </si>
   <si>
     <t>getResult</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　　　　(3) AllResultOutputFormに以下の項目を追加する</t>
+    <rPh sb="28" eb="30">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(2)　試験の結果がなかった場合にはModelに以下の項目を追加。</t>
+    <rPh sb="4" eb="6">
+      <t>シケン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(１) 試験結果を取得するサービスから戻ってきたAllResultOutputFormをModelに追加</t>
+    <rPh sb="4" eb="6">
+      <t>シケン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(3) 試験結果一覧のviewを返す</t>
+    <rPh sb="4" eb="10">
+      <t>シケンケッカイチラン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LoginForm.ユーザID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(2)SQL文でユーザの試験結果のテーブルから解答日時と点数をリストとして取り出す</t>
+    <rPh sb="6" eb="7">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>シケンケッカ</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>カイトウニチジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>テンスウ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SELECT 解答日時,点数 FROM ユーザの試験結果
+WHERE ユーザID = 引数のユーザID</t>
+    <rPh sb="7" eb="9">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>テンスウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シケン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>List&lt;解答日時&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>List&lt;点数&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -915,7 +940,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1002,13 +1027,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1044,29 +1069,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1100,9 +1102,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1115,10 +1114,54 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1165,15 +1208,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1525,10 +1559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMK39"/>
+  <dimension ref="A1:AMK41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="BP2" sqref="BP2:BW2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Z25" sqref="Z25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -1541,104 +1575,104 @@
   <sheetData>
     <row r="1" spans="1:1025" ht="18" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="89" t="s">
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="90" t="s">
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="X1" s="90"/>
-      <c r="Y1" s="90"/>
-      <c r="Z1" s="90"/>
-      <c r="AA1" s="90"/>
-      <c r="AB1" s="90"/>
-      <c r="AC1" s="90"/>
-      <c r="AD1" s="90"/>
-      <c r="AE1" s="90"/>
-      <c r="AF1" s="90"/>
-      <c r="AG1" s="90"/>
-      <c r="AH1" s="90"/>
-      <c r="AI1" s="90"/>
-      <c r="AJ1" s="90"/>
-      <c r="AK1" s="90"/>
-      <c r="AL1" s="90"/>
-      <c r="AM1" s="90"/>
-      <c r="AN1" s="90"/>
-      <c r="AO1" s="90"/>
-      <c r="AP1" s="90"/>
-      <c r="AQ1" s="90"/>
-      <c r="AR1" s="90"/>
-      <c r="AS1" s="90"/>
-      <c r="AT1" s="90"/>
-      <c r="AU1" s="90"/>
-      <c r="AV1" s="90"/>
-      <c r="AW1" s="90"/>
-      <c r="AX1" s="90"/>
-      <c r="AY1" s="90"/>
-      <c r="AZ1" s="90"/>
-      <c r="BA1" s="90"/>
-      <c r="BB1" s="90"/>
-      <c r="BC1" s="90"/>
-      <c r="BD1" s="90"/>
-      <c r="BE1" s="90"/>
-      <c r="BF1" s="90"/>
-      <c r="BG1" s="90"/>
-      <c r="BH1" s="90"/>
-      <c r="BI1" s="90"/>
-      <c r="BJ1" s="90"/>
-      <c r="BK1" s="90"/>
-      <c r="BL1" s="91" t="s">
+      <c r="X1" s="96"/>
+      <c r="Y1" s="96"/>
+      <c r="Z1" s="96"/>
+      <c r="AA1" s="96"/>
+      <c r="AB1" s="96"/>
+      <c r="AC1" s="96"/>
+      <c r="AD1" s="96"/>
+      <c r="AE1" s="96"/>
+      <c r="AF1" s="96"/>
+      <c r="AG1" s="96"/>
+      <c r="AH1" s="96"/>
+      <c r="AI1" s="96"/>
+      <c r="AJ1" s="96"/>
+      <c r="AK1" s="96"/>
+      <c r="AL1" s="96"/>
+      <c r="AM1" s="96"/>
+      <c r="AN1" s="96"/>
+      <c r="AO1" s="96"/>
+      <c r="AP1" s="96"/>
+      <c r="AQ1" s="96"/>
+      <c r="AR1" s="96"/>
+      <c r="AS1" s="96"/>
+      <c r="AT1" s="96"/>
+      <c r="AU1" s="96"/>
+      <c r="AV1" s="96"/>
+      <c r="AW1" s="96"/>
+      <c r="AX1" s="96"/>
+      <c r="AY1" s="96"/>
+      <c r="AZ1" s="96"/>
+      <c r="BA1" s="96"/>
+      <c r="BB1" s="96"/>
+      <c r="BC1" s="96"/>
+      <c r="BD1" s="96"/>
+      <c r="BE1" s="96"/>
+      <c r="BF1" s="96"/>
+      <c r="BG1" s="96"/>
+      <c r="BH1" s="96"/>
+      <c r="BI1" s="96"/>
+      <c r="BJ1" s="96"/>
+      <c r="BK1" s="96"/>
+      <c r="BL1" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="BM1" s="91"/>
-      <c r="BN1" s="91"/>
-      <c r="BO1" s="91"/>
-      <c r="BP1" s="92" t="s">
+      <c r="BM1" s="97"/>
+      <c r="BN1" s="97"/>
+      <c r="BO1" s="97"/>
+      <c r="BP1" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="BQ1" s="92"/>
-      <c r="BR1" s="92"/>
-      <c r="BS1" s="92"/>
-      <c r="BT1" s="92"/>
-      <c r="BU1" s="92"/>
-      <c r="BV1" s="92"/>
-      <c r="BW1" s="92"/>
-      <c r="BX1" s="93" t="s">
+      <c r="BQ1" s="98"/>
+      <c r="BR1" s="98"/>
+      <c r="BS1" s="98"/>
+      <c r="BT1" s="98"/>
+      <c r="BU1" s="98"/>
+      <c r="BV1" s="98"/>
+      <c r="BW1" s="98"/>
+      <c r="BX1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="BY1" s="93"/>
-      <c r="BZ1" s="93"/>
-      <c r="CA1" s="93"/>
-      <c r="CB1" s="79"/>
-      <c r="CC1" s="79"/>
-      <c r="CD1" s="79"/>
-      <c r="CE1" s="79"/>
-      <c r="CF1" s="79"/>
-      <c r="CG1" s="79"/>
-      <c r="CH1" s="79"/>
-      <c r="CI1" s="79"/>
+      <c r="BY1" s="99"/>
+      <c r="BZ1" s="99"/>
+      <c r="CA1" s="99"/>
+      <c r="CB1" s="85"/>
+      <c r="CC1" s="85"/>
+      <c r="CD1" s="85"/>
+      <c r="CE1" s="85"/>
+      <c r="CF1" s="85"/>
+      <c r="CG1" s="85"/>
+      <c r="CH1" s="85"/>
+      <c r="CI1" s="85"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -2580,104 +2614,104 @@
     </row>
     <row r="2" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="81" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
-      <c r="W2" s="82" t="s">
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="87"/>
+      <c r="V2" s="87"/>
+      <c r="W2" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="82"/>
-      <c r="Z2" s="82"/>
-      <c r="AA2" s="82"/>
-      <c r="AB2" s="82"/>
-      <c r="AC2" s="82"/>
-      <c r="AD2" s="82"/>
-      <c r="AE2" s="82"/>
-      <c r="AF2" s="82"/>
-      <c r="AG2" s="82"/>
-      <c r="AH2" s="82"/>
-      <c r="AI2" s="82"/>
-      <c r="AJ2" s="82"/>
-      <c r="AK2" s="82"/>
-      <c r="AL2" s="82"/>
-      <c r="AM2" s="82"/>
-      <c r="AN2" s="82"/>
-      <c r="AO2" s="82"/>
-      <c r="AP2" s="82"/>
-      <c r="AQ2" s="82"/>
-      <c r="AR2" s="82"/>
-      <c r="AS2" s="82"/>
-      <c r="AT2" s="82"/>
-      <c r="AU2" s="82"/>
-      <c r="AV2" s="82"/>
-      <c r="AW2" s="82"/>
-      <c r="AX2" s="82"/>
-      <c r="AY2" s="82"/>
-      <c r="AZ2" s="82"/>
-      <c r="BA2" s="82"/>
-      <c r="BB2" s="82"/>
-      <c r="BC2" s="82"/>
-      <c r="BD2" s="82"/>
-      <c r="BE2" s="82"/>
-      <c r="BF2" s="82"/>
-      <c r="BG2" s="82"/>
-      <c r="BH2" s="82"/>
-      <c r="BI2" s="82"/>
-      <c r="BJ2" s="82"/>
-      <c r="BK2" s="82"/>
-      <c r="BL2" s="83" t="s">
+      <c r="X2" s="88"/>
+      <c r="Y2" s="88"/>
+      <c r="Z2" s="88"/>
+      <c r="AA2" s="88"/>
+      <c r="AB2" s="88"/>
+      <c r="AC2" s="88"/>
+      <c r="AD2" s="88"/>
+      <c r="AE2" s="88"/>
+      <c r="AF2" s="88"/>
+      <c r="AG2" s="88"/>
+      <c r="AH2" s="88"/>
+      <c r="AI2" s="88"/>
+      <c r="AJ2" s="88"/>
+      <c r="AK2" s="88"/>
+      <c r="AL2" s="88"/>
+      <c r="AM2" s="88"/>
+      <c r="AN2" s="88"/>
+      <c r="AO2" s="88"/>
+      <c r="AP2" s="88"/>
+      <c r="AQ2" s="88"/>
+      <c r="AR2" s="88"/>
+      <c r="AS2" s="88"/>
+      <c r="AT2" s="88"/>
+      <c r="AU2" s="88"/>
+      <c r="AV2" s="88"/>
+      <c r="AW2" s="88"/>
+      <c r="AX2" s="88"/>
+      <c r="AY2" s="88"/>
+      <c r="AZ2" s="88"/>
+      <c r="BA2" s="88"/>
+      <c r="BB2" s="88"/>
+      <c r="BC2" s="88"/>
+      <c r="BD2" s="88"/>
+      <c r="BE2" s="88"/>
+      <c r="BF2" s="88"/>
+      <c r="BG2" s="88"/>
+      <c r="BH2" s="88"/>
+      <c r="BI2" s="88"/>
+      <c r="BJ2" s="88"/>
+      <c r="BK2" s="88"/>
+      <c r="BL2" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="83"/>
-      <c r="BN2" s="83"/>
-      <c r="BO2" s="83"/>
-      <c r="BP2" s="84">
+      <c r="BM2" s="89"/>
+      <c r="BN2" s="89"/>
+      <c r="BO2" s="89"/>
+      <c r="BP2" s="90">
         <v>44691</v>
       </c>
-      <c r="BQ2" s="84"/>
-      <c r="BR2" s="84"/>
-      <c r="BS2" s="84"/>
-      <c r="BT2" s="84"/>
-      <c r="BU2" s="84"/>
-      <c r="BV2" s="84"/>
-      <c r="BW2" s="84"/>
-      <c r="BX2" s="85" t="s">
+      <c r="BQ2" s="90"/>
+      <c r="BR2" s="90"/>
+      <c r="BS2" s="90"/>
+      <c r="BT2" s="90"/>
+      <c r="BU2" s="90"/>
+      <c r="BV2" s="90"/>
+      <c r="BW2" s="90"/>
+      <c r="BX2" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="85"/>
-      <c r="BZ2" s="85"/>
-      <c r="CA2" s="85"/>
-      <c r="CB2" s="86"/>
-      <c r="CC2" s="87"/>
-      <c r="CD2" s="87"/>
-      <c r="CE2" s="87"/>
-      <c r="CF2" s="87"/>
-      <c r="CG2" s="87"/>
-      <c r="CH2" s="87"/>
-      <c r="CI2" s="87"/>
+      <c r="BY2" s="91"/>
+      <c r="BZ2" s="91"/>
+      <c r="CA2" s="91"/>
+      <c r="CB2" s="92"/>
+      <c r="CC2" s="93"/>
+      <c r="CD2" s="93"/>
+      <c r="CE2" s="93"/>
+      <c r="CF2" s="93"/>
+      <c r="CG2" s="93"/>
+      <c r="CH2" s="93"/>
+      <c r="CI2" s="93"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
@@ -3707,100 +3741,100 @@
     </row>
     <row r="4" spans="1:1025" ht="18" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="77" t="s">
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77"/>
-      <c r="T4" s="77"/>
-      <c r="U4" s="77"/>
-      <c r="V4" s="77"/>
-      <c r="W4" s="77"/>
-      <c r="X4" s="77"/>
-      <c r="Y4" s="77" t="s">
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="79"/>
+      <c r="T4" s="79"/>
+      <c r="U4" s="79"/>
+      <c r="V4" s="79"/>
+      <c r="W4" s="79"/>
+      <c r="X4" s="79"/>
+      <c r="Y4" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="Z4" s="77"/>
-      <c r="AA4" s="77"/>
-      <c r="AB4" s="77"/>
-      <c r="AC4" s="77"/>
-      <c r="AD4" s="77"/>
-      <c r="AE4" s="77"/>
-      <c r="AF4" s="77"/>
-      <c r="AG4" s="77"/>
-      <c r="AH4" s="77"/>
-      <c r="AI4" s="77"/>
-      <c r="AJ4" s="77"/>
-      <c r="AK4" s="77"/>
-      <c r="AL4" s="77"/>
-      <c r="AM4" s="77"/>
-      <c r="AN4" s="77"/>
-      <c r="AO4" s="77"/>
-      <c r="AP4" s="77"/>
-      <c r="AQ4" s="77"/>
-      <c r="AR4" s="77"/>
-      <c r="AS4" s="71" t="s">
+      <c r="Z4" s="79"/>
+      <c r="AA4" s="79"/>
+      <c r="AB4" s="79"/>
+      <c r="AC4" s="79"/>
+      <c r="AD4" s="79"/>
+      <c r="AE4" s="79"/>
+      <c r="AF4" s="79"/>
+      <c r="AG4" s="79"/>
+      <c r="AH4" s="79"/>
+      <c r="AI4" s="79"/>
+      <c r="AJ4" s="79"/>
+      <c r="AK4" s="79"/>
+      <c r="AL4" s="79"/>
+      <c r="AM4" s="79"/>
+      <c r="AN4" s="79"/>
+      <c r="AO4" s="79"/>
+      <c r="AP4" s="79"/>
+      <c r="AQ4" s="79"/>
+      <c r="AR4" s="79"/>
+      <c r="AS4" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="AT4" s="71"/>
-      <c r="AU4" s="71"/>
-      <c r="AV4" s="71"/>
-      <c r="AW4" s="71"/>
-      <c r="AX4" s="71"/>
-      <c r="AY4" s="71"/>
-      <c r="AZ4" s="71"/>
-      <c r="BA4" s="71"/>
-      <c r="BB4" s="71"/>
-      <c r="BC4" s="71"/>
-      <c r="BD4" s="71"/>
-      <c r="BE4" s="71"/>
-      <c r="BF4" s="71"/>
-      <c r="BG4" s="71"/>
-      <c r="BH4" s="71"/>
-      <c r="BI4" s="71"/>
-      <c r="BJ4" s="71"/>
-      <c r="BK4" s="71"/>
-      <c r="BL4" s="71"/>
-      <c r="BM4" s="71"/>
-      <c r="BN4" s="71"/>
-      <c r="BO4" s="71"/>
-      <c r="BP4" s="71"/>
-      <c r="BQ4" s="71"/>
-      <c r="BR4" s="71"/>
-      <c r="BS4" s="71"/>
-      <c r="BT4" s="71"/>
-      <c r="BU4" s="71"/>
-      <c r="BV4" s="71"/>
-      <c r="BW4" s="71"/>
-      <c r="BX4" s="71"/>
-      <c r="BY4" s="71"/>
-      <c r="BZ4" s="71"/>
-      <c r="CA4" s="71"/>
-      <c r="CB4" s="71"/>
-      <c r="CC4" s="71"/>
-      <c r="CD4" s="71"/>
-      <c r="CE4" s="71"/>
-      <c r="CF4" s="71"/>
-      <c r="CG4" s="71"/>
-      <c r="CH4" s="71"/>
-      <c r="CI4" s="71"/>
+      <c r="AT4" s="58"/>
+      <c r="AU4" s="58"/>
+      <c r="AV4" s="58"/>
+      <c r="AW4" s="58"/>
+      <c r="AX4" s="58"/>
+      <c r="AY4" s="58"/>
+      <c r="AZ4" s="58"/>
+      <c r="BA4" s="58"/>
+      <c r="BB4" s="58"/>
+      <c r="BC4" s="58"/>
+      <c r="BD4" s="58"/>
+      <c r="BE4" s="58"/>
+      <c r="BF4" s="58"/>
+      <c r="BG4" s="58"/>
+      <c r="BH4" s="58"/>
+      <c r="BI4" s="58"/>
+      <c r="BJ4" s="58"/>
+      <c r="BK4" s="58"/>
+      <c r="BL4" s="58"/>
+      <c r="BM4" s="58"/>
+      <c r="BN4" s="58"/>
+      <c r="BO4" s="58"/>
+      <c r="BP4" s="58"/>
+      <c r="BQ4" s="58"/>
+      <c r="BR4" s="58"/>
+      <c r="BS4" s="58"/>
+      <c r="BT4" s="58"/>
+      <c r="BU4" s="58"/>
+      <c r="BV4" s="58"/>
+      <c r="BW4" s="58"/>
+      <c r="BX4" s="58"/>
+      <c r="BY4" s="58"/>
+      <c r="BZ4" s="58"/>
+      <c r="CA4" s="58"/>
+      <c r="CB4" s="58"/>
+      <c r="CC4" s="58"/>
+      <c r="CD4" s="58"/>
+      <c r="CE4" s="58"/>
+      <c r="CF4" s="58"/>
+      <c r="CG4" s="58"/>
+      <c r="CH4" s="58"/>
+      <c r="CI4" s="58"/>
       <c r="CJ4" s="2"/>
       <c r="CK4" s="2"/>
       <c r="CL4" s="2"/>
@@ -4742,100 +4776,100 @@
     </row>
     <row r="5" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A5" s="2"/>
-      <c r="B5" s="66">
+      <c r="B5" s="53">
         <v>1</v>
       </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="78" t="s">
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="72"/>
-      <c r="T5" s="72"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
-      <c r="W5" s="72"/>
-      <c r="X5" s="72"/>
-      <c r="Y5" s="72" t="s">
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="81"/>
+      <c r="T5" s="81"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="81"/>
+      <c r="W5" s="81"/>
+      <c r="X5" s="81"/>
+      <c r="Y5" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="Z5" s="72"/>
-      <c r="AA5" s="72"/>
-      <c r="AB5" s="72"/>
-      <c r="AC5" s="72"/>
-      <c r="AD5" s="72"/>
-      <c r="AE5" s="72"/>
-      <c r="AF5" s="72"/>
-      <c r="AG5" s="72"/>
-      <c r="AH5" s="72"/>
-      <c r="AI5" s="72"/>
-      <c r="AJ5" s="72"/>
-      <c r="AK5" s="72"/>
-      <c r="AL5" s="72"/>
-      <c r="AM5" s="72"/>
-      <c r="AN5" s="72"/>
-      <c r="AO5" s="72"/>
-      <c r="AP5" s="72"/>
-      <c r="AQ5" s="72"/>
-      <c r="AR5" s="72"/>
-      <c r="AS5" s="73" t="s">
+      <c r="Z5" s="81"/>
+      <c r="AA5" s="81"/>
+      <c r="AB5" s="81"/>
+      <c r="AC5" s="81"/>
+      <c r="AD5" s="81"/>
+      <c r="AE5" s="81"/>
+      <c r="AF5" s="81"/>
+      <c r="AG5" s="81"/>
+      <c r="AH5" s="81"/>
+      <c r="AI5" s="81"/>
+      <c r="AJ5" s="81"/>
+      <c r="AK5" s="81"/>
+      <c r="AL5" s="81"/>
+      <c r="AM5" s="81"/>
+      <c r="AN5" s="81"/>
+      <c r="AO5" s="81"/>
+      <c r="AP5" s="81"/>
+      <c r="AQ5" s="81"/>
+      <c r="AR5" s="81"/>
+      <c r="AS5" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="AT5" s="73"/>
-      <c r="AU5" s="73"/>
-      <c r="AV5" s="73"/>
-      <c r="AW5" s="73"/>
-      <c r="AX5" s="73"/>
-      <c r="AY5" s="73"/>
-      <c r="AZ5" s="73"/>
-      <c r="BA5" s="73"/>
-      <c r="BB5" s="73"/>
-      <c r="BC5" s="73"/>
-      <c r="BD5" s="73"/>
-      <c r="BE5" s="73"/>
-      <c r="BF5" s="73"/>
-      <c r="BG5" s="73"/>
-      <c r="BH5" s="73"/>
-      <c r="BI5" s="73"/>
-      <c r="BJ5" s="73"/>
-      <c r="BK5" s="73"/>
-      <c r="BL5" s="73"/>
-      <c r="BM5" s="73"/>
-      <c r="BN5" s="73"/>
-      <c r="BO5" s="73"/>
-      <c r="BP5" s="73"/>
-      <c r="BQ5" s="73"/>
-      <c r="BR5" s="73"/>
-      <c r="BS5" s="73"/>
-      <c r="BT5" s="73"/>
-      <c r="BU5" s="73"/>
-      <c r="BV5" s="73"/>
-      <c r="BW5" s="73"/>
-      <c r="BX5" s="73"/>
-      <c r="BY5" s="73"/>
-      <c r="BZ5" s="73"/>
-      <c r="CA5" s="73"/>
-      <c r="CB5" s="73"/>
-      <c r="CC5" s="73"/>
-      <c r="CD5" s="73"/>
-      <c r="CE5" s="73"/>
-      <c r="CF5" s="73"/>
-      <c r="CG5" s="73"/>
-      <c r="CH5" s="73"/>
-      <c r="CI5" s="73"/>
+      <c r="AT5" s="59"/>
+      <c r="AU5" s="59"/>
+      <c r="AV5" s="59"/>
+      <c r="AW5" s="59"/>
+      <c r="AX5" s="59"/>
+      <c r="AY5" s="59"/>
+      <c r="AZ5" s="59"/>
+      <c r="BA5" s="59"/>
+      <c r="BB5" s="59"/>
+      <c r="BC5" s="59"/>
+      <c r="BD5" s="59"/>
+      <c r="BE5" s="59"/>
+      <c r="BF5" s="59"/>
+      <c r="BG5" s="59"/>
+      <c r="BH5" s="59"/>
+      <c r="BI5" s="59"/>
+      <c r="BJ5" s="59"/>
+      <c r="BK5" s="59"/>
+      <c r="BL5" s="59"/>
+      <c r="BM5" s="59"/>
+      <c r="BN5" s="59"/>
+      <c r="BO5" s="59"/>
+      <c r="BP5" s="59"/>
+      <c r="BQ5" s="59"/>
+      <c r="BR5" s="59"/>
+      <c r="BS5" s="59"/>
+      <c r="BT5" s="59"/>
+      <c r="BU5" s="59"/>
+      <c r="BV5" s="59"/>
+      <c r="BW5" s="59"/>
+      <c r="BX5" s="59"/>
+      <c r="BY5" s="59"/>
+      <c r="BZ5" s="59"/>
+      <c r="CA5" s="59"/>
+      <c r="CB5" s="59"/>
+      <c r="CC5" s="59"/>
+      <c r="CD5" s="59"/>
+      <c r="CE5" s="59"/>
+      <c r="CF5" s="59"/>
+      <c r="CG5" s="59"/>
+      <c r="CH5" s="59"/>
+      <c r="CI5" s="59"/>
       <c r="CJ5" s="2"/>
       <c r="CK5" s="2"/>
       <c r="CL5" s="2"/>
@@ -5865,201 +5899,201 @@
     </row>
     <row r="7" spans="1:1025" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A7" s="26"/>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="62" t="s">
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="62"/>
-      <c r="T7" s="62"/>
-      <c r="U7" s="62"/>
-      <c r="V7" s="62"/>
-      <c r="W7" s="62"/>
-      <c r="X7" s="62"/>
-      <c r="Y7" s="74" t="s">
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="Z7" s="75"/>
-      <c r="AA7" s="75"/>
-      <c r="AB7" s="75"/>
-      <c r="AC7" s="75"/>
-      <c r="AD7" s="75"/>
-      <c r="AE7" s="75"/>
-      <c r="AF7" s="75"/>
-      <c r="AG7" s="75"/>
-      <c r="AH7" s="76"/>
-      <c r="AI7" s="74" t="s">
+      <c r="Z7" s="61"/>
+      <c r="AA7" s="61"/>
+      <c r="AB7" s="61"/>
+      <c r="AC7" s="61"/>
+      <c r="AD7" s="61"/>
+      <c r="AE7" s="61"/>
+      <c r="AF7" s="61"/>
+      <c r="AG7" s="61"/>
+      <c r="AH7" s="62"/>
+      <c r="AI7" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="AJ7" s="75"/>
-      <c r="AK7" s="75"/>
-      <c r="AL7" s="75"/>
-      <c r="AM7" s="75"/>
-      <c r="AN7" s="75"/>
-      <c r="AO7" s="75"/>
-      <c r="AP7" s="75"/>
-      <c r="AQ7" s="75"/>
-      <c r="AR7" s="76"/>
-      <c r="AS7" s="71" t="s">
+      <c r="AJ7" s="61"/>
+      <c r="AK7" s="61"/>
+      <c r="AL7" s="61"/>
+      <c r="AM7" s="61"/>
+      <c r="AN7" s="61"/>
+      <c r="AO7" s="61"/>
+      <c r="AP7" s="61"/>
+      <c r="AQ7" s="61"/>
+      <c r="AR7" s="62"/>
+      <c r="AS7" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="AT7" s="71"/>
-      <c r="AU7" s="71"/>
-      <c r="AV7" s="71"/>
-      <c r="AW7" s="71"/>
-      <c r="AX7" s="71"/>
-      <c r="AY7" s="71"/>
-      <c r="AZ7" s="71"/>
-      <c r="BA7" s="71"/>
-      <c r="BB7" s="71"/>
-      <c r="BC7" s="71"/>
-      <c r="BD7" s="71"/>
-      <c r="BE7" s="71"/>
-      <c r="BF7" s="71"/>
-      <c r="BG7" s="71"/>
-      <c r="BH7" s="71"/>
-      <c r="BI7" s="71"/>
-      <c r="BJ7" s="71"/>
-      <c r="BK7" s="71"/>
-      <c r="BL7" s="71"/>
-      <c r="BM7" s="71"/>
-      <c r="BN7" s="71"/>
-      <c r="BO7" s="71"/>
-      <c r="BP7" s="71"/>
-      <c r="BQ7" s="71"/>
-      <c r="BR7" s="71"/>
-      <c r="BS7" s="71"/>
-      <c r="BT7" s="71"/>
-      <c r="BU7" s="71"/>
-      <c r="BV7" s="71"/>
-      <c r="BW7" s="71"/>
-      <c r="BX7" s="71"/>
-      <c r="BY7" s="71"/>
-      <c r="BZ7" s="71"/>
-      <c r="CA7" s="71"/>
-      <c r="CB7" s="71"/>
-      <c r="CC7" s="71"/>
-      <c r="CD7" s="71"/>
-      <c r="CE7" s="71"/>
-      <c r="CF7" s="71"/>
-      <c r="CG7" s="71"/>
-      <c r="CH7" s="71"/>
-      <c r="CI7" s="71"/>
+      <c r="AT7" s="58"/>
+      <c r="AU7" s="58"/>
+      <c r="AV7" s="58"/>
+      <c r="AW7" s="58"/>
+      <c r="AX7" s="58"/>
+      <c r="AY7" s="58"/>
+      <c r="AZ7" s="58"/>
+      <c r="BA7" s="58"/>
+      <c r="BB7" s="58"/>
+      <c r="BC7" s="58"/>
+      <c r="BD7" s="58"/>
+      <c r="BE7" s="58"/>
+      <c r="BF7" s="58"/>
+      <c r="BG7" s="58"/>
+      <c r="BH7" s="58"/>
+      <c r="BI7" s="58"/>
+      <c r="BJ7" s="58"/>
+      <c r="BK7" s="58"/>
+      <c r="BL7" s="58"/>
+      <c r="BM7" s="58"/>
+      <c r="BN7" s="58"/>
+      <c r="BO7" s="58"/>
+      <c r="BP7" s="58"/>
+      <c r="BQ7" s="58"/>
+      <c r="BR7" s="58"/>
+      <c r="BS7" s="58"/>
+      <c r="BT7" s="58"/>
+      <c r="BU7" s="58"/>
+      <c r="BV7" s="58"/>
+      <c r="BW7" s="58"/>
+      <c r="BX7" s="58"/>
+      <c r="BY7" s="58"/>
+      <c r="BZ7" s="58"/>
+      <c r="CA7" s="58"/>
+      <c r="CB7" s="58"/>
+      <c r="CC7" s="58"/>
+      <c r="CD7" s="58"/>
+      <c r="CE7" s="58"/>
+      <c r="CF7" s="58"/>
+      <c r="CG7" s="58"/>
+      <c r="CH7" s="58"/>
+      <c r="CI7" s="58"/>
     </row>
     <row r="8" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A8" s="27"/>
-      <c r="B8" s="66">
-        <v>2</v>
+      <c r="B8" s="53">
+        <v>1</v>
       </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="94" t="s">
-        <v>46</v>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="82" t="s">
+        <v>37</v>
       </c>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="95"/>
-      <c r="N8" s="95"/>
-      <c r="O8" s="95"/>
-      <c r="P8" s="95"/>
-      <c r="Q8" s="95"/>
-      <c r="R8" s="95"/>
-      <c r="S8" s="95"/>
-      <c r="T8" s="95"/>
-      <c r="U8" s="95"/>
-      <c r="V8" s="95"/>
-      <c r="W8" s="95"/>
-      <c r="X8" s="96"/>
-      <c r="Y8" s="94" t="s">
-        <v>40</v>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="83"/>
+      <c r="L8" s="83"/>
+      <c r="M8" s="83"/>
+      <c r="N8" s="83"/>
+      <c r="O8" s="83"/>
+      <c r="P8" s="83"/>
+      <c r="Q8" s="83"/>
+      <c r="R8" s="83"/>
+      <c r="S8" s="83"/>
+      <c r="T8" s="83"/>
+      <c r="U8" s="83"/>
+      <c r="V8" s="83"/>
+      <c r="W8" s="83"/>
+      <c r="X8" s="84"/>
+      <c r="Y8" s="82" t="s">
+        <v>35</v>
       </c>
-      <c r="Z8" s="95"/>
-      <c r="AA8" s="95"/>
-      <c r="AB8" s="95"/>
-      <c r="AC8" s="95"/>
-      <c r="AD8" s="95"/>
-      <c r="AE8" s="95"/>
-      <c r="AF8" s="95"/>
-      <c r="AG8" s="95"/>
-      <c r="AH8" s="96"/>
-      <c r="AI8" s="94" t="s">
-        <v>40</v>
+      <c r="Z8" s="83"/>
+      <c r="AA8" s="83"/>
+      <c r="AB8" s="83"/>
+      <c r="AC8" s="83"/>
+      <c r="AD8" s="83"/>
+      <c r="AE8" s="83"/>
+      <c r="AF8" s="83"/>
+      <c r="AG8" s="83"/>
+      <c r="AH8" s="84"/>
+      <c r="AI8" s="82" t="s">
+        <v>35</v>
       </c>
-      <c r="AJ8" s="95"/>
-      <c r="AK8" s="95"/>
-      <c r="AL8" s="95"/>
-      <c r="AM8" s="95"/>
-      <c r="AN8" s="95"/>
-      <c r="AO8" s="95"/>
-      <c r="AP8" s="95"/>
-      <c r="AQ8" s="95"/>
-      <c r="AR8" s="96"/>
-      <c r="AS8" s="70" t="s">
-        <v>47</v>
+      <c r="AJ8" s="83"/>
+      <c r="AK8" s="83"/>
+      <c r="AL8" s="83"/>
+      <c r="AM8" s="83"/>
+      <c r="AN8" s="83"/>
+      <c r="AO8" s="83"/>
+      <c r="AP8" s="83"/>
+      <c r="AQ8" s="83"/>
+      <c r="AR8" s="84"/>
+      <c r="AS8" s="57" t="s">
+        <v>38</v>
       </c>
-      <c r="AT8" s="70"/>
-      <c r="AU8" s="70"/>
-      <c r="AV8" s="70"/>
-      <c r="AW8" s="70"/>
-      <c r="AX8" s="70"/>
-      <c r="AY8" s="70"/>
-      <c r="AZ8" s="70"/>
-      <c r="BA8" s="70"/>
-      <c r="BB8" s="70"/>
-      <c r="BC8" s="70"/>
-      <c r="BD8" s="70"/>
-      <c r="BE8" s="70"/>
-      <c r="BF8" s="70"/>
-      <c r="BG8" s="70"/>
-      <c r="BH8" s="70"/>
-      <c r="BI8" s="70"/>
-      <c r="BJ8" s="70"/>
-      <c r="BK8" s="70"/>
-      <c r="BL8" s="70"/>
-      <c r="BM8" s="70"/>
-      <c r="BN8" s="70"/>
-      <c r="BO8" s="70"/>
-      <c r="BP8" s="70"/>
-      <c r="BQ8" s="70"/>
-      <c r="BR8" s="70"/>
-      <c r="BS8" s="70"/>
-      <c r="BT8" s="70"/>
-      <c r="BU8" s="70"/>
-      <c r="BV8" s="70"/>
-      <c r="BW8" s="70"/>
-      <c r="BX8" s="70"/>
-      <c r="BY8" s="70"/>
-      <c r="BZ8" s="70"/>
-      <c r="CA8" s="70"/>
-      <c r="CB8" s="70"/>
-      <c r="CC8" s="70"/>
-      <c r="CD8" s="70"/>
-      <c r="CE8" s="70"/>
-      <c r="CF8" s="70"/>
-      <c r="CG8" s="70"/>
-      <c r="CH8" s="70"/>
-      <c r="CI8" s="70"/>
+      <c r="AT8" s="57"/>
+      <c r="AU8" s="57"/>
+      <c r="AV8" s="57"/>
+      <c r="AW8" s="57"/>
+      <c r="AX8" s="57"/>
+      <c r="AY8" s="57"/>
+      <c r="AZ8" s="57"/>
+      <c r="BA8" s="57"/>
+      <c r="BB8" s="57"/>
+      <c r="BC8" s="57"/>
+      <c r="BD8" s="57"/>
+      <c r="BE8" s="57"/>
+      <c r="BF8" s="57"/>
+      <c r="BG8" s="57"/>
+      <c r="BH8" s="57"/>
+      <c r="BI8" s="57"/>
+      <c r="BJ8" s="57"/>
+      <c r="BK8" s="57"/>
+      <c r="BL8" s="57"/>
+      <c r="BM8" s="57"/>
+      <c r="BN8" s="57"/>
+      <c r="BO8" s="57"/>
+      <c r="BP8" s="57"/>
+      <c r="BQ8" s="57"/>
+      <c r="BR8" s="57"/>
+      <c r="BS8" s="57"/>
+      <c r="BT8" s="57"/>
+      <c r="BU8" s="57"/>
+      <c r="BV8" s="57"/>
+      <c r="BW8" s="57"/>
+      <c r="BX8" s="57"/>
+      <c r="BY8" s="57"/>
+      <c r="BZ8" s="57"/>
+      <c r="CA8" s="57"/>
+      <c r="CB8" s="57"/>
+      <c r="CC8" s="57"/>
+      <c r="CD8" s="57"/>
+      <c r="CE8" s="57"/>
+      <c r="CF8" s="57"/>
+      <c r="CG8" s="57"/>
+      <c r="CH8" s="57"/>
+      <c r="CI8" s="57"/>
       <c r="CJ8" s="1"/>
       <c r="CK8" s="1"/>
       <c r="CL8" s="1"/>
@@ -8036,7 +8070,7 @@
       <c r="G10" s="9"/>
       <c r="H10" s="30"/>
       <c r="I10" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
@@ -10100,7 +10134,7 @@
       <c r="I12" s="42"/>
       <c r="J12" s="43"/>
       <c r="K12" s="45" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="L12" s="46"/>
       <c r="M12" s="46"/>
@@ -10117,7 +10151,7 @@
       <c r="X12" s="46"/>
       <c r="Y12" s="47"/>
       <c r="Z12" s="44" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="AA12" s="42"/>
       <c r="AB12" s="42"/>
@@ -12150,75 +12184,75 @@
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="17"/>
-      <c r="F14" s="48" t="s">
-        <v>39</v>
+      <c r="F14" s="63" t="s">
+        <v>44</v>
       </c>
-      <c r="G14" s="48"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="49"/>
-      <c r="T14" s="49"/>
-      <c r="U14" s="49"/>
-      <c r="V14" s="49"/>
-      <c r="W14" s="49"/>
-      <c r="X14" s="49"/>
-      <c r="Y14" s="49"/>
-      <c r="Z14" s="49"/>
-      <c r="AA14" s="49"/>
-      <c r="AB14" s="49"/>
-      <c r="AC14" s="49"/>
-      <c r="AD14" s="49"/>
-      <c r="AE14" s="49"/>
-      <c r="AF14" s="49"/>
-      <c r="AG14" s="49"/>
-      <c r="AH14" s="49"/>
-      <c r="AI14" s="49"/>
-      <c r="AJ14" s="49"/>
-      <c r="AK14" s="49"/>
-      <c r="AL14" s="49"/>
-      <c r="AM14" s="49"/>
-      <c r="AN14" s="49"/>
-      <c r="AO14" s="49"/>
-      <c r="AP14" s="49"/>
-      <c r="AQ14" s="49"/>
-      <c r="AR14" s="49"/>
-      <c r="AS14" s="49"/>
-      <c r="AT14" s="49"/>
-      <c r="AU14" s="49"/>
-      <c r="AV14" s="49"/>
-      <c r="AW14" s="49"/>
-      <c r="AX14" s="49"/>
-      <c r="AY14" s="49"/>
-      <c r="AZ14" s="49"/>
-      <c r="BA14" s="49"/>
-      <c r="BB14" s="49"/>
-      <c r="BC14" s="49"/>
-      <c r="BD14" s="49"/>
-      <c r="BE14" s="49"/>
-      <c r="BF14" s="49"/>
-      <c r="BG14" s="49"/>
-      <c r="BH14" s="49"/>
-      <c r="BI14" s="49"/>
-      <c r="BJ14" s="49"/>
-      <c r="BK14" s="49"/>
-      <c r="BL14" s="49"/>
-      <c r="BM14" s="48"/>
-      <c r="BN14" s="48"/>
-      <c r="BO14" s="48"/>
-      <c r="BP14" s="48"/>
-      <c r="BQ14" s="48"/>
-      <c r="BR14" s="48"/>
-      <c r="BS14" s="48"/>
-      <c r="BT14" s="48"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="64"/>
+      <c r="S14" s="64"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="64"/>
+      <c r="V14" s="64"/>
+      <c r="W14" s="64"/>
+      <c r="X14" s="64"/>
+      <c r="Y14" s="64"/>
+      <c r="Z14" s="64"/>
+      <c r="AA14" s="64"/>
+      <c r="AB14" s="64"/>
+      <c r="AC14" s="64"/>
+      <c r="AD14" s="64"/>
+      <c r="AE14" s="64"/>
+      <c r="AF14" s="64"/>
+      <c r="AG14" s="64"/>
+      <c r="AH14" s="64"/>
+      <c r="AI14" s="64"/>
+      <c r="AJ14" s="64"/>
+      <c r="AK14" s="64"/>
+      <c r="AL14" s="64"/>
+      <c r="AM14" s="64"/>
+      <c r="AN14" s="64"/>
+      <c r="AO14" s="64"/>
+      <c r="AP14" s="64"/>
+      <c r="AQ14" s="64"/>
+      <c r="AR14" s="64"/>
+      <c r="AS14" s="64"/>
+      <c r="AT14" s="64"/>
+      <c r="AU14" s="64"/>
+      <c r="AV14" s="64"/>
+      <c r="AW14" s="64"/>
+      <c r="AX14" s="64"/>
+      <c r="AY14" s="64"/>
+      <c r="AZ14" s="64"/>
+      <c r="BA14" s="64"/>
+      <c r="BB14" s="64"/>
+      <c r="BC14" s="64"/>
+      <c r="BD14" s="64"/>
+      <c r="BE14" s="64"/>
+      <c r="BF14" s="64"/>
+      <c r="BG14" s="64"/>
+      <c r="BH14" s="64"/>
+      <c r="BI14" s="64"/>
+      <c r="BJ14" s="64"/>
+      <c r="BK14" s="64"/>
+      <c r="BL14" s="64"/>
+      <c r="BM14" s="63"/>
+      <c r="BN14" s="63"/>
+      <c r="BO14" s="63"/>
+      <c r="BP14" s="63"/>
+      <c r="BQ14" s="63"/>
+      <c r="BR14" s="63"/>
+      <c r="BS14" s="63"/>
+      <c r="BT14" s="63"/>
       <c r="BU14" s="17"/>
       <c r="BV14" s="17"/>
       <c r="BW14" s="17"/>
@@ -13180,64 +13214,64 @@
       <c r="E15" s="17"/>
       <c r="F15" s="32"/>
       <c r="G15" s="32"/>
-      <c r="H15" s="50" t="s">
+      <c r="H15" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="51"/>
-      <c r="T15" s="51"/>
-      <c r="U15" s="51"/>
-      <c r="V15" s="51"/>
-      <c r="W15" s="51"/>
-      <c r="X15" s="51"/>
-      <c r="Y15" s="51"/>
-      <c r="Z15" s="51"/>
-      <c r="AA15" s="51"/>
-      <c r="AB15" s="51"/>
-      <c r="AC15" s="51"/>
-      <c r="AD15" s="51"/>
-      <c r="AE15" s="51"/>
-      <c r="AF15" s="51"/>
-      <c r="AG15" s="51"/>
-      <c r="AH15" s="51"/>
-      <c r="AI15" s="51"/>
-      <c r="AJ15" s="51"/>
-      <c r="AK15" s="51"/>
-      <c r="AL15" s="51"/>
-      <c r="AM15" s="51"/>
-      <c r="AN15" s="51"/>
-      <c r="AO15" s="51"/>
-      <c r="AP15" s="51"/>
-      <c r="AQ15" s="51"/>
-      <c r="AR15" s="51"/>
-      <c r="AS15" s="51"/>
-      <c r="AT15" s="51"/>
-      <c r="AU15" s="51"/>
-      <c r="AV15" s="51"/>
-      <c r="AW15" s="51"/>
-      <c r="AX15" s="51"/>
-      <c r="AY15" s="51"/>
-      <c r="AZ15" s="51"/>
-      <c r="BA15" s="51"/>
-      <c r="BB15" s="51"/>
-      <c r="BC15" s="51"/>
-      <c r="BD15" s="51"/>
-      <c r="BE15" s="51"/>
-      <c r="BF15" s="51"/>
-      <c r="BG15" s="51"/>
-      <c r="BH15" s="51"/>
-      <c r="BI15" s="51"/>
-      <c r="BJ15" s="51"/>
-      <c r="BK15" s="51"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="66"/>
+      <c r="R15" s="66"/>
+      <c r="S15" s="66"/>
+      <c r="T15" s="66"/>
+      <c r="U15" s="66"/>
+      <c r="V15" s="66"/>
+      <c r="W15" s="66"/>
+      <c r="X15" s="66"/>
+      <c r="Y15" s="66"/>
+      <c r="Z15" s="66"/>
+      <c r="AA15" s="66"/>
+      <c r="AB15" s="66"/>
+      <c r="AC15" s="66"/>
+      <c r="AD15" s="66"/>
+      <c r="AE15" s="66"/>
+      <c r="AF15" s="66"/>
+      <c r="AG15" s="66"/>
+      <c r="AH15" s="66"/>
+      <c r="AI15" s="66"/>
+      <c r="AJ15" s="66"/>
+      <c r="AK15" s="66"/>
+      <c r="AL15" s="66"/>
+      <c r="AM15" s="66"/>
+      <c r="AN15" s="66"/>
+      <c r="AO15" s="66"/>
+      <c r="AP15" s="66"/>
+      <c r="AQ15" s="66"/>
+      <c r="AR15" s="66"/>
+      <c r="AS15" s="66"/>
+      <c r="AT15" s="66"/>
+      <c r="AU15" s="66"/>
+      <c r="AV15" s="66"/>
+      <c r="AW15" s="66"/>
+      <c r="AX15" s="66"/>
+      <c r="AY15" s="66"/>
+      <c r="AZ15" s="66"/>
+      <c r="BA15" s="66"/>
+      <c r="BB15" s="66"/>
+      <c r="BC15" s="66"/>
+      <c r="BD15" s="66"/>
+      <c r="BE15" s="66"/>
+      <c r="BF15" s="66"/>
+      <c r="BG15" s="66"/>
+      <c r="BH15" s="66"/>
+      <c r="BI15" s="66"/>
+      <c r="BJ15" s="66"/>
+      <c r="BK15" s="66"/>
       <c r="BL15" s="21"/>
       <c r="BM15" s="32"/>
       <c r="BN15" s="32"/>
@@ -14208,65 +14242,65 @@
       <c r="E16" s="17"/>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
-      <c r="H16" s="52" t="s">
-        <v>32</v>
+      <c r="H16" s="67" t="s">
+        <v>46</v>
       </c>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="53"/>
-      <c r="R16" s="53"/>
-      <c r="S16" s="53"/>
-      <c r="T16" s="53"/>
-      <c r="U16" s="53"/>
-      <c r="V16" s="53"/>
-      <c r="W16" s="53"/>
-      <c r="X16" s="53"/>
-      <c r="Y16" s="53"/>
-      <c r="Z16" s="53"/>
-      <c r="AA16" s="53"/>
-      <c r="AB16" s="53"/>
-      <c r="AC16" s="53"/>
-      <c r="AD16" s="53"/>
-      <c r="AE16" s="53"/>
-      <c r="AF16" s="53"/>
-      <c r="AG16" s="53"/>
-      <c r="AH16" s="53"/>
-      <c r="AI16" s="53"/>
-      <c r="AJ16" s="53"/>
-      <c r="AK16" s="53"/>
-      <c r="AL16" s="53"/>
-      <c r="AM16" s="53"/>
-      <c r="AN16" s="53"/>
-      <c r="AO16" s="53"/>
-      <c r="AP16" s="53"/>
-      <c r="AQ16" s="53"/>
-      <c r="AR16" s="53"/>
-      <c r="AS16" s="53"/>
-      <c r="AT16" s="53"/>
-      <c r="AU16" s="53"/>
-      <c r="AV16" s="53"/>
-      <c r="AW16" s="53"/>
-      <c r="AX16" s="53"/>
-      <c r="AY16" s="53"/>
-      <c r="AZ16" s="53"/>
-      <c r="BA16" s="53"/>
-      <c r="BB16" s="53"/>
-      <c r="BC16" s="53"/>
-      <c r="BD16" s="53"/>
-      <c r="BE16" s="53"/>
-      <c r="BF16" s="53"/>
-      <c r="BG16" s="53"/>
-      <c r="BH16" s="53"/>
-      <c r="BI16" s="53"/>
-      <c r="BJ16" s="53"/>
-      <c r="BK16" s="53"/>
-      <c r="BL16" s="54"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="68"/>
+      <c r="R16" s="68"/>
+      <c r="S16" s="68"/>
+      <c r="T16" s="68"/>
+      <c r="U16" s="68"/>
+      <c r="V16" s="68"/>
+      <c r="W16" s="68"/>
+      <c r="X16" s="68"/>
+      <c r="Y16" s="68"/>
+      <c r="Z16" s="68"/>
+      <c r="AA16" s="68"/>
+      <c r="AB16" s="68"/>
+      <c r="AC16" s="68"/>
+      <c r="AD16" s="68"/>
+      <c r="AE16" s="68"/>
+      <c r="AF16" s="68"/>
+      <c r="AG16" s="68"/>
+      <c r="AH16" s="68"/>
+      <c r="AI16" s="68"/>
+      <c r="AJ16" s="68"/>
+      <c r="AK16" s="68"/>
+      <c r="AL16" s="68"/>
+      <c r="AM16" s="68"/>
+      <c r="AN16" s="68"/>
+      <c r="AO16" s="68"/>
+      <c r="AP16" s="68"/>
+      <c r="AQ16" s="68"/>
+      <c r="AR16" s="68"/>
+      <c r="AS16" s="68"/>
+      <c r="AT16" s="68"/>
+      <c r="AU16" s="68"/>
+      <c r="AV16" s="68"/>
+      <c r="AW16" s="68"/>
+      <c r="AX16" s="68"/>
+      <c r="AY16" s="68"/>
+      <c r="AZ16" s="68"/>
+      <c r="BA16" s="68"/>
+      <c r="BB16" s="68"/>
+      <c r="BC16" s="68"/>
+      <c r="BD16" s="68"/>
+      <c r="BE16" s="68"/>
+      <c r="BF16" s="68"/>
+      <c r="BG16" s="68"/>
+      <c r="BH16" s="68"/>
+      <c r="BI16" s="68"/>
+      <c r="BJ16" s="68"/>
+      <c r="BK16" s="68"/>
+      <c r="BL16" s="69"/>
       <c r="BM16" s="32"/>
       <c r="BN16" s="32"/>
       <c r="BO16" s="32"/>
@@ -15236,63 +15270,63 @@
       <c r="E17" s="17"/>
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="56"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="56"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="56"/>
-      <c r="AA17" s="56"/>
-      <c r="AB17" s="56"/>
-      <c r="AC17" s="56"/>
-      <c r="AD17" s="56"/>
-      <c r="AE17" s="56"/>
-      <c r="AF17" s="56"/>
-      <c r="AG17" s="56"/>
-      <c r="AH17" s="56"/>
-      <c r="AI17" s="56"/>
-      <c r="AJ17" s="56"/>
-      <c r="AK17" s="56"/>
-      <c r="AL17" s="56"/>
-      <c r="AM17" s="56"/>
-      <c r="AN17" s="56"/>
-      <c r="AO17" s="56"/>
-      <c r="AP17" s="56"/>
-      <c r="AQ17" s="56"/>
-      <c r="AR17" s="56"/>
-      <c r="AS17" s="56"/>
-      <c r="AT17" s="56"/>
-      <c r="AU17" s="56"/>
-      <c r="AV17" s="56"/>
-      <c r="AW17" s="56"/>
-      <c r="AX17" s="56"/>
-      <c r="AY17" s="56"/>
-      <c r="AZ17" s="56"/>
-      <c r="BA17" s="56"/>
-      <c r="BB17" s="56"/>
-      <c r="BC17" s="56"/>
-      <c r="BD17" s="56"/>
-      <c r="BE17" s="56"/>
-      <c r="BF17" s="56"/>
-      <c r="BG17" s="56"/>
-      <c r="BH17" s="56"/>
-      <c r="BI17" s="56"/>
-      <c r="BJ17" s="56"/>
-      <c r="BK17" s="56"/>
-      <c r="BL17" s="57"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="71"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="71"/>
+      <c r="T17" s="71"/>
+      <c r="U17" s="71"/>
+      <c r="V17" s="71"/>
+      <c r="W17" s="71"/>
+      <c r="X17" s="71"/>
+      <c r="Y17" s="71"/>
+      <c r="Z17" s="71"/>
+      <c r="AA17" s="71"/>
+      <c r="AB17" s="71"/>
+      <c r="AC17" s="71"/>
+      <c r="AD17" s="71"/>
+      <c r="AE17" s="71"/>
+      <c r="AF17" s="71"/>
+      <c r="AG17" s="71"/>
+      <c r="AH17" s="71"/>
+      <c r="AI17" s="71"/>
+      <c r="AJ17" s="71"/>
+      <c r="AK17" s="71"/>
+      <c r="AL17" s="71"/>
+      <c r="AM17" s="71"/>
+      <c r="AN17" s="71"/>
+      <c r="AO17" s="71"/>
+      <c r="AP17" s="71"/>
+      <c r="AQ17" s="71"/>
+      <c r="AR17" s="71"/>
+      <c r="AS17" s="71"/>
+      <c r="AT17" s="71"/>
+      <c r="AU17" s="71"/>
+      <c r="AV17" s="71"/>
+      <c r="AW17" s="71"/>
+      <c r="AX17" s="71"/>
+      <c r="AY17" s="71"/>
+      <c r="AZ17" s="71"/>
+      <c r="BA17" s="71"/>
+      <c r="BB17" s="71"/>
+      <c r="BC17" s="71"/>
+      <c r="BD17" s="71"/>
+      <c r="BE17" s="71"/>
+      <c r="BF17" s="71"/>
+      <c r="BG17" s="71"/>
+      <c r="BH17" s="71"/>
+      <c r="BI17" s="71"/>
+      <c r="BJ17" s="71"/>
+      <c r="BK17" s="71"/>
+      <c r="BL17" s="72"/>
       <c r="BM17" s="32"/>
       <c r="BN17" s="32"/>
       <c r="BO17" s="32"/>
@@ -16262,63 +16296,63 @@
       <c r="E18" s="17"/>
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="59"/>
-      <c r="S18" s="59"/>
-      <c r="T18" s="59"/>
-      <c r="U18" s="59"/>
-      <c r="V18" s="59"/>
-      <c r="W18" s="59"/>
-      <c r="X18" s="59"/>
-      <c r="Y18" s="59"/>
-      <c r="Z18" s="59"/>
-      <c r="AA18" s="59"/>
-      <c r="AB18" s="59"/>
-      <c r="AC18" s="59"/>
-      <c r="AD18" s="59"/>
-      <c r="AE18" s="59"/>
-      <c r="AF18" s="59"/>
-      <c r="AG18" s="59"/>
-      <c r="AH18" s="59"/>
-      <c r="AI18" s="59"/>
-      <c r="AJ18" s="59"/>
-      <c r="AK18" s="59"/>
-      <c r="AL18" s="59"/>
-      <c r="AM18" s="59"/>
-      <c r="AN18" s="59"/>
-      <c r="AO18" s="59"/>
-      <c r="AP18" s="59"/>
-      <c r="AQ18" s="59"/>
-      <c r="AR18" s="59"/>
-      <c r="AS18" s="59"/>
-      <c r="AT18" s="59"/>
-      <c r="AU18" s="59"/>
-      <c r="AV18" s="59"/>
-      <c r="AW18" s="59"/>
-      <c r="AX18" s="59"/>
-      <c r="AY18" s="59"/>
-      <c r="AZ18" s="59"/>
-      <c r="BA18" s="59"/>
-      <c r="BB18" s="59"/>
-      <c r="BC18" s="59"/>
-      <c r="BD18" s="59"/>
-      <c r="BE18" s="59"/>
-      <c r="BF18" s="59"/>
-      <c r="BG18" s="59"/>
-      <c r="BH18" s="59"/>
-      <c r="BI18" s="59"/>
-      <c r="BJ18" s="59"/>
-      <c r="BK18" s="59"/>
-      <c r="BL18" s="60"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="74"/>
+      <c r="N18" s="74"/>
+      <c r="O18" s="74"/>
+      <c r="P18" s="74"/>
+      <c r="Q18" s="74"/>
+      <c r="R18" s="74"/>
+      <c r="S18" s="74"/>
+      <c r="T18" s="74"/>
+      <c r="U18" s="74"/>
+      <c r="V18" s="74"/>
+      <c r="W18" s="74"/>
+      <c r="X18" s="74"/>
+      <c r="Y18" s="74"/>
+      <c r="Z18" s="74"/>
+      <c r="AA18" s="74"/>
+      <c r="AB18" s="74"/>
+      <c r="AC18" s="74"/>
+      <c r="AD18" s="74"/>
+      <c r="AE18" s="74"/>
+      <c r="AF18" s="74"/>
+      <c r="AG18" s="74"/>
+      <c r="AH18" s="74"/>
+      <c r="AI18" s="74"/>
+      <c r="AJ18" s="74"/>
+      <c r="AK18" s="74"/>
+      <c r="AL18" s="74"/>
+      <c r="AM18" s="74"/>
+      <c r="AN18" s="74"/>
+      <c r="AO18" s="74"/>
+      <c r="AP18" s="74"/>
+      <c r="AQ18" s="74"/>
+      <c r="AR18" s="74"/>
+      <c r="AS18" s="74"/>
+      <c r="AT18" s="74"/>
+      <c r="AU18" s="74"/>
+      <c r="AV18" s="74"/>
+      <c r="AW18" s="74"/>
+      <c r="AX18" s="74"/>
+      <c r="AY18" s="74"/>
+      <c r="AZ18" s="74"/>
+      <c r="BA18" s="74"/>
+      <c r="BB18" s="74"/>
+      <c r="BC18" s="74"/>
+      <c r="BD18" s="74"/>
+      <c r="BE18" s="74"/>
+      <c r="BF18" s="74"/>
+      <c r="BG18" s="74"/>
+      <c r="BH18" s="74"/>
+      <c r="BI18" s="74"/>
+      <c r="BJ18" s="74"/>
+      <c r="BK18" s="74"/>
+      <c r="BL18" s="75"/>
       <c r="BM18" s="32"/>
       <c r="BN18" s="32"/>
       <c r="BO18" s="32"/>
@@ -18308,94 +18342,94 @@
     </row>
     <row r="20" spans="1:1024" ht="18" customHeight="1">
       <c r="A20" s="28"/>
-      <c r="B20" s="34" t="s">
-        <v>41</v>
+      <c r="B20" s="76" t="s">
+        <v>39</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="35"/>
-      <c r="S20" s="35"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="35"/>
-      <c r="X20" s="35"/>
-      <c r="Y20" s="35"/>
-      <c r="Z20" s="35"/>
-      <c r="AA20" s="35"/>
-      <c r="AB20" s="35"/>
-      <c r="AC20" s="35"/>
-      <c r="AD20" s="35"/>
-      <c r="AE20" s="35"/>
-      <c r="AF20" s="35"/>
-      <c r="AG20" s="35"/>
-      <c r="AH20" s="35"/>
-      <c r="AI20" s="35"/>
-      <c r="AJ20" s="35"/>
-      <c r="AK20" s="35"/>
-      <c r="AL20" s="35"/>
-      <c r="AM20" s="35"/>
-      <c r="AN20" s="35"/>
-      <c r="AO20" s="35"/>
-      <c r="AP20" s="35"/>
-      <c r="AQ20" s="35"/>
-      <c r="AR20" s="35"/>
-      <c r="AS20" s="35"/>
-      <c r="AT20" s="35"/>
-      <c r="AU20" s="35"/>
-      <c r="AV20" s="35"/>
-      <c r="AW20" s="35"/>
-      <c r="AX20" s="35"/>
-      <c r="AY20" s="35"/>
-      <c r="AZ20" s="35"/>
-      <c r="BA20" s="35"/>
-      <c r="BB20" s="35"/>
-      <c r="BC20" s="35"/>
-      <c r="BD20" s="35"/>
-      <c r="BE20" s="35"/>
-      <c r="BF20" s="35"/>
-      <c r="BG20" s="35"/>
-      <c r="BH20" s="35"/>
-      <c r="BI20" s="35"/>
-      <c r="BJ20" s="35"/>
-      <c r="BK20" s="35"/>
-      <c r="BL20" s="35"/>
-      <c r="BM20" s="35"/>
-      <c r="BN20" s="35"/>
-      <c r="BO20" s="35"/>
-      <c r="BP20" s="35"/>
-      <c r="BQ20" s="35"/>
-      <c r="BR20" s="35"/>
-      <c r="BS20" s="35"/>
-      <c r="BT20" s="35"/>
-      <c r="BU20" s="35"/>
-      <c r="BV20" s="35"/>
-      <c r="BW20" s="35"/>
-      <c r="BX20" s="35"/>
-      <c r="BY20" s="35"/>
-      <c r="BZ20" s="35"/>
-      <c r="CA20" s="35"/>
-      <c r="CB20" s="35"/>
-      <c r="CC20" s="35"/>
-      <c r="CD20" s="35"/>
-      <c r="CE20" s="35"/>
-      <c r="CF20" s="35"/>
-      <c r="CG20" s="35"/>
-      <c r="CH20" s="35"/>
-      <c r="CI20" s="36"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="77"/>
+      <c r="P20" s="77"/>
+      <c r="Q20" s="77"/>
+      <c r="R20" s="77"/>
+      <c r="S20" s="77"/>
+      <c r="T20" s="77"/>
+      <c r="U20" s="77"/>
+      <c r="V20" s="77"/>
+      <c r="W20" s="77"/>
+      <c r="X20" s="77"/>
+      <c r="Y20" s="77"/>
+      <c r="Z20" s="77"/>
+      <c r="AA20" s="77"/>
+      <c r="AB20" s="77"/>
+      <c r="AC20" s="77"/>
+      <c r="AD20" s="77"/>
+      <c r="AE20" s="77"/>
+      <c r="AF20" s="77"/>
+      <c r="AG20" s="77"/>
+      <c r="AH20" s="77"/>
+      <c r="AI20" s="77"/>
+      <c r="AJ20" s="77"/>
+      <c r="AK20" s="77"/>
+      <c r="AL20" s="77"/>
+      <c r="AM20" s="77"/>
+      <c r="AN20" s="77"/>
+      <c r="AO20" s="77"/>
+      <c r="AP20" s="77"/>
+      <c r="AQ20" s="77"/>
+      <c r="AR20" s="77"/>
+      <c r="AS20" s="77"/>
+      <c r="AT20" s="77"/>
+      <c r="AU20" s="77"/>
+      <c r="AV20" s="77"/>
+      <c r="AW20" s="77"/>
+      <c r="AX20" s="77"/>
+      <c r="AY20" s="77"/>
+      <c r="AZ20" s="77"/>
+      <c r="BA20" s="77"/>
+      <c r="BB20" s="77"/>
+      <c r="BC20" s="77"/>
+      <c r="BD20" s="77"/>
+      <c r="BE20" s="77"/>
+      <c r="BF20" s="77"/>
+      <c r="BG20" s="77"/>
+      <c r="BH20" s="77"/>
+      <c r="BI20" s="77"/>
+      <c r="BJ20" s="77"/>
+      <c r="BK20" s="77"/>
+      <c r="BL20" s="77"/>
+      <c r="BM20" s="77"/>
+      <c r="BN20" s="77"/>
+      <c r="BO20" s="77"/>
+      <c r="BP20" s="77"/>
+      <c r="BQ20" s="77"/>
+      <c r="BR20" s="77"/>
+      <c r="BS20" s="77"/>
+      <c r="BT20" s="77"/>
+      <c r="BU20" s="77"/>
+      <c r="BV20" s="77"/>
+      <c r="BW20" s="77"/>
+      <c r="BX20" s="77"/>
+      <c r="BY20" s="77"/>
+      <c r="BZ20" s="77"/>
+      <c r="CA20" s="77"/>
+      <c r="CB20" s="77"/>
+      <c r="CC20" s="77"/>
+      <c r="CD20" s="77"/>
+      <c r="CE20" s="77"/>
+      <c r="CF20" s="77"/>
+      <c r="CG20" s="77"/>
+      <c r="CH20" s="77"/>
+      <c r="CI20" s="78"/>
       <c r="CJ20" s="1"/>
       <c r="CK20" s="1"/>
       <c r="CL20" s="1"/>
@@ -21423,7 +21457,7 @@
       <c r="X23" s="46"/>
       <c r="Y23" s="47"/>
       <c r="Z23" s="44" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AA23" s="42"/>
       <c r="AB23" s="42"/>
@@ -22438,7 +22472,7 @@
       <c r="I24" s="42"/>
       <c r="J24" s="43"/>
       <c r="K24" s="45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L24" s="46"/>
       <c r="M24" s="46"/>
@@ -22455,7 +22489,7 @@
       <c r="X24" s="46"/>
       <c r="Y24" s="47"/>
       <c r="Z24" s="44" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AA24" s="42"/>
       <c r="AB24" s="42"/>
@@ -26535,201 +26569,201 @@
       <c r="AMJ27" s="1"/>
     </row>
     <row r="28" spans="1:1024" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="B28" s="61" t="s">
+      <c r="B28" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="62" t="s">
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="62"/>
-      <c r="K28" s="62"/>
-      <c r="L28" s="62"/>
-      <c r="M28" s="62"/>
-      <c r="N28" s="62"/>
-      <c r="O28" s="62"/>
-      <c r="P28" s="62"/>
-      <c r="Q28" s="62"/>
-      <c r="R28" s="62"/>
-      <c r="S28" s="62"/>
-      <c r="T28" s="62"/>
-      <c r="U28" s="62"/>
-      <c r="V28" s="62"/>
-      <c r="W28" s="62"/>
-      <c r="X28" s="62"/>
-      <c r="Y28" s="74" t="s">
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="49"/>
+      <c r="T28" s="49"/>
+      <c r="U28" s="49"/>
+      <c r="V28" s="49"/>
+      <c r="W28" s="49"/>
+      <c r="X28" s="49"/>
+      <c r="Y28" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="Z28" s="75"/>
-      <c r="AA28" s="75"/>
-      <c r="AB28" s="75"/>
-      <c r="AC28" s="75"/>
-      <c r="AD28" s="75"/>
-      <c r="AE28" s="75"/>
-      <c r="AF28" s="75"/>
-      <c r="AG28" s="75"/>
-      <c r="AH28" s="76"/>
-      <c r="AI28" s="74" t="s">
+      <c r="Z28" s="61"/>
+      <c r="AA28" s="61"/>
+      <c r="AB28" s="61"/>
+      <c r="AC28" s="61"/>
+      <c r="AD28" s="61"/>
+      <c r="AE28" s="61"/>
+      <c r="AF28" s="61"/>
+      <c r="AG28" s="61"/>
+      <c r="AH28" s="62"/>
+      <c r="AI28" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="AJ28" s="75"/>
-      <c r="AK28" s="75"/>
-      <c r="AL28" s="75"/>
-      <c r="AM28" s="75"/>
-      <c r="AN28" s="75"/>
-      <c r="AO28" s="75"/>
-      <c r="AP28" s="75"/>
-      <c r="AQ28" s="75"/>
-      <c r="AR28" s="76"/>
-      <c r="AS28" s="71" t="s">
+      <c r="AJ28" s="61"/>
+      <c r="AK28" s="61"/>
+      <c r="AL28" s="61"/>
+      <c r="AM28" s="61"/>
+      <c r="AN28" s="61"/>
+      <c r="AO28" s="61"/>
+      <c r="AP28" s="61"/>
+      <c r="AQ28" s="61"/>
+      <c r="AR28" s="62"/>
+      <c r="AS28" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="AT28" s="71"/>
-      <c r="AU28" s="71"/>
-      <c r="AV28" s="71"/>
-      <c r="AW28" s="71"/>
-      <c r="AX28" s="71"/>
-      <c r="AY28" s="71"/>
-      <c r="AZ28" s="71"/>
-      <c r="BA28" s="71"/>
-      <c r="BB28" s="71"/>
-      <c r="BC28" s="71"/>
-      <c r="BD28" s="71"/>
-      <c r="BE28" s="71"/>
-      <c r="BF28" s="71"/>
-      <c r="BG28" s="71"/>
-      <c r="BH28" s="71"/>
-      <c r="BI28" s="71"/>
-      <c r="BJ28" s="71"/>
-      <c r="BK28" s="71"/>
-      <c r="BL28" s="71"/>
-      <c r="BM28" s="71"/>
-      <c r="BN28" s="71"/>
-      <c r="BO28" s="71"/>
-      <c r="BP28" s="71"/>
-      <c r="BQ28" s="71"/>
-      <c r="BR28" s="71"/>
-      <c r="BS28" s="71"/>
-      <c r="BT28" s="71"/>
-      <c r="BU28" s="71"/>
-      <c r="BV28" s="71"/>
-      <c r="BW28" s="71"/>
-      <c r="BX28" s="71"/>
-      <c r="BY28" s="71"/>
-      <c r="BZ28" s="71"/>
-      <c r="CA28" s="71"/>
-      <c r="CB28" s="71"/>
-      <c r="CC28" s="71"/>
-      <c r="CD28" s="71"/>
-      <c r="CE28" s="71"/>
-      <c r="CF28" s="71"/>
-      <c r="CG28" s="71"/>
-      <c r="CH28" s="71"/>
-      <c r="CI28" s="71"/>
+      <c r="AT28" s="58"/>
+      <c r="AU28" s="58"/>
+      <c r="AV28" s="58"/>
+      <c r="AW28" s="58"/>
+      <c r="AX28" s="58"/>
+      <c r="AY28" s="58"/>
+      <c r="AZ28" s="58"/>
+      <c r="BA28" s="58"/>
+      <c r="BB28" s="58"/>
+      <c r="BC28" s="58"/>
+      <c r="BD28" s="58"/>
+      <c r="BE28" s="58"/>
+      <c r="BF28" s="58"/>
+      <c r="BG28" s="58"/>
+      <c r="BH28" s="58"/>
+      <c r="BI28" s="58"/>
+      <c r="BJ28" s="58"/>
+      <c r="BK28" s="58"/>
+      <c r="BL28" s="58"/>
+      <c r="BM28" s="58"/>
+      <c r="BN28" s="58"/>
+      <c r="BO28" s="58"/>
+      <c r="BP28" s="58"/>
+      <c r="BQ28" s="58"/>
+      <c r="BR28" s="58"/>
+      <c r="BS28" s="58"/>
+      <c r="BT28" s="58"/>
+      <c r="BU28" s="58"/>
+      <c r="BV28" s="58"/>
+      <c r="BW28" s="58"/>
+      <c r="BX28" s="58"/>
+      <c r="BY28" s="58"/>
+      <c r="BZ28" s="58"/>
+      <c r="CA28" s="58"/>
+      <c r="CB28" s="58"/>
+      <c r="CC28" s="58"/>
+      <c r="CD28" s="58"/>
+      <c r="CE28" s="58"/>
+      <c r="CF28" s="58"/>
+      <c r="CG28" s="58"/>
+      <c r="CH28" s="58"/>
+      <c r="CI28" s="58"/>
     </row>
     <row r="29" spans="1:1024" ht="18" customHeight="1" thickBot="1">
       <c r="A29" s="2"/>
-      <c r="B29" s="66">
-        <v>3</v>
+      <c r="B29" s="53">
+        <v>2</v>
       </c>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="67" t="s">
-        <v>42</v>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="54" t="s">
+        <v>36</v>
       </c>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="67"/>
-      <c r="L29" s="67"/>
-      <c r="M29" s="67"/>
-      <c r="N29" s="67"/>
-      <c r="O29" s="67"/>
-      <c r="P29" s="67"/>
-      <c r="Q29" s="67"/>
-      <c r="R29" s="67"/>
-      <c r="S29" s="67"/>
-      <c r="T29" s="67"/>
-      <c r="U29" s="67"/>
-      <c r="V29" s="67"/>
-      <c r="W29" s="67"/>
-      <c r="X29" s="67"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="54"/>
+      <c r="S29" s="54"/>
+      <c r="T29" s="54"/>
+      <c r="U29" s="54"/>
+      <c r="V29" s="54"/>
+      <c r="W29" s="54"/>
+      <c r="X29" s="54"/>
       <c r="Y29" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="Z29" s="68"/>
-      <c r="AA29" s="68"/>
-      <c r="AB29" s="68"/>
-      <c r="AC29" s="68"/>
-      <c r="AD29" s="68"/>
-      <c r="AE29" s="68"/>
-      <c r="AF29" s="68"/>
-      <c r="AG29" s="68"/>
-      <c r="AH29" s="69"/>
+      <c r="Z29" s="55"/>
+      <c r="AA29" s="55"/>
+      <c r="AB29" s="55"/>
+      <c r="AC29" s="55"/>
+      <c r="AD29" s="55"/>
+      <c r="AE29" s="55"/>
+      <c r="AF29" s="55"/>
+      <c r="AG29" s="55"/>
+      <c r="AH29" s="56"/>
       <c r="AI29" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="AJ29" s="68"/>
-      <c r="AK29" s="68"/>
-      <c r="AL29" s="68"/>
-      <c r="AM29" s="68"/>
-      <c r="AN29" s="68"/>
-      <c r="AO29" s="68"/>
-      <c r="AP29" s="68"/>
-      <c r="AQ29" s="68"/>
-      <c r="AR29" s="69"/>
-      <c r="AS29" s="70" t="s">
+      <c r="AJ29" s="55"/>
+      <c r="AK29" s="55"/>
+      <c r="AL29" s="55"/>
+      <c r="AM29" s="55"/>
+      <c r="AN29" s="55"/>
+      <c r="AO29" s="55"/>
+      <c r="AP29" s="55"/>
+      <c r="AQ29" s="55"/>
+      <c r="AR29" s="56"/>
+      <c r="AS29" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="AT29" s="70"/>
-      <c r="AU29" s="70"/>
-      <c r="AV29" s="70"/>
-      <c r="AW29" s="70"/>
-      <c r="AX29" s="70"/>
-      <c r="AY29" s="70"/>
-      <c r="AZ29" s="70"/>
-      <c r="BA29" s="70"/>
-      <c r="BB29" s="70"/>
-      <c r="BC29" s="70"/>
-      <c r="BD29" s="70"/>
-      <c r="BE29" s="70"/>
-      <c r="BF29" s="70"/>
-      <c r="BG29" s="70"/>
-      <c r="BH29" s="70"/>
-      <c r="BI29" s="70"/>
-      <c r="BJ29" s="70"/>
-      <c r="BK29" s="70"/>
-      <c r="BL29" s="70"/>
-      <c r="BM29" s="70"/>
-      <c r="BN29" s="70"/>
-      <c r="BO29" s="70"/>
-      <c r="BP29" s="70"/>
-      <c r="BQ29" s="70"/>
-      <c r="BR29" s="70"/>
-      <c r="BS29" s="70"/>
-      <c r="BT29" s="70"/>
-      <c r="BU29" s="70"/>
-      <c r="BV29" s="70"/>
-      <c r="BW29" s="70"/>
-      <c r="BX29" s="70"/>
-      <c r="BY29" s="70"/>
-      <c r="BZ29" s="70"/>
-      <c r="CA29" s="70"/>
-      <c r="CB29" s="70"/>
-      <c r="CC29" s="70"/>
-      <c r="CD29" s="70"/>
-      <c r="CE29" s="70"/>
-      <c r="CF29" s="70"/>
-      <c r="CG29" s="70"/>
-      <c r="CH29" s="70"/>
-      <c r="CI29" s="70"/>
+      <c r="AT29" s="57"/>
+      <c r="AU29" s="57"/>
+      <c r="AV29" s="57"/>
+      <c r="AW29" s="57"/>
+      <c r="AX29" s="57"/>
+      <c r="AY29" s="57"/>
+      <c r="AZ29" s="57"/>
+      <c r="BA29" s="57"/>
+      <c r="BB29" s="57"/>
+      <c r="BC29" s="57"/>
+      <c r="BD29" s="57"/>
+      <c r="BE29" s="57"/>
+      <c r="BF29" s="57"/>
+      <c r="BG29" s="57"/>
+      <c r="BH29" s="57"/>
+      <c r="BI29" s="57"/>
+      <c r="BJ29" s="57"/>
+      <c r="BK29" s="57"/>
+      <c r="BL29" s="57"/>
+      <c r="BM29" s="57"/>
+      <c r="BN29" s="57"/>
+      <c r="BO29" s="57"/>
+      <c r="BP29" s="57"/>
+      <c r="BQ29" s="57"/>
+      <c r="BR29" s="57"/>
+      <c r="BS29" s="57"/>
+      <c r="BT29" s="57"/>
+      <c r="BU29" s="57"/>
+      <c r="BV29" s="57"/>
+      <c r="BW29" s="57"/>
+      <c r="BX29" s="57"/>
+      <c r="BY29" s="57"/>
+      <c r="BZ29" s="57"/>
+      <c r="CA29" s="57"/>
+      <c r="CB29" s="57"/>
+      <c r="CC29" s="57"/>
+      <c r="CD29" s="57"/>
+      <c r="CE29" s="57"/>
+      <c r="CF29" s="57"/>
+      <c r="CG29" s="57"/>
+      <c r="CH29" s="57"/>
+      <c r="CI29" s="57"/>
       <c r="CJ29" s="1"/>
       <c r="CK29" s="1"/>
       <c r="CL29" s="1"/>
@@ -28696,94 +28730,94 @@
     </row>
     <row r="31" spans="1:1024">
       <c r="A31" s="1"/>
-      <c r="B31" s="63" t="s">
-        <v>43</v>
+      <c r="B31" s="50" t="s">
+        <v>41</v>
       </c>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="64"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="64"/>
-      <c r="K31" s="64"/>
-      <c r="L31" s="64"/>
-      <c r="M31" s="64"/>
-      <c r="N31" s="64"/>
-      <c r="O31" s="64"/>
-      <c r="P31" s="64"/>
-      <c r="Q31" s="64"/>
-      <c r="R31" s="64"/>
-      <c r="S31" s="64"/>
-      <c r="T31" s="64"/>
-      <c r="U31" s="64"/>
-      <c r="V31" s="64"/>
-      <c r="W31" s="64"/>
-      <c r="X31" s="64"/>
-      <c r="Y31" s="64"/>
-      <c r="Z31" s="64"/>
-      <c r="AA31" s="64"/>
-      <c r="AB31" s="64"/>
-      <c r="AC31" s="64"/>
-      <c r="AD31" s="64"/>
-      <c r="AE31" s="64"/>
-      <c r="AF31" s="64"/>
-      <c r="AG31" s="64"/>
-      <c r="AH31" s="64"/>
-      <c r="AI31" s="64"/>
-      <c r="AJ31" s="64"/>
-      <c r="AK31" s="64"/>
-      <c r="AL31" s="64"/>
-      <c r="AM31" s="64"/>
-      <c r="AN31" s="64"/>
-      <c r="AO31" s="64"/>
-      <c r="AP31" s="64"/>
-      <c r="AQ31" s="64"/>
-      <c r="AR31" s="64"/>
-      <c r="AS31" s="64"/>
-      <c r="AT31" s="64"/>
-      <c r="AU31" s="64"/>
-      <c r="AV31" s="64"/>
-      <c r="AW31" s="64"/>
-      <c r="AX31" s="64"/>
-      <c r="AY31" s="64"/>
-      <c r="AZ31" s="64"/>
-      <c r="BA31" s="64"/>
-      <c r="BB31" s="64"/>
-      <c r="BC31" s="64"/>
-      <c r="BD31" s="64"/>
-      <c r="BE31" s="64"/>
-      <c r="BF31" s="64"/>
-      <c r="BG31" s="64"/>
-      <c r="BH31" s="64"/>
-      <c r="BI31" s="64"/>
-      <c r="BJ31" s="64"/>
-      <c r="BK31" s="64"/>
-      <c r="BL31" s="64"/>
-      <c r="BM31" s="64"/>
-      <c r="BN31" s="64"/>
-      <c r="BO31" s="64"/>
-      <c r="BP31" s="64"/>
-      <c r="BQ31" s="64"/>
-      <c r="BR31" s="64"/>
-      <c r="BS31" s="64"/>
-      <c r="BT31" s="64"/>
-      <c r="BU31" s="64"/>
-      <c r="BV31" s="64"/>
-      <c r="BW31" s="64"/>
-      <c r="BX31" s="64"/>
-      <c r="BY31" s="64"/>
-      <c r="BZ31" s="64"/>
-      <c r="CA31" s="64"/>
-      <c r="CB31" s="64"/>
-      <c r="CC31" s="64"/>
-      <c r="CD31" s="64"/>
-      <c r="CE31" s="64"/>
-      <c r="CF31" s="64"/>
-      <c r="CG31" s="64"/>
-      <c r="CH31" s="64"/>
-      <c r="CI31" s="65"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="51"/>
+      <c r="S31" s="51"/>
+      <c r="T31" s="51"/>
+      <c r="U31" s="51"/>
+      <c r="V31" s="51"/>
+      <c r="W31" s="51"/>
+      <c r="X31" s="51"/>
+      <c r="Y31" s="51"/>
+      <c r="Z31" s="51"/>
+      <c r="AA31" s="51"/>
+      <c r="AB31" s="51"/>
+      <c r="AC31" s="51"/>
+      <c r="AD31" s="51"/>
+      <c r="AE31" s="51"/>
+      <c r="AF31" s="51"/>
+      <c r="AG31" s="51"/>
+      <c r="AH31" s="51"/>
+      <c r="AI31" s="51"/>
+      <c r="AJ31" s="51"/>
+      <c r="AK31" s="51"/>
+      <c r="AL31" s="51"/>
+      <c r="AM31" s="51"/>
+      <c r="AN31" s="51"/>
+      <c r="AO31" s="51"/>
+      <c r="AP31" s="51"/>
+      <c r="AQ31" s="51"/>
+      <c r="AR31" s="51"/>
+      <c r="AS31" s="51"/>
+      <c r="AT31" s="51"/>
+      <c r="AU31" s="51"/>
+      <c r="AV31" s="51"/>
+      <c r="AW31" s="51"/>
+      <c r="AX31" s="51"/>
+      <c r="AY31" s="51"/>
+      <c r="AZ31" s="51"/>
+      <c r="BA31" s="51"/>
+      <c r="BB31" s="51"/>
+      <c r="BC31" s="51"/>
+      <c r="BD31" s="51"/>
+      <c r="BE31" s="51"/>
+      <c r="BF31" s="51"/>
+      <c r="BG31" s="51"/>
+      <c r="BH31" s="51"/>
+      <c r="BI31" s="51"/>
+      <c r="BJ31" s="51"/>
+      <c r="BK31" s="51"/>
+      <c r="BL31" s="51"/>
+      <c r="BM31" s="51"/>
+      <c r="BN31" s="51"/>
+      <c r="BO31" s="51"/>
+      <c r="BP31" s="51"/>
+      <c r="BQ31" s="51"/>
+      <c r="BR31" s="51"/>
+      <c r="BS31" s="51"/>
+      <c r="BT31" s="51"/>
+      <c r="BU31" s="51"/>
+      <c r="BV31" s="51"/>
+      <c r="BW31" s="51"/>
+      <c r="BX31" s="51"/>
+      <c r="BY31" s="51"/>
+      <c r="BZ31" s="51"/>
+      <c r="CA31" s="51"/>
+      <c r="CB31" s="51"/>
+      <c r="CC31" s="51"/>
+      <c r="CD31" s="51"/>
+      <c r="CE31" s="51"/>
+      <c r="CF31" s="51"/>
+      <c r="CG31" s="51"/>
+      <c r="CH31" s="51"/>
+      <c r="CI31" s="52"/>
       <c r="CJ31" s="1"/>
       <c r="CK31" s="1"/>
       <c r="CL31" s="1"/>
@@ -31776,94 +31810,94 @@
     </row>
     <row r="34" spans="1:1024" ht="18" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="63" t="s">
-        <v>35</v>
+      <c r="B34" s="50" t="s">
+        <v>40</v>
       </c>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="64"/>
-      <c r="J34" s="64"/>
-      <c r="K34" s="64"/>
-      <c r="L34" s="64"/>
-      <c r="M34" s="64"/>
-      <c r="N34" s="64"/>
-      <c r="O34" s="64"/>
-      <c r="P34" s="64"/>
-      <c r="Q34" s="64"/>
-      <c r="R34" s="64"/>
-      <c r="S34" s="64"/>
-      <c r="T34" s="64"/>
-      <c r="U34" s="64"/>
-      <c r="V34" s="64"/>
-      <c r="W34" s="64"/>
-      <c r="X34" s="64"/>
-      <c r="Y34" s="64"/>
-      <c r="Z34" s="64"/>
-      <c r="AA34" s="64"/>
-      <c r="AB34" s="64"/>
-      <c r="AC34" s="64"/>
-      <c r="AD34" s="64"/>
-      <c r="AE34" s="64"/>
-      <c r="AF34" s="64"/>
-      <c r="AG34" s="64"/>
-      <c r="AH34" s="64"/>
-      <c r="AI34" s="64"/>
-      <c r="AJ34" s="64"/>
-      <c r="AK34" s="64"/>
-      <c r="AL34" s="64"/>
-      <c r="AM34" s="64"/>
-      <c r="AN34" s="64"/>
-      <c r="AO34" s="64"/>
-      <c r="AP34" s="64"/>
-      <c r="AQ34" s="64"/>
-      <c r="AR34" s="64"/>
-      <c r="AS34" s="64"/>
-      <c r="AT34" s="64"/>
-      <c r="AU34" s="64"/>
-      <c r="AV34" s="64"/>
-      <c r="AW34" s="64"/>
-      <c r="AX34" s="64"/>
-      <c r="AY34" s="64"/>
-      <c r="AZ34" s="64"/>
-      <c r="BA34" s="64"/>
-      <c r="BB34" s="64"/>
-      <c r="BC34" s="64"/>
-      <c r="BD34" s="64"/>
-      <c r="BE34" s="64"/>
-      <c r="BF34" s="64"/>
-      <c r="BG34" s="64"/>
-      <c r="BH34" s="64"/>
-      <c r="BI34" s="64"/>
-      <c r="BJ34" s="64"/>
-      <c r="BK34" s="64"/>
-      <c r="BL34" s="64"/>
-      <c r="BM34" s="64"/>
-      <c r="BN34" s="64"/>
-      <c r="BO34" s="64"/>
-      <c r="BP34" s="64"/>
-      <c r="BQ34" s="64"/>
-      <c r="BR34" s="64"/>
-      <c r="BS34" s="64"/>
-      <c r="BT34" s="64"/>
-      <c r="BU34" s="64"/>
-      <c r="BV34" s="64"/>
-      <c r="BW34" s="64"/>
-      <c r="BX34" s="64"/>
-      <c r="BY34" s="64"/>
-      <c r="BZ34" s="64"/>
-      <c r="CA34" s="64"/>
-      <c r="CB34" s="64"/>
-      <c r="CC34" s="64"/>
-      <c r="CD34" s="64"/>
-      <c r="CE34" s="64"/>
-      <c r="CF34" s="64"/>
-      <c r="CG34" s="64"/>
-      <c r="CH34" s="64"/>
-      <c r="CI34" s="65"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="51"/>
+      <c r="N34" s="51"/>
+      <c r="O34" s="51"/>
+      <c r="P34" s="51"/>
+      <c r="Q34" s="51"/>
+      <c r="R34" s="51"/>
+      <c r="S34" s="51"/>
+      <c r="T34" s="51"/>
+      <c r="U34" s="51"/>
+      <c r="V34" s="51"/>
+      <c r="W34" s="51"/>
+      <c r="X34" s="51"/>
+      <c r="Y34" s="51"/>
+      <c r="Z34" s="51"/>
+      <c r="AA34" s="51"/>
+      <c r="AB34" s="51"/>
+      <c r="AC34" s="51"/>
+      <c r="AD34" s="51"/>
+      <c r="AE34" s="51"/>
+      <c r="AF34" s="51"/>
+      <c r="AG34" s="51"/>
+      <c r="AH34" s="51"/>
+      <c r="AI34" s="51"/>
+      <c r="AJ34" s="51"/>
+      <c r="AK34" s="51"/>
+      <c r="AL34" s="51"/>
+      <c r="AM34" s="51"/>
+      <c r="AN34" s="51"/>
+      <c r="AO34" s="51"/>
+      <c r="AP34" s="51"/>
+      <c r="AQ34" s="51"/>
+      <c r="AR34" s="51"/>
+      <c r="AS34" s="51"/>
+      <c r="AT34" s="51"/>
+      <c r="AU34" s="51"/>
+      <c r="AV34" s="51"/>
+      <c r="AW34" s="51"/>
+      <c r="AX34" s="51"/>
+      <c r="AY34" s="51"/>
+      <c r="AZ34" s="51"/>
+      <c r="BA34" s="51"/>
+      <c r="BB34" s="51"/>
+      <c r="BC34" s="51"/>
+      <c r="BD34" s="51"/>
+      <c r="BE34" s="51"/>
+      <c r="BF34" s="51"/>
+      <c r="BG34" s="51"/>
+      <c r="BH34" s="51"/>
+      <c r="BI34" s="51"/>
+      <c r="BJ34" s="51"/>
+      <c r="BK34" s="51"/>
+      <c r="BL34" s="51"/>
+      <c r="BM34" s="51"/>
+      <c r="BN34" s="51"/>
+      <c r="BO34" s="51"/>
+      <c r="BP34" s="51"/>
+      <c r="BQ34" s="51"/>
+      <c r="BR34" s="51"/>
+      <c r="BS34" s="51"/>
+      <c r="BT34" s="51"/>
+      <c r="BU34" s="51"/>
+      <c r="BV34" s="51"/>
+      <c r="BW34" s="51"/>
+      <c r="BX34" s="51"/>
+      <c r="BY34" s="51"/>
+      <c r="BZ34" s="51"/>
+      <c r="CA34" s="51"/>
+      <c r="CB34" s="51"/>
+      <c r="CC34" s="51"/>
+      <c r="CD34" s="51"/>
+      <c r="CE34" s="51"/>
+      <c r="CF34" s="51"/>
+      <c r="CG34" s="51"/>
+      <c r="CH34" s="51"/>
+      <c r="CI34" s="52"/>
       <c r="CJ34" s="1"/>
       <c r="CK34" s="1"/>
       <c r="CL34" s="1"/>
@@ -34890,7 +34924,7 @@
       <c r="W37" s="42"/>
       <c r="X37" s="43"/>
       <c r="Y37" s="44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Z37" s="42"/>
       <c r="AA37" s="42"/>
@@ -35892,94 +35926,94 @@
       <c r="AMI37" s="1"/>
       <c r="AMJ37" s="1"/>
     </row>
-    <row r="38" spans="1:1024" ht="18" customHeight="1" thickBot="1">
+    <row r="38" spans="1:1024" ht="18" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="33"/>
-      <c r="N38" s="33"/>
-      <c r="O38" s="33"/>
-      <c r="P38" s="33"/>
-      <c r="Q38" s="33"/>
-      <c r="R38" s="33"/>
-      <c r="S38" s="33"/>
-      <c r="T38" s="33"/>
-      <c r="U38" s="33"/>
-      <c r="V38" s="33"/>
-      <c r="W38" s="33"/>
-      <c r="X38" s="33"/>
-      <c r="Y38" s="25"/>
-      <c r="Z38" s="33"/>
-      <c r="AA38" s="33"/>
-      <c r="AB38" s="33"/>
-      <c r="AC38" s="33"/>
-      <c r="AD38" s="33"/>
-      <c r="AE38" s="33"/>
-      <c r="AF38" s="33"/>
-      <c r="AG38" s="33"/>
-      <c r="AH38" s="33"/>
-      <c r="AI38" s="33"/>
-      <c r="AJ38" s="33"/>
-      <c r="AK38" s="33"/>
-      <c r="AL38" s="33"/>
-      <c r="AM38" s="33"/>
-      <c r="AN38" s="33"/>
-      <c r="AO38" s="33"/>
-      <c r="AP38" s="33"/>
-      <c r="AQ38" s="33"/>
-      <c r="AR38" s="33"/>
-      <c r="AS38" s="33"/>
-      <c r="AT38" s="33"/>
-      <c r="AU38" s="33"/>
-      <c r="AV38" s="33"/>
-      <c r="AW38" s="33"/>
-      <c r="AX38" s="33"/>
-      <c r="AY38" s="33"/>
-      <c r="AZ38" s="33"/>
-      <c r="BA38" s="33"/>
-      <c r="BB38" s="33"/>
-      <c r="BC38" s="33"/>
-      <c r="BD38" s="33"/>
-      <c r="BE38" s="33"/>
-      <c r="BF38" s="33"/>
-      <c r="BG38" s="33"/>
-      <c r="BH38" s="33"/>
-      <c r="BI38" s="33"/>
-      <c r="BJ38" s="33"/>
-      <c r="BK38" s="33"/>
-      <c r="BL38" s="25"/>
-      <c r="BM38" s="25"/>
-      <c r="BN38" s="25"/>
-      <c r="BO38" s="25"/>
-      <c r="BP38" s="25"/>
-      <c r="BQ38" s="25"/>
-      <c r="BR38" s="25"/>
-      <c r="BS38" s="25"/>
-      <c r="BT38" s="13"/>
-      <c r="BU38" s="13"/>
-      <c r="BV38" s="13"/>
-      <c r="BW38" s="13"/>
-      <c r="BX38" s="13"/>
-      <c r="BY38" s="13"/>
-      <c r="BZ38" s="13"/>
-      <c r="CA38" s="13"/>
-      <c r="CB38" s="13"/>
-      <c r="CC38" s="13"/>
-      <c r="CD38" s="13"/>
-      <c r="CE38" s="13"/>
-      <c r="CF38" s="14"/>
-      <c r="CG38" s="14"/>
-      <c r="CH38" s="14"/>
-      <c r="CI38" s="15"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="34"/>
+      <c r="P38" s="34"/>
+      <c r="Q38" s="34"/>
+      <c r="R38" s="34"/>
+      <c r="S38" s="34"/>
+      <c r="T38" s="34"/>
+      <c r="U38" s="34"/>
+      <c r="V38" s="34"/>
+      <c r="W38" s="34"/>
+      <c r="X38" s="34"/>
+      <c r="Y38" s="17"/>
+      <c r="Z38" s="34"/>
+      <c r="AA38" s="34"/>
+      <c r="AB38" s="34"/>
+      <c r="AC38" s="34"/>
+      <c r="AD38" s="34"/>
+      <c r="AE38" s="34"/>
+      <c r="AF38" s="34"/>
+      <c r="AG38" s="34"/>
+      <c r="AH38" s="34"/>
+      <c r="AI38" s="34"/>
+      <c r="AJ38" s="34"/>
+      <c r="AK38" s="34"/>
+      <c r="AL38" s="34"/>
+      <c r="AM38" s="34"/>
+      <c r="AN38" s="34"/>
+      <c r="AO38" s="34"/>
+      <c r="AP38" s="34"/>
+      <c r="AQ38" s="34"/>
+      <c r="AR38" s="34"/>
+      <c r="AS38" s="34"/>
+      <c r="AT38" s="34"/>
+      <c r="AU38" s="34"/>
+      <c r="AV38" s="34"/>
+      <c r="AW38" s="34"/>
+      <c r="AX38" s="34"/>
+      <c r="AY38" s="34"/>
+      <c r="AZ38" s="34"/>
+      <c r="BA38" s="34"/>
+      <c r="BB38" s="34"/>
+      <c r="BC38" s="34"/>
+      <c r="BD38" s="34"/>
+      <c r="BE38" s="34"/>
+      <c r="BF38" s="34"/>
+      <c r="BG38" s="34"/>
+      <c r="BH38" s="34"/>
+      <c r="BI38" s="34"/>
+      <c r="BJ38" s="34"/>
+      <c r="BK38" s="34"/>
+      <c r="BL38" s="17"/>
+      <c r="BM38" s="17"/>
+      <c r="BN38" s="17"/>
+      <c r="BO38" s="17"/>
+      <c r="BP38" s="9"/>
+      <c r="BQ38" s="9"/>
+      <c r="BR38" s="9"/>
+      <c r="BS38" s="9"/>
+      <c r="BT38" s="9"/>
+      <c r="BU38" s="9"/>
+      <c r="BV38" s="9"/>
+      <c r="BW38" s="9"/>
+      <c r="BX38" s="9"/>
+      <c r="BY38" s="9"/>
+      <c r="BZ38" s="9"/>
+      <c r="CA38" s="9"/>
+      <c r="CB38" s="9"/>
+      <c r="CC38" s="9"/>
+      <c r="CD38" s="9"/>
+      <c r="CE38" s="9"/>
+      <c r="CF38" s="10"/>
+      <c r="CG38" s="10"/>
+      <c r="CH38" s="10"/>
+      <c r="CI38" s="11"/>
       <c r="CJ38" s="1"/>
       <c r="CK38" s="1"/>
       <c r="CL38" s="1"/>
@@ -36920,92 +36954,94 @@
     </row>
     <row r="39" spans="1:1024" ht="18" customHeight="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
-      <c r="W39" s="1"/>
-      <c r="X39" s="1"/>
-      <c r="Y39" s="1"/>
-      <c r="Z39" s="1"/>
-      <c r="AA39" s="1"/>
-      <c r="AB39" s="1"/>
-      <c r="AC39" s="1"/>
-      <c r="AD39" s="1"/>
-      <c r="AE39" s="1"/>
-      <c r="AF39" s="1"/>
-      <c r="AG39" s="1"/>
-      <c r="AH39" s="1"/>
-      <c r="AI39" s="1"/>
-      <c r="AJ39" s="1"/>
-      <c r="AK39" s="1"/>
-      <c r="AL39" s="1"/>
-      <c r="AM39" s="1"/>
-      <c r="AN39" s="1"/>
-      <c r="AO39" s="1"/>
-      <c r="AP39" s="1"/>
-      <c r="AQ39" s="1"/>
-      <c r="AR39" s="1"/>
-      <c r="AS39" s="1"/>
-      <c r="AT39" s="1"/>
-      <c r="AU39" s="1"/>
-      <c r="AV39" s="1"/>
-      <c r="AW39" s="1"/>
-      <c r="AX39" s="1"/>
-      <c r="AY39" s="1"/>
-      <c r="AZ39" s="1"/>
-      <c r="BA39" s="1"/>
-      <c r="BB39" s="1"/>
-      <c r="BC39" s="1"/>
-      <c r="BD39" s="1"/>
-      <c r="BE39" s="1"/>
-      <c r="BF39" s="1"/>
-      <c r="BG39" s="1"/>
-      <c r="BH39" s="1"/>
-      <c r="BI39" s="1"/>
-      <c r="BJ39" s="1"/>
-      <c r="BK39" s="1"/>
-      <c r="BL39" s="1"/>
-      <c r="BM39" s="1"/>
-      <c r="BN39" s="1"/>
-      <c r="BO39" s="1"/>
-      <c r="BP39" s="1"/>
-      <c r="BQ39" s="1"/>
-      <c r="BR39" s="1"/>
-      <c r="BS39" s="1"/>
-      <c r="BT39" s="1"/>
-      <c r="BU39" s="1"/>
-      <c r="BV39" s="1"/>
-      <c r="BW39" s="1"/>
-      <c r="BX39" s="1"/>
-      <c r="BY39" s="1"/>
-      <c r="BZ39" s="1"/>
-      <c r="CA39" s="1"/>
-      <c r="CB39" s="1"/>
-      <c r="CC39" s="1"/>
-      <c r="CD39" s="1"/>
-      <c r="CE39" s="1"/>
-      <c r="CF39" s="1"/>
-      <c r="CG39" s="1"/>
-      <c r="CH39" s="1"/>
-      <c r="CI39" s="1"/>
+      <c r="B39" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="36"/>
+      <c r="Q39" s="36"/>
+      <c r="R39" s="36"/>
+      <c r="S39" s="36"/>
+      <c r="T39" s="36"/>
+      <c r="U39" s="36"/>
+      <c r="V39" s="36"/>
+      <c r="W39" s="36"/>
+      <c r="X39" s="36"/>
+      <c r="Y39" s="36"/>
+      <c r="Z39" s="36"/>
+      <c r="AA39" s="36"/>
+      <c r="AB39" s="36"/>
+      <c r="AC39" s="36"/>
+      <c r="AD39" s="36"/>
+      <c r="AE39" s="36"/>
+      <c r="AF39" s="36"/>
+      <c r="AG39" s="36"/>
+      <c r="AH39" s="36"/>
+      <c r="AI39" s="36"/>
+      <c r="AJ39" s="36"/>
+      <c r="AK39" s="36"/>
+      <c r="AL39" s="36"/>
+      <c r="AM39" s="36"/>
+      <c r="AN39" s="36"/>
+      <c r="AO39" s="36"/>
+      <c r="AP39" s="36"/>
+      <c r="AQ39" s="36"/>
+      <c r="AR39" s="36"/>
+      <c r="AS39" s="36"/>
+      <c r="AT39" s="36"/>
+      <c r="AU39" s="36"/>
+      <c r="AV39" s="36"/>
+      <c r="AW39" s="36"/>
+      <c r="AX39" s="36"/>
+      <c r="AY39" s="36"/>
+      <c r="AZ39" s="36"/>
+      <c r="BA39" s="36"/>
+      <c r="BB39" s="36"/>
+      <c r="BC39" s="36"/>
+      <c r="BD39" s="36"/>
+      <c r="BE39" s="36"/>
+      <c r="BF39" s="36"/>
+      <c r="BG39" s="36"/>
+      <c r="BH39" s="36"/>
+      <c r="BI39" s="36"/>
+      <c r="BJ39" s="36"/>
+      <c r="BK39" s="36"/>
+      <c r="BL39" s="17"/>
+      <c r="BM39" s="17"/>
+      <c r="BN39" s="17"/>
+      <c r="BO39" s="17"/>
+      <c r="BP39" s="9"/>
+      <c r="BQ39" s="9"/>
+      <c r="BR39" s="9"/>
+      <c r="BS39" s="9"/>
+      <c r="BT39" s="9"/>
+      <c r="BU39" s="9"/>
+      <c r="BV39" s="9"/>
+      <c r="BW39" s="9"/>
+      <c r="BX39" s="9"/>
+      <c r="BY39" s="9"/>
+      <c r="BZ39" s="9"/>
+      <c r="CA39" s="9"/>
+      <c r="CB39" s="9"/>
+      <c r="CC39" s="9"/>
+      <c r="CD39" s="9"/>
+      <c r="CE39" s="9"/>
+      <c r="CF39" s="10"/>
+      <c r="CG39" s="10"/>
+      <c r="CH39" s="10"/>
+      <c r="CI39" s="11"/>
       <c r="CJ39" s="1"/>
       <c r="CK39" s="1"/>
       <c r="CL39" s="1"/>
@@ -37944,8 +37980,2060 @@
       <c r="AMI39" s="1"/>
       <c r="AMJ39" s="1"/>
     </row>
+    <row r="40" spans="1:1024" ht="18" customHeight="1" thickBot="1">
+      <c r="A40" s="1"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="33"/>
+      <c r="O40" s="33"/>
+      <c r="P40" s="33"/>
+      <c r="Q40" s="33"/>
+      <c r="R40" s="33"/>
+      <c r="S40" s="33"/>
+      <c r="T40" s="33"/>
+      <c r="U40" s="33"/>
+      <c r="V40" s="33"/>
+      <c r="W40" s="33"/>
+      <c r="X40" s="33"/>
+      <c r="Y40" s="25"/>
+      <c r="Z40" s="33"/>
+      <c r="AA40" s="33"/>
+      <c r="AB40" s="33"/>
+      <c r="AC40" s="33"/>
+      <c r="AD40" s="33"/>
+      <c r="AE40" s="33"/>
+      <c r="AF40" s="33"/>
+      <c r="AG40" s="33"/>
+      <c r="AH40" s="33"/>
+      <c r="AI40" s="33"/>
+      <c r="AJ40" s="33"/>
+      <c r="AK40" s="33"/>
+      <c r="AL40" s="33"/>
+      <c r="AM40" s="33"/>
+      <c r="AN40" s="33"/>
+      <c r="AO40" s="33"/>
+      <c r="AP40" s="33"/>
+      <c r="AQ40" s="33"/>
+      <c r="AR40" s="33"/>
+      <c r="AS40" s="33"/>
+      <c r="AT40" s="33"/>
+      <c r="AU40" s="33"/>
+      <c r="AV40" s="33"/>
+      <c r="AW40" s="33"/>
+      <c r="AX40" s="33"/>
+      <c r="AY40" s="33"/>
+      <c r="AZ40" s="33"/>
+      <c r="BA40" s="33"/>
+      <c r="BB40" s="33"/>
+      <c r="BC40" s="33"/>
+      <c r="BD40" s="33"/>
+      <c r="BE40" s="33"/>
+      <c r="BF40" s="33"/>
+      <c r="BG40" s="33"/>
+      <c r="BH40" s="33"/>
+      <c r="BI40" s="33"/>
+      <c r="BJ40" s="33"/>
+      <c r="BK40" s="33"/>
+      <c r="BL40" s="25"/>
+      <c r="BM40" s="25"/>
+      <c r="BN40" s="25"/>
+      <c r="BO40" s="25"/>
+      <c r="BP40" s="25"/>
+      <c r="BQ40" s="25"/>
+      <c r="BR40" s="25"/>
+      <c r="BS40" s="25"/>
+      <c r="BT40" s="13"/>
+      <c r="BU40" s="13"/>
+      <c r="BV40" s="13"/>
+      <c r="BW40" s="13"/>
+      <c r="BX40" s="13"/>
+      <c r="BY40" s="13"/>
+      <c r="BZ40" s="13"/>
+      <c r="CA40" s="13"/>
+      <c r="CB40" s="13"/>
+      <c r="CC40" s="13"/>
+      <c r="CD40" s="13"/>
+      <c r="CE40" s="13"/>
+      <c r="CF40" s="14"/>
+      <c r="CG40" s="14"/>
+      <c r="CH40" s="14"/>
+      <c r="CI40" s="15"/>
+      <c r="CJ40" s="1"/>
+      <c r="CK40" s="1"/>
+      <c r="CL40" s="1"/>
+      <c r="CM40" s="1"/>
+      <c r="CN40" s="1"/>
+      <c r="CO40" s="1"/>
+      <c r="CP40" s="1"/>
+      <c r="CQ40" s="1"/>
+      <c r="CR40" s="1"/>
+      <c r="CS40" s="1"/>
+      <c r="CT40" s="1"/>
+      <c r="CU40" s="1"/>
+      <c r="CV40" s="1"/>
+      <c r="CW40" s="1"/>
+      <c r="CX40" s="1"/>
+      <c r="CY40" s="1"/>
+      <c r="CZ40" s="1"/>
+      <c r="DA40" s="1"/>
+      <c r="DB40" s="1"/>
+      <c r="DC40" s="1"/>
+      <c r="DD40" s="1"/>
+      <c r="DE40" s="1"/>
+      <c r="DF40" s="1"/>
+      <c r="DG40" s="1"/>
+      <c r="DH40" s="1"/>
+      <c r="DI40" s="1"/>
+      <c r="DJ40" s="1"/>
+      <c r="DK40" s="1"/>
+      <c r="DL40" s="1"/>
+      <c r="DM40" s="1"/>
+      <c r="DN40" s="1"/>
+      <c r="DO40" s="1"/>
+      <c r="DP40" s="1"/>
+      <c r="DQ40" s="1"/>
+      <c r="DR40" s="1"/>
+      <c r="DS40" s="1"/>
+      <c r="DT40" s="1"/>
+      <c r="DU40" s="1"/>
+      <c r="DV40" s="1"/>
+      <c r="DW40" s="1"/>
+      <c r="DX40" s="1"/>
+      <c r="DY40" s="1"/>
+      <c r="DZ40" s="1"/>
+      <c r="EA40" s="1"/>
+      <c r="EB40" s="1"/>
+      <c r="EC40" s="1"/>
+      <c r="ED40" s="1"/>
+      <c r="EE40" s="1"/>
+      <c r="EF40" s="1"/>
+      <c r="EG40" s="1"/>
+      <c r="EH40" s="1"/>
+      <c r="EI40" s="1"/>
+      <c r="EJ40" s="1"/>
+      <c r="EK40" s="1"/>
+      <c r="EL40" s="1"/>
+      <c r="EM40" s="1"/>
+      <c r="EN40" s="1"/>
+      <c r="EO40" s="1"/>
+      <c r="EP40" s="1"/>
+      <c r="EQ40" s="1"/>
+      <c r="ER40" s="1"/>
+      <c r="ES40" s="1"/>
+      <c r="ET40" s="1"/>
+      <c r="EU40" s="1"/>
+      <c r="EV40" s="1"/>
+      <c r="EW40" s="1"/>
+      <c r="EX40" s="1"/>
+      <c r="EY40" s="1"/>
+      <c r="EZ40" s="1"/>
+      <c r="FA40" s="1"/>
+      <c r="FB40" s="1"/>
+      <c r="FC40" s="1"/>
+      <c r="FD40" s="1"/>
+      <c r="FE40" s="1"/>
+      <c r="FF40" s="1"/>
+      <c r="FG40" s="1"/>
+      <c r="FH40" s="1"/>
+      <c r="FI40" s="1"/>
+      <c r="FJ40" s="1"/>
+      <c r="FK40" s="1"/>
+      <c r="FL40" s="1"/>
+      <c r="FM40" s="1"/>
+      <c r="FN40" s="1"/>
+      <c r="FO40" s="1"/>
+      <c r="FP40" s="1"/>
+      <c r="FQ40" s="1"/>
+      <c r="FR40" s="1"/>
+      <c r="FS40" s="1"/>
+      <c r="FT40" s="1"/>
+      <c r="FU40" s="1"/>
+      <c r="FV40" s="1"/>
+      <c r="FW40" s="1"/>
+      <c r="FX40" s="1"/>
+      <c r="FY40" s="1"/>
+      <c r="FZ40" s="1"/>
+      <c r="GA40" s="1"/>
+      <c r="GB40" s="1"/>
+      <c r="GC40" s="1"/>
+      <c r="GD40" s="1"/>
+      <c r="GE40" s="1"/>
+      <c r="GF40" s="1"/>
+      <c r="GG40" s="1"/>
+      <c r="GH40" s="1"/>
+      <c r="GI40" s="1"/>
+      <c r="GJ40" s="1"/>
+      <c r="GK40" s="1"/>
+      <c r="GL40" s="1"/>
+      <c r="GM40" s="1"/>
+      <c r="GN40" s="1"/>
+      <c r="GO40" s="1"/>
+      <c r="GP40" s="1"/>
+      <c r="GQ40" s="1"/>
+      <c r="GR40" s="1"/>
+      <c r="GS40" s="1"/>
+      <c r="GT40" s="1"/>
+      <c r="GU40" s="1"/>
+      <c r="GV40" s="1"/>
+      <c r="GW40" s="1"/>
+      <c r="GX40" s="1"/>
+      <c r="GY40" s="1"/>
+      <c r="GZ40" s="1"/>
+      <c r="HA40" s="1"/>
+      <c r="HB40" s="1"/>
+      <c r="HC40" s="1"/>
+      <c r="HD40" s="1"/>
+      <c r="HE40" s="1"/>
+      <c r="HF40" s="1"/>
+      <c r="HG40" s="1"/>
+      <c r="HH40" s="1"/>
+      <c r="HI40" s="1"/>
+      <c r="HJ40" s="1"/>
+      <c r="HK40" s="1"/>
+      <c r="HL40" s="1"/>
+      <c r="HM40" s="1"/>
+      <c r="HN40" s="1"/>
+      <c r="HO40" s="1"/>
+      <c r="HP40" s="1"/>
+      <c r="HQ40" s="1"/>
+      <c r="HR40" s="1"/>
+      <c r="HS40" s="1"/>
+      <c r="HT40" s="1"/>
+      <c r="HU40" s="1"/>
+      <c r="HV40" s="1"/>
+      <c r="HW40" s="1"/>
+      <c r="HX40" s="1"/>
+      <c r="HY40" s="1"/>
+      <c r="HZ40" s="1"/>
+      <c r="IA40" s="1"/>
+      <c r="IB40" s="1"/>
+      <c r="IC40" s="1"/>
+      <c r="ID40" s="1"/>
+      <c r="IE40" s="1"/>
+      <c r="IF40" s="1"/>
+      <c r="IG40" s="1"/>
+      <c r="IH40" s="1"/>
+      <c r="II40" s="1"/>
+      <c r="IJ40" s="1"/>
+      <c r="IK40" s="1"/>
+      <c r="IL40" s="1"/>
+      <c r="IM40" s="1"/>
+      <c r="IN40" s="1"/>
+      <c r="IO40" s="1"/>
+      <c r="IP40" s="1"/>
+      <c r="IQ40" s="1"/>
+      <c r="IR40" s="1"/>
+      <c r="IS40" s="1"/>
+      <c r="IT40" s="1"/>
+      <c r="IU40" s="1"/>
+      <c r="IV40" s="1"/>
+      <c r="IW40" s="1"/>
+      <c r="IX40" s="1"/>
+      <c r="IY40" s="1"/>
+      <c r="IZ40" s="1"/>
+      <c r="JA40" s="1"/>
+      <c r="JB40" s="1"/>
+      <c r="JC40" s="1"/>
+      <c r="JD40" s="1"/>
+      <c r="JE40" s="1"/>
+      <c r="JF40" s="1"/>
+      <c r="JG40" s="1"/>
+      <c r="JH40" s="1"/>
+      <c r="JI40" s="1"/>
+      <c r="JJ40" s="1"/>
+      <c r="JK40" s="1"/>
+      <c r="JL40" s="1"/>
+      <c r="JM40" s="1"/>
+      <c r="JN40" s="1"/>
+      <c r="JO40" s="1"/>
+      <c r="JP40" s="1"/>
+      <c r="JQ40" s="1"/>
+      <c r="JR40" s="1"/>
+      <c r="JS40" s="1"/>
+      <c r="JT40" s="1"/>
+      <c r="JU40" s="1"/>
+      <c r="JV40" s="1"/>
+      <c r="JW40" s="1"/>
+      <c r="JX40" s="1"/>
+      <c r="JY40" s="1"/>
+      <c r="JZ40" s="1"/>
+      <c r="KA40" s="1"/>
+      <c r="KB40" s="1"/>
+      <c r="KC40" s="1"/>
+      <c r="KD40" s="1"/>
+      <c r="KE40" s="1"/>
+      <c r="KF40" s="1"/>
+      <c r="KG40" s="1"/>
+      <c r="KH40" s="1"/>
+      <c r="KI40" s="1"/>
+      <c r="KJ40" s="1"/>
+      <c r="KK40" s="1"/>
+      <c r="KL40" s="1"/>
+      <c r="KM40" s="1"/>
+      <c r="KN40" s="1"/>
+      <c r="KO40" s="1"/>
+      <c r="KP40" s="1"/>
+      <c r="KQ40" s="1"/>
+      <c r="KR40" s="1"/>
+      <c r="KS40" s="1"/>
+      <c r="KT40" s="1"/>
+      <c r="KU40" s="1"/>
+      <c r="KV40" s="1"/>
+      <c r="KW40" s="1"/>
+      <c r="KX40" s="1"/>
+      <c r="KY40" s="1"/>
+      <c r="KZ40" s="1"/>
+      <c r="LA40" s="1"/>
+      <c r="LB40" s="1"/>
+      <c r="LC40" s="1"/>
+      <c r="LD40" s="1"/>
+      <c r="LE40" s="1"/>
+      <c r="LF40" s="1"/>
+      <c r="LG40" s="1"/>
+      <c r="LH40" s="1"/>
+      <c r="LI40" s="1"/>
+      <c r="LJ40" s="1"/>
+      <c r="LK40" s="1"/>
+      <c r="LL40" s="1"/>
+      <c r="LM40" s="1"/>
+      <c r="LN40" s="1"/>
+      <c r="LO40" s="1"/>
+      <c r="LP40" s="1"/>
+      <c r="LQ40" s="1"/>
+      <c r="LR40" s="1"/>
+      <c r="LS40" s="1"/>
+      <c r="LT40" s="1"/>
+      <c r="LU40" s="1"/>
+      <c r="LV40" s="1"/>
+      <c r="LW40" s="1"/>
+      <c r="LX40" s="1"/>
+      <c r="LY40" s="1"/>
+      <c r="LZ40" s="1"/>
+      <c r="MA40" s="1"/>
+      <c r="MB40" s="1"/>
+      <c r="MC40" s="1"/>
+      <c r="MD40" s="1"/>
+      <c r="ME40" s="1"/>
+      <c r="MF40" s="1"/>
+      <c r="MG40" s="1"/>
+      <c r="MH40" s="1"/>
+      <c r="MI40" s="1"/>
+      <c r="MJ40" s="1"/>
+      <c r="MK40" s="1"/>
+      <c r="ML40" s="1"/>
+      <c r="MM40" s="1"/>
+      <c r="MN40" s="1"/>
+      <c r="MO40" s="1"/>
+      <c r="MP40" s="1"/>
+      <c r="MQ40" s="1"/>
+      <c r="MR40" s="1"/>
+      <c r="MS40" s="1"/>
+      <c r="MT40" s="1"/>
+      <c r="MU40" s="1"/>
+      <c r="MV40" s="1"/>
+      <c r="MW40" s="1"/>
+      <c r="MX40" s="1"/>
+      <c r="MY40" s="1"/>
+      <c r="MZ40" s="1"/>
+      <c r="NA40" s="1"/>
+      <c r="NB40" s="1"/>
+      <c r="NC40" s="1"/>
+      <c r="ND40" s="1"/>
+      <c r="NE40" s="1"/>
+      <c r="NF40" s="1"/>
+      <c r="NG40" s="1"/>
+      <c r="NH40" s="1"/>
+      <c r="NI40" s="1"/>
+      <c r="NJ40" s="1"/>
+      <c r="NK40" s="1"/>
+      <c r="NL40" s="1"/>
+      <c r="NM40" s="1"/>
+      <c r="NN40" s="1"/>
+      <c r="NO40" s="1"/>
+      <c r="NP40" s="1"/>
+      <c r="NQ40" s="1"/>
+      <c r="NR40" s="1"/>
+      <c r="NS40" s="1"/>
+      <c r="NT40" s="1"/>
+      <c r="NU40" s="1"/>
+      <c r="NV40" s="1"/>
+      <c r="NW40" s="1"/>
+      <c r="NX40" s="1"/>
+      <c r="NY40" s="1"/>
+      <c r="NZ40" s="1"/>
+      <c r="OA40" s="1"/>
+      <c r="OB40" s="1"/>
+      <c r="OC40" s="1"/>
+      <c r="OD40" s="1"/>
+      <c r="OE40" s="1"/>
+      <c r="OF40" s="1"/>
+      <c r="OG40" s="1"/>
+      <c r="OH40" s="1"/>
+      <c r="OI40" s="1"/>
+      <c r="OJ40" s="1"/>
+      <c r="OK40" s="1"/>
+      <c r="OL40" s="1"/>
+      <c r="OM40" s="1"/>
+      <c r="ON40" s="1"/>
+      <c r="OO40" s="1"/>
+      <c r="OP40" s="1"/>
+      <c r="OQ40" s="1"/>
+      <c r="OR40" s="1"/>
+      <c r="OS40" s="1"/>
+      <c r="OT40" s="1"/>
+      <c r="OU40" s="1"/>
+      <c r="OV40" s="1"/>
+      <c r="OW40" s="1"/>
+      <c r="OX40" s="1"/>
+      <c r="OY40" s="1"/>
+      <c r="OZ40" s="1"/>
+      <c r="PA40" s="1"/>
+      <c r="PB40" s="1"/>
+      <c r="PC40" s="1"/>
+      <c r="PD40" s="1"/>
+      <c r="PE40" s="1"/>
+      <c r="PF40" s="1"/>
+      <c r="PG40" s="1"/>
+      <c r="PH40" s="1"/>
+      <c r="PI40" s="1"/>
+      <c r="PJ40" s="1"/>
+      <c r="PK40" s="1"/>
+      <c r="PL40" s="1"/>
+      <c r="PM40" s="1"/>
+      <c r="PN40" s="1"/>
+      <c r="PO40" s="1"/>
+      <c r="PP40" s="1"/>
+      <c r="PQ40" s="1"/>
+      <c r="PR40" s="1"/>
+      <c r="PS40" s="1"/>
+      <c r="PT40" s="1"/>
+      <c r="PU40" s="1"/>
+      <c r="PV40" s="1"/>
+      <c r="PW40" s="1"/>
+      <c r="PX40" s="1"/>
+      <c r="PY40" s="1"/>
+      <c r="PZ40" s="1"/>
+      <c r="QA40" s="1"/>
+      <c r="QB40" s="1"/>
+      <c r="QC40" s="1"/>
+      <c r="QD40" s="1"/>
+      <c r="QE40" s="1"/>
+      <c r="QF40" s="1"/>
+      <c r="QG40" s="1"/>
+      <c r="QH40" s="1"/>
+      <c r="QI40" s="1"/>
+      <c r="QJ40" s="1"/>
+      <c r="QK40" s="1"/>
+      <c r="QL40" s="1"/>
+      <c r="QM40" s="1"/>
+      <c r="QN40" s="1"/>
+      <c r="QO40" s="1"/>
+      <c r="QP40" s="1"/>
+      <c r="QQ40" s="1"/>
+      <c r="QR40" s="1"/>
+      <c r="QS40" s="1"/>
+      <c r="QT40" s="1"/>
+      <c r="QU40" s="1"/>
+      <c r="QV40" s="1"/>
+      <c r="QW40" s="1"/>
+      <c r="QX40" s="1"/>
+      <c r="QY40" s="1"/>
+      <c r="QZ40" s="1"/>
+      <c r="RA40" s="1"/>
+      <c r="RB40" s="1"/>
+      <c r="RC40" s="1"/>
+      <c r="RD40" s="1"/>
+      <c r="RE40" s="1"/>
+      <c r="RF40" s="1"/>
+      <c r="RG40" s="1"/>
+      <c r="RH40" s="1"/>
+      <c r="RI40" s="1"/>
+      <c r="RJ40" s="1"/>
+      <c r="RK40" s="1"/>
+      <c r="RL40" s="1"/>
+      <c r="RM40" s="1"/>
+      <c r="RN40" s="1"/>
+      <c r="RO40" s="1"/>
+      <c r="RP40" s="1"/>
+      <c r="RQ40" s="1"/>
+      <c r="RR40" s="1"/>
+      <c r="RS40" s="1"/>
+      <c r="RT40" s="1"/>
+      <c r="RU40" s="1"/>
+      <c r="RV40" s="1"/>
+      <c r="RW40" s="1"/>
+      <c r="RX40" s="1"/>
+      <c r="RY40" s="1"/>
+      <c r="RZ40" s="1"/>
+      <c r="SA40" s="1"/>
+      <c r="SB40" s="1"/>
+      <c r="SC40" s="1"/>
+      <c r="SD40" s="1"/>
+      <c r="SE40" s="1"/>
+      <c r="SF40" s="1"/>
+      <c r="SG40" s="1"/>
+      <c r="SH40" s="1"/>
+      <c r="SI40" s="1"/>
+      <c r="SJ40" s="1"/>
+      <c r="SK40" s="1"/>
+      <c r="SL40" s="1"/>
+      <c r="SM40" s="1"/>
+      <c r="SN40" s="1"/>
+      <c r="SO40" s="1"/>
+      <c r="SP40" s="1"/>
+      <c r="SQ40" s="1"/>
+      <c r="SR40" s="1"/>
+      <c r="SS40" s="1"/>
+      <c r="ST40" s="1"/>
+      <c r="SU40" s="1"/>
+      <c r="SV40" s="1"/>
+      <c r="SW40" s="1"/>
+      <c r="SX40" s="1"/>
+      <c r="SY40" s="1"/>
+      <c r="SZ40" s="1"/>
+      <c r="TA40" s="1"/>
+      <c r="TB40" s="1"/>
+      <c r="TC40" s="1"/>
+      <c r="TD40" s="1"/>
+      <c r="TE40" s="1"/>
+      <c r="TF40" s="1"/>
+      <c r="TG40" s="1"/>
+      <c r="TH40" s="1"/>
+      <c r="TI40" s="1"/>
+      <c r="TJ40" s="1"/>
+      <c r="TK40" s="1"/>
+      <c r="TL40" s="1"/>
+      <c r="TM40" s="1"/>
+      <c r="TN40" s="1"/>
+      <c r="TO40" s="1"/>
+      <c r="TP40" s="1"/>
+      <c r="TQ40" s="1"/>
+      <c r="TR40" s="1"/>
+      <c r="TS40" s="1"/>
+      <c r="TT40" s="1"/>
+      <c r="TU40" s="1"/>
+      <c r="TV40" s="1"/>
+      <c r="TW40" s="1"/>
+      <c r="TX40" s="1"/>
+      <c r="TY40" s="1"/>
+      <c r="TZ40" s="1"/>
+      <c r="UA40" s="1"/>
+      <c r="UB40" s="1"/>
+      <c r="UC40" s="1"/>
+      <c r="UD40" s="1"/>
+      <c r="UE40" s="1"/>
+      <c r="UF40" s="1"/>
+      <c r="UG40" s="1"/>
+      <c r="UH40" s="1"/>
+      <c r="UI40" s="1"/>
+      <c r="UJ40" s="1"/>
+      <c r="UK40" s="1"/>
+      <c r="UL40" s="1"/>
+      <c r="UM40" s="1"/>
+      <c r="UN40" s="1"/>
+      <c r="UO40" s="1"/>
+      <c r="UP40" s="1"/>
+      <c r="UQ40" s="1"/>
+      <c r="UR40" s="1"/>
+      <c r="US40" s="1"/>
+      <c r="UT40" s="1"/>
+      <c r="UU40" s="1"/>
+      <c r="UV40" s="1"/>
+      <c r="UW40" s="1"/>
+      <c r="UX40" s="1"/>
+      <c r="UY40" s="1"/>
+      <c r="UZ40" s="1"/>
+      <c r="VA40" s="1"/>
+      <c r="VB40" s="1"/>
+      <c r="VC40" s="1"/>
+      <c r="VD40" s="1"/>
+      <c r="VE40" s="1"/>
+      <c r="VF40" s="1"/>
+      <c r="VG40" s="1"/>
+      <c r="VH40" s="1"/>
+      <c r="VI40" s="1"/>
+      <c r="VJ40" s="1"/>
+      <c r="VK40" s="1"/>
+      <c r="VL40" s="1"/>
+      <c r="VM40" s="1"/>
+      <c r="VN40" s="1"/>
+      <c r="VO40" s="1"/>
+      <c r="VP40" s="1"/>
+      <c r="VQ40" s="1"/>
+      <c r="VR40" s="1"/>
+      <c r="VS40" s="1"/>
+      <c r="VT40" s="1"/>
+      <c r="VU40" s="1"/>
+      <c r="VV40" s="1"/>
+      <c r="VW40" s="1"/>
+      <c r="VX40" s="1"/>
+      <c r="VY40" s="1"/>
+      <c r="VZ40" s="1"/>
+      <c r="WA40" s="1"/>
+      <c r="WB40" s="1"/>
+      <c r="WC40" s="1"/>
+      <c r="WD40" s="1"/>
+      <c r="WE40" s="1"/>
+      <c r="WF40" s="1"/>
+      <c r="WG40" s="1"/>
+      <c r="WH40" s="1"/>
+      <c r="WI40" s="1"/>
+      <c r="WJ40" s="1"/>
+      <c r="WK40" s="1"/>
+      <c r="WL40" s="1"/>
+      <c r="WM40" s="1"/>
+      <c r="WN40" s="1"/>
+      <c r="WO40" s="1"/>
+      <c r="WP40" s="1"/>
+      <c r="WQ40" s="1"/>
+      <c r="WR40" s="1"/>
+      <c r="WS40" s="1"/>
+      <c r="WT40" s="1"/>
+      <c r="WU40" s="1"/>
+      <c r="WV40" s="1"/>
+      <c r="WW40" s="1"/>
+      <c r="WX40" s="1"/>
+      <c r="WY40" s="1"/>
+      <c r="WZ40" s="1"/>
+      <c r="XA40" s="1"/>
+      <c r="XB40" s="1"/>
+      <c r="XC40" s="1"/>
+      <c r="XD40" s="1"/>
+      <c r="XE40" s="1"/>
+      <c r="XF40" s="1"/>
+      <c r="XG40" s="1"/>
+      <c r="XH40" s="1"/>
+      <c r="XI40" s="1"/>
+      <c r="XJ40" s="1"/>
+      <c r="XK40" s="1"/>
+      <c r="XL40" s="1"/>
+      <c r="XM40" s="1"/>
+      <c r="XN40" s="1"/>
+      <c r="XO40" s="1"/>
+      <c r="XP40" s="1"/>
+      <c r="XQ40" s="1"/>
+      <c r="XR40" s="1"/>
+      <c r="XS40" s="1"/>
+      <c r="XT40" s="1"/>
+      <c r="XU40" s="1"/>
+      <c r="XV40" s="1"/>
+      <c r="XW40" s="1"/>
+      <c r="XX40" s="1"/>
+      <c r="XY40" s="1"/>
+      <c r="XZ40" s="1"/>
+      <c r="YA40" s="1"/>
+      <c r="YB40" s="1"/>
+      <c r="YC40" s="1"/>
+      <c r="YD40" s="1"/>
+      <c r="YE40" s="1"/>
+      <c r="YF40" s="1"/>
+      <c r="YG40" s="1"/>
+      <c r="YH40" s="1"/>
+      <c r="YI40" s="1"/>
+      <c r="YJ40" s="1"/>
+      <c r="YK40" s="1"/>
+      <c r="YL40" s="1"/>
+      <c r="YM40" s="1"/>
+      <c r="YN40" s="1"/>
+      <c r="YO40" s="1"/>
+      <c r="YP40" s="1"/>
+      <c r="YQ40" s="1"/>
+      <c r="YR40" s="1"/>
+      <c r="YS40" s="1"/>
+      <c r="YT40" s="1"/>
+      <c r="YU40" s="1"/>
+      <c r="YV40" s="1"/>
+      <c r="YW40" s="1"/>
+      <c r="YX40" s="1"/>
+      <c r="YY40" s="1"/>
+      <c r="YZ40" s="1"/>
+      <c r="ZA40" s="1"/>
+      <c r="ZB40" s="1"/>
+      <c r="ZC40" s="1"/>
+      <c r="ZD40" s="1"/>
+      <c r="ZE40" s="1"/>
+      <c r="ZF40" s="1"/>
+      <c r="ZG40" s="1"/>
+      <c r="ZH40" s="1"/>
+      <c r="ZI40" s="1"/>
+      <c r="ZJ40" s="1"/>
+      <c r="ZK40" s="1"/>
+      <c r="ZL40" s="1"/>
+      <c r="ZM40" s="1"/>
+      <c r="ZN40" s="1"/>
+      <c r="ZO40" s="1"/>
+      <c r="ZP40" s="1"/>
+      <c r="ZQ40" s="1"/>
+      <c r="ZR40" s="1"/>
+      <c r="ZS40" s="1"/>
+      <c r="ZT40" s="1"/>
+      <c r="ZU40" s="1"/>
+      <c r="ZV40" s="1"/>
+      <c r="ZW40" s="1"/>
+      <c r="ZX40" s="1"/>
+      <c r="ZY40" s="1"/>
+      <c r="ZZ40" s="1"/>
+      <c r="AAA40" s="1"/>
+      <c r="AAB40" s="1"/>
+      <c r="AAC40" s="1"/>
+      <c r="AAD40" s="1"/>
+      <c r="AAE40" s="1"/>
+      <c r="AAF40" s="1"/>
+      <c r="AAG40" s="1"/>
+      <c r="AAH40" s="1"/>
+      <c r="AAI40" s="1"/>
+      <c r="AAJ40" s="1"/>
+      <c r="AAK40" s="1"/>
+      <c r="AAL40" s="1"/>
+      <c r="AAM40" s="1"/>
+      <c r="AAN40" s="1"/>
+      <c r="AAO40" s="1"/>
+      <c r="AAP40" s="1"/>
+      <c r="AAQ40" s="1"/>
+      <c r="AAR40" s="1"/>
+      <c r="AAS40" s="1"/>
+      <c r="AAT40" s="1"/>
+      <c r="AAU40" s="1"/>
+      <c r="AAV40" s="1"/>
+      <c r="AAW40" s="1"/>
+      <c r="AAX40" s="1"/>
+      <c r="AAY40" s="1"/>
+      <c r="AAZ40" s="1"/>
+      <c r="ABA40" s="1"/>
+      <c r="ABB40" s="1"/>
+      <c r="ABC40" s="1"/>
+      <c r="ABD40" s="1"/>
+      <c r="ABE40" s="1"/>
+      <c r="ABF40" s="1"/>
+      <c r="ABG40" s="1"/>
+      <c r="ABH40" s="1"/>
+      <c r="ABI40" s="1"/>
+      <c r="ABJ40" s="1"/>
+      <c r="ABK40" s="1"/>
+      <c r="ABL40" s="1"/>
+      <c r="ABM40" s="1"/>
+      <c r="ABN40" s="1"/>
+      <c r="ABO40" s="1"/>
+      <c r="ABP40" s="1"/>
+      <c r="ABQ40" s="1"/>
+      <c r="ABR40" s="1"/>
+      <c r="ABS40" s="1"/>
+      <c r="ABT40" s="1"/>
+      <c r="ABU40" s="1"/>
+      <c r="ABV40" s="1"/>
+      <c r="ABW40" s="1"/>
+      <c r="ABX40" s="1"/>
+      <c r="ABY40" s="1"/>
+      <c r="ABZ40" s="1"/>
+      <c r="ACA40" s="1"/>
+      <c r="ACB40" s="1"/>
+      <c r="ACC40" s="1"/>
+      <c r="ACD40" s="1"/>
+      <c r="ACE40" s="1"/>
+      <c r="ACF40" s="1"/>
+      <c r="ACG40" s="1"/>
+      <c r="ACH40" s="1"/>
+      <c r="ACI40" s="1"/>
+      <c r="ACJ40" s="1"/>
+      <c r="ACK40" s="1"/>
+      <c r="ACL40" s="1"/>
+      <c r="ACM40" s="1"/>
+      <c r="ACN40" s="1"/>
+      <c r="ACO40" s="1"/>
+      <c r="ACP40" s="1"/>
+      <c r="ACQ40" s="1"/>
+      <c r="ACR40" s="1"/>
+      <c r="ACS40" s="1"/>
+      <c r="ACT40" s="1"/>
+      <c r="ACU40" s="1"/>
+      <c r="ACV40" s="1"/>
+      <c r="ACW40" s="1"/>
+      <c r="ACX40" s="1"/>
+      <c r="ACY40" s="1"/>
+      <c r="ACZ40" s="1"/>
+      <c r="ADA40" s="1"/>
+      <c r="ADB40" s="1"/>
+      <c r="ADC40" s="1"/>
+      <c r="ADD40" s="1"/>
+      <c r="ADE40" s="1"/>
+      <c r="ADF40" s="1"/>
+      <c r="ADG40" s="1"/>
+      <c r="ADH40" s="1"/>
+      <c r="ADI40" s="1"/>
+      <c r="ADJ40" s="1"/>
+      <c r="ADK40" s="1"/>
+      <c r="ADL40" s="1"/>
+      <c r="ADM40" s="1"/>
+      <c r="ADN40" s="1"/>
+      <c r="ADO40" s="1"/>
+      <c r="ADP40" s="1"/>
+      <c r="ADQ40" s="1"/>
+      <c r="ADR40" s="1"/>
+      <c r="ADS40" s="1"/>
+      <c r="ADT40" s="1"/>
+      <c r="ADU40" s="1"/>
+      <c r="ADV40" s="1"/>
+      <c r="ADW40" s="1"/>
+      <c r="ADX40" s="1"/>
+      <c r="ADY40" s="1"/>
+      <c r="ADZ40" s="1"/>
+      <c r="AEA40" s="1"/>
+      <c r="AEB40" s="1"/>
+      <c r="AEC40" s="1"/>
+      <c r="AED40" s="1"/>
+      <c r="AEE40" s="1"/>
+      <c r="AEF40" s="1"/>
+      <c r="AEG40" s="1"/>
+      <c r="AEH40" s="1"/>
+      <c r="AEI40" s="1"/>
+      <c r="AEJ40" s="1"/>
+      <c r="AEK40" s="1"/>
+      <c r="AEL40" s="1"/>
+      <c r="AEM40" s="1"/>
+      <c r="AEN40" s="1"/>
+      <c r="AEO40" s="1"/>
+      <c r="AEP40" s="1"/>
+      <c r="AEQ40" s="1"/>
+      <c r="AER40" s="1"/>
+      <c r="AES40" s="1"/>
+      <c r="AET40" s="1"/>
+      <c r="AEU40" s="1"/>
+      <c r="AEV40" s="1"/>
+      <c r="AEW40" s="1"/>
+      <c r="AEX40" s="1"/>
+      <c r="AEY40" s="1"/>
+      <c r="AEZ40" s="1"/>
+      <c r="AFA40" s="1"/>
+      <c r="AFB40" s="1"/>
+      <c r="AFC40" s="1"/>
+      <c r="AFD40" s="1"/>
+      <c r="AFE40" s="1"/>
+      <c r="AFF40" s="1"/>
+      <c r="AFG40" s="1"/>
+      <c r="AFH40" s="1"/>
+      <c r="AFI40" s="1"/>
+      <c r="AFJ40" s="1"/>
+      <c r="AFK40" s="1"/>
+      <c r="AFL40" s="1"/>
+      <c r="AFM40" s="1"/>
+      <c r="AFN40" s="1"/>
+      <c r="AFO40" s="1"/>
+      <c r="AFP40" s="1"/>
+      <c r="AFQ40" s="1"/>
+      <c r="AFR40" s="1"/>
+      <c r="AFS40" s="1"/>
+      <c r="AFT40" s="1"/>
+      <c r="AFU40" s="1"/>
+      <c r="AFV40" s="1"/>
+      <c r="AFW40" s="1"/>
+      <c r="AFX40" s="1"/>
+      <c r="AFY40" s="1"/>
+      <c r="AFZ40" s="1"/>
+      <c r="AGA40" s="1"/>
+      <c r="AGB40" s="1"/>
+      <c r="AGC40" s="1"/>
+      <c r="AGD40" s="1"/>
+      <c r="AGE40" s="1"/>
+      <c r="AGF40" s="1"/>
+      <c r="AGG40" s="1"/>
+      <c r="AGH40" s="1"/>
+      <c r="AGI40" s="1"/>
+      <c r="AGJ40" s="1"/>
+      <c r="AGK40" s="1"/>
+      <c r="AGL40" s="1"/>
+      <c r="AGM40" s="1"/>
+      <c r="AGN40" s="1"/>
+      <c r="AGO40" s="1"/>
+      <c r="AGP40" s="1"/>
+      <c r="AGQ40" s="1"/>
+      <c r="AGR40" s="1"/>
+      <c r="AGS40" s="1"/>
+      <c r="AGT40" s="1"/>
+      <c r="AGU40" s="1"/>
+      <c r="AGV40" s="1"/>
+      <c r="AGW40" s="1"/>
+      <c r="AGX40" s="1"/>
+      <c r="AGY40" s="1"/>
+      <c r="AGZ40" s="1"/>
+      <c r="AHA40" s="1"/>
+      <c r="AHB40" s="1"/>
+      <c r="AHC40" s="1"/>
+      <c r="AHD40" s="1"/>
+      <c r="AHE40" s="1"/>
+      <c r="AHF40" s="1"/>
+      <c r="AHG40" s="1"/>
+      <c r="AHH40" s="1"/>
+      <c r="AHI40" s="1"/>
+      <c r="AHJ40" s="1"/>
+      <c r="AHK40" s="1"/>
+      <c r="AHL40" s="1"/>
+      <c r="AHM40" s="1"/>
+      <c r="AHN40" s="1"/>
+      <c r="AHO40" s="1"/>
+      <c r="AHP40" s="1"/>
+      <c r="AHQ40" s="1"/>
+      <c r="AHR40" s="1"/>
+      <c r="AHS40" s="1"/>
+      <c r="AHT40" s="1"/>
+      <c r="AHU40" s="1"/>
+      <c r="AHV40" s="1"/>
+      <c r="AHW40" s="1"/>
+      <c r="AHX40" s="1"/>
+      <c r="AHY40" s="1"/>
+      <c r="AHZ40" s="1"/>
+      <c r="AIA40" s="1"/>
+      <c r="AIB40" s="1"/>
+      <c r="AIC40" s="1"/>
+      <c r="AID40" s="1"/>
+      <c r="AIE40" s="1"/>
+      <c r="AIF40" s="1"/>
+      <c r="AIG40" s="1"/>
+      <c r="AIH40" s="1"/>
+      <c r="AII40" s="1"/>
+      <c r="AIJ40" s="1"/>
+      <c r="AIK40" s="1"/>
+      <c r="AIL40" s="1"/>
+      <c r="AIM40" s="1"/>
+      <c r="AIN40" s="1"/>
+      <c r="AIO40" s="1"/>
+      <c r="AIP40" s="1"/>
+      <c r="AIQ40" s="1"/>
+      <c r="AIR40" s="1"/>
+      <c r="AIS40" s="1"/>
+      <c r="AIT40" s="1"/>
+      <c r="AIU40" s="1"/>
+      <c r="AIV40" s="1"/>
+      <c r="AIW40" s="1"/>
+      <c r="AIX40" s="1"/>
+      <c r="AIY40" s="1"/>
+      <c r="AIZ40" s="1"/>
+      <c r="AJA40" s="1"/>
+      <c r="AJB40" s="1"/>
+      <c r="AJC40" s="1"/>
+      <c r="AJD40" s="1"/>
+      <c r="AJE40" s="1"/>
+      <c r="AJF40" s="1"/>
+      <c r="AJG40" s="1"/>
+      <c r="AJH40" s="1"/>
+      <c r="AJI40" s="1"/>
+      <c r="AJJ40" s="1"/>
+      <c r="AJK40" s="1"/>
+      <c r="AJL40" s="1"/>
+      <c r="AJM40" s="1"/>
+      <c r="AJN40" s="1"/>
+      <c r="AJO40" s="1"/>
+      <c r="AJP40" s="1"/>
+      <c r="AJQ40" s="1"/>
+      <c r="AJR40" s="1"/>
+      <c r="AJS40" s="1"/>
+      <c r="AJT40" s="1"/>
+      <c r="AJU40" s="1"/>
+      <c r="AJV40" s="1"/>
+      <c r="AJW40" s="1"/>
+      <c r="AJX40" s="1"/>
+      <c r="AJY40" s="1"/>
+      <c r="AJZ40" s="1"/>
+      <c r="AKA40" s="1"/>
+      <c r="AKB40" s="1"/>
+      <c r="AKC40" s="1"/>
+      <c r="AKD40" s="1"/>
+      <c r="AKE40" s="1"/>
+      <c r="AKF40" s="1"/>
+      <c r="AKG40" s="1"/>
+      <c r="AKH40" s="1"/>
+      <c r="AKI40" s="1"/>
+      <c r="AKJ40" s="1"/>
+      <c r="AKK40" s="1"/>
+      <c r="AKL40" s="1"/>
+      <c r="AKM40" s="1"/>
+      <c r="AKN40" s="1"/>
+      <c r="AKO40" s="1"/>
+      <c r="AKP40" s="1"/>
+      <c r="AKQ40" s="1"/>
+      <c r="AKR40" s="1"/>
+      <c r="AKS40" s="1"/>
+      <c r="AKT40" s="1"/>
+      <c r="AKU40" s="1"/>
+      <c r="AKV40" s="1"/>
+      <c r="AKW40" s="1"/>
+      <c r="AKX40" s="1"/>
+      <c r="AKY40" s="1"/>
+      <c r="AKZ40" s="1"/>
+      <c r="ALA40" s="1"/>
+      <c r="ALB40" s="1"/>
+      <c r="ALC40" s="1"/>
+      <c r="ALD40" s="1"/>
+      <c r="ALE40" s="1"/>
+      <c r="ALF40" s="1"/>
+      <c r="ALG40" s="1"/>
+      <c r="ALH40" s="1"/>
+      <c r="ALI40" s="1"/>
+      <c r="ALJ40" s="1"/>
+      <c r="ALK40" s="1"/>
+      <c r="ALL40" s="1"/>
+      <c r="ALM40" s="1"/>
+      <c r="ALN40" s="1"/>
+      <c r="ALO40" s="1"/>
+      <c r="ALP40" s="1"/>
+      <c r="ALQ40" s="1"/>
+      <c r="ALR40" s="1"/>
+      <c r="ALS40" s="1"/>
+      <c r="ALT40" s="1"/>
+      <c r="ALU40" s="1"/>
+      <c r="ALV40" s="1"/>
+      <c r="ALW40" s="1"/>
+      <c r="ALX40" s="1"/>
+      <c r="ALY40" s="1"/>
+      <c r="ALZ40" s="1"/>
+      <c r="AMA40" s="1"/>
+      <c r="AMB40" s="1"/>
+      <c r="AMC40" s="1"/>
+      <c r="AMD40" s="1"/>
+      <c r="AME40" s="1"/>
+      <c r="AMF40" s="1"/>
+      <c r="AMG40" s="1"/>
+      <c r="AMH40" s="1"/>
+      <c r="AMI40" s="1"/>
+      <c r="AMJ40" s="1"/>
+    </row>
+    <row r="41" spans="1:1024" ht="18" customHeight="1">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
+      <c r="AG41" s="1"/>
+      <c r="AH41" s="1"/>
+      <c r="AI41" s="1"/>
+      <c r="AJ41" s="1"/>
+      <c r="AK41" s="1"/>
+      <c r="AL41" s="1"/>
+      <c r="AM41" s="1"/>
+      <c r="AN41" s="1"/>
+      <c r="AO41" s="1"/>
+      <c r="AP41" s="1"/>
+      <c r="AQ41" s="1"/>
+      <c r="AR41" s="1"/>
+      <c r="AS41" s="1"/>
+      <c r="AT41" s="1"/>
+      <c r="AU41" s="1"/>
+      <c r="AV41" s="1"/>
+      <c r="AW41" s="1"/>
+      <c r="AX41" s="1"/>
+      <c r="AY41" s="1"/>
+      <c r="AZ41" s="1"/>
+      <c r="BA41" s="1"/>
+      <c r="BB41" s="1"/>
+      <c r="BC41" s="1"/>
+      <c r="BD41" s="1"/>
+      <c r="BE41" s="1"/>
+      <c r="BF41" s="1"/>
+      <c r="BG41" s="1"/>
+      <c r="BH41" s="1"/>
+      <c r="BI41" s="1"/>
+      <c r="BJ41" s="1"/>
+      <c r="BK41" s="1"/>
+      <c r="BL41" s="1"/>
+      <c r="BM41" s="1"/>
+      <c r="BN41" s="1"/>
+      <c r="BO41" s="1"/>
+      <c r="BP41" s="1"/>
+      <c r="BQ41" s="1"/>
+      <c r="BR41" s="1"/>
+      <c r="BS41" s="1"/>
+      <c r="BT41" s="1"/>
+      <c r="BU41" s="1"/>
+      <c r="BV41" s="1"/>
+      <c r="BW41" s="1"/>
+      <c r="BX41" s="1"/>
+      <c r="BY41" s="1"/>
+      <c r="BZ41" s="1"/>
+      <c r="CA41" s="1"/>
+      <c r="CB41" s="1"/>
+      <c r="CC41" s="1"/>
+      <c r="CD41" s="1"/>
+      <c r="CE41" s="1"/>
+      <c r="CF41" s="1"/>
+      <c r="CG41" s="1"/>
+      <c r="CH41" s="1"/>
+      <c r="CI41" s="1"/>
+      <c r="CJ41" s="1"/>
+      <c r="CK41" s="1"/>
+      <c r="CL41" s="1"/>
+      <c r="CM41" s="1"/>
+      <c r="CN41" s="1"/>
+      <c r="CO41" s="1"/>
+      <c r="CP41" s="1"/>
+      <c r="CQ41" s="1"/>
+      <c r="CR41" s="1"/>
+      <c r="CS41" s="1"/>
+      <c r="CT41" s="1"/>
+      <c r="CU41" s="1"/>
+      <c r="CV41" s="1"/>
+      <c r="CW41" s="1"/>
+      <c r="CX41" s="1"/>
+      <c r="CY41" s="1"/>
+      <c r="CZ41" s="1"/>
+      <c r="DA41" s="1"/>
+      <c r="DB41" s="1"/>
+      <c r="DC41" s="1"/>
+      <c r="DD41" s="1"/>
+      <c r="DE41" s="1"/>
+      <c r="DF41" s="1"/>
+      <c r="DG41" s="1"/>
+      <c r="DH41" s="1"/>
+      <c r="DI41" s="1"/>
+      <c r="DJ41" s="1"/>
+      <c r="DK41" s="1"/>
+      <c r="DL41" s="1"/>
+      <c r="DM41" s="1"/>
+      <c r="DN41" s="1"/>
+      <c r="DO41" s="1"/>
+      <c r="DP41" s="1"/>
+      <c r="DQ41" s="1"/>
+      <c r="DR41" s="1"/>
+      <c r="DS41" s="1"/>
+      <c r="DT41" s="1"/>
+      <c r="DU41" s="1"/>
+      <c r="DV41" s="1"/>
+      <c r="DW41" s="1"/>
+      <c r="DX41" s="1"/>
+      <c r="DY41" s="1"/>
+      <c r="DZ41" s="1"/>
+      <c r="EA41" s="1"/>
+      <c r="EB41" s="1"/>
+      <c r="EC41" s="1"/>
+      <c r="ED41" s="1"/>
+      <c r="EE41" s="1"/>
+      <c r="EF41" s="1"/>
+      <c r="EG41" s="1"/>
+      <c r="EH41" s="1"/>
+      <c r="EI41" s="1"/>
+      <c r="EJ41" s="1"/>
+      <c r="EK41" s="1"/>
+      <c r="EL41" s="1"/>
+      <c r="EM41" s="1"/>
+      <c r="EN41" s="1"/>
+      <c r="EO41" s="1"/>
+      <c r="EP41" s="1"/>
+      <c r="EQ41" s="1"/>
+      <c r="ER41" s="1"/>
+      <c r="ES41" s="1"/>
+      <c r="ET41" s="1"/>
+      <c r="EU41" s="1"/>
+      <c r="EV41" s="1"/>
+      <c r="EW41" s="1"/>
+      <c r="EX41" s="1"/>
+      <c r="EY41" s="1"/>
+      <c r="EZ41" s="1"/>
+      <c r="FA41" s="1"/>
+      <c r="FB41" s="1"/>
+      <c r="FC41" s="1"/>
+      <c r="FD41" s="1"/>
+      <c r="FE41" s="1"/>
+      <c r="FF41" s="1"/>
+      <c r="FG41" s="1"/>
+      <c r="FH41" s="1"/>
+      <c r="FI41" s="1"/>
+      <c r="FJ41" s="1"/>
+      <c r="FK41" s="1"/>
+      <c r="FL41" s="1"/>
+      <c r="FM41" s="1"/>
+      <c r="FN41" s="1"/>
+      <c r="FO41" s="1"/>
+      <c r="FP41" s="1"/>
+      <c r="FQ41" s="1"/>
+      <c r="FR41" s="1"/>
+      <c r="FS41" s="1"/>
+      <c r="FT41" s="1"/>
+      <c r="FU41" s="1"/>
+      <c r="FV41" s="1"/>
+      <c r="FW41" s="1"/>
+      <c r="FX41" s="1"/>
+      <c r="FY41" s="1"/>
+      <c r="FZ41" s="1"/>
+      <c r="GA41" s="1"/>
+      <c r="GB41" s="1"/>
+      <c r="GC41" s="1"/>
+      <c r="GD41" s="1"/>
+      <c r="GE41" s="1"/>
+      <c r="GF41" s="1"/>
+      <c r="GG41" s="1"/>
+      <c r="GH41" s="1"/>
+      <c r="GI41" s="1"/>
+      <c r="GJ41" s="1"/>
+      <c r="GK41" s="1"/>
+      <c r="GL41" s="1"/>
+      <c r="GM41" s="1"/>
+      <c r="GN41" s="1"/>
+      <c r="GO41" s="1"/>
+      <c r="GP41" s="1"/>
+      <c r="GQ41" s="1"/>
+      <c r="GR41" s="1"/>
+      <c r="GS41" s="1"/>
+      <c r="GT41" s="1"/>
+      <c r="GU41" s="1"/>
+      <c r="GV41" s="1"/>
+      <c r="GW41" s="1"/>
+      <c r="GX41" s="1"/>
+      <c r="GY41" s="1"/>
+      <c r="GZ41" s="1"/>
+      <c r="HA41" s="1"/>
+      <c r="HB41" s="1"/>
+      <c r="HC41" s="1"/>
+      <c r="HD41" s="1"/>
+      <c r="HE41" s="1"/>
+      <c r="HF41" s="1"/>
+      <c r="HG41" s="1"/>
+      <c r="HH41" s="1"/>
+      <c r="HI41" s="1"/>
+      <c r="HJ41" s="1"/>
+      <c r="HK41" s="1"/>
+      <c r="HL41" s="1"/>
+      <c r="HM41" s="1"/>
+      <c r="HN41" s="1"/>
+      <c r="HO41" s="1"/>
+      <c r="HP41" s="1"/>
+      <c r="HQ41" s="1"/>
+      <c r="HR41" s="1"/>
+      <c r="HS41" s="1"/>
+      <c r="HT41" s="1"/>
+      <c r="HU41" s="1"/>
+      <c r="HV41" s="1"/>
+      <c r="HW41" s="1"/>
+      <c r="HX41" s="1"/>
+      <c r="HY41" s="1"/>
+      <c r="HZ41" s="1"/>
+      <c r="IA41" s="1"/>
+      <c r="IB41" s="1"/>
+      <c r="IC41" s="1"/>
+      <c r="ID41" s="1"/>
+      <c r="IE41" s="1"/>
+      <c r="IF41" s="1"/>
+      <c r="IG41" s="1"/>
+      <c r="IH41" s="1"/>
+      <c r="II41" s="1"/>
+      <c r="IJ41" s="1"/>
+      <c r="IK41" s="1"/>
+      <c r="IL41" s="1"/>
+      <c r="IM41" s="1"/>
+      <c r="IN41" s="1"/>
+      <c r="IO41" s="1"/>
+      <c r="IP41" s="1"/>
+      <c r="IQ41" s="1"/>
+      <c r="IR41" s="1"/>
+      <c r="IS41" s="1"/>
+      <c r="IT41" s="1"/>
+      <c r="IU41" s="1"/>
+      <c r="IV41" s="1"/>
+      <c r="IW41" s="1"/>
+      <c r="IX41" s="1"/>
+      <c r="IY41" s="1"/>
+      <c r="IZ41" s="1"/>
+      <c r="JA41" s="1"/>
+      <c r="JB41" s="1"/>
+      <c r="JC41" s="1"/>
+      <c r="JD41" s="1"/>
+      <c r="JE41" s="1"/>
+      <c r="JF41" s="1"/>
+      <c r="JG41" s="1"/>
+      <c r="JH41" s="1"/>
+      <c r="JI41" s="1"/>
+      <c r="JJ41" s="1"/>
+      <c r="JK41" s="1"/>
+      <c r="JL41" s="1"/>
+      <c r="JM41" s="1"/>
+      <c r="JN41" s="1"/>
+      <c r="JO41" s="1"/>
+      <c r="JP41" s="1"/>
+      <c r="JQ41" s="1"/>
+      <c r="JR41" s="1"/>
+      <c r="JS41" s="1"/>
+      <c r="JT41" s="1"/>
+      <c r="JU41" s="1"/>
+      <c r="JV41" s="1"/>
+      <c r="JW41" s="1"/>
+      <c r="JX41" s="1"/>
+      <c r="JY41" s="1"/>
+      <c r="JZ41" s="1"/>
+      <c r="KA41" s="1"/>
+      <c r="KB41" s="1"/>
+      <c r="KC41" s="1"/>
+      <c r="KD41" s="1"/>
+      <c r="KE41" s="1"/>
+      <c r="KF41" s="1"/>
+      <c r="KG41" s="1"/>
+      <c r="KH41" s="1"/>
+      <c r="KI41" s="1"/>
+      <c r="KJ41" s="1"/>
+      <c r="KK41" s="1"/>
+      <c r="KL41" s="1"/>
+      <c r="KM41" s="1"/>
+      <c r="KN41" s="1"/>
+      <c r="KO41" s="1"/>
+      <c r="KP41" s="1"/>
+      <c r="KQ41" s="1"/>
+      <c r="KR41" s="1"/>
+      <c r="KS41" s="1"/>
+      <c r="KT41" s="1"/>
+      <c r="KU41" s="1"/>
+      <c r="KV41" s="1"/>
+      <c r="KW41" s="1"/>
+      <c r="KX41" s="1"/>
+      <c r="KY41" s="1"/>
+      <c r="KZ41" s="1"/>
+      <c r="LA41" s="1"/>
+      <c r="LB41" s="1"/>
+      <c r="LC41" s="1"/>
+      <c r="LD41" s="1"/>
+      <c r="LE41" s="1"/>
+      <c r="LF41" s="1"/>
+      <c r="LG41" s="1"/>
+      <c r="LH41" s="1"/>
+      <c r="LI41" s="1"/>
+      <c r="LJ41" s="1"/>
+      <c r="LK41" s="1"/>
+      <c r="LL41" s="1"/>
+      <c r="LM41" s="1"/>
+      <c r="LN41" s="1"/>
+      <c r="LO41" s="1"/>
+      <c r="LP41" s="1"/>
+      <c r="LQ41" s="1"/>
+      <c r="LR41" s="1"/>
+      <c r="LS41" s="1"/>
+      <c r="LT41" s="1"/>
+      <c r="LU41" s="1"/>
+      <c r="LV41" s="1"/>
+      <c r="LW41" s="1"/>
+      <c r="LX41" s="1"/>
+      <c r="LY41" s="1"/>
+      <c r="LZ41" s="1"/>
+      <c r="MA41" s="1"/>
+      <c r="MB41" s="1"/>
+      <c r="MC41" s="1"/>
+      <c r="MD41" s="1"/>
+      <c r="ME41" s="1"/>
+      <c r="MF41" s="1"/>
+      <c r="MG41" s="1"/>
+      <c r="MH41" s="1"/>
+      <c r="MI41" s="1"/>
+      <c r="MJ41" s="1"/>
+      <c r="MK41" s="1"/>
+      <c r="ML41" s="1"/>
+      <c r="MM41" s="1"/>
+      <c r="MN41" s="1"/>
+      <c r="MO41" s="1"/>
+      <c r="MP41" s="1"/>
+      <c r="MQ41" s="1"/>
+      <c r="MR41" s="1"/>
+      <c r="MS41" s="1"/>
+      <c r="MT41" s="1"/>
+      <c r="MU41" s="1"/>
+      <c r="MV41" s="1"/>
+      <c r="MW41" s="1"/>
+      <c r="MX41" s="1"/>
+      <c r="MY41" s="1"/>
+      <c r="MZ41" s="1"/>
+      <c r="NA41" s="1"/>
+      <c r="NB41" s="1"/>
+      <c r="NC41" s="1"/>
+      <c r="ND41" s="1"/>
+      <c r="NE41" s="1"/>
+      <c r="NF41" s="1"/>
+      <c r="NG41" s="1"/>
+      <c r="NH41" s="1"/>
+      <c r="NI41" s="1"/>
+      <c r="NJ41" s="1"/>
+      <c r="NK41" s="1"/>
+      <c r="NL41" s="1"/>
+      <c r="NM41" s="1"/>
+      <c r="NN41" s="1"/>
+      <c r="NO41" s="1"/>
+      <c r="NP41" s="1"/>
+      <c r="NQ41" s="1"/>
+      <c r="NR41" s="1"/>
+      <c r="NS41" s="1"/>
+      <c r="NT41" s="1"/>
+      <c r="NU41" s="1"/>
+      <c r="NV41" s="1"/>
+      <c r="NW41" s="1"/>
+      <c r="NX41" s="1"/>
+      <c r="NY41" s="1"/>
+      <c r="NZ41" s="1"/>
+      <c r="OA41" s="1"/>
+      <c r="OB41" s="1"/>
+      <c r="OC41" s="1"/>
+      <c r="OD41" s="1"/>
+      <c r="OE41" s="1"/>
+      <c r="OF41" s="1"/>
+      <c r="OG41" s="1"/>
+      <c r="OH41" s="1"/>
+      <c r="OI41" s="1"/>
+      <c r="OJ41" s="1"/>
+      <c r="OK41" s="1"/>
+      <c r="OL41" s="1"/>
+      <c r="OM41" s="1"/>
+      <c r="ON41" s="1"/>
+      <c r="OO41" s="1"/>
+      <c r="OP41" s="1"/>
+      <c r="OQ41" s="1"/>
+      <c r="OR41" s="1"/>
+      <c r="OS41" s="1"/>
+      <c r="OT41" s="1"/>
+      <c r="OU41" s="1"/>
+      <c r="OV41" s="1"/>
+      <c r="OW41" s="1"/>
+      <c r="OX41" s="1"/>
+      <c r="OY41" s="1"/>
+      <c r="OZ41" s="1"/>
+      <c r="PA41" s="1"/>
+      <c r="PB41" s="1"/>
+      <c r="PC41" s="1"/>
+      <c r="PD41" s="1"/>
+      <c r="PE41" s="1"/>
+      <c r="PF41" s="1"/>
+      <c r="PG41" s="1"/>
+      <c r="PH41" s="1"/>
+      <c r="PI41" s="1"/>
+      <c r="PJ41" s="1"/>
+      <c r="PK41" s="1"/>
+      <c r="PL41" s="1"/>
+      <c r="PM41" s="1"/>
+      <c r="PN41" s="1"/>
+      <c r="PO41" s="1"/>
+      <c r="PP41" s="1"/>
+      <c r="PQ41" s="1"/>
+      <c r="PR41" s="1"/>
+      <c r="PS41" s="1"/>
+      <c r="PT41" s="1"/>
+      <c r="PU41" s="1"/>
+      <c r="PV41" s="1"/>
+      <c r="PW41" s="1"/>
+      <c r="PX41" s="1"/>
+      <c r="PY41" s="1"/>
+      <c r="PZ41" s="1"/>
+      <c r="QA41" s="1"/>
+      <c r="QB41" s="1"/>
+      <c r="QC41" s="1"/>
+      <c r="QD41" s="1"/>
+      <c r="QE41" s="1"/>
+      <c r="QF41" s="1"/>
+      <c r="QG41" s="1"/>
+      <c r="QH41" s="1"/>
+      <c r="QI41" s="1"/>
+      <c r="QJ41" s="1"/>
+      <c r="QK41" s="1"/>
+      <c r="QL41" s="1"/>
+      <c r="QM41" s="1"/>
+      <c r="QN41" s="1"/>
+      <c r="QO41" s="1"/>
+      <c r="QP41" s="1"/>
+      <c r="QQ41" s="1"/>
+      <c r="QR41" s="1"/>
+      <c r="QS41" s="1"/>
+      <c r="QT41" s="1"/>
+      <c r="QU41" s="1"/>
+      <c r="QV41" s="1"/>
+      <c r="QW41" s="1"/>
+      <c r="QX41" s="1"/>
+      <c r="QY41" s="1"/>
+      <c r="QZ41" s="1"/>
+      <c r="RA41" s="1"/>
+      <c r="RB41" s="1"/>
+      <c r="RC41" s="1"/>
+      <c r="RD41" s="1"/>
+      <c r="RE41" s="1"/>
+      <c r="RF41" s="1"/>
+      <c r="RG41" s="1"/>
+      <c r="RH41" s="1"/>
+      <c r="RI41" s="1"/>
+      <c r="RJ41" s="1"/>
+      <c r="RK41" s="1"/>
+      <c r="RL41" s="1"/>
+      <c r="RM41" s="1"/>
+      <c r="RN41" s="1"/>
+      <c r="RO41" s="1"/>
+      <c r="RP41" s="1"/>
+      <c r="RQ41" s="1"/>
+      <c r="RR41" s="1"/>
+      <c r="RS41" s="1"/>
+      <c r="RT41" s="1"/>
+      <c r="RU41" s="1"/>
+      <c r="RV41" s="1"/>
+      <c r="RW41" s="1"/>
+      <c r="RX41" s="1"/>
+      <c r="RY41" s="1"/>
+      <c r="RZ41" s="1"/>
+      <c r="SA41" s="1"/>
+      <c r="SB41" s="1"/>
+      <c r="SC41" s="1"/>
+      <c r="SD41" s="1"/>
+      <c r="SE41" s="1"/>
+      <c r="SF41" s="1"/>
+      <c r="SG41" s="1"/>
+      <c r="SH41" s="1"/>
+      <c r="SI41" s="1"/>
+      <c r="SJ41" s="1"/>
+      <c r="SK41" s="1"/>
+      <c r="SL41" s="1"/>
+      <c r="SM41" s="1"/>
+      <c r="SN41" s="1"/>
+      <c r="SO41" s="1"/>
+      <c r="SP41" s="1"/>
+      <c r="SQ41" s="1"/>
+      <c r="SR41" s="1"/>
+      <c r="SS41" s="1"/>
+      <c r="ST41" s="1"/>
+      <c r="SU41" s="1"/>
+      <c r="SV41" s="1"/>
+      <c r="SW41" s="1"/>
+      <c r="SX41" s="1"/>
+      <c r="SY41" s="1"/>
+      <c r="SZ41" s="1"/>
+      <c r="TA41" s="1"/>
+      <c r="TB41" s="1"/>
+      <c r="TC41" s="1"/>
+      <c r="TD41" s="1"/>
+      <c r="TE41" s="1"/>
+      <c r="TF41" s="1"/>
+      <c r="TG41" s="1"/>
+      <c r="TH41" s="1"/>
+      <c r="TI41" s="1"/>
+      <c r="TJ41" s="1"/>
+      <c r="TK41" s="1"/>
+      <c r="TL41" s="1"/>
+      <c r="TM41" s="1"/>
+      <c r="TN41" s="1"/>
+      <c r="TO41" s="1"/>
+      <c r="TP41" s="1"/>
+      <c r="TQ41" s="1"/>
+      <c r="TR41" s="1"/>
+      <c r="TS41" s="1"/>
+      <c r="TT41" s="1"/>
+      <c r="TU41" s="1"/>
+      <c r="TV41" s="1"/>
+      <c r="TW41" s="1"/>
+      <c r="TX41" s="1"/>
+      <c r="TY41" s="1"/>
+      <c r="TZ41" s="1"/>
+      <c r="UA41" s="1"/>
+      <c r="UB41" s="1"/>
+      <c r="UC41" s="1"/>
+      <c r="UD41" s="1"/>
+      <c r="UE41" s="1"/>
+      <c r="UF41" s="1"/>
+      <c r="UG41" s="1"/>
+      <c r="UH41" s="1"/>
+      <c r="UI41" s="1"/>
+      <c r="UJ41" s="1"/>
+      <c r="UK41" s="1"/>
+      <c r="UL41" s="1"/>
+      <c r="UM41" s="1"/>
+      <c r="UN41" s="1"/>
+      <c r="UO41" s="1"/>
+      <c r="UP41" s="1"/>
+      <c r="UQ41" s="1"/>
+      <c r="UR41" s="1"/>
+      <c r="US41" s="1"/>
+      <c r="UT41" s="1"/>
+      <c r="UU41" s="1"/>
+      <c r="UV41" s="1"/>
+      <c r="UW41" s="1"/>
+      <c r="UX41" s="1"/>
+      <c r="UY41" s="1"/>
+      <c r="UZ41" s="1"/>
+      <c r="VA41" s="1"/>
+      <c r="VB41" s="1"/>
+      <c r="VC41" s="1"/>
+      <c r="VD41" s="1"/>
+      <c r="VE41" s="1"/>
+      <c r="VF41" s="1"/>
+      <c r="VG41" s="1"/>
+      <c r="VH41" s="1"/>
+      <c r="VI41" s="1"/>
+      <c r="VJ41" s="1"/>
+      <c r="VK41" s="1"/>
+      <c r="VL41" s="1"/>
+      <c r="VM41" s="1"/>
+      <c r="VN41" s="1"/>
+      <c r="VO41" s="1"/>
+      <c r="VP41" s="1"/>
+      <c r="VQ41" s="1"/>
+      <c r="VR41" s="1"/>
+      <c r="VS41" s="1"/>
+      <c r="VT41" s="1"/>
+      <c r="VU41" s="1"/>
+      <c r="VV41" s="1"/>
+      <c r="VW41" s="1"/>
+      <c r="VX41" s="1"/>
+      <c r="VY41" s="1"/>
+      <c r="VZ41" s="1"/>
+      <c r="WA41" s="1"/>
+      <c r="WB41" s="1"/>
+      <c r="WC41" s="1"/>
+      <c r="WD41" s="1"/>
+      <c r="WE41" s="1"/>
+      <c r="WF41" s="1"/>
+      <c r="WG41" s="1"/>
+      <c r="WH41" s="1"/>
+      <c r="WI41" s="1"/>
+      <c r="WJ41" s="1"/>
+      <c r="WK41" s="1"/>
+      <c r="WL41" s="1"/>
+      <c r="WM41" s="1"/>
+      <c r="WN41" s="1"/>
+      <c r="WO41" s="1"/>
+      <c r="WP41" s="1"/>
+      <c r="WQ41" s="1"/>
+      <c r="WR41" s="1"/>
+      <c r="WS41" s="1"/>
+      <c r="WT41" s="1"/>
+      <c r="WU41" s="1"/>
+      <c r="WV41" s="1"/>
+      <c r="WW41" s="1"/>
+      <c r="WX41" s="1"/>
+      <c r="WY41" s="1"/>
+      <c r="WZ41" s="1"/>
+      <c r="XA41" s="1"/>
+      <c r="XB41" s="1"/>
+      <c r="XC41" s="1"/>
+      <c r="XD41" s="1"/>
+      <c r="XE41" s="1"/>
+      <c r="XF41" s="1"/>
+      <c r="XG41" s="1"/>
+      <c r="XH41" s="1"/>
+      <c r="XI41" s="1"/>
+      <c r="XJ41" s="1"/>
+      <c r="XK41" s="1"/>
+      <c r="XL41" s="1"/>
+      <c r="XM41" s="1"/>
+      <c r="XN41" s="1"/>
+      <c r="XO41" s="1"/>
+      <c r="XP41" s="1"/>
+      <c r="XQ41" s="1"/>
+      <c r="XR41" s="1"/>
+      <c r="XS41" s="1"/>
+      <c r="XT41" s="1"/>
+      <c r="XU41" s="1"/>
+      <c r="XV41" s="1"/>
+      <c r="XW41" s="1"/>
+      <c r="XX41" s="1"/>
+      <c r="XY41" s="1"/>
+      <c r="XZ41" s="1"/>
+      <c r="YA41" s="1"/>
+      <c r="YB41" s="1"/>
+      <c r="YC41" s="1"/>
+      <c r="YD41" s="1"/>
+      <c r="YE41" s="1"/>
+      <c r="YF41" s="1"/>
+      <c r="YG41" s="1"/>
+      <c r="YH41" s="1"/>
+      <c r="YI41" s="1"/>
+      <c r="YJ41" s="1"/>
+      <c r="YK41" s="1"/>
+      <c r="YL41" s="1"/>
+      <c r="YM41" s="1"/>
+      <c r="YN41" s="1"/>
+      <c r="YO41" s="1"/>
+      <c r="YP41" s="1"/>
+      <c r="YQ41" s="1"/>
+      <c r="YR41" s="1"/>
+      <c r="YS41" s="1"/>
+      <c r="YT41" s="1"/>
+      <c r="YU41" s="1"/>
+      <c r="YV41" s="1"/>
+      <c r="YW41" s="1"/>
+      <c r="YX41" s="1"/>
+      <c r="YY41" s="1"/>
+      <c r="YZ41" s="1"/>
+      <c r="ZA41" s="1"/>
+      <c r="ZB41" s="1"/>
+      <c r="ZC41" s="1"/>
+      <c r="ZD41" s="1"/>
+      <c r="ZE41" s="1"/>
+      <c r="ZF41" s="1"/>
+      <c r="ZG41" s="1"/>
+      <c r="ZH41" s="1"/>
+      <c r="ZI41" s="1"/>
+      <c r="ZJ41" s="1"/>
+      <c r="ZK41" s="1"/>
+      <c r="ZL41" s="1"/>
+      <c r="ZM41" s="1"/>
+      <c r="ZN41" s="1"/>
+      <c r="ZO41" s="1"/>
+      <c r="ZP41" s="1"/>
+      <c r="ZQ41" s="1"/>
+      <c r="ZR41" s="1"/>
+      <c r="ZS41" s="1"/>
+      <c r="ZT41" s="1"/>
+      <c r="ZU41" s="1"/>
+      <c r="ZV41" s="1"/>
+      <c r="ZW41" s="1"/>
+      <c r="ZX41" s="1"/>
+      <c r="ZY41" s="1"/>
+      <c r="ZZ41" s="1"/>
+      <c r="AAA41" s="1"/>
+      <c r="AAB41" s="1"/>
+      <c r="AAC41" s="1"/>
+      <c r="AAD41" s="1"/>
+      <c r="AAE41" s="1"/>
+      <c r="AAF41" s="1"/>
+      <c r="AAG41" s="1"/>
+      <c r="AAH41" s="1"/>
+      <c r="AAI41" s="1"/>
+      <c r="AAJ41" s="1"/>
+      <c r="AAK41" s="1"/>
+      <c r="AAL41" s="1"/>
+      <c r="AAM41" s="1"/>
+      <c r="AAN41" s="1"/>
+      <c r="AAO41" s="1"/>
+      <c r="AAP41" s="1"/>
+      <c r="AAQ41" s="1"/>
+      <c r="AAR41" s="1"/>
+      <c r="AAS41" s="1"/>
+      <c r="AAT41" s="1"/>
+      <c r="AAU41" s="1"/>
+      <c r="AAV41" s="1"/>
+      <c r="AAW41" s="1"/>
+      <c r="AAX41" s="1"/>
+      <c r="AAY41" s="1"/>
+      <c r="AAZ41" s="1"/>
+      <c r="ABA41" s="1"/>
+      <c r="ABB41" s="1"/>
+      <c r="ABC41" s="1"/>
+      <c r="ABD41" s="1"/>
+      <c r="ABE41" s="1"/>
+      <c r="ABF41" s="1"/>
+      <c r="ABG41" s="1"/>
+      <c r="ABH41" s="1"/>
+      <c r="ABI41" s="1"/>
+      <c r="ABJ41" s="1"/>
+      <c r="ABK41" s="1"/>
+      <c r="ABL41" s="1"/>
+      <c r="ABM41" s="1"/>
+      <c r="ABN41" s="1"/>
+      <c r="ABO41" s="1"/>
+      <c r="ABP41" s="1"/>
+      <c r="ABQ41" s="1"/>
+      <c r="ABR41" s="1"/>
+      <c r="ABS41" s="1"/>
+      <c r="ABT41" s="1"/>
+      <c r="ABU41" s="1"/>
+      <c r="ABV41" s="1"/>
+      <c r="ABW41" s="1"/>
+      <c r="ABX41" s="1"/>
+      <c r="ABY41" s="1"/>
+      <c r="ABZ41" s="1"/>
+      <c r="ACA41" s="1"/>
+      <c r="ACB41" s="1"/>
+      <c r="ACC41" s="1"/>
+      <c r="ACD41" s="1"/>
+      <c r="ACE41" s="1"/>
+      <c r="ACF41" s="1"/>
+      <c r="ACG41" s="1"/>
+      <c r="ACH41" s="1"/>
+      <c r="ACI41" s="1"/>
+      <c r="ACJ41" s="1"/>
+      <c r="ACK41" s="1"/>
+      <c r="ACL41" s="1"/>
+      <c r="ACM41" s="1"/>
+      <c r="ACN41" s="1"/>
+      <c r="ACO41" s="1"/>
+      <c r="ACP41" s="1"/>
+      <c r="ACQ41" s="1"/>
+      <c r="ACR41" s="1"/>
+      <c r="ACS41" s="1"/>
+      <c r="ACT41" s="1"/>
+      <c r="ACU41" s="1"/>
+      <c r="ACV41" s="1"/>
+      <c r="ACW41" s="1"/>
+      <c r="ACX41" s="1"/>
+      <c r="ACY41" s="1"/>
+      <c r="ACZ41" s="1"/>
+      <c r="ADA41" s="1"/>
+      <c r="ADB41" s="1"/>
+      <c r="ADC41" s="1"/>
+      <c r="ADD41" s="1"/>
+      <c r="ADE41" s="1"/>
+      <c r="ADF41" s="1"/>
+      <c r="ADG41" s="1"/>
+      <c r="ADH41" s="1"/>
+      <c r="ADI41" s="1"/>
+      <c r="ADJ41" s="1"/>
+      <c r="ADK41" s="1"/>
+      <c r="ADL41" s="1"/>
+      <c r="ADM41" s="1"/>
+      <c r="ADN41" s="1"/>
+      <c r="ADO41" s="1"/>
+      <c r="ADP41" s="1"/>
+      <c r="ADQ41" s="1"/>
+      <c r="ADR41" s="1"/>
+      <c r="ADS41" s="1"/>
+      <c r="ADT41" s="1"/>
+      <c r="ADU41" s="1"/>
+      <c r="ADV41" s="1"/>
+      <c r="ADW41" s="1"/>
+      <c r="ADX41" s="1"/>
+      <c r="ADY41" s="1"/>
+      <c r="ADZ41" s="1"/>
+      <c r="AEA41" s="1"/>
+      <c r="AEB41" s="1"/>
+      <c r="AEC41" s="1"/>
+      <c r="AED41" s="1"/>
+      <c r="AEE41" s="1"/>
+      <c r="AEF41" s="1"/>
+      <c r="AEG41" s="1"/>
+      <c r="AEH41" s="1"/>
+      <c r="AEI41" s="1"/>
+      <c r="AEJ41" s="1"/>
+      <c r="AEK41" s="1"/>
+      <c r="AEL41" s="1"/>
+      <c r="AEM41" s="1"/>
+      <c r="AEN41" s="1"/>
+      <c r="AEO41" s="1"/>
+      <c r="AEP41" s="1"/>
+      <c r="AEQ41" s="1"/>
+      <c r="AER41" s="1"/>
+      <c r="AES41" s="1"/>
+      <c r="AET41" s="1"/>
+      <c r="AEU41" s="1"/>
+      <c r="AEV41" s="1"/>
+      <c r="AEW41" s="1"/>
+      <c r="AEX41" s="1"/>
+      <c r="AEY41" s="1"/>
+      <c r="AEZ41" s="1"/>
+      <c r="AFA41" s="1"/>
+      <c r="AFB41" s="1"/>
+      <c r="AFC41" s="1"/>
+      <c r="AFD41" s="1"/>
+      <c r="AFE41" s="1"/>
+      <c r="AFF41" s="1"/>
+      <c r="AFG41" s="1"/>
+      <c r="AFH41" s="1"/>
+      <c r="AFI41" s="1"/>
+      <c r="AFJ41" s="1"/>
+      <c r="AFK41" s="1"/>
+      <c r="AFL41" s="1"/>
+      <c r="AFM41" s="1"/>
+      <c r="AFN41" s="1"/>
+      <c r="AFO41" s="1"/>
+      <c r="AFP41" s="1"/>
+      <c r="AFQ41" s="1"/>
+      <c r="AFR41" s="1"/>
+      <c r="AFS41" s="1"/>
+      <c r="AFT41" s="1"/>
+      <c r="AFU41" s="1"/>
+      <c r="AFV41" s="1"/>
+      <c r="AFW41" s="1"/>
+      <c r="AFX41" s="1"/>
+      <c r="AFY41" s="1"/>
+      <c r="AFZ41" s="1"/>
+      <c r="AGA41" s="1"/>
+      <c r="AGB41" s="1"/>
+      <c r="AGC41" s="1"/>
+      <c r="AGD41" s="1"/>
+      <c r="AGE41" s="1"/>
+      <c r="AGF41" s="1"/>
+      <c r="AGG41" s="1"/>
+      <c r="AGH41" s="1"/>
+      <c r="AGI41" s="1"/>
+      <c r="AGJ41" s="1"/>
+      <c r="AGK41" s="1"/>
+      <c r="AGL41" s="1"/>
+      <c r="AGM41" s="1"/>
+      <c r="AGN41" s="1"/>
+      <c r="AGO41" s="1"/>
+      <c r="AGP41" s="1"/>
+      <c r="AGQ41" s="1"/>
+      <c r="AGR41" s="1"/>
+      <c r="AGS41" s="1"/>
+      <c r="AGT41" s="1"/>
+      <c r="AGU41" s="1"/>
+      <c r="AGV41" s="1"/>
+      <c r="AGW41" s="1"/>
+      <c r="AGX41" s="1"/>
+      <c r="AGY41" s="1"/>
+      <c r="AGZ41" s="1"/>
+      <c r="AHA41" s="1"/>
+      <c r="AHB41" s="1"/>
+      <c r="AHC41" s="1"/>
+      <c r="AHD41" s="1"/>
+      <c r="AHE41" s="1"/>
+      <c r="AHF41" s="1"/>
+      <c r="AHG41" s="1"/>
+      <c r="AHH41" s="1"/>
+      <c r="AHI41" s="1"/>
+      <c r="AHJ41" s="1"/>
+      <c r="AHK41" s="1"/>
+      <c r="AHL41" s="1"/>
+      <c r="AHM41" s="1"/>
+      <c r="AHN41" s="1"/>
+      <c r="AHO41" s="1"/>
+      <c r="AHP41" s="1"/>
+      <c r="AHQ41" s="1"/>
+      <c r="AHR41" s="1"/>
+      <c r="AHS41" s="1"/>
+      <c r="AHT41" s="1"/>
+      <c r="AHU41" s="1"/>
+      <c r="AHV41" s="1"/>
+      <c r="AHW41" s="1"/>
+      <c r="AHX41" s="1"/>
+      <c r="AHY41" s="1"/>
+      <c r="AHZ41" s="1"/>
+      <c r="AIA41" s="1"/>
+      <c r="AIB41" s="1"/>
+      <c r="AIC41" s="1"/>
+      <c r="AID41" s="1"/>
+      <c r="AIE41" s="1"/>
+      <c r="AIF41" s="1"/>
+      <c r="AIG41" s="1"/>
+      <c r="AIH41" s="1"/>
+      <c r="AII41" s="1"/>
+      <c r="AIJ41" s="1"/>
+      <c r="AIK41" s="1"/>
+      <c r="AIL41" s="1"/>
+      <c r="AIM41" s="1"/>
+      <c r="AIN41" s="1"/>
+      <c r="AIO41" s="1"/>
+      <c r="AIP41" s="1"/>
+      <c r="AIQ41" s="1"/>
+      <c r="AIR41" s="1"/>
+      <c r="AIS41" s="1"/>
+      <c r="AIT41" s="1"/>
+      <c r="AIU41" s="1"/>
+      <c r="AIV41" s="1"/>
+      <c r="AIW41" s="1"/>
+      <c r="AIX41" s="1"/>
+      <c r="AIY41" s="1"/>
+      <c r="AIZ41" s="1"/>
+      <c r="AJA41" s="1"/>
+      <c r="AJB41" s="1"/>
+      <c r="AJC41" s="1"/>
+      <c r="AJD41" s="1"/>
+      <c r="AJE41" s="1"/>
+      <c r="AJF41" s="1"/>
+      <c r="AJG41" s="1"/>
+      <c r="AJH41" s="1"/>
+      <c r="AJI41" s="1"/>
+      <c r="AJJ41" s="1"/>
+      <c r="AJK41" s="1"/>
+      <c r="AJL41" s="1"/>
+      <c r="AJM41" s="1"/>
+      <c r="AJN41" s="1"/>
+      <c r="AJO41" s="1"/>
+      <c r="AJP41" s="1"/>
+      <c r="AJQ41" s="1"/>
+      <c r="AJR41" s="1"/>
+      <c r="AJS41" s="1"/>
+      <c r="AJT41" s="1"/>
+      <c r="AJU41" s="1"/>
+      <c r="AJV41" s="1"/>
+      <c r="AJW41" s="1"/>
+      <c r="AJX41" s="1"/>
+      <c r="AJY41" s="1"/>
+      <c r="AJZ41" s="1"/>
+      <c r="AKA41" s="1"/>
+      <c r="AKB41" s="1"/>
+      <c r="AKC41" s="1"/>
+      <c r="AKD41" s="1"/>
+      <c r="AKE41" s="1"/>
+      <c r="AKF41" s="1"/>
+      <c r="AKG41" s="1"/>
+      <c r="AKH41" s="1"/>
+      <c r="AKI41" s="1"/>
+      <c r="AKJ41" s="1"/>
+      <c r="AKK41" s="1"/>
+      <c r="AKL41" s="1"/>
+      <c r="AKM41" s="1"/>
+      <c r="AKN41" s="1"/>
+      <c r="AKO41" s="1"/>
+      <c r="AKP41" s="1"/>
+      <c r="AKQ41" s="1"/>
+      <c r="AKR41" s="1"/>
+      <c r="AKS41" s="1"/>
+      <c r="AKT41" s="1"/>
+      <c r="AKU41" s="1"/>
+      <c r="AKV41" s="1"/>
+      <c r="AKW41" s="1"/>
+      <c r="AKX41" s="1"/>
+      <c r="AKY41" s="1"/>
+      <c r="AKZ41" s="1"/>
+      <c r="ALA41" s="1"/>
+      <c r="ALB41" s="1"/>
+      <c r="ALC41" s="1"/>
+      <c r="ALD41" s="1"/>
+      <c r="ALE41" s="1"/>
+      <c r="ALF41" s="1"/>
+      <c r="ALG41" s="1"/>
+      <c r="ALH41" s="1"/>
+      <c r="ALI41" s="1"/>
+      <c r="ALJ41" s="1"/>
+      <c r="ALK41" s="1"/>
+      <c r="ALL41" s="1"/>
+      <c r="ALM41" s="1"/>
+      <c r="ALN41" s="1"/>
+      <c r="ALO41" s="1"/>
+      <c r="ALP41" s="1"/>
+      <c r="ALQ41" s="1"/>
+      <c r="ALR41" s="1"/>
+      <c r="ALS41" s="1"/>
+      <c r="ALT41" s="1"/>
+      <c r="ALU41" s="1"/>
+      <c r="ALV41" s="1"/>
+      <c r="ALW41" s="1"/>
+      <c r="ALX41" s="1"/>
+      <c r="ALY41" s="1"/>
+      <c r="ALZ41" s="1"/>
+      <c r="AMA41" s="1"/>
+      <c r="AMB41" s="1"/>
+      <c r="AMC41" s="1"/>
+      <c r="AMD41" s="1"/>
+      <c r="AME41" s="1"/>
+      <c r="AMF41" s="1"/>
+      <c r="AMG41" s="1"/>
+      <c r="AMH41" s="1"/>
+      <c r="AMI41" s="1"/>
+      <c r="AMJ41" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="69">
+  <mergeCells count="70">
     <mergeCell ref="Y36:BK36"/>
     <mergeCell ref="CB1:CI1"/>
     <mergeCell ref="B2:G2"/>
@@ -37961,6 +40049,7 @@
     <mergeCell ref="BL1:BO1"/>
     <mergeCell ref="BP1:BW1"/>
     <mergeCell ref="BX1:CA1"/>
+    <mergeCell ref="B4:D4"/>
     <mergeCell ref="G37:I37"/>
     <mergeCell ref="J37:X37"/>
     <mergeCell ref="Y37:BK37"/>
@@ -37977,12 +40066,13 @@
     <mergeCell ref="Y8:AH8"/>
     <mergeCell ref="AI8:AR8"/>
     <mergeCell ref="AS8:CI8"/>
-    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B20:CI20"/>
     <mergeCell ref="E4:X4"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:X5"/>
     <mergeCell ref="Y5:AR5"/>
+    <mergeCell ref="AS28:CI28"/>
     <mergeCell ref="AS5:CI5"/>
     <mergeCell ref="Y28:AH28"/>
     <mergeCell ref="AI28:AR28"/>
@@ -37992,6 +40082,19 @@
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="K12:Y12"/>
     <mergeCell ref="Z12:BL12"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:Y24"/>
+    <mergeCell ref="Z24:BL24"/>
+    <mergeCell ref="F14:BT14"/>
+    <mergeCell ref="H15:BK15"/>
+    <mergeCell ref="H16:BL18"/>
+    <mergeCell ref="B39:BK39"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:Y22"/>
+    <mergeCell ref="Z22:BL22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:Y23"/>
+    <mergeCell ref="Z23:BL23"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="E28:X28"/>
     <mergeCell ref="B31:CI31"/>
@@ -38001,20 +40104,6 @@
     <mergeCell ref="Y29:AH29"/>
     <mergeCell ref="AI29:AR29"/>
     <mergeCell ref="AS29:CI29"/>
-    <mergeCell ref="AS28:CI28"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:Y24"/>
-    <mergeCell ref="Z24:BL24"/>
-    <mergeCell ref="F14:BT14"/>
-    <mergeCell ref="H15:BK15"/>
-    <mergeCell ref="H16:BL18"/>
-    <mergeCell ref="B20:CI20"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:Y22"/>
-    <mergeCell ref="Z22:BL22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:Y23"/>
-    <mergeCell ref="Z23:BL23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/内部設計書/内部設計書_2_1_結果一覧画面.xlsx
+++ b/内部設計書/内部設計書_2_1_結果一覧画面.xlsx
@@ -274,16 +274,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>　　　　(3) AllResultOutputFormに以下の項目を追加する</t>
-    <rPh sb="28" eb="30">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>(2)　試験の結果がなかった場合にはModelに以下の項目を追加。</t>
     <rPh sb="4" eb="6">
       <t>シケン</t>
@@ -378,6 +368,19 @@
   </si>
   <si>
     <t>List&lt;点数&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　　　　(3) AllResultOutputFormに以下の項目を追加して返す</t>
+    <rPh sb="28" eb="30">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>カエ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1030,138 +1033,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1208,6 +1086,131 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1551,7 +1554,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1561,8 +1564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Z25" sqref="Z25"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -1575,104 +1578,104 @@
   <sheetData>
     <row r="1" spans="1:1025" ht="18" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="95" t="s">
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
-      <c r="R1" s="95"/>
-      <c r="S1" s="95"/>
-      <c r="T1" s="95"/>
-      <c r="U1" s="95"/>
-      <c r="V1" s="95"/>
-      <c r="W1" s="96" t="s">
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="X1" s="96"/>
-      <c r="Y1" s="96"/>
-      <c r="Z1" s="96"/>
-      <c r="AA1" s="96"/>
-      <c r="AB1" s="96"/>
-      <c r="AC1" s="96"/>
-      <c r="AD1" s="96"/>
-      <c r="AE1" s="96"/>
-      <c r="AF1" s="96"/>
-      <c r="AG1" s="96"/>
-      <c r="AH1" s="96"/>
-      <c r="AI1" s="96"/>
-      <c r="AJ1" s="96"/>
-      <c r="AK1" s="96"/>
-      <c r="AL1" s="96"/>
-      <c r="AM1" s="96"/>
-      <c r="AN1" s="96"/>
-      <c r="AO1" s="96"/>
-      <c r="AP1" s="96"/>
-      <c r="AQ1" s="96"/>
-      <c r="AR1" s="96"/>
-      <c r="AS1" s="96"/>
-      <c r="AT1" s="96"/>
-      <c r="AU1" s="96"/>
-      <c r="AV1" s="96"/>
-      <c r="AW1" s="96"/>
-      <c r="AX1" s="96"/>
-      <c r="AY1" s="96"/>
-      <c r="AZ1" s="96"/>
-      <c r="BA1" s="96"/>
-      <c r="BB1" s="96"/>
-      <c r="BC1" s="96"/>
-      <c r="BD1" s="96"/>
-      <c r="BE1" s="96"/>
-      <c r="BF1" s="96"/>
-      <c r="BG1" s="96"/>
-      <c r="BH1" s="96"/>
-      <c r="BI1" s="96"/>
-      <c r="BJ1" s="96"/>
-      <c r="BK1" s="96"/>
-      <c r="BL1" s="97" t="s">
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="49"/>
+      <c r="AN1" s="49"/>
+      <c r="AO1" s="49"/>
+      <c r="AP1" s="49"/>
+      <c r="AQ1" s="49"/>
+      <c r="AR1" s="49"/>
+      <c r="AS1" s="49"/>
+      <c r="AT1" s="49"/>
+      <c r="AU1" s="49"/>
+      <c r="AV1" s="49"/>
+      <c r="AW1" s="49"/>
+      <c r="AX1" s="49"/>
+      <c r="AY1" s="49"/>
+      <c r="AZ1" s="49"/>
+      <c r="BA1" s="49"/>
+      <c r="BB1" s="49"/>
+      <c r="BC1" s="49"/>
+      <c r="BD1" s="49"/>
+      <c r="BE1" s="49"/>
+      <c r="BF1" s="49"/>
+      <c r="BG1" s="49"/>
+      <c r="BH1" s="49"/>
+      <c r="BI1" s="49"/>
+      <c r="BJ1" s="49"/>
+      <c r="BK1" s="49"/>
+      <c r="BL1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="BM1" s="97"/>
-      <c r="BN1" s="97"/>
-      <c r="BO1" s="97"/>
-      <c r="BP1" s="98" t="s">
+      <c r="BM1" s="50"/>
+      <c r="BN1" s="50"/>
+      <c r="BO1" s="50"/>
+      <c r="BP1" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="BQ1" s="98"/>
-      <c r="BR1" s="98"/>
-      <c r="BS1" s="98"/>
-      <c r="BT1" s="98"/>
-      <c r="BU1" s="98"/>
-      <c r="BV1" s="98"/>
-      <c r="BW1" s="98"/>
-      <c r="BX1" s="99" t="s">
+      <c r="BQ1" s="51"/>
+      <c r="BR1" s="51"/>
+      <c r="BS1" s="51"/>
+      <c r="BT1" s="51"/>
+      <c r="BU1" s="51"/>
+      <c r="BV1" s="51"/>
+      <c r="BW1" s="51"/>
+      <c r="BX1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="BY1" s="99"/>
-      <c r="BZ1" s="99"/>
-      <c r="CA1" s="99"/>
-      <c r="CB1" s="85"/>
-      <c r="CC1" s="85"/>
-      <c r="CD1" s="85"/>
-      <c r="CE1" s="85"/>
-      <c r="CF1" s="85"/>
-      <c r="CG1" s="85"/>
-      <c r="CH1" s="85"/>
-      <c r="CI1" s="85"/>
+      <c r="BY1" s="52"/>
+      <c r="BZ1" s="52"/>
+      <c r="CA1" s="52"/>
+      <c r="CB1" s="38"/>
+      <c r="CC1" s="38"/>
+      <c r="CD1" s="38"/>
+      <c r="CE1" s="38"/>
+      <c r="CF1" s="38"/>
+      <c r="CG1" s="38"/>
+      <c r="CH1" s="38"/>
+      <c r="CI1" s="38"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -2614,104 +2617,104 @@
     </row>
     <row r="2" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="87" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="87"/>
-      <c r="S2" s="87"/>
-      <c r="T2" s="87"/>
-      <c r="U2" s="87"/>
-      <c r="V2" s="87"/>
-      <c r="W2" s="88" t="s">
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="88"/>
-      <c r="Y2" s="88"/>
-      <c r="Z2" s="88"/>
-      <c r="AA2" s="88"/>
-      <c r="AB2" s="88"/>
-      <c r="AC2" s="88"/>
-      <c r="AD2" s="88"/>
-      <c r="AE2" s="88"/>
-      <c r="AF2" s="88"/>
-      <c r="AG2" s="88"/>
-      <c r="AH2" s="88"/>
-      <c r="AI2" s="88"/>
-      <c r="AJ2" s="88"/>
-      <c r="AK2" s="88"/>
-      <c r="AL2" s="88"/>
-      <c r="AM2" s="88"/>
-      <c r="AN2" s="88"/>
-      <c r="AO2" s="88"/>
-      <c r="AP2" s="88"/>
-      <c r="AQ2" s="88"/>
-      <c r="AR2" s="88"/>
-      <c r="AS2" s="88"/>
-      <c r="AT2" s="88"/>
-      <c r="AU2" s="88"/>
-      <c r="AV2" s="88"/>
-      <c r="AW2" s="88"/>
-      <c r="AX2" s="88"/>
-      <c r="AY2" s="88"/>
-      <c r="AZ2" s="88"/>
-      <c r="BA2" s="88"/>
-      <c r="BB2" s="88"/>
-      <c r="BC2" s="88"/>
-      <c r="BD2" s="88"/>
-      <c r="BE2" s="88"/>
-      <c r="BF2" s="88"/>
-      <c r="BG2" s="88"/>
-      <c r="BH2" s="88"/>
-      <c r="BI2" s="88"/>
-      <c r="BJ2" s="88"/>
-      <c r="BK2" s="88"/>
-      <c r="BL2" s="89" t="s">
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="41"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="41"/>
+      <c r="AS2" s="41"/>
+      <c r="AT2" s="41"/>
+      <c r="AU2" s="41"/>
+      <c r="AV2" s="41"/>
+      <c r="AW2" s="41"/>
+      <c r="AX2" s="41"/>
+      <c r="AY2" s="41"/>
+      <c r="AZ2" s="41"/>
+      <c r="BA2" s="41"/>
+      <c r="BB2" s="41"/>
+      <c r="BC2" s="41"/>
+      <c r="BD2" s="41"/>
+      <c r="BE2" s="41"/>
+      <c r="BF2" s="41"/>
+      <c r="BG2" s="41"/>
+      <c r="BH2" s="41"/>
+      <c r="BI2" s="41"/>
+      <c r="BJ2" s="41"/>
+      <c r="BK2" s="41"/>
+      <c r="BL2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="89"/>
-      <c r="BN2" s="89"/>
-      <c r="BO2" s="89"/>
-      <c r="BP2" s="90">
+      <c r="BM2" s="42"/>
+      <c r="BN2" s="42"/>
+      <c r="BO2" s="42"/>
+      <c r="BP2" s="43">
         <v>44691</v>
       </c>
-      <c r="BQ2" s="90"/>
-      <c r="BR2" s="90"/>
-      <c r="BS2" s="90"/>
-      <c r="BT2" s="90"/>
-      <c r="BU2" s="90"/>
-      <c r="BV2" s="90"/>
-      <c r="BW2" s="90"/>
-      <c r="BX2" s="91" t="s">
+      <c r="BQ2" s="43"/>
+      <c r="BR2" s="43"/>
+      <c r="BS2" s="43"/>
+      <c r="BT2" s="43"/>
+      <c r="BU2" s="43"/>
+      <c r="BV2" s="43"/>
+      <c r="BW2" s="43"/>
+      <c r="BX2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="91"/>
-      <c r="BZ2" s="91"/>
-      <c r="CA2" s="91"/>
-      <c r="CB2" s="92"/>
-      <c r="CC2" s="93"/>
-      <c r="CD2" s="93"/>
-      <c r="CE2" s="93"/>
-      <c r="CF2" s="93"/>
-      <c r="CG2" s="93"/>
-      <c r="CH2" s="93"/>
-      <c r="CI2" s="93"/>
+      <c r="BY2" s="44"/>
+      <c r="BZ2" s="44"/>
+      <c r="CA2" s="44"/>
+      <c r="CB2" s="45"/>
+      <c r="CC2" s="46"/>
+      <c r="CD2" s="46"/>
+      <c r="CE2" s="46"/>
+      <c r="CF2" s="46"/>
+      <c r="CG2" s="46"/>
+      <c r="CH2" s="46"/>
+      <c r="CI2" s="46"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
@@ -3741,100 +3744,100 @@
     </row>
     <row r="4" spans="1:1025" ht="18" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="79" t="s">
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="79"/>
-      <c r="O4" s="79"/>
-      <c r="P4" s="79"/>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="79"/>
-      <c r="S4" s="79"/>
-      <c r="T4" s="79"/>
-      <c r="U4" s="79"/>
-      <c r="V4" s="79"/>
-      <c r="W4" s="79"/>
-      <c r="X4" s="79"/>
-      <c r="Y4" s="79" t="s">
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="56"/>
+      <c r="W4" s="56"/>
+      <c r="X4" s="56"/>
+      <c r="Y4" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="Z4" s="79"/>
-      <c r="AA4" s="79"/>
-      <c r="AB4" s="79"/>
-      <c r="AC4" s="79"/>
-      <c r="AD4" s="79"/>
-      <c r="AE4" s="79"/>
-      <c r="AF4" s="79"/>
-      <c r="AG4" s="79"/>
-      <c r="AH4" s="79"/>
-      <c r="AI4" s="79"/>
-      <c r="AJ4" s="79"/>
-      <c r="AK4" s="79"/>
-      <c r="AL4" s="79"/>
-      <c r="AM4" s="79"/>
-      <c r="AN4" s="79"/>
-      <c r="AO4" s="79"/>
-      <c r="AP4" s="79"/>
-      <c r="AQ4" s="79"/>
-      <c r="AR4" s="79"/>
-      <c r="AS4" s="58" t="s">
+      <c r="Z4" s="56"/>
+      <c r="AA4" s="56"/>
+      <c r="AB4" s="56"/>
+      <c r="AC4" s="56"/>
+      <c r="AD4" s="56"/>
+      <c r="AE4" s="56"/>
+      <c r="AF4" s="56"/>
+      <c r="AG4" s="56"/>
+      <c r="AH4" s="56"/>
+      <c r="AI4" s="56"/>
+      <c r="AJ4" s="56"/>
+      <c r="AK4" s="56"/>
+      <c r="AL4" s="56"/>
+      <c r="AM4" s="56"/>
+      <c r="AN4" s="56"/>
+      <c r="AO4" s="56"/>
+      <c r="AP4" s="56"/>
+      <c r="AQ4" s="56"/>
+      <c r="AR4" s="56"/>
+      <c r="AS4" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="AT4" s="58"/>
-      <c r="AU4" s="58"/>
-      <c r="AV4" s="58"/>
-      <c r="AW4" s="58"/>
-      <c r="AX4" s="58"/>
-      <c r="AY4" s="58"/>
-      <c r="AZ4" s="58"/>
-      <c r="BA4" s="58"/>
-      <c r="BB4" s="58"/>
-      <c r="BC4" s="58"/>
-      <c r="BD4" s="58"/>
-      <c r="BE4" s="58"/>
-      <c r="BF4" s="58"/>
-      <c r="BG4" s="58"/>
-      <c r="BH4" s="58"/>
-      <c r="BI4" s="58"/>
-      <c r="BJ4" s="58"/>
-      <c r="BK4" s="58"/>
-      <c r="BL4" s="58"/>
-      <c r="BM4" s="58"/>
-      <c r="BN4" s="58"/>
-      <c r="BO4" s="58"/>
-      <c r="BP4" s="58"/>
-      <c r="BQ4" s="58"/>
-      <c r="BR4" s="58"/>
-      <c r="BS4" s="58"/>
-      <c r="BT4" s="58"/>
-      <c r="BU4" s="58"/>
-      <c r="BV4" s="58"/>
-      <c r="BW4" s="58"/>
-      <c r="BX4" s="58"/>
-      <c r="BY4" s="58"/>
-      <c r="BZ4" s="58"/>
-      <c r="CA4" s="58"/>
-      <c r="CB4" s="58"/>
-      <c r="CC4" s="58"/>
-      <c r="CD4" s="58"/>
-      <c r="CE4" s="58"/>
-      <c r="CF4" s="58"/>
-      <c r="CG4" s="58"/>
-      <c r="CH4" s="58"/>
-      <c r="CI4" s="58"/>
+      <c r="AT4" s="55"/>
+      <c r="AU4" s="55"/>
+      <c r="AV4" s="55"/>
+      <c r="AW4" s="55"/>
+      <c r="AX4" s="55"/>
+      <c r="AY4" s="55"/>
+      <c r="AZ4" s="55"/>
+      <c r="BA4" s="55"/>
+      <c r="BB4" s="55"/>
+      <c r="BC4" s="55"/>
+      <c r="BD4" s="55"/>
+      <c r="BE4" s="55"/>
+      <c r="BF4" s="55"/>
+      <c r="BG4" s="55"/>
+      <c r="BH4" s="55"/>
+      <c r="BI4" s="55"/>
+      <c r="BJ4" s="55"/>
+      <c r="BK4" s="55"/>
+      <c r="BL4" s="55"/>
+      <c r="BM4" s="55"/>
+      <c r="BN4" s="55"/>
+      <c r="BO4" s="55"/>
+      <c r="BP4" s="55"/>
+      <c r="BQ4" s="55"/>
+      <c r="BR4" s="55"/>
+      <c r="BS4" s="55"/>
+      <c r="BT4" s="55"/>
+      <c r="BU4" s="55"/>
+      <c r="BV4" s="55"/>
+      <c r="BW4" s="55"/>
+      <c r="BX4" s="55"/>
+      <c r="BY4" s="55"/>
+      <c r="BZ4" s="55"/>
+      <c r="CA4" s="55"/>
+      <c r="CB4" s="55"/>
+      <c r="CC4" s="55"/>
+      <c r="CD4" s="55"/>
+      <c r="CE4" s="55"/>
+      <c r="CF4" s="55"/>
+      <c r="CG4" s="55"/>
+      <c r="CH4" s="55"/>
+      <c r="CI4" s="55"/>
       <c r="CJ4" s="2"/>
       <c r="CK4" s="2"/>
       <c r="CL4" s="2"/>
@@ -4776,100 +4779,100 @@
     </row>
     <row r="5" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A5" s="2"/>
-      <c r="B5" s="53">
+      <c r="B5" s="72">
         <v>1</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="80" t="s">
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="81"/>
-      <c r="T5" s="81"/>
-      <c r="U5" s="81"/>
-      <c r="V5" s="81"/>
-      <c r="W5" s="81"/>
-      <c r="X5" s="81"/>
-      <c r="Y5" s="81" t="s">
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="74"/>
+      <c r="T5" s="74"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
+      <c r="W5" s="74"/>
+      <c r="X5" s="74"/>
+      <c r="Y5" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="Z5" s="81"/>
-      <c r="AA5" s="81"/>
-      <c r="AB5" s="81"/>
-      <c r="AC5" s="81"/>
-      <c r="AD5" s="81"/>
-      <c r="AE5" s="81"/>
-      <c r="AF5" s="81"/>
-      <c r="AG5" s="81"/>
-      <c r="AH5" s="81"/>
-      <c r="AI5" s="81"/>
-      <c r="AJ5" s="81"/>
-      <c r="AK5" s="81"/>
-      <c r="AL5" s="81"/>
-      <c r="AM5" s="81"/>
-      <c r="AN5" s="81"/>
-      <c r="AO5" s="81"/>
-      <c r="AP5" s="81"/>
-      <c r="AQ5" s="81"/>
-      <c r="AR5" s="81"/>
-      <c r="AS5" s="59" t="s">
+      <c r="Z5" s="74"/>
+      <c r="AA5" s="74"/>
+      <c r="AB5" s="74"/>
+      <c r="AC5" s="74"/>
+      <c r="AD5" s="74"/>
+      <c r="AE5" s="74"/>
+      <c r="AF5" s="74"/>
+      <c r="AG5" s="74"/>
+      <c r="AH5" s="74"/>
+      <c r="AI5" s="74"/>
+      <c r="AJ5" s="74"/>
+      <c r="AK5" s="74"/>
+      <c r="AL5" s="74"/>
+      <c r="AM5" s="74"/>
+      <c r="AN5" s="74"/>
+      <c r="AO5" s="74"/>
+      <c r="AP5" s="74"/>
+      <c r="AQ5" s="74"/>
+      <c r="AR5" s="74"/>
+      <c r="AS5" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="AT5" s="59"/>
-      <c r="AU5" s="59"/>
-      <c r="AV5" s="59"/>
-      <c r="AW5" s="59"/>
-      <c r="AX5" s="59"/>
-      <c r="AY5" s="59"/>
-      <c r="AZ5" s="59"/>
-      <c r="BA5" s="59"/>
-      <c r="BB5" s="59"/>
-      <c r="BC5" s="59"/>
-      <c r="BD5" s="59"/>
-      <c r="BE5" s="59"/>
-      <c r="BF5" s="59"/>
-      <c r="BG5" s="59"/>
-      <c r="BH5" s="59"/>
-      <c r="BI5" s="59"/>
-      <c r="BJ5" s="59"/>
-      <c r="BK5" s="59"/>
-      <c r="BL5" s="59"/>
-      <c r="BM5" s="59"/>
-      <c r="BN5" s="59"/>
-      <c r="BO5" s="59"/>
-      <c r="BP5" s="59"/>
-      <c r="BQ5" s="59"/>
-      <c r="BR5" s="59"/>
-      <c r="BS5" s="59"/>
-      <c r="BT5" s="59"/>
-      <c r="BU5" s="59"/>
-      <c r="BV5" s="59"/>
-      <c r="BW5" s="59"/>
-      <c r="BX5" s="59"/>
-      <c r="BY5" s="59"/>
-      <c r="BZ5" s="59"/>
-      <c r="CA5" s="59"/>
-      <c r="CB5" s="59"/>
-      <c r="CC5" s="59"/>
-      <c r="CD5" s="59"/>
-      <c r="CE5" s="59"/>
-      <c r="CF5" s="59"/>
-      <c r="CG5" s="59"/>
-      <c r="CH5" s="59"/>
-      <c r="CI5" s="59"/>
+      <c r="AT5" s="75"/>
+      <c r="AU5" s="75"/>
+      <c r="AV5" s="75"/>
+      <c r="AW5" s="75"/>
+      <c r="AX5" s="75"/>
+      <c r="AY5" s="75"/>
+      <c r="AZ5" s="75"/>
+      <c r="BA5" s="75"/>
+      <c r="BB5" s="75"/>
+      <c r="BC5" s="75"/>
+      <c r="BD5" s="75"/>
+      <c r="BE5" s="75"/>
+      <c r="BF5" s="75"/>
+      <c r="BG5" s="75"/>
+      <c r="BH5" s="75"/>
+      <c r="BI5" s="75"/>
+      <c r="BJ5" s="75"/>
+      <c r="BK5" s="75"/>
+      <c r="BL5" s="75"/>
+      <c r="BM5" s="75"/>
+      <c r="BN5" s="75"/>
+      <c r="BO5" s="75"/>
+      <c r="BP5" s="75"/>
+      <c r="BQ5" s="75"/>
+      <c r="BR5" s="75"/>
+      <c r="BS5" s="75"/>
+      <c r="BT5" s="75"/>
+      <c r="BU5" s="75"/>
+      <c r="BV5" s="75"/>
+      <c r="BW5" s="75"/>
+      <c r="BX5" s="75"/>
+      <c r="BY5" s="75"/>
+      <c r="BZ5" s="75"/>
+      <c r="CA5" s="75"/>
+      <c r="CB5" s="75"/>
+      <c r="CC5" s="75"/>
+      <c r="CD5" s="75"/>
+      <c r="CE5" s="75"/>
+      <c r="CF5" s="75"/>
+      <c r="CG5" s="75"/>
+      <c r="CH5" s="75"/>
+      <c r="CI5" s="75"/>
       <c r="CJ5" s="2"/>
       <c r="CK5" s="2"/>
       <c r="CL5" s="2"/>
@@ -5899,201 +5902,201 @@
     </row>
     <row r="7" spans="1:1025" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A7" s="26"/>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49" t="s">
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="49"/>
-      <c r="T7" s="49"/>
-      <c r="U7" s="49"/>
-      <c r="V7" s="49"/>
-      <c r="W7" s="49"/>
-      <c r="X7" s="49"/>
-      <c r="Y7" s="60" t="s">
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="61"/>
+      <c r="V7" s="61"/>
+      <c r="W7" s="61"/>
+      <c r="X7" s="61"/>
+      <c r="Y7" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="Z7" s="61"/>
-      <c r="AA7" s="61"/>
-      <c r="AB7" s="61"/>
-      <c r="AC7" s="61"/>
-      <c r="AD7" s="61"/>
-      <c r="AE7" s="61"/>
-      <c r="AF7" s="61"/>
-      <c r="AG7" s="61"/>
-      <c r="AH7" s="62"/>
-      <c r="AI7" s="60" t="s">
+      <c r="Z7" s="63"/>
+      <c r="AA7" s="63"/>
+      <c r="AB7" s="63"/>
+      <c r="AC7" s="63"/>
+      <c r="AD7" s="63"/>
+      <c r="AE7" s="63"/>
+      <c r="AF7" s="63"/>
+      <c r="AG7" s="63"/>
+      <c r="AH7" s="64"/>
+      <c r="AI7" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="AJ7" s="61"/>
-      <c r="AK7" s="61"/>
-      <c r="AL7" s="61"/>
-      <c r="AM7" s="61"/>
-      <c r="AN7" s="61"/>
-      <c r="AO7" s="61"/>
-      <c r="AP7" s="61"/>
-      <c r="AQ7" s="61"/>
-      <c r="AR7" s="62"/>
-      <c r="AS7" s="58" t="s">
+      <c r="AJ7" s="63"/>
+      <c r="AK7" s="63"/>
+      <c r="AL7" s="63"/>
+      <c r="AM7" s="63"/>
+      <c r="AN7" s="63"/>
+      <c r="AO7" s="63"/>
+      <c r="AP7" s="63"/>
+      <c r="AQ7" s="63"/>
+      <c r="AR7" s="64"/>
+      <c r="AS7" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="AT7" s="58"/>
-      <c r="AU7" s="58"/>
-      <c r="AV7" s="58"/>
-      <c r="AW7" s="58"/>
-      <c r="AX7" s="58"/>
-      <c r="AY7" s="58"/>
-      <c r="AZ7" s="58"/>
-      <c r="BA7" s="58"/>
-      <c r="BB7" s="58"/>
-      <c r="BC7" s="58"/>
-      <c r="BD7" s="58"/>
-      <c r="BE7" s="58"/>
-      <c r="BF7" s="58"/>
-      <c r="BG7" s="58"/>
-      <c r="BH7" s="58"/>
-      <c r="BI7" s="58"/>
-      <c r="BJ7" s="58"/>
-      <c r="BK7" s="58"/>
-      <c r="BL7" s="58"/>
-      <c r="BM7" s="58"/>
-      <c r="BN7" s="58"/>
-      <c r="BO7" s="58"/>
-      <c r="BP7" s="58"/>
-      <c r="BQ7" s="58"/>
-      <c r="BR7" s="58"/>
-      <c r="BS7" s="58"/>
-      <c r="BT7" s="58"/>
-      <c r="BU7" s="58"/>
-      <c r="BV7" s="58"/>
-      <c r="BW7" s="58"/>
-      <c r="BX7" s="58"/>
-      <c r="BY7" s="58"/>
-      <c r="BZ7" s="58"/>
-      <c r="CA7" s="58"/>
-      <c r="CB7" s="58"/>
-      <c r="CC7" s="58"/>
-      <c r="CD7" s="58"/>
-      <c r="CE7" s="58"/>
-      <c r="CF7" s="58"/>
-      <c r="CG7" s="58"/>
-      <c r="CH7" s="58"/>
-      <c r="CI7" s="58"/>
+      <c r="AT7" s="55"/>
+      <c r="AU7" s="55"/>
+      <c r="AV7" s="55"/>
+      <c r="AW7" s="55"/>
+      <c r="AX7" s="55"/>
+      <c r="AY7" s="55"/>
+      <c r="AZ7" s="55"/>
+      <c r="BA7" s="55"/>
+      <c r="BB7" s="55"/>
+      <c r="BC7" s="55"/>
+      <c r="BD7" s="55"/>
+      <c r="BE7" s="55"/>
+      <c r="BF7" s="55"/>
+      <c r="BG7" s="55"/>
+      <c r="BH7" s="55"/>
+      <c r="BI7" s="55"/>
+      <c r="BJ7" s="55"/>
+      <c r="BK7" s="55"/>
+      <c r="BL7" s="55"/>
+      <c r="BM7" s="55"/>
+      <c r="BN7" s="55"/>
+      <c r="BO7" s="55"/>
+      <c r="BP7" s="55"/>
+      <c r="BQ7" s="55"/>
+      <c r="BR7" s="55"/>
+      <c r="BS7" s="55"/>
+      <c r="BT7" s="55"/>
+      <c r="BU7" s="55"/>
+      <c r="BV7" s="55"/>
+      <c r="BW7" s="55"/>
+      <c r="BX7" s="55"/>
+      <c r="BY7" s="55"/>
+      <c r="BZ7" s="55"/>
+      <c r="CA7" s="55"/>
+      <c r="CB7" s="55"/>
+      <c r="CC7" s="55"/>
+      <c r="CD7" s="55"/>
+      <c r="CE7" s="55"/>
+      <c r="CF7" s="55"/>
+      <c r="CG7" s="55"/>
+      <c r="CH7" s="55"/>
+      <c r="CI7" s="55"/>
     </row>
     <row r="8" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A8" s="27"/>
-      <c r="B8" s="53">
+      <c r="B8" s="72">
         <v>1</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="82" t="s">
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="83"/>
-      <c r="L8" s="83"/>
-      <c r="M8" s="83"/>
-      <c r="N8" s="83"/>
-      <c r="O8" s="83"/>
-      <c r="P8" s="83"/>
-      <c r="Q8" s="83"/>
-      <c r="R8" s="83"/>
-      <c r="S8" s="83"/>
-      <c r="T8" s="83"/>
-      <c r="U8" s="83"/>
-      <c r="V8" s="83"/>
-      <c r="W8" s="83"/>
-      <c r="X8" s="84"/>
-      <c r="Y8" s="82" t="s">
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="66"/>
+      <c r="S8" s="66"/>
+      <c r="T8" s="66"/>
+      <c r="U8" s="66"/>
+      <c r="V8" s="66"/>
+      <c r="W8" s="66"/>
+      <c r="X8" s="67"/>
+      <c r="Y8" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="Z8" s="83"/>
-      <c r="AA8" s="83"/>
-      <c r="AB8" s="83"/>
-      <c r="AC8" s="83"/>
-      <c r="AD8" s="83"/>
-      <c r="AE8" s="83"/>
-      <c r="AF8" s="83"/>
-      <c r="AG8" s="83"/>
-      <c r="AH8" s="84"/>
-      <c r="AI8" s="82" t="s">
+      <c r="Z8" s="66"/>
+      <c r="AA8" s="66"/>
+      <c r="AB8" s="66"/>
+      <c r="AC8" s="66"/>
+      <c r="AD8" s="66"/>
+      <c r="AE8" s="66"/>
+      <c r="AF8" s="66"/>
+      <c r="AG8" s="66"/>
+      <c r="AH8" s="67"/>
+      <c r="AI8" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="AJ8" s="83"/>
-      <c r="AK8" s="83"/>
-      <c r="AL8" s="83"/>
-      <c r="AM8" s="83"/>
-      <c r="AN8" s="83"/>
-      <c r="AO8" s="83"/>
-      <c r="AP8" s="83"/>
-      <c r="AQ8" s="83"/>
-      <c r="AR8" s="84"/>
-      <c r="AS8" s="57" t="s">
+      <c r="AJ8" s="66"/>
+      <c r="AK8" s="66"/>
+      <c r="AL8" s="66"/>
+      <c r="AM8" s="66"/>
+      <c r="AN8" s="66"/>
+      <c r="AO8" s="66"/>
+      <c r="AP8" s="66"/>
+      <c r="AQ8" s="66"/>
+      <c r="AR8" s="67"/>
+      <c r="AS8" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="AT8" s="57"/>
-      <c r="AU8" s="57"/>
-      <c r="AV8" s="57"/>
-      <c r="AW8" s="57"/>
-      <c r="AX8" s="57"/>
-      <c r="AY8" s="57"/>
-      <c r="AZ8" s="57"/>
-      <c r="BA8" s="57"/>
-      <c r="BB8" s="57"/>
-      <c r="BC8" s="57"/>
-      <c r="BD8" s="57"/>
-      <c r="BE8" s="57"/>
-      <c r="BF8" s="57"/>
-      <c r="BG8" s="57"/>
-      <c r="BH8" s="57"/>
-      <c r="BI8" s="57"/>
-      <c r="BJ8" s="57"/>
-      <c r="BK8" s="57"/>
-      <c r="BL8" s="57"/>
-      <c r="BM8" s="57"/>
-      <c r="BN8" s="57"/>
-      <c r="BO8" s="57"/>
-      <c r="BP8" s="57"/>
-      <c r="BQ8" s="57"/>
-      <c r="BR8" s="57"/>
-      <c r="BS8" s="57"/>
-      <c r="BT8" s="57"/>
-      <c r="BU8" s="57"/>
-      <c r="BV8" s="57"/>
-      <c r="BW8" s="57"/>
-      <c r="BX8" s="57"/>
-      <c r="BY8" s="57"/>
-      <c r="BZ8" s="57"/>
-      <c r="CA8" s="57"/>
-      <c r="CB8" s="57"/>
-      <c r="CC8" s="57"/>
-      <c r="CD8" s="57"/>
-      <c r="CE8" s="57"/>
-      <c r="CF8" s="57"/>
-      <c r="CG8" s="57"/>
-      <c r="CH8" s="57"/>
-      <c r="CI8" s="57"/>
+      <c r="AT8" s="68"/>
+      <c r="AU8" s="68"/>
+      <c r="AV8" s="68"/>
+      <c r="AW8" s="68"/>
+      <c r="AX8" s="68"/>
+      <c r="AY8" s="68"/>
+      <c r="AZ8" s="68"/>
+      <c r="BA8" s="68"/>
+      <c r="BB8" s="68"/>
+      <c r="BC8" s="68"/>
+      <c r="BD8" s="68"/>
+      <c r="BE8" s="68"/>
+      <c r="BF8" s="68"/>
+      <c r="BG8" s="68"/>
+      <c r="BH8" s="68"/>
+      <c r="BI8" s="68"/>
+      <c r="BJ8" s="68"/>
+      <c r="BK8" s="68"/>
+      <c r="BL8" s="68"/>
+      <c r="BM8" s="68"/>
+      <c r="BN8" s="68"/>
+      <c r="BO8" s="68"/>
+      <c r="BP8" s="68"/>
+      <c r="BQ8" s="68"/>
+      <c r="BR8" s="68"/>
+      <c r="BS8" s="68"/>
+      <c r="BT8" s="68"/>
+      <c r="BU8" s="68"/>
+      <c r="BV8" s="68"/>
+      <c r="BW8" s="68"/>
+      <c r="BX8" s="68"/>
+      <c r="BY8" s="68"/>
+      <c r="BZ8" s="68"/>
+      <c r="CA8" s="68"/>
+      <c r="CB8" s="68"/>
+      <c r="CC8" s="68"/>
+      <c r="CD8" s="68"/>
+      <c r="CE8" s="68"/>
+      <c r="CF8" s="68"/>
+      <c r="CG8" s="68"/>
+      <c r="CH8" s="68"/>
+      <c r="CI8" s="68"/>
       <c r="CJ8" s="1"/>
       <c r="CK8" s="1"/>
       <c r="CL8" s="1"/>
@@ -9096,69 +9099,69 @@
       <c r="E11" s="29"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="37" t="s">
+      <c r="H11" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="38"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="40" t="s">
+      <c r="I11" s="57"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="41"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="38"/>
-      <c r="V11" s="38"/>
-      <c r="W11" s="38"/>
-      <c r="X11" s="38"/>
-      <c r="Y11" s="39"/>
-      <c r="Z11" s="37" t="s">
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="60"/>
+      <c r="R11" s="60"/>
+      <c r="S11" s="60"/>
+      <c r="T11" s="60"/>
+      <c r="U11" s="57"/>
+      <c r="V11" s="57"/>
+      <c r="W11" s="57"/>
+      <c r="X11" s="57"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="AA11" s="42"/>
-      <c r="AB11" s="42"/>
-      <c r="AC11" s="42"/>
-      <c r="AD11" s="42"/>
-      <c r="AE11" s="42"/>
-      <c r="AF11" s="42"/>
-      <c r="AG11" s="42"/>
-      <c r="AH11" s="42"/>
-      <c r="AI11" s="42"/>
-      <c r="AJ11" s="42"/>
-      <c r="AK11" s="42"/>
-      <c r="AL11" s="42"/>
-      <c r="AM11" s="42"/>
-      <c r="AN11" s="42"/>
-      <c r="AO11" s="42"/>
-      <c r="AP11" s="42"/>
-      <c r="AQ11" s="42"/>
-      <c r="AR11" s="42"/>
-      <c r="AS11" s="42"/>
-      <c r="AT11" s="42"/>
-      <c r="AU11" s="42"/>
-      <c r="AV11" s="42"/>
-      <c r="AW11" s="42"/>
-      <c r="AX11" s="42"/>
-      <c r="AY11" s="42"/>
-      <c r="AZ11" s="42"/>
-      <c r="BA11" s="42"/>
-      <c r="BB11" s="42"/>
-      <c r="BC11" s="42"/>
-      <c r="BD11" s="42"/>
-      <c r="BE11" s="42"/>
-      <c r="BF11" s="42"/>
-      <c r="BG11" s="42"/>
-      <c r="BH11" s="42"/>
-      <c r="BI11" s="42"/>
-      <c r="BJ11" s="42"/>
-      <c r="BK11" s="42"/>
-      <c r="BL11" s="43"/>
+      <c r="AA11" s="36"/>
+      <c r="AB11" s="36"/>
+      <c r="AC11" s="36"/>
+      <c r="AD11" s="36"/>
+      <c r="AE11" s="36"/>
+      <c r="AF11" s="36"/>
+      <c r="AG11" s="36"/>
+      <c r="AH11" s="36"/>
+      <c r="AI11" s="36"/>
+      <c r="AJ11" s="36"/>
+      <c r="AK11" s="36"/>
+      <c r="AL11" s="36"/>
+      <c r="AM11" s="36"/>
+      <c r="AN11" s="36"/>
+      <c r="AO11" s="36"/>
+      <c r="AP11" s="36"/>
+      <c r="AQ11" s="36"/>
+      <c r="AR11" s="36"/>
+      <c r="AS11" s="36"/>
+      <c r="AT11" s="36"/>
+      <c r="AU11" s="36"/>
+      <c r="AV11" s="36"/>
+      <c r="AW11" s="36"/>
+      <c r="AX11" s="36"/>
+      <c r="AY11" s="36"/>
+      <c r="AZ11" s="36"/>
+      <c r="BA11" s="36"/>
+      <c r="BB11" s="36"/>
+      <c r="BC11" s="36"/>
+      <c r="BD11" s="36"/>
+      <c r="BE11" s="36"/>
+      <c r="BF11" s="36"/>
+      <c r="BG11" s="36"/>
+      <c r="BH11" s="36"/>
+      <c r="BI11" s="36"/>
+      <c r="BJ11" s="36"/>
+      <c r="BK11" s="36"/>
+      <c r="BL11" s="37"/>
       <c r="BM11" s="9"/>
       <c r="BN11" s="9"/>
       <c r="BO11" s="9"/>
@@ -10128,69 +10131,69 @@
       <c r="E12" s="29"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="44">
+      <c r="H12" s="54">
         <v>1</v>
       </c>
-      <c r="I12" s="42"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="45" t="s">
-        <v>45</v>
+      <c r="I12" s="36"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="76" t="s">
+        <v>44</v>
       </c>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="46"/>
-      <c r="S12" s="46"/>
-      <c r="T12" s="46"/>
-      <c r="U12" s="46"/>
-      <c r="V12" s="46"/>
-      <c r="W12" s="46"/>
-      <c r="X12" s="46"/>
-      <c r="Y12" s="47"/>
-      <c r="Z12" s="44" t="s">
-        <v>43</v>
+      <c r="L12" s="77"/>
+      <c r="M12" s="77"/>
+      <c r="N12" s="77"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="77"/>
+      <c r="Q12" s="77"/>
+      <c r="R12" s="77"/>
+      <c r="S12" s="77"/>
+      <c r="T12" s="77"/>
+      <c r="U12" s="77"/>
+      <c r="V12" s="77"/>
+      <c r="W12" s="77"/>
+      <c r="X12" s="77"/>
+      <c r="Y12" s="78"/>
+      <c r="Z12" s="54" t="s">
+        <v>42</v>
       </c>
-      <c r="AA12" s="42"/>
-      <c r="AB12" s="42"/>
-      <c r="AC12" s="42"/>
-      <c r="AD12" s="42"/>
-      <c r="AE12" s="42"/>
-      <c r="AF12" s="42"/>
-      <c r="AG12" s="42"/>
-      <c r="AH12" s="42"/>
-      <c r="AI12" s="42"/>
-      <c r="AJ12" s="42"/>
-      <c r="AK12" s="42"/>
-      <c r="AL12" s="42"/>
-      <c r="AM12" s="42"/>
-      <c r="AN12" s="42"/>
-      <c r="AO12" s="42"/>
-      <c r="AP12" s="42"/>
-      <c r="AQ12" s="42"/>
-      <c r="AR12" s="42"/>
-      <c r="AS12" s="42"/>
-      <c r="AT12" s="42"/>
-      <c r="AU12" s="42"/>
-      <c r="AV12" s="42"/>
-      <c r="AW12" s="42"/>
-      <c r="AX12" s="42"/>
-      <c r="AY12" s="42"/>
-      <c r="AZ12" s="42"/>
-      <c r="BA12" s="42"/>
-      <c r="BB12" s="42"/>
-      <c r="BC12" s="42"/>
-      <c r="BD12" s="42"/>
-      <c r="BE12" s="42"/>
-      <c r="BF12" s="42"/>
-      <c r="BG12" s="42"/>
-      <c r="BH12" s="42"/>
-      <c r="BI12" s="42"/>
-      <c r="BJ12" s="42"/>
-      <c r="BK12" s="42"/>
-      <c r="BL12" s="43"/>
+      <c r="AA12" s="36"/>
+      <c r="AB12" s="36"/>
+      <c r="AC12" s="36"/>
+      <c r="AD12" s="36"/>
+      <c r="AE12" s="36"/>
+      <c r="AF12" s="36"/>
+      <c r="AG12" s="36"/>
+      <c r="AH12" s="36"/>
+      <c r="AI12" s="36"/>
+      <c r="AJ12" s="36"/>
+      <c r="AK12" s="36"/>
+      <c r="AL12" s="36"/>
+      <c r="AM12" s="36"/>
+      <c r="AN12" s="36"/>
+      <c r="AO12" s="36"/>
+      <c r="AP12" s="36"/>
+      <c r="AQ12" s="36"/>
+      <c r="AR12" s="36"/>
+      <c r="AS12" s="36"/>
+      <c r="AT12" s="36"/>
+      <c r="AU12" s="36"/>
+      <c r="AV12" s="36"/>
+      <c r="AW12" s="36"/>
+      <c r="AX12" s="36"/>
+      <c r="AY12" s="36"/>
+      <c r="AZ12" s="36"/>
+      <c r="BA12" s="36"/>
+      <c r="BB12" s="36"/>
+      <c r="BC12" s="36"/>
+      <c r="BD12" s="36"/>
+      <c r="BE12" s="36"/>
+      <c r="BF12" s="36"/>
+      <c r="BG12" s="36"/>
+      <c r="BH12" s="36"/>
+      <c r="BI12" s="36"/>
+      <c r="BJ12" s="36"/>
+      <c r="BK12" s="36"/>
+      <c r="BL12" s="37"/>
       <c r="BM12" s="9"/>
       <c r="BN12" s="9"/>
       <c r="BO12" s="9"/>
@@ -12184,75 +12187,75 @@
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="17"/>
-      <c r="F14" s="63" t="s">
-        <v>44</v>
+      <c r="F14" s="79" t="s">
+        <v>43</v>
       </c>
-      <c r="G14" s="63"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="64"/>
-      <c r="O14" s="64"/>
-      <c r="P14" s="64"/>
-      <c r="Q14" s="64"/>
-      <c r="R14" s="64"/>
-      <c r="S14" s="64"/>
-      <c r="T14" s="64"/>
-      <c r="U14" s="64"/>
-      <c r="V14" s="64"/>
-      <c r="W14" s="64"/>
-      <c r="X14" s="64"/>
-      <c r="Y14" s="64"/>
-      <c r="Z14" s="64"/>
-      <c r="AA14" s="64"/>
-      <c r="AB14" s="64"/>
-      <c r="AC14" s="64"/>
-      <c r="AD14" s="64"/>
-      <c r="AE14" s="64"/>
-      <c r="AF14" s="64"/>
-      <c r="AG14" s="64"/>
-      <c r="AH14" s="64"/>
-      <c r="AI14" s="64"/>
-      <c r="AJ14" s="64"/>
-      <c r="AK14" s="64"/>
-      <c r="AL14" s="64"/>
-      <c r="AM14" s="64"/>
-      <c r="AN14" s="64"/>
-      <c r="AO14" s="64"/>
-      <c r="AP14" s="64"/>
-      <c r="AQ14" s="64"/>
-      <c r="AR14" s="64"/>
-      <c r="AS14" s="64"/>
-      <c r="AT14" s="64"/>
-      <c r="AU14" s="64"/>
-      <c r="AV14" s="64"/>
-      <c r="AW14" s="64"/>
-      <c r="AX14" s="64"/>
-      <c r="AY14" s="64"/>
-      <c r="AZ14" s="64"/>
-      <c r="BA14" s="64"/>
-      <c r="BB14" s="64"/>
-      <c r="BC14" s="64"/>
-      <c r="BD14" s="64"/>
-      <c r="BE14" s="64"/>
-      <c r="BF14" s="64"/>
-      <c r="BG14" s="64"/>
-      <c r="BH14" s="64"/>
-      <c r="BI14" s="64"/>
-      <c r="BJ14" s="64"/>
-      <c r="BK14" s="64"/>
-      <c r="BL14" s="64"/>
-      <c r="BM14" s="63"/>
-      <c r="BN14" s="63"/>
-      <c r="BO14" s="63"/>
-      <c r="BP14" s="63"/>
-      <c r="BQ14" s="63"/>
-      <c r="BR14" s="63"/>
-      <c r="BS14" s="63"/>
-      <c r="BT14" s="63"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="80"/>
+      <c r="O14" s="80"/>
+      <c r="P14" s="80"/>
+      <c r="Q14" s="80"/>
+      <c r="R14" s="80"/>
+      <c r="S14" s="80"/>
+      <c r="T14" s="80"/>
+      <c r="U14" s="80"/>
+      <c r="V14" s="80"/>
+      <c r="W14" s="80"/>
+      <c r="X14" s="80"/>
+      <c r="Y14" s="80"/>
+      <c r="Z14" s="80"/>
+      <c r="AA14" s="80"/>
+      <c r="AB14" s="80"/>
+      <c r="AC14" s="80"/>
+      <c r="AD14" s="80"/>
+      <c r="AE14" s="80"/>
+      <c r="AF14" s="80"/>
+      <c r="AG14" s="80"/>
+      <c r="AH14" s="80"/>
+      <c r="AI14" s="80"/>
+      <c r="AJ14" s="80"/>
+      <c r="AK14" s="80"/>
+      <c r="AL14" s="80"/>
+      <c r="AM14" s="80"/>
+      <c r="AN14" s="80"/>
+      <c r="AO14" s="80"/>
+      <c r="AP14" s="80"/>
+      <c r="AQ14" s="80"/>
+      <c r="AR14" s="80"/>
+      <c r="AS14" s="80"/>
+      <c r="AT14" s="80"/>
+      <c r="AU14" s="80"/>
+      <c r="AV14" s="80"/>
+      <c r="AW14" s="80"/>
+      <c r="AX14" s="80"/>
+      <c r="AY14" s="80"/>
+      <c r="AZ14" s="80"/>
+      <c r="BA14" s="80"/>
+      <c r="BB14" s="80"/>
+      <c r="BC14" s="80"/>
+      <c r="BD14" s="80"/>
+      <c r="BE14" s="80"/>
+      <c r="BF14" s="80"/>
+      <c r="BG14" s="80"/>
+      <c r="BH14" s="80"/>
+      <c r="BI14" s="80"/>
+      <c r="BJ14" s="80"/>
+      <c r="BK14" s="80"/>
+      <c r="BL14" s="80"/>
+      <c r="BM14" s="79"/>
+      <c r="BN14" s="79"/>
+      <c r="BO14" s="79"/>
+      <c r="BP14" s="79"/>
+      <c r="BQ14" s="79"/>
+      <c r="BR14" s="79"/>
+      <c r="BS14" s="79"/>
+      <c r="BT14" s="79"/>
       <c r="BU14" s="17"/>
       <c r="BV14" s="17"/>
       <c r="BW14" s="17"/>
@@ -13214,64 +13217,64 @@
       <c r="E15" s="17"/>
       <c r="F15" s="32"/>
       <c r="G15" s="32"/>
-      <c r="H15" s="65" t="s">
+      <c r="H15" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="66"/>
-      <c r="S15" s="66"/>
-      <c r="T15" s="66"/>
-      <c r="U15" s="66"/>
-      <c r="V15" s="66"/>
-      <c r="W15" s="66"/>
-      <c r="X15" s="66"/>
-      <c r="Y15" s="66"/>
-      <c r="Z15" s="66"/>
-      <c r="AA15" s="66"/>
-      <c r="AB15" s="66"/>
-      <c r="AC15" s="66"/>
-      <c r="AD15" s="66"/>
-      <c r="AE15" s="66"/>
-      <c r="AF15" s="66"/>
-      <c r="AG15" s="66"/>
-      <c r="AH15" s="66"/>
-      <c r="AI15" s="66"/>
-      <c r="AJ15" s="66"/>
-      <c r="AK15" s="66"/>
-      <c r="AL15" s="66"/>
-      <c r="AM15" s="66"/>
-      <c r="AN15" s="66"/>
-      <c r="AO15" s="66"/>
-      <c r="AP15" s="66"/>
-      <c r="AQ15" s="66"/>
-      <c r="AR15" s="66"/>
-      <c r="AS15" s="66"/>
-      <c r="AT15" s="66"/>
-      <c r="AU15" s="66"/>
-      <c r="AV15" s="66"/>
-      <c r="AW15" s="66"/>
-      <c r="AX15" s="66"/>
-      <c r="AY15" s="66"/>
-      <c r="AZ15" s="66"/>
-      <c r="BA15" s="66"/>
-      <c r="BB15" s="66"/>
-      <c r="BC15" s="66"/>
-      <c r="BD15" s="66"/>
-      <c r="BE15" s="66"/>
-      <c r="BF15" s="66"/>
-      <c r="BG15" s="66"/>
-      <c r="BH15" s="66"/>
-      <c r="BI15" s="66"/>
-      <c r="BJ15" s="66"/>
-      <c r="BK15" s="66"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="82"/>
+      <c r="N15" s="82"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="82"/>
+      <c r="Q15" s="82"/>
+      <c r="R15" s="82"/>
+      <c r="S15" s="82"/>
+      <c r="T15" s="82"/>
+      <c r="U15" s="82"/>
+      <c r="V15" s="82"/>
+      <c r="W15" s="82"/>
+      <c r="X15" s="82"/>
+      <c r="Y15" s="82"/>
+      <c r="Z15" s="82"/>
+      <c r="AA15" s="82"/>
+      <c r="AB15" s="82"/>
+      <c r="AC15" s="82"/>
+      <c r="AD15" s="82"/>
+      <c r="AE15" s="82"/>
+      <c r="AF15" s="82"/>
+      <c r="AG15" s="82"/>
+      <c r="AH15" s="82"/>
+      <c r="AI15" s="82"/>
+      <c r="AJ15" s="82"/>
+      <c r="AK15" s="82"/>
+      <c r="AL15" s="82"/>
+      <c r="AM15" s="82"/>
+      <c r="AN15" s="82"/>
+      <c r="AO15" s="82"/>
+      <c r="AP15" s="82"/>
+      <c r="AQ15" s="82"/>
+      <c r="AR15" s="82"/>
+      <c r="AS15" s="82"/>
+      <c r="AT15" s="82"/>
+      <c r="AU15" s="82"/>
+      <c r="AV15" s="82"/>
+      <c r="AW15" s="82"/>
+      <c r="AX15" s="82"/>
+      <c r="AY15" s="82"/>
+      <c r="AZ15" s="82"/>
+      <c r="BA15" s="82"/>
+      <c r="BB15" s="82"/>
+      <c r="BC15" s="82"/>
+      <c r="BD15" s="82"/>
+      <c r="BE15" s="82"/>
+      <c r="BF15" s="82"/>
+      <c r="BG15" s="82"/>
+      <c r="BH15" s="82"/>
+      <c r="BI15" s="82"/>
+      <c r="BJ15" s="82"/>
+      <c r="BK15" s="82"/>
       <c r="BL15" s="21"/>
       <c r="BM15" s="32"/>
       <c r="BN15" s="32"/>
@@ -14242,65 +14245,65 @@
       <c r="E16" s="17"/>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
-      <c r="H16" s="67" t="s">
-        <v>46</v>
+      <c r="H16" s="83" t="s">
+        <v>45</v>
       </c>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="68"/>
-      <c r="R16" s="68"/>
-      <c r="S16" s="68"/>
-      <c r="T16" s="68"/>
-      <c r="U16" s="68"/>
-      <c r="V16" s="68"/>
-      <c r="W16" s="68"/>
-      <c r="X16" s="68"/>
-      <c r="Y16" s="68"/>
-      <c r="Z16" s="68"/>
-      <c r="AA16" s="68"/>
-      <c r="AB16" s="68"/>
-      <c r="AC16" s="68"/>
-      <c r="AD16" s="68"/>
-      <c r="AE16" s="68"/>
-      <c r="AF16" s="68"/>
-      <c r="AG16" s="68"/>
-      <c r="AH16" s="68"/>
-      <c r="AI16" s="68"/>
-      <c r="AJ16" s="68"/>
-      <c r="AK16" s="68"/>
-      <c r="AL16" s="68"/>
-      <c r="AM16" s="68"/>
-      <c r="AN16" s="68"/>
-      <c r="AO16" s="68"/>
-      <c r="AP16" s="68"/>
-      <c r="AQ16" s="68"/>
-      <c r="AR16" s="68"/>
-      <c r="AS16" s="68"/>
-      <c r="AT16" s="68"/>
-      <c r="AU16" s="68"/>
-      <c r="AV16" s="68"/>
-      <c r="AW16" s="68"/>
-      <c r="AX16" s="68"/>
-      <c r="AY16" s="68"/>
-      <c r="AZ16" s="68"/>
-      <c r="BA16" s="68"/>
-      <c r="BB16" s="68"/>
-      <c r="BC16" s="68"/>
-      <c r="BD16" s="68"/>
-      <c r="BE16" s="68"/>
-      <c r="BF16" s="68"/>
-      <c r="BG16" s="68"/>
-      <c r="BH16" s="68"/>
-      <c r="BI16" s="68"/>
-      <c r="BJ16" s="68"/>
-      <c r="BK16" s="68"/>
-      <c r="BL16" s="69"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="84"/>
+      <c r="N16" s="84"/>
+      <c r="O16" s="84"/>
+      <c r="P16" s="84"/>
+      <c r="Q16" s="84"/>
+      <c r="R16" s="84"/>
+      <c r="S16" s="84"/>
+      <c r="T16" s="84"/>
+      <c r="U16" s="84"/>
+      <c r="V16" s="84"/>
+      <c r="W16" s="84"/>
+      <c r="X16" s="84"/>
+      <c r="Y16" s="84"/>
+      <c r="Z16" s="84"/>
+      <c r="AA16" s="84"/>
+      <c r="AB16" s="84"/>
+      <c r="AC16" s="84"/>
+      <c r="AD16" s="84"/>
+      <c r="AE16" s="84"/>
+      <c r="AF16" s="84"/>
+      <c r="AG16" s="84"/>
+      <c r="AH16" s="84"/>
+      <c r="AI16" s="84"/>
+      <c r="AJ16" s="84"/>
+      <c r="AK16" s="84"/>
+      <c r="AL16" s="84"/>
+      <c r="AM16" s="84"/>
+      <c r="AN16" s="84"/>
+      <c r="AO16" s="84"/>
+      <c r="AP16" s="84"/>
+      <c r="AQ16" s="84"/>
+      <c r="AR16" s="84"/>
+      <c r="AS16" s="84"/>
+      <c r="AT16" s="84"/>
+      <c r="AU16" s="84"/>
+      <c r="AV16" s="84"/>
+      <c r="AW16" s="84"/>
+      <c r="AX16" s="84"/>
+      <c r="AY16" s="84"/>
+      <c r="AZ16" s="84"/>
+      <c r="BA16" s="84"/>
+      <c r="BB16" s="84"/>
+      <c r="BC16" s="84"/>
+      <c r="BD16" s="84"/>
+      <c r="BE16" s="84"/>
+      <c r="BF16" s="84"/>
+      <c r="BG16" s="84"/>
+      <c r="BH16" s="84"/>
+      <c r="BI16" s="84"/>
+      <c r="BJ16" s="84"/>
+      <c r="BK16" s="84"/>
+      <c r="BL16" s="85"/>
       <c r="BM16" s="32"/>
       <c r="BN16" s="32"/>
       <c r="BO16" s="32"/>
@@ -15270,63 +15273,63 @@
       <c r="E17" s="17"/>
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="71"/>
-      <c r="S17" s="71"/>
-      <c r="T17" s="71"/>
-      <c r="U17" s="71"/>
-      <c r="V17" s="71"/>
-      <c r="W17" s="71"/>
-      <c r="X17" s="71"/>
-      <c r="Y17" s="71"/>
-      <c r="Z17" s="71"/>
-      <c r="AA17" s="71"/>
-      <c r="AB17" s="71"/>
-      <c r="AC17" s="71"/>
-      <c r="AD17" s="71"/>
-      <c r="AE17" s="71"/>
-      <c r="AF17" s="71"/>
-      <c r="AG17" s="71"/>
-      <c r="AH17" s="71"/>
-      <c r="AI17" s="71"/>
-      <c r="AJ17" s="71"/>
-      <c r="AK17" s="71"/>
-      <c r="AL17" s="71"/>
-      <c r="AM17" s="71"/>
-      <c r="AN17" s="71"/>
-      <c r="AO17" s="71"/>
-      <c r="AP17" s="71"/>
-      <c r="AQ17" s="71"/>
-      <c r="AR17" s="71"/>
-      <c r="AS17" s="71"/>
-      <c r="AT17" s="71"/>
-      <c r="AU17" s="71"/>
-      <c r="AV17" s="71"/>
-      <c r="AW17" s="71"/>
-      <c r="AX17" s="71"/>
-      <c r="AY17" s="71"/>
-      <c r="AZ17" s="71"/>
-      <c r="BA17" s="71"/>
-      <c r="BB17" s="71"/>
-      <c r="BC17" s="71"/>
-      <c r="BD17" s="71"/>
-      <c r="BE17" s="71"/>
-      <c r="BF17" s="71"/>
-      <c r="BG17" s="71"/>
-      <c r="BH17" s="71"/>
-      <c r="BI17" s="71"/>
-      <c r="BJ17" s="71"/>
-      <c r="BK17" s="71"/>
-      <c r="BL17" s="72"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="87"/>
+      <c r="R17" s="87"/>
+      <c r="S17" s="87"/>
+      <c r="T17" s="87"/>
+      <c r="U17" s="87"/>
+      <c r="V17" s="87"/>
+      <c r="W17" s="87"/>
+      <c r="X17" s="87"/>
+      <c r="Y17" s="87"/>
+      <c r="Z17" s="87"/>
+      <c r="AA17" s="87"/>
+      <c r="AB17" s="87"/>
+      <c r="AC17" s="87"/>
+      <c r="AD17" s="87"/>
+      <c r="AE17" s="87"/>
+      <c r="AF17" s="87"/>
+      <c r="AG17" s="87"/>
+      <c r="AH17" s="87"/>
+      <c r="AI17" s="87"/>
+      <c r="AJ17" s="87"/>
+      <c r="AK17" s="87"/>
+      <c r="AL17" s="87"/>
+      <c r="AM17" s="87"/>
+      <c r="AN17" s="87"/>
+      <c r="AO17" s="87"/>
+      <c r="AP17" s="87"/>
+      <c r="AQ17" s="87"/>
+      <c r="AR17" s="87"/>
+      <c r="AS17" s="87"/>
+      <c r="AT17" s="87"/>
+      <c r="AU17" s="87"/>
+      <c r="AV17" s="87"/>
+      <c r="AW17" s="87"/>
+      <c r="AX17" s="87"/>
+      <c r="AY17" s="87"/>
+      <c r="AZ17" s="87"/>
+      <c r="BA17" s="87"/>
+      <c r="BB17" s="87"/>
+      <c r="BC17" s="87"/>
+      <c r="BD17" s="87"/>
+      <c r="BE17" s="87"/>
+      <c r="BF17" s="87"/>
+      <c r="BG17" s="87"/>
+      <c r="BH17" s="87"/>
+      <c r="BI17" s="87"/>
+      <c r="BJ17" s="87"/>
+      <c r="BK17" s="87"/>
+      <c r="BL17" s="88"/>
       <c r="BM17" s="32"/>
       <c r="BN17" s="32"/>
       <c r="BO17" s="32"/>
@@ -16296,63 +16299,63 @@
       <c r="E18" s="17"/>
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="74"/>
-      <c r="M18" s="74"/>
-      <c r="N18" s="74"/>
-      <c r="O18" s="74"/>
-      <c r="P18" s="74"/>
-      <c r="Q18" s="74"/>
-      <c r="R18" s="74"/>
-      <c r="S18" s="74"/>
-      <c r="T18" s="74"/>
-      <c r="U18" s="74"/>
-      <c r="V18" s="74"/>
-      <c r="W18" s="74"/>
-      <c r="X18" s="74"/>
-      <c r="Y18" s="74"/>
-      <c r="Z18" s="74"/>
-      <c r="AA18" s="74"/>
-      <c r="AB18" s="74"/>
-      <c r="AC18" s="74"/>
-      <c r="AD18" s="74"/>
-      <c r="AE18" s="74"/>
-      <c r="AF18" s="74"/>
-      <c r="AG18" s="74"/>
-      <c r="AH18" s="74"/>
-      <c r="AI18" s="74"/>
-      <c r="AJ18" s="74"/>
-      <c r="AK18" s="74"/>
-      <c r="AL18" s="74"/>
-      <c r="AM18" s="74"/>
-      <c r="AN18" s="74"/>
-      <c r="AO18" s="74"/>
-      <c r="AP18" s="74"/>
-      <c r="AQ18" s="74"/>
-      <c r="AR18" s="74"/>
-      <c r="AS18" s="74"/>
-      <c r="AT18" s="74"/>
-      <c r="AU18" s="74"/>
-      <c r="AV18" s="74"/>
-      <c r="AW18" s="74"/>
-      <c r="AX18" s="74"/>
-      <c r="AY18" s="74"/>
-      <c r="AZ18" s="74"/>
-      <c r="BA18" s="74"/>
-      <c r="BB18" s="74"/>
-      <c r="BC18" s="74"/>
-      <c r="BD18" s="74"/>
-      <c r="BE18" s="74"/>
-      <c r="BF18" s="74"/>
-      <c r="BG18" s="74"/>
-      <c r="BH18" s="74"/>
-      <c r="BI18" s="74"/>
-      <c r="BJ18" s="74"/>
-      <c r="BK18" s="74"/>
-      <c r="BL18" s="75"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="90"/>
+      <c r="L18" s="90"/>
+      <c r="M18" s="90"/>
+      <c r="N18" s="90"/>
+      <c r="O18" s="90"/>
+      <c r="P18" s="90"/>
+      <c r="Q18" s="90"/>
+      <c r="R18" s="90"/>
+      <c r="S18" s="90"/>
+      <c r="T18" s="90"/>
+      <c r="U18" s="90"/>
+      <c r="V18" s="90"/>
+      <c r="W18" s="90"/>
+      <c r="X18" s="90"/>
+      <c r="Y18" s="90"/>
+      <c r="Z18" s="90"/>
+      <c r="AA18" s="90"/>
+      <c r="AB18" s="90"/>
+      <c r="AC18" s="90"/>
+      <c r="AD18" s="90"/>
+      <c r="AE18" s="90"/>
+      <c r="AF18" s="90"/>
+      <c r="AG18" s="90"/>
+      <c r="AH18" s="90"/>
+      <c r="AI18" s="90"/>
+      <c r="AJ18" s="90"/>
+      <c r="AK18" s="90"/>
+      <c r="AL18" s="90"/>
+      <c r="AM18" s="90"/>
+      <c r="AN18" s="90"/>
+      <c r="AO18" s="90"/>
+      <c r="AP18" s="90"/>
+      <c r="AQ18" s="90"/>
+      <c r="AR18" s="90"/>
+      <c r="AS18" s="90"/>
+      <c r="AT18" s="90"/>
+      <c r="AU18" s="90"/>
+      <c r="AV18" s="90"/>
+      <c r="AW18" s="90"/>
+      <c r="AX18" s="90"/>
+      <c r="AY18" s="90"/>
+      <c r="AZ18" s="90"/>
+      <c r="BA18" s="90"/>
+      <c r="BB18" s="90"/>
+      <c r="BC18" s="90"/>
+      <c r="BD18" s="90"/>
+      <c r="BE18" s="90"/>
+      <c r="BF18" s="90"/>
+      <c r="BG18" s="90"/>
+      <c r="BH18" s="90"/>
+      <c r="BI18" s="90"/>
+      <c r="BJ18" s="90"/>
+      <c r="BK18" s="90"/>
+      <c r="BL18" s="91"/>
       <c r="BM18" s="32"/>
       <c r="BN18" s="32"/>
       <c r="BO18" s="32"/>
@@ -18342,94 +18345,94 @@
     </row>
     <row r="20" spans="1:1024" ht="18" customHeight="1">
       <c r="A20" s="28"/>
-      <c r="B20" s="76" t="s">
-        <v>39</v>
+      <c r="B20" s="69" t="s">
+        <v>48</v>
       </c>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="77"/>
-      <c r="O20" s="77"/>
-      <c r="P20" s="77"/>
-      <c r="Q20" s="77"/>
-      <c r="R20" s="77"/>
-      <c r="S20" s="77"/>
-      <c r="T20" s="77"/>
-      <c r="U20" s="77"/>
-      <c r="V20" s="77"/>
-      <c r="W20" s="77"/>
-      <c r="X20" s="77"/>
-      <c r="Y20" s="77"/>
-      <c r="Z20" s="77"/>
-      <c r="AA20" s="77"/>
-      <c r="AB20" s="77"/>
-      <c r="AC20" s="77"/>
-      <c r="AD20" s="77"/>
-      <c r="AE20" s="77"/>
-      <c r="AF20" s="77"/>
-      <c r="AG20" s="77"/>
-      <c r="AH20" s="77"/>
-      <c r="AI20" s="77"/>
-      <c r="AJ20" s="77"/>
-      <c r="AK20" s="77"/>
-      <c r="AL20" s="77"/>
-      <c r="AM20" s="77"/>
-      <c r="AN20" s="77"/>
-      <c r="AO20" s="77"/>
-      <c r="AP20" s="77"/>
-      <c r="AQ20" s="77"/>
-      <c r="AR20" s="77"/>
-      <c r="AS20" s="77"/>
-      <c r="AT20" s="77"/>
-      <c r="AU20" s="77"/>
-      <c r="AV20" s="77"/>
-      <c r="AW20" s="77"/>
-      <c r="AX20" s="77"/>
-      <c r="AY20" s="77"/>
-      <c r="AZ20" s="77"/>
-      <c r="BA20" s="77"/>
-      <c r="BB20" s="77"/>
-      <c r="BC20" s="77"/>
-      <c r="BD20" s="77"/>
-      <c r="BE20" s="77"/>
-      <c r="BF20" s="77"/>
-      <c r="BG20" s="77"/>
-      <c r="BH20" s="77"/>
-      <c r="BI20" s="77"/>
-      <c r="BJ20" s="77"/>
-      <c r="BK20" s="77"/>
-      <c r="BL20" s="77"/>
-      <c r="BM20" s="77"/>
-      <c r="BN20" s="77"/>
-      <c r="BO20" s="77"/>
-      <c r="BP20" s="77"/>
-      <c r="BQ20" s="77"/>
-      <c r="BR20" s="77"/>
-      <c r="BS20" s="77"/>
-      <c r="BT20" s="77"/>
-      <c r="BU20" s="77"/>
-      <c r="BV20" s="77"/>
-      <c r="BW20" s="77"/>
-      <c r="BX20" s="77"/>
-      <c r="BY20" s="77"/>
-      <c r="BZ20" s="77"/>
-      <c r="CA20" s="77"/>
-      <c r="CB20" s="77"/>
-      <c r="CC20" s="77"/>
-      <c r="CD20" s="77"/>
-      <c r="CE20" s="77"/>
-      <c r="CF20" s="77"/>
-      <c r="CG20" s="77"/>
-      <c r="CH20" s="77"/>
-      <c r="CI20" s="78"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="70"/>
+      <c r="P20" s="70"/>
+      <c r="Q20" s="70"/>
+      <c r="R20" s="70"/>
+      <c r="S20" s="70"/>
+      <c r="T20" s="70"/>
+      <c r="U20" s="70"/>
+      <c r="V20" s="70"/>
+      <c r="W20" s="70"/>
+      <c r="X20" s="70"/>
+      <c r="Y20" s="70"/>
+      <c r="Z20" s="70"/>
+      <c r="AA20" s="70"/>
+      <c r="AB20" s="70"/>
+      <c r="AC20" s="70"/>
+      <c r="AD20" s="70"/>
+      <c r="AE20" s="70"/>
+      <c r="AF20" s="70"/>
+      <c r="AG20" s="70"/>
+      <c r="AH20" s="70"/>
+      <c r="AI20" s="70"/>
+      <c r="AJ20" s="70"/>
+      <c r="AK20" s="70"/>
+      <c r="AL20" s="70"/>
+      <c r="AM20" s="70"/>
+      <c r="AN20" s="70"/>
+      <c r="AO20" s="70"/>
+      <c r="AP20" s="70"/>
+      <c r="AQ20" s="70"/>
+      <c r="AR20" s="70"/>
+      <c r="AS20" s="70"/>
+      <c r="AT20" s="70"/>
+      <c r="AU20" s="70"/>
+      <c r="AV20" s="70"/>
+      <c r="AW20" s="70"/>
+      <c r="AX20" s="70"/>
+      <c r="AY20" s="70"/>
+      <c r="AZ20" s="70"/>
+      <c r="BA20" s="70"/>
+      <c r="BB20" s="70"/>
+      <c r="BC20" s="70"/>
+      <c r="BD20" s="70"/>
+      <c r="BE20" s="70"/>
+      <c r="BF20" s="70"/>
+      <c r="BG20" s="70"/>
+      <c r="BH20" s="70"/>
+      <c r="BI20" s="70"/>
+      <c r="BJ20" s="70"/>
+      <c r="BK20" s="70"/>
+      <c r="BL20" s="70"/>
+      <c r="BM20" s="70"/>
+      <c r="BN20" s="70"/>
+      <c r="BO20" s="70"/>
+      <c r="BP20" s="70"/>
+      <c r="BQ20" s="70"/>
+      <c r="BR20" s="70"/>
+      <c r="BS20" s="70"/>
+      <c r="BT20" s="70"/>
+      <c r="BU20" s="70"/>
+      <c r="BV20" s="70"/>
+      <c r="BW20" s="70"/>
+      <c r="BX20" s="70"/>
+      <c r="BY20" s="70"/>
+      <c r="BZ20" s="70"/>
+      <c r="CA20" s="70"/>
+      <c r="CB20" s="70"/>
+      <c r="CC20" s="70"/>
+      <c r="CD20" s="70"/>
+      <c r="CE20" s="70"/>
+      <c r="CF20" s="70"/>
+      <c r="CG20" s="70"/>
+      <c r="CH20" s="70"/>
+      <c r="CI20" s="71"/>
       <c r="CJ20" s="1"/>
       <c r="CK20" s="1"/>
       <c r="CL20" s="1"/>
@@ -20402,69 +20405,69 @@
       <c r="E22" s="17"/>
       <c r="F22" s="32"/>
       <c r="G22" s="32"/>
-      <c r="H22" s="37" t="s">
+      <c r="H22" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="I22" s="38"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="40" t="s">
+      <c r="I22" s="57"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="41"/>
-      <c r="U22" s="38"/>
-      <c r="V22" s="38"/>
-      <c r="W22" s="38"/>
-      <c r="X22" s="38"/>
-      <c r="Y22" s="39"/>
-      <c r="Z22" s="37" t="s">
+      <c r="L22" s="60"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="60"/>
+      <c r="P22" s="60"/>
+      <c r="Q22" s="60"/>
+      <c r="R22" s="60"/>
+      <c r="S22" s="60"/>
+      <c r="T22" s="60"/>
+      <c r="U22" s="57"/>
+      <c r="V22" s="57"/>
+      <c r="W22" s="57"/>
+      <c r="X22" s="57"/>
+      <c r="Y22" s="58"/>
+      <c r="Z22" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="AA22" s="42"/>
-      <c r="AB22" s="42"/>
-      <c r="AC22" s="42"/>
-      <c r="AD22" s="42"/>
-      <c r="AE22" s="42"/>
-      <c r="AF22" s="42"/>
-      <c r="AG22" s="42"/>
-      <c r="AH22" s="42"/>
-      <c r="AI22" s="42"/>
-      <c r="AJ22" s="42"/>
-      <c r="AK22" s="42"/>
-      <c r="AL22" s="42"/>
-      <c r="AM22" s="42"/>
-      <c r="AN22" s="42"/>
-      <c r="AO22" s="42"/>
-      <c r="AP22" s="42"/>
-      <c r="AQ22" s="42"/>
-      <c r="AR22" s="42"/>
-      <c r="AS22" s="42"/>
-      <c r="AT22" s="42"/>
-      <c r="AU22" s="42"/>
-      <c r="AV22" s="42"/>
-      <c r="AW22" s="42"/>
-      <c r="AX22" s="42"/>
-      <c r="AY22" s="42"/>
-      <c r="AZ22" s="42"/>
-      <c r="BA22" s="42"/>
-      <c r="BB22" s="42"/>
-      <c r="BC22" s="42"/>
-      <c r="BD22" s="42"/>
-      <c r="BE22" s="42"/>
-      <c r="BF22" s="42"/>
-      <c r="BG22" s="42"/>
-      <c r="BH22" s="42"/>
-      <c r="BI22" s="42"/>
-      <c r="BJ22" s="42"/>
-      <c r="BK22" s="42"/>
-      <c r="BL22" s="43"/>
+      <c r="AA22" s="36"/>
+      <c r="AB22" s="36"/>
+      <c r="AC22" s="36"/>
+      <c r="AD22" s="36"/>
+      <c r="AE22" s="36"/>
+      <c r="AF22" s="36"/>
+      <c r="AG22" s="36"/>
+      <c r="AH22" s="36"/>
+      <c r="AI22" s="36"/>
+      <c r="AJ22" s="36"/>
+      <c r="AK22" s="36"/>
+      <c r="AL22" s="36"/>
+      <c r="AM22" s="36"/>
+      <c r="AN22" s="36"/>
+      <c r="AO22" s="36"/>
+      <c r="AP22" s="36"/>
+      <c r="AQ22" s="36"/>
+      <c r="AR22" s="36"/>
+      <c r="AS22" s="36"/>
+      <c r="AT22" s="36"/>
+      <c r="AU22" s="36"/>
+      <c r="AV22" s="36"/>
+      <c r="AW22" s="36"/>
+      <c r="AX22" s="36"/>
+      <c r="AY22" s="36"/>
+      <c r="AZ22" s="36"/>
+      <c r="BA22" s="36"/>
+      <c r="BB22" s="36"/>
+      <c r="BC22" s="36"/>
+      <c r="BD22" s="36"/>
+      <c r="BE22" s="36"/>
+      <c r="BF22" s="36"/>
+      <c r="BG22" s="36"/>
+      <c r="BH22" s="36"/>
+      <c r="BI22" s="36"/>
+      <c r="BJ22" s="36"/>
+      <c r="BK22" s="36"/>
+      <c r="BL22" s="37"/>
       <c r="BM22" s="32"/>
       <c r="BN22" s="32"/>
       <c r="BO22" s="32"/>
@@ -21434,69 +21437,69 @@
       <c r="E23" s="17"/>
       <c r="F23" s="32"/>
       <c r="G23" s="32"/>
-      <c r="H23" s="44">
+      <c r="H23" s="54">
         <v>1</v>
       </c>
-      <c r="I23" s="42"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="45" t="s">
+      <c r="I23" s="36"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="46"/>
-      <c r="T23" s="46"/>
-      <c r="U23" s="46"/>
-      <c r="V23" s="46"/>
-      <c r="W23" s="46"/>
-      <c r="X23" s="46"/>
-      <c r="Y23" s="47"/>
-      <c r="Z23" s="44" t="s">
-        <v>47</v>
+      <c r="L23" s="77"/>
+      <c r="M23" s="77"/>
+      <c r="N23" s="77"/>
+      <c r="O23" s="77"/>
+      <c r="P23" s="77"/>
+      <c r="Q23" s="77"/>
+      <c r="R23" s="77"/>
+      <c r="S23" s="77"/>
+      <c r="T23" s="77"/>
+      <c r="U23" s="77"/>
+      <c r="V23" s="77"/>
+      <c r="W23" s="77"/>
+      <c r="X23" s="77"/>
+      <c r="Y23" s="78"/>
+      <c r="Z23" s="54" t="s">
+        <v>46</v>
       </c>
-      <c r="AA23" s="42"/>
-      <c r="AB23" s="42"/>
-      <c r="AC23" s="42"/>
-      <c r="AD23" s="42"/>
-      <c r="AE23" s="42"/>
-      <c r="AF23" s="42"/>
-      <c r="AG23" s="42"/>
-      <c r="AH23" s="42"/>
-      <c r="AI23" s="42"/>
-      <c r="AJ23" s="42"/>
-      <c r="AK23" s="42"/>
-      <c r="AL23" s="42"/>
-      <c r="AM23" s="42"/>
-      <c r="AN23" s="42"/>
-      <c r="AO23" s="42"/>
-      <c r="AP23" s="42"/>
-      <c r="AQ23" s="42"/>
-      <c r="AR23" s="42"/>
-      <c r="AS23" s="42"/>
-      <c r="AT23" s="42"/>
-      <c r="AU23" s="42"/>
-      <c r="AV23" s="42"/>
-      <c r="AW23" s="42"/>
-      <c r="AX23" s="42"/>
-      <c r="AY23" s="42"/>
-      <c r="AZ23" s="42"/>
-      <c r="BA23" s="42"/>
-      <c r="BB23" s="42"/>
-      <c r="BC23" s="42"/>
-      <c r="BD23" s="42"/>
-      <c r="BE23" s="42"/>
-      <c r="BF23" s="42"/>
-      <c r="BG23" s="42"/>
-      <c r="BH23" s="42"/>
-      <c r="BI23" s="42"/>
-      <c r="BJ23" s="42"/>
-      <c r="BK23" s="42"/>
-      <c r="BL23" s="43"/>
+      <c r="AA23" s="36"/>
+      <c r="AB23" s="36"/>
+      <c r="AC23" s="36"/>
+      <c r="AD23" s="36"/>
+      <c r="AE23" s="36"/>
+      <c r="AF23" s="36"/>
+      <c r="AG23" s="36"/>
+      <c r="AH23" s="36"/>
+      <c r="AI23" s="36"/>
+      <c r="AJ23" s="36"/>
+      <c r="AK23" s="36"/>
+      <c r="AL23" s="36"/>
+      <c r="AM23" s="36"/>
+      <c r="AN23" s="36"/>
+      <c r="AO23" s="36"/>
+      <c r="AP23" s="36"/>
+      <c r="AQ23" s="36"/>
+      <c r="AR23" s="36"/>
+      <c r="AS23" s="36"/>
+      <c r="AT23" s="36"/>
+      <c r="AU23" s="36"/>
+      <c r="AV23" s="36"/>
+      <c r="AW23" s="36"/>
+      <c r="AX23" s="36"/>
+      <c r="AY23" s="36"/>
+      <c r="AZ23" s="36"/>
+      <c r="BA23" s="36"/>
+      <c r="BB23" s="36"/>
+      <c r="BC23" s="36"/>
+      <c r="BD23" s="36"/>
+      <c r="BE23" s="36"/>
+      <c r="BF23" s="36"/>
+      <c r="BG23" s="36"/>
+      <c r="BH23" s="36"/>
+      <c r="BI23" s="36"/>
+      <c r="BJ23" s="36"/>
+      <c r="BK23" s="36"/>
+      <c r="BL23" s="37"/>
       <c r="BM23" s="32"/>
       <c r="BN23" s="32"/>
       <c r="BO23" s="32"/>
@@ -22466,69 +22469,69 @@
       <c r="E24" s="17"/>
       <c r="F24" s="32"/>
       <c r="G24" s="32"/>
-      <c r="H24" s="44">
+      <c r="H24" s="54">
         <v>2</v>
       </c>
-      <c r="I24" s="42"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="45" t="s">
+      <c r="I24" s="36"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="46"/>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="46"/>
-      <c r="S24" s="46"/>
-      <c r="T24" s="46"/>
-      <c r="U24" s="46"/>
-      <c r="V24" s="46"/>
-      <c r="W24" s="46"/>
-      <c r="X24" s="46"/>
-      <c r="Y24" s="47"/>
-      <c r="Z24" s="44" t="s">
-        <v>48</v>
+      <c r="L24" s="77"/>
+      <c r="M24" s="77"/>
+      <c r="N24" s="77"/>
+      <c r="O24" s="77"/>
+      <c r="P24" s="77"/>
+      <c r="Q24" s="77"/>
+      <c r="R24" s="77"/>
+      <c r="S24" s="77"/>
+      <c r="T24" s="77"/>
+      <c r="U24" s="77"/>
+      <c r="V24" s="77"/>
+      <c r="W24" s="77"/>
+      <c r="X24" s="77"/>
+      <c r="Y24" s="78"/>
+      <c r="Z24" s="54" t="s">
+        <v>47</v>
       </c>
-      <c r="AA24" s="42"/>
-      <c r="AB24" s="42"/>
-      <c r="AC24" s="42"/>
-      <c r="AD24" s="42"/>
-      <c r="AE24" s="42"/>
-      <c r="AF24" s="42"/>
-      <c r="AG24" s="42"/>
-      <c r="AH24" s="42"/>
-      <c r="AI24" s="42"/>
-      <c r="AJ24" s="42"/>
-      <c r="AK24" s="42"/>
-      <c r="AL24" s="42"/>
-      <c r="AM24" s="42"/>
-      <c r="AN24" s="42"/>
-      <c r="AO24" s="42"/>
-      <c r="AP24" s="42"/>
-      <c r="AQ24" s="42"/>
-      <c r="AR24" s="42"/>
-      <c r="AS24" s="42"/>
-      <c r="AT24" s="42"/>
-      <c r="AU24" s="42"/>
-      <c r="AV24" s="42"/>
-      <c r="AW24" s="42"/>
-      <c r="AX24" s="42"/>
-      <c r="AY24" s="42"/>
-      <c r="AZ24" s="42"/>
-      <c r="BA24" s="42"/>
-      <c r="BB24" s="42"/>
-      <c r="BC24" s="42"/>
-      <c r="BD24" s="42"/>
-      <c r="BE24" s="42"/>
-      <c r="BF24" s="42"/>
-      <c r="BG24" s="42"/>
-      <c r="BH24" s="42"/>
-      <c r="BI24" s="42"/>
-      <c r="BJ24" s="42"/>
-      <c r="BK24" s="42"/>
-      <c r="BL24" s="43"/>
+      <c r="AA24" s="36"/>
+      <c r="AB24" s="36"/>
+      <c r="AC24" s="36"/>
+      <c r="AD24" s="36"/>
+      <c r="AE24" s="36"/>
+      <c r="AF24" s="36"/>
+      <c r="AG24" s="36"/>
+      <c r="AH24" s="36"/>
+      <c r="AI24" s="36"/>
+      <c r="AJ24" s="36"/>
+      <c r="AK24" s="36"/>
+      <c r="AL24" s="36"/>
+      <c r="AM24" s="36"/>
+      <c r="AN24" s="36"/>
+      <c r="AO24" s="36"/>
+      <c r="AP24" s="36"/>
+      <c r="AQ24" s="36"/>
+      <c r="AR24" s="36"/>
+      <c r="AS24" s="36"/>
+      <c r="AT24" s="36"/>
+      <c r="AU24" s="36"/>
+      <c r="AV24" s="36"/>
+      <c r="AW24" s="36"/>
+      <c r="AX24" s="36"/>
+      <c r="AY24" s="36"/>
+      <c r="AZ24" s="36"/>
+      <c r="BA24" s="36"/>
+      <c r="BB24" s="36"/>
+      <c r="BC24" s="36"/>
+      <c r="BD24" s="36"/>
+      <c r="BE24" s="36"/>
+      <c r="BF24" s="36"/>
+      <c r="BG24" s="36"/>
+      <c r="BH24" s="36"/>
+      <c r="BI24" s="36"/>
+      <c r="BJ24" s="36"/>
+      <c r="BK24" s="36"/>
+      <c r="BL24" s="37"/>
       <c r="BM24" s="32"/>
       <c r="BN24" s="32"/>
       <c r="BO24" s="32"/>
@@ -26569,201 +26572,201 @@
       <c r="AMJ27" s="1"/>
     </row>
     <row r="28" spans="1:1024" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="B28" s="48" t="s">
+      <c r="B28" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="49" t="s">
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="49"/>
-      <c r="P28" s="49"/>
-      <c r="Q28" s="49"/>
-      <c r="R28" s="49"/>
-      <c r="S28" s="49"/>
-      <c r="T28" s="49"/>
-      <c r="U28" s="49"/>
-      <c r="V28" s="49"/>
-      <c r="W28" s="49"/>
-      <c r="X28" s="49"/>
-      <c r="Y28" s="60" t="s">
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="61"/>
+      <c r="N28" s="61"/>
+      <c r="O28" s="61"/>
+      <c r="P28" s="61"/>
+      <c r="Q28" s="61"/>
+      <c r="R28" s="61"/>
+      <c r="S28" s="61"/>
+      <c r="T28" s="61"/>
+      <c r="U28" s="61"/>
+      <c r="V28" s="61"/>
+      <c r="W28" s="61"/>
+      <c r="X28" s="61"/>
+      <c r="Y28" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="Z28" s="61"/>
-      <c r="AA28" s="61"/>
-      <c r="AB28" s="61"/>
-      <c r="AC28" s="61"/>
-      <c r="AD28" s="61"/>
-      <c r="AE28" s="61"/>
-      <c r="AF28" s="61"/>
-      <c r="AG28" s="61"/>
-      <c r="AH28" s="62"/>
-      <c r="AI28" s="60" t="s">
+      <c r="Z28" s="63"/>
+      <c r="AA28" s="63"/>
+      <c r="AB28" s="63"/>
+      <c r="AC28" s="63"/>
+      <c r="AD28" s="63"/>
+      <c r="AE28" s="63"/>
+      <c r="AF28" s="63"/>
+      <c r="AG28" s="63"/>
+      <c r="AH28" s="64"/>
+      <c r="AI28" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="AJ28" s="61"/>
-      <c r="AK28" s="61"/>
-      <c r="AL28" s="61"/>
-      <c r="AM28" s="61"/>
-      <c r="AN28" s="61"/>
-      <c r="AO28" s="61"/>
-      <c r="AP28" s="61"/>
-      <c r="AQ28" s="61"/>
-      <c r="AR28" s="62"/>
-      <c r="AS28" s="58" t="s">
+      <c r="AJ28" s="63"/>
+      <c r="AK28" s="63"/>
+      <c r="AL28" s="63"/>
+      <c r="AM28" s="63"/>
+      <c r="AN28" s="63"/>
+      <c r="AO28" s="63"/>
+      <c r="AP28" s="63"/>
+      <c r="AQ28" s="63"/>
+      <c r="AR28" s="64"/>
+      <c r="AS28" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="AT28" s="58"/>
-      <c r="AU28" s="58"/>
-      <c r="AV28" s="58"/>
-      <c r="AW28" s="58"/>
-      <c r="AX28" s="58"/>
-      <c r="AY28" s="58"/>
-      <c r="AZ28" s="58"/>
-      <c r="BA28" s="58"/>
-      <c r="BB28" s="58"/>
-      <c r="BC28" s="58"/>
-      <c r="BD28" s="58"/>
-      <c r="BE28" s="58"/>
-      <c r="BF28" s="58"/>
-      <c r="BG28" s="58"/>
-      <c r="BH28" s="58"/>
-      <c r="BI28" s="58"/>
-      <c r="BJ28" s="58"/>
-      <c r="BK28" s="58"/>
-      <c r="BL28" s="58"/>
-      <c r="BM28" s="58"/>
-      <c r="BN28" s="58"/>
-      <c r="BO28" s="58"/>
-      <c r="BP28" s="58"/>
-      <c r="BQ28" s="58"/>
-      <c r="BR28" s="58"/>
-      <c r="BS28" s="58"/>
-      <c r="BT28" s="58"/>
-      <c r="BU28" s="58"/>
-      <c r="BV28" s="58"/>
-      <c r="BW28" s="58"/>
-      <c r="BX28" s="58"/>
-      <c r="BY28" s="58"/>
-      <c r="BZ28" s="58"/>
-      <c r="CA28" s="58"/>
-      <c r="CB28" s="58"/>
-      <c r="CC28" s="58"/>
-      <c r="CD28" s="58"/>
-      <c r="CE28" s="58"/>
-      <c r="CF28" s="58"/>
-      <c r="CG28" s="58"/>
-      <c r="CH28" s="58"/>
-      <c r="CI28" s="58"/>
+      <c r="AT28" s="55"/>
+      <c r="AU28" s="55"/>
+      <c r="AV28" s="55"/>
+      <c r="AW28" s="55"/>
+      <c r="AX28" s="55"/>
+      <c r="AY28" s="55"/>
+      <c r="AZ28" s="55"/>
+      <c r="BA28" s="55"/>
+      <c r="BB28" s="55"/>
+      <c r="BC28" s="55"/>
+      <c r="BD28" s="55"/>
+      <c r="BE28" s="55"/>
+      <c r="BF28" s="55"/>
+      <c r="BG28" s="55"/>
+      <c r="BH28" s="55"/>
+      <c r="BI28" s="55"/>
+      <c r="BJ28" s="55"/>
+      <c r="BK28" s="55"/>
+      <c r="BL28" s="55"/>
+      <c r="BM28" s="55"/>
+      <c r="BN28" s="55"/>
+      <c r="BO28" s="55"/>
+      <c r="BP28" s="55"/>
+      <c r="BQ28" s="55"/>
+      <c r="BR28" s="55"/>
+      <c r="BS28" s="55"/>
+      <c r="BT28" s="55"/>
+      <c r="BU28" s="55"/>
+      <c r="BV28" s="55"/>
+      <c r="BW28" s="55"/>
+      <c r="BX28" s="55"/>
+      <c r="BY28" s="55"/>
+      <c r="BZ28" s="55"/>
+      <c r="CA28" s="55"/>
+      <c r="CB28" s="55"/>
+      <c r="CC28" s="55"/>
+      <c r="CD28" s="55"/>
+      <c r="CE28" s="55"/>
+      <c r="CF28" s="55"/>
+      <c r="CG28" s="55"/>
+      <c r="CH28" s="55"/>
+      <c r="CI28" s="55"/>
     </row>
     <row r="29" spans="1:1024" ht="18" customHeight="1" thickBot="1">
       <c r="A29" s="2"/>
-      <c r="B29" s="53">
+      <c r="B29" s="72">
         <v>2</v>
       </c>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="54" t="s">
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="54"/>
-      <c r="N29" s="54"/>
-      <c r="O29" s="54"/>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="54"/>
-      <c r="R29" s="54"/>
-      <c r="S29" s="54"/>
-      <c r="T29" s="54"/>
-      <c r="U29" s="54"/>
-      <c r="V29" s="54"/>
-      <c r="W29" s="54"/>
-      <c r="X29" s="54"/>
-      <c r="Y29" s="44" t="s">
+      <c r="F29" s="97"/>
+      <c r="G29" s="97"/>
+      <c r="H29" s="97"/>
+      <c r="I29" s="97"/>
+      <c r="J29" s="97"/>
+      <c r="K29" s="97"/>
+      <c r="L29" s="97"/>
+      <c r="M29" s="97"/>
+      <c r="N29" s="97"/>
+      <c r="O29" s="97"/>
+      <c r="P29" s="97"/>
+      <c r="Q29" s="97"/>
+      <c r="R29" s="97"/>
+      <c r="S29" s="97"/>
+      <c r="T29" s="97"/>
+      <c r="U29" s="97"/>
+      <c r="V29" s="97"/>
+      <c r="W29" s="97"/>
+      <c r="X29" s="97"/>
+      <c r="Y29" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="Z29" s="55"/>
-      <c r="AA29" s="55"/>
-      <c r="AB29" s="55"/>
-      <c r="AC29" s="55"/>
-      <c r="AD29" s="55"/>
-      <c r="AE29" s="55"/>
-      <c r="AF29" s="55"/>
-      <c r="AG29" s="55"/>
-      <c r="AH29" s="56"/>
-      <c r="AI29" s="44" t="s">
+      <c r="Z29" s="98"/>
+      <c r="AA29" s="98"/>
+      <c r="AB29" s="98"/>
+      <c r="AC29" s="98"/>
+      <c r="AD29" s="98"/>
+      <c r="AE29" s="98"/>
+      <c r="AF29" s="98"/>
+      <c r="AG29" s="98"/>
+      <c r="AH29" s="99"/>
+      <c r="AI29" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="AJ29" s="55"/>
-      <c r="AK29" s="55"/>
-      <c r="AL29" s="55"/>
-      <c r="AM29" s="55"/>
-      <c r="AN29" s="55"/>
-      <c r="AO29" s="55"/>
-      <c r="AP29" s="55"/>
-      <c r="AQ29" s="55"/>
-      <c r="AR29" s="56"/>
-      <c r="AS29" s="57" t="s">
+      <c r="AJ29" s="98"/>
+      <c r="AK29" s="98"/>
+      <c r="AL29" s="98"/>
+      <c r="AM29" s="98"/>
+      <c r="AN29" s="98"/>
+      <c r="AO29" s="98"/>
+      <c r="AP29" s="98"/>
+      <c r="AQ29" s="98"/>
+      <c r="AR29" s="99"/>
+      <c r="AS29" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="AT29" s="57"/>
-      <c r="AU29" s="57"/>
-      <c r="AV29" s="57"/>
-      <c r="AW29" s="57"/>
-      <c r="AX29" s="57"/>
-      <c r="AY29" s="57"/>
-      <c r="AZ29" s="57"/>
-      <c r="BA29" s="57"/>
-      <c r="BB29" s="57"/>
-      <c r="BC29" s="57"/>
-      <c r="BD29" s="57"/>
-      <c r="BE29" s="57"/>
-      <c r="BF29" s="57"/>
-      <c r="BG29" s="57"/>
-      <c r="BH29" s="57"/>
-      <c r="BI29" s="57"/>
-      <c r="BJ29" s="57"/>
-      <c r="BK29" s="57"/>
-      <c r="BL29" s="57"/>
-      <c r="BM29" s="57"/>
-      <c r="BN29" s="57"/>
-      <c r="BO29" s="57"/>
-      <c r="BP29" s="57"/>
-      <c r="BQ29" s="57"/>
-      <c r="BR29" s="57"/>
-      <c r="BS29" s="57"/>
-      <c r="BT29" s="57"/>
-      <c r="BU29" s="57"/>
-      <c r="BV29" s="57"/>
-      <c r="BW29" s="57"/>
-      <c r="BX29" s="57"/>
-      <c r="BY29" s="57"/>
-      <c r="BZ29" s="57"/>
-      <c r="CA29" s="57"/>
-      <c r="CB29" s="57"/>
-      <c r="CC29" s="57"/>
-      <c r="CD29" s="57"/>
-      <c r="CE29" s="57"/>
-      <c r="CF29" s="57"/>
-      <c r="CG29" s="57"/>
-      <c r="CH29" s="57"/>
-      <c r="CI29" s="57"/>
+      <c r="AT29" s="68"/>
+      <c r="AU29" s="68"/>
+      <c r="AV29" s="68"/>
+      <c r="AW29" s="68"/>
+      <c r="AX29" s="68"/>
+      <c r="AY29" s="68"/>
+      <c r="AZ29" s="68"/>
+      <c r="BA29" s="68"/>
+      <c r="BB29" s="68"/>
+      <c r="BC29" s="68"/>
+      <c r="BD29" s="68"/>
+      <c r="BE29" s="68"/>
+      <c r="BF29" s="68"/>
+      <c r="BG29" s="68"/>
+      <c r="BH29" s="68"/>
+      <c r="BI29" s="68"/>
+      <c r="BJ29" s="68"/>
+      <c r="BK29" s="68"/>
+      <c r="BL29" s="68"/>
+      <c r="BM29" s="68"/>
+      <c r="BN29" s="68"/>
+      <c r="BO29" s="68"/>
+      <c r="BP29" s="68"/>
+      <c r="BQ29" s="68"/>
+      <c r="BR29" s="68"/>
+      <c r="BS29" s="68"/>
+      <c r="BT29" s="68"/>
+      <c r="BU29" s="68"/>
+      <c r="BV29" s="68"/>
+      <c r="BW29" s="68"/>
+      <c r="BX29" s="68"/>
+      <c r="BY29" s="68"/>
+      <c r="BZ29" s="68"/>
+      <c r="CA29" s="68"/>
+      <c r="CB29" s="68"/>
+      <c r="CC29" s="68"/>
+      <c r="CD29" s="68"/>
+      <c r="CE29" s="68"/>
+      <c r="CF29" s="68"/>
+      <c r="CG29" s="68"/>
+      <c r="CH29" s="68"/>
+      <c r="CI29" s="68"/>
       <c r="CJ29" s="1"/>
       <c r="CK29" s="1"/>
       <c r="CL29" s="1"/>
@@ -28730,94 +28733,94 @@
     </row>
     <row r="31" spans="1:1024">
       <c r="A31" s="1"/>
-      <c r="B31" s="50" t="s">
-        <v>41</v>
+      <c r="B31" s="94" t="s">
+        <v>40</v>
       </c>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="51"/>
-      <c r="N31" s="51"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="51"/>
-      <c r="Q31" s="51"/>
-      <c r="R31" s="51"/>
-      <c r="S31" s="51"/>
-      <c r="T31" s="51"/>
-      <c r="U31" s="51"/>
-      <c r="V31" s="51"/>
-      <c r="W31" s="51"/>
-      <c r="X31" s="51"/>
-      <c r="Y31" s="51"/>
-      <c r="Z31" s="51"/>
-      <c r="AA31" s="51"/>
-      <c r="AB31" s="51"/>
-      <c r="AC31" s="51"/>
-      <c r="AD31" s="51"/>
-      <c r="AE31" s="51"/>
-      <c r="AF31" s="51"/>
-      <c r="AG31" s="51"/>
-      <c r="AH31" s="51"/>
-      <c r="AI31" s="51"/>
-      <c r="AJ31" s="51"/>
-      <c r="AK31" s="51"/>
-      <c r="AL31" s="51"/>
-      <c r="AM31" s="51"/>
-      <c r="AN31" s="51"/>
-      <c r="AO31" s="51"/>
-      <c r="AP31" s="51"/>
-      <c r="AQ31" s="51"/>
-      <c r="AR31" s="51"/>
-      <c r="AS31" s="51"/>
-      <c r="AT31" s="51"/>
-      <c r="AU31" s="51"/>
-      <c r="AV31" s="51"/>
-      <c r="AW31" s="51"/>
-      <c r="AX31" s="51"/>
-      <c r="AY31" s="51"/>
-      <c r="AZ31" s="51"/>
-      <c r="BA31" s="51"/>
-      <c r="BB31" s="51"/>
-      <c r="BC31" s="51"/>
-      <c r="BD31" s="51"/>
-      <c r="BE31" s="51"/>
-      <c r="BF31" s="51"/>
-      <c r="BG31" s="51"/>
-      <c r="BH31" s="51"/>
-      <c r="BI31" s="51"/>
-      <c r="BJ31" s="51"/>
-      <c r="BK31" s="51"/>
-      <c r="BL31" s="51"/>
-      <c r="BM31" s="51"/>
-      <c r="BN31" s="51"/>
-      <c r="BO31" s="51"/>
-      <c r="BP31" s="51"/>
-      <c r="BQ31" s="51"/>
-      <c r="BR31" s="51"/>
-      <c r="BS31" s="51"/>
-      <c r="BT31" s="51"/>
-      <c r="BU31" s="51"/>
-      <c r="BV31" s="51"/>
-      <c r="BW31" s="51"/>
-      <c r="BX31" s="51"/>
-      <c r="BY31" s="51"/>
-      <c r="BZ31" s="51"/>
-      <c r="CA31" s="51"/>
-      <c r="CB31" s="51"/>
-      <c r="CC31" s="51"/>
-      <c r="CD31" s="51"/>
-      <c r="CE31" s="51"/>
-      <c r="CF31" s="51"/>
-      <c r="CG31" s="51"/>
-      <c r="CH31" s="51"/>
-      <c r="CI31" s="52"/>
+      <c r="C31" s="95"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="95"/>
+      <c r="G31" s="95"/>
+      <c r="H31" s="95"/>
+      <c r="I31" s="95"/>
+      <c r="J31" s="95"/>
+      <c r="K31" s="95"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="95"/>
+      <c r="P31" s="95"/>
+      <c r="Q31" s="95"/>
+      <c r="R31" s="95"/>
+      <c r="S31" s="95"/>
+      <c r="T31" s="95"/>
+      <c r="U31" s="95"/>
+      <c r="V31" s="95"/>
+      <c r="W31" s="95"/>
+      <c r="X31" s="95"/>
+      <c r="Y31" s="95"/>
+      <c r="Z31" s="95"/>
+      <c r="AA31" s="95"/>
+      <c r="AB31" s="95"/>
+      <c r="AC31" s="95"/>
+      <c r="AD31" s="95"/>
+      <c r="AE31" s="95"/>
+      <c r="AF31" s="95"/>
+      <c r="AG31" s="95"/>
+      <c r="AH31" s="95"/>
+      <c r="AI31" s="95"/>
+      <c r="AJ31" s="95"/>
+      <c r="AK31" s="95"/>
+      <c r="AL31" s="95"/>
+      <c r="AM31" s="95"/>
+      <c r="AN31" s="95"/>
+      <c r="AO31" s="95"/>
+      <c r="AP31" s="95"/>
+      <c r="AQ31" s="95"/>
+      <c r="AR31" s="95"/>
+      <c r="AS31" s="95"/>
+      <c r="AT31" s="95"/>
+      <c r="AU31" s="95"/>
+      <c r="AV31" s="95"/>
+      <c r="AW31" s="95"/>
+      <c r="AX31" s="95"/>
+      <c r="AY31" s="95"/>
+      <c r="AZ31" s="95"/>
+      <c r="BA31" s="95"/>
+      <c r="BB31" s="95"/>
+      <c r="BC31" s="95"/>
+      <c r="BD31" s="95"/>
+      <c r="BE31" s="95"/>
+      <c r="BF31" s="95"/>
+      <c r="BG31" s="95"/>
+      <c r="BH31" s="95"/>
+      <c r="BI31" s="95"/>
+      <c r="BJ31" s="95"/>
+      <c r="BK31" s="95"/>
+      <c r="BL31" s="95"/>
+      <c r="BM31" s="95"/>
+      <c r="BN31" s="95"/>
+      <c r="BO31" s="95"/>
+      <c r="BP31" s="95"/>
+      <c r="BQ31" s="95"/>
+      <c r="BR31" s="95"/>
+      <c r="BS31" s="95"/>
+      <c r="BT31" s="95"/>
+      <c r="BU31" s="95"/>
+      <c r="BV31" s="95"/>
+      <c r="BW31" s="95"/>
+      <c r="BX31" s="95"/>
+      <c r="BY31" s="95"/>
+      <c r="BZ31" s="95"/>
+      <c r="CA31" s="95"/>
+      <c r="CB31" s="95"/>
+      <c r="CC31" s="95"/>
+      <c r="CD31" s="95"/>
+      <c r="CE31" s="95"/>
+      <c r="CF31" s="95"/>
+      <c r="CG31" s="95"/>
+      <c r="CH31" s="95"/>
+      <c r="CI31" s="96"/>
       <c r="CJ31" s="1"/>
       <c r="CK31" s="1"/>
       <c r="CL31" s="1"/>
@@ -31810,94 +31813,94 @@
     </row>
     <row r="34" spans="1:1024" ht="18" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="50" t="s">
-        <v>40</v>
+      <c r="B34" s="94" t="s">
+        <v>39</v>
       </c>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="51"/>
-      <c r="N34" s="51"/>
-      <c r="O34" s="51"/>
-      <c r="P34" s="51"/>
-      <c r="Q34" s="51"/>
-      <c r="R34" s="51"/>
-      <c r="S34" s="51"/>
-      <c r="T34" s="51"/>
-      <c r="U34" s="51"/>
-      <c r="V34" s="51"/>
-      <c r="W34" s="51"/>
-      <c r="X34" s="51"/>
-      <c r="Y34" s="51"/>
-      <c r="Z34" s="51"/>
-      <c r="AA34" s="51"/>
-      <c r="AB34" s="51"/>
-      <c r="AC34" s="51"/>
-      <c r="AD34" s="51"/>
-      <c r="AE34" s="51"/>
-      <c r="AF34" s="51"/>
-      <c r="AG34" s="51"/>
-      <c r="AH34" s="51"/>
-      <c r="AI34" s="51"/>
-      <c r="AJ34" s="51"/>
-      <c r="AK34" s="51"/>
-      <c r="AL34" s="51"/>
-      <c r="AM34" s="51"/>
-      <c r="AN34" s="51"/>
-      <c r="AO34" s="51"/>
-      <c r="AP34" s="51"/>
-      <c r="AQ34" s="51"/>
-      <c r="AR34" s="51"/>
-      <c r="AS34" s="51"/>
-      <c r="AT34" s="51"/>
-      <c r="AU34" s="51"/>
-      <c r="AV34" s="51"/>
-      <c r="AW34" s="51"/>
-      <c r="AX34" s="51"/>
-      <c r="AY34" s="51"/>
-      <c r="AZ34" s="51"/>
-      <c r="BA34" s="51"/>
-      <c r="BB34" s="51"/>
-      <c r="BC34" s="51"/>
-      <c r="BD34" s="51"/>
-      <c r="BE34" s="51"/>
-      <c r="BF34" s="51"/>
-      <c r="BG34" s="51"/>
-      <c r="BH34" s="51"/>
-      <c r="BI34" s="51"/>
-      <c r="BJ34" s="51"/>
-      <c r="BK34" s="51"/>
-      <c r="BL34" s="51"/>
-      <c r="BM34" s="51"/>
-      <c r="BN34" s="51"/>
-      <c r="BO34" s="51"/>
-      <c r="BP34" s="51"/>
-      <c r="BQ34" s="51"/>
-      <c r="BR34" s="51"/>
-      <c r="BS34" s="51"/>
-      <c r="BT34" s="51"/>
-      <c r="BU34" s="51"/>
-      <c r="BV34" s="51"/>
-      <c r="BW34" s="51"/>
-      <c r="BX34" s="51"/>
-      <c r="BY34" s="51"/>
-      <c r="BZ34" s="51"/>
-      <c r="CA34" s="51"/>
-      <c r="CB34" s="51"/>
-      <c r="CC34" s="51"/>
-      <c r="CD34" s="51"/>
-      <c r="CE34" s="51"/>
-      <c r="CF34" s="51"/>
-      <c r="CG34" s="51"/>
-      <c r="CH34" s="51"/>
-      <c r="CI34" s="52"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="95"/>
+      <c r="E34" s="95"/>
+      <c r="F34" s="95"/>
+      <c r="G34" s="95"/>
+      <c r="H34" s="95"/>
+      <c r="I34" s="95"/>
+      <c r="J34" s="95"/>
+      <c r="K34" s="95"/>
+      <c r="L34" s="95"/>
+      <c r="M34" s="95"/>
+      <c r="N34" s="95"/>
+      <c r="O34" s="95"/>
+      <c r="P34" s="95"/>
+      <c r="Q34" s="95"/>
+      <c r="R34" s="95"/>
+      <c r="S34" s="95"/>
+      <c r="T34" s="95"/>
+      <c r="U34" s="95"/>
+      <c r="V34" s="95"/>
+      <c r="W34" s="95"/>
+      <c r="X34" s="95"/>
+      <c r="Y34" s="95"/>
+      <c r="Z34" s="95"/>
+      <c r="AA34" s="95"/>
+      <c r="AB34" s="95"/>
+      <c r="AC34" s="95"/>
+      <c r="AD34" s="95"/>
+      <c r="AE34" s="95"/>
+      <c r="AF34" s="95"/>
+      <c r="AG34" s="95"/>
+      <c r="AH34" s="95"/>
+      <c r="AI34" s="95"/>
+      <c r="AJ34" s="95"/>
+      <c r="AK34" s="95"/>
+      <c r="AL34" s="95"/>
+      <c r="AM34" s="95"/>
+      <c r="AN34" s="95"/>
+      <c r="AO34" s="95"/>
+      <c r="AP34" s="95"/>
+      <c r="AQ34" s="95"/>
+      <c r="AR34" s="95"/>
+      <c r="AS34" s="95"/>
+      <c r="AT34" s="95"/>
+      <c r="AU34" s="95"/>
+      <c r="AV34" s="95"/>
+      <c r="AW34" s="95"/>
+      <c r="AX34" s="95"/>
+      <c r="AY34" s="95"/>
+      <c r="AZ34" s="95"/>
+      <c r="BA34" s="95"/>
+      <c r="BB34" s="95"/>
+      <c r="BC34" s="95"/>
+      <c r="BD34" s="95"/>
+      <c r="BE34" s="95"/>
+      <c r="BF34" s="95"/>
+      <c r="BG34" s="95"/>
+      <c r="BH34" s="95"/>
+      <c r="BI34" s="95"/>
+      <c r="BJ34" s="95"/>
+      <c r="BK34" s="95"/>
+      <c r="BL34" s="95"/>
+      <c r="BM34" s="95"/>
+      <c r="BN34" s="95"/>
+      <c r="BO34" s="95"/>
+      <c r="BP34" s="95"/>
+      <c r="BQ34" s="95"/>
+      <c r="BR34" s="95"/>
+      <c r="BS34" s="95"/>
+      <c r="BT34" s="95"/>
+      <c r="BU34" s="95"/>
+      <c r="BV34" s="95"/>
+      <c r="BW34" s="95"/>
+      <c r="BX34" s="95"/>
+      <c r="BY34" s="95"/>
+      <c r="BZ34" s="95"/>
+      <c r="CA34" s="95"/>
+      <c r="CB34" s="95"/>
+      <c r="CC34" s="95"/>
+      <c r="CD34" s="95"/>
+      <c r="CE34" s="95"/>
+      <c r="CF34" s="95"/>
+      <c r="CG34" s="95"/>
+      <c r="CH34" s="95"/>
+      <c r="CI34" s="96"/>
       <c r="CJ34" s="1"/>
       <c r="CK34" s="1"/>
       <c r="CL34" s="1"/>
@@ -33869,69 +33872,69 @@
       <c r="D36" s="17"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="37" t="s">
+      <c r="G36" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="H36" s="38"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="40" t="s">
+      <c r="H36" s="57"/>
+      <c r="I36" s="58"/>
+      <c r="J36" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="K36" s="41"/>
-      <c r="L36" s="41"/>
-      <c r="M36" s="41"/>
-      <c r="N36" s="41"/>
-      <c r="O36" s="41"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="41"/>
-      <c r="S36" s="41"/>
-      <c r="T36" s="38"/>
-      <c r="U36" s="38"/>
-      <c r="V36" s="38"/>
-      <c r="W36" s="38"/>
-      <c r="X36" s="39"/>
-      <c r="Y36" s="37" t="s">
+      <c r="K36" s="60"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="60"/>
+      <c r="N36" s="60"/>
+      <c r="O36" s="60"/>
+      <c r="P36" s="60"/>
+      <c r="Q36" s="60"/>
+      <c r="R36" s="60"/>
+      <c r="S36" s="60"/>
+      <c r="T36" s="57"/>
+      <c r="U36" s="57"/>
+      <c r="V36" s="57"/>
+      <c r="W36" s="57"/>
+      <c r="X36" s="58"/>
+      <c r="Y36" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="Z36" s="42"/>
-      <c r="AA36" s="42"/>
-      <c r="AB36" s="42"/>
-      <c r="AC36" s="42"/>
-      <c r="AD36" s="42"/>
-      <c r="AE36" s="42"/>
-      <c r="AF36" s="42"/>
-      <c r="AG36" s="42"/>
-      <c r="AH36" s="42"/>
-      <c r="AI36" s="42"/>
-      <c r="AJ36" s="42"/>
-      <c r="AK36" s="42"/>
-      <c r="AL36" s="42"/>
-      <c r="AM36" s="42"/>
-      <c r="AN36" s="42"/>
-      <c r="AO36" s="42"/>
-      <c r="AP36" s="42"/>
-      <c r="AQ36" s="42"/>
-      <c r="AR36" s="42"/>
-      <c r="AS36" s="42"/>
-      <c r="AT36" s="42"/>
-      <c r="AU36" s="42"/>
-      <c r="AV36" s="42"/>
-      <c r="AW36" s="42"/>
-      <c r="AX36" s="42"/>
-      <c r="AY36" s="42"/>
-      <c r="AZ36" s="42"/>
-      <c r="BA36" s="42"/>
-      <c r="BB36" s="42"/>
-      <c r="BC36" s="42"/>
-      <c r="BD36" s="42"/>
-      <c r="BE36" s="42"/>
-      <c r="BF36" s="42"/>
-      <c r="BG36" s="42"/>
-      <c r="BH36" s="42"/>
-      <c r="BI36" s="42"/>
-      <c r="BJ36" s="42"/>
-      <c r="BK36" s="43"/>
+      <c r="Z36" s="36"/>
+      <c r="AA36" s="36"/>
+      <c r="AB36" s="36"/>
+      <c r="AC36" s="36"/>
+      <c r="AD36" s="36"/>
+      <c r="AE36" s="36"/>
+      <c r="AF36" s="36"/>
+      <c r="AG36" s="36"/>
+      <c r="AH36" s="36"/>
+      <c r="AI36" s="36"/>
+      <c r="AJ36" s="36"/>
+      <c r="AK36" s="36"/>
+      <c r="AL36" s="36"/>
+      <c r="AM36" s="36"/>
+      <c r="AN36" s="36"/>
+      <c r="AO36" s="36"/>
+      <c r="AP36" s="36"/>
+      <c r="AQ36" s="36"/>
+      <c r="AR36" s="36"/>
+      <c r="AS36" s="36"/>
+      <c r="AT36" s="36"/>
+      <c r="AU36" s="36"/>
+      <c r="AV36" s="36"/>
+      <c r="AW36" s="36"/>
+      <c r="AX36" s="36"/>
+      <c r="AY36" s="36"/>
+      <c r="AZ36" s="36"/>
+      <c r="BA36" s="36"/>
+      <c r="BB36" s="36"/>
+      <c r="BC36" s="36"/>
+      <c r="BD36" s="36"/>
+      <c r="BE36" s="36"/>
+      <c r="BF36" s="36"/>
+      <c r="BG36" s="36"/>
+      <c r="BH36" s="36"/>
+      <c r="BI36" s="36"/>
+      <c r="BJ36" s="36"/>
+      <c r="BK36" s="37"/>
       <c r="BL36" s="17"/>
       <c r="BM36" s="17"/>
       <c r="BN36" s="17"/>
@@ -34901,69 +34904,69 @@
       <c r="D37" s="17"/>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
-      <c r="G37" s="44">
+      <c r="G37" s="54">
         <v>1</v>
       </c>
-      <c r="H37" s="42"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="44" t="s">
+      <c r="H37" s="36"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="K37" s="42"/>
-      <c r="L37" s="42"/>
-      <c r="M37" s="42"/>
-      <c r="N37" s="42"/>
-      <c r="O37" s="42"/>
-      <c r="P37" s="42"/>
-      <c r="Q37" s="42"/>
-      <c r="R37" s="42"/>
-      <c r="S37" s="42"/>
-      <c r="T37" s="42"/>
-      <c r="U37" s="42"/>
-      <c r="V37" s="42"/>
-      <c r="W37" s="42"/>
-      <c r="X37" s="43"/>
-      <c r="Y37" s="44" t="s">
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="36"/>
+      <c r="S37" s="36"/>
+      <c r="T37" s="36"/>
+      <c r="U37" s="36"/>
+      <c r="V37" s="36"/>
+      <c r="W37" s="36"/>
+      <c r="X37" s="37"/>
+      <c r="Y37" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="Z37" s="42"/>
-      <c r="AA37" s="42"/>
-      <c r="AB37" s="42"/>
-      <c r="AC37" s="42"/>
-      <c r="AD37" s="42"/>
-      <c r="AE37" s="42"/>
-      <c r="AF37" s="42"/>
-      <c r="AG37" s="42"/>
-      <c r="AH37" s="42"/>
-      <c r="AI37" s="42"/>
-      <c r="AJ37" s="42"/>
-      <c r="AK37" s="42"/>
-      <c r="AL37" s="42"/>
-      <c r="AM37" s="42"/>
-      <c r="AN37" s="42"/>
-      <c r="AO37" s="42"/>
-      <c r="AP37" s="42"/>
-      <c r="AQ37" s="42"/>
-      <c r="AR37" s="42"/>
-      <c r="AS37" s="42"/>
-      <c r="AT37" s="42"/>
-      <c r="AU37" s="42"/>
-      <c r="AV37" s="42"/>
-      <c r="AW37" s="42"/>
-      <c r="AX37" s="42"/>
-      <c r="AY37" s="42"/>
-      <c r="AZ37" s="42"/>
-      <c r="BA37" s="42"/>
-      <c r="BB37" s="42"/>
-      <c r="BC37" s="42"/>
-      <c r="BD37" s="42"/>
-      <c r="BE37" s="42"/>
-      <c r="BF37" s="42"/>
-      <c r="BG37" s="42"/>
-      <c r="BH37" s="42"/>
-      <c r="BI37" s="42"/>
-      <c r="BJ37" s="42"/>
-      <c r="BK37" s="43"/>
+      <c r="Z37" s="36"/>
+      <c r="AA37" s="36"/>
+      <c r="AB37" s="36"/>
+      <c r="AC37" s="36"/>
+      <c r="AD37" s="36"/>
+      <c r="AE37" s="36"/>
+      <c r="AF37" s="36"/>
+      <c r="AG37" s="36"/>
+      <c r="AH37" s="36"/>
+      <c r="AI37" s="36"/>
+      <c r="AJ37" s="36"/>
+      <c r="AK37" s="36"/>
+      <c r="AL37" s="36"/>
+      <c r="AM37" s="36"/>
+      <c r="AN37" s="36"/>
+      <c r="AO37" s="36"/>
+      <c r="AP37" s="36"/>
+      <c r="AQ37" s="36"/>
+      <c r="AR37" s="36"/>
+      <c r="AS37" s="36"/>
+      <c r="AT37" s="36"/>
+      <c r="AU37" s="36"/>
+      <c r="AV37" s="36"/>
+      <c r="AW37" s="36"/>
+      <c r="AX37" s="36"/>
+      <c r="AY37" s="36"/>
+      <c r="AZ37" s="36"/>
+      <c r="BA37" s="36"/>
+      <c r="BB37" s="36"/>
+      <c r="BC37" s="36"/>
+      <c r="BD37" s="36"/>
+      <c r="BE37" s="36"/>
+      <c r="BF37" s="36"/>
+      <c r="BG37" s="36"/>
+      <c r="BH37" s="36"/>
+      <c r="BI37" s="36"/>
+      <c r="BJ37" s="36"/>
+      <c r="BK37" s="37"/>
       <c r="BL37" s="17"/>
       <c r="BM37" s="17"/>
       <c r="BN37" s="17"/>
@@ -36954,70 +36957,70 @@
     </row>
     <row r="39" spans="1:1024" ht="18" customHeight="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="35" t="s">
-        <v>42</v>
+      <c r="B39" s="92" t="s">
+        <v>41</v>
       </c>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="36"/>
-      <c r="O39" s="36"/>
-      <c r="P39" s="36"/>
-      <c r="Q39" s="36"/>
-      <c r="R39" s="36"/>
-      <c r="S39" s="36"/>
-      <c r="T39" s="36"/>
-      <c r="U39" s="36"/>
-      <c r="V39" s="36"/>
-      <c r="W39" s="36"/>
-      <c r="X39" s="36"/>
-      <c r="Y39" s="36"/>
-      <c r="Z39" s="36"/>
-      <c r="AA39" s="36"/>
-      <c r="AB39" s="36"/>
-      <c r="AC39" s="36"/>
-      <c r="AD39" s="36"/>
-      <c r="AE39" s="36"/>
-      <c r="AF39" s="36"/>
-      <c r="AG39" s="36"/>
-      <c r="AH39" s="36"/>
-      <c r="AI39" s="36"/>
-      <c r="AJ39" s="36"/>
-      <c r="AK39" s="36"/>
-      <c r="AL39" s="36"/>
-      <c r="AM39" s="36"/>
-      <c r="AN39" s="36"/>
-      <c r="AO39" s="36"/>
-      <c r="AP39" s="36"/>
-      <c r="AQ39" s="36"/>
-      <c r="AR39" s="36"/>
-      <c r="AS39" s="36"/>
-      <c r="AT39" s="36"/>
-      <c r="AU39" s="36"/>
-      <c r="AV39" s="36"/>
-      <c r="AW39" s="36"/>
-      <c r="AX39" s="36"/>
-      <c r="AY39" s="36"/>
-      <c r="AZ39" s="36"/>
-      <c r="BA39" s="36"/>
-      <c r="BB39" s="36"/>
-      <c r="BC39" s="36"/>
-      <c r="BD39" s="36"/>
-      <c r="BE39" s="36"/>
-      <c r="BF39" s="36"/>
-      <c r="BG39" s="36"/>
-      <c r="BH39" s="36"/>
-      <c r="BI39" s="36"/>
-      <c r="BJ39" s="36"/>
-      <c r="BK39" s="36"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="93"/>
+      <c r="E39" s="93"/>
+      <c r="F39" s="93"/>
+      <c r="G39" s="93"/>
+      <c r="H39" s="93"/>
+      <c r="I39" s="93"/>
+      <c r="J39" s="93"/>
+      <c r="K39" s="93"/>
+      <c r="L39" s="93"/>
+      <c r="M39" s="93"/>
+      <c r="N39" s="93"/>
+      <c r="O39" s="93"/>
+      <c r="P39" s="93"/>
+      <c r="Q39" s="93"/>
+      <c r="R39" s="93"/>
+      <c r="S39" s="93"/>
+      <c r="T39" s="93"/>
+      <c r="U39" s="93"/>
+      <c r="V39" s="93"/>
+      <c r="W39" s="93"/>
+      <c r="X39" s="93"/>
+      <c r="Y39" s="93"/>
+      <c r="Z39" s="93"/>
+      <c r="AA39" s="93"/>
+      <c r="AB39" s="93"/>
+      <c r="AC39" s="93"/>
+      <c r="AD39" s="93"/>
+      <c r="AE39" s="93"/>
+      <c r="AF39" s="93"/>
+      <c r="AG39" s="93"/>
+      <c r="AH39" s="93"/>
+      <c r="AI39" s="93"/>
+      <c r="AJ39" s="93"/>
+      <c r="AK39" s="93"/>
+      <c r="AL39" s="93"/>
+      <c r="AM39" s="93"/>
+      <c r="AN39" s="93"/>
+      <c r="AO39" s="93"/>
+      <c r="AP39" s="93"/>
+      <c r="AQ39" s="93"/>
+      <c r="AR39" s="93"/>
+      <c r="AS39" s="93"/>
+      <c r="AT39" s="93"/>
+      <c r="AU39" s="93"/>
+      <c r="AV39" s="93"/>
+      <c r="AW39" s="93"/>
+      <c r="AX39" s="93"/>
+      <c r="AY39" s="93"/>
+      <c r="AZ39" s="93"/>
+      <c r="BA39" s="93"/>
+      <c r="BB39" s="93"/>
+      <c r="BC39" s="93"/>
+      <c r="BD39" s="93"/>
+      <c r="BE39" s="93"/>
+      <c r="BF39" s="93"/>
+      <c r="BG39" s="93"/>
+      <c r="BH39" s="93"/>
+      <c r="BI39" s="93"/>
+      <c r="BJ39" s="93"/>
+      <c r="BK39" s="93"/>
       <c r="BL39" s="17"/>
       <c r="BM39" s="17"/>
       <c r="BN39" s="17"/>
@@ -40034,6 +40037,60 @@
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="B39:BK39"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:Y22"/>
+    <mergeCell ref="Z22:BL22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:Y23"/>
+    <mergeCell ref="Z23:BL23"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:X28"/>
+    <mergeCell ref="B31:CI31"/>
+    <mergeCell ref="B34:CI34"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:X29"/>
+    <mergeCell ref="Y29:AH29"/>
+    <mergeCell ref="AI29:AR29"/>
+    <mergeCell ref="AS29:CI29"/>
+    <mergeCell ref="AS28:CI28"/>
+    <mergeCell ref="AS5:CI5"/>
+    <mergeCell ref="Y28:AH28"/>
+    <mergeCell ref="AI28:AR28"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:Y11"/>
+    <mergeCell ref="Z11:BL11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:Y12"/>
+    <mergeCell ref="Z12:BL12"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:Y24"/>
+    <mergeCell ref="Z24:BL24"/>
+    <mergeCell ref="F14:BT14"/>
+    <mergeCell ref="H15:BK15"/>
+    <mergeCell ref="H16:BL18"/>
+    <mergeCell ref="B20:CI20"/>
+    <mergeCell ref="E4:X4"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:X5"/>
+    <mergeCell ref="Y5:AR5"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:X37"/>
+    <mergeCell ref="Y37:BK37"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="AS4:CI4"/>
+    <mergeCell ref="Y4:AR4"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:X36"/>
+    <mergeCell ref="E7:X7"/>
+    <mergeCell ref="Y7:AH7"/>
+    <mergeCell ref="AI7:AR7"/>
+    <mergeCell ref="AS7:CI7"/>
+    <mergeCell ref="E8:X8"/>
+    <mergeCell ref="Y8:AH8"/>
+    <mergeCell ref="AI8:AR8"/>
+    <mergeCell ref="AS8:CI8"/>
     <mergeCell ref="Y36:BK36"/>
     <mergeCell ref="CB1:CI1"/>
     <mergeCell ref="B2:G2"/>
@@ -40050,60 +40107,6 @@
     <mergeCell ref="BP1:BW1"/>
     <mergeCell ref="BX1:CA1"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:X37"/>
-    <mergeCell ref="Y37:BK37"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="AS4:CI4"/>
-    <mergeCell ref="Y4:AR4"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:X36"/>
-    <mergeCell ref="E7:X7"/>
-    <mergeCell ref="Y7:AH7"/>
-    <mergeCell ref="AI7:AR7"/>
-    <mergeCell ref="AS7:CI7"/>
-    <mergeCell ref="E8:X8"/>
-    <mergeCell ref="Y8:AH8"/>
-    <mergeCell ref="AI8:AR8"/>
-    <mergeCell ref="AS8:CI8"/>
-    <mergeCell ref="B20:CI20"/>
-    <mergeCell ref="E4:X4"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:X5"/>
-    <mergeCell ref="Y5:AR5"/>
-    <mergeCell ref="AS28:CI28"/>
-    <mergeCell ref="AS5:CI5"/>
-    <mergeCell ref="Y28:AH28"/>
-    <mergeCell ref="AI28:AR28"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:Y11"/>
-    <mergeCell ref="Z11:BL11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:Y12"/>
-    <mergeCell ref="Z12:BL12"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:Y24"/>
-    <mergeCell ref="Z24:BL24"/>
-    <mergeCell ref="F14:BT14"/>
-    <mergeCell ref="H15:BK15"/>
-    <mergeCell ref="H16:BL18"/>
-    <mergeCell ref="B39:BK39"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:Y22"/>
-    <mergeCell ref="Z22:BL22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:Y23"/>
-    <mergeCell ref="Z23:BL23"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:X28"/>
-    <mergeCell ref="B31:CI31"/>
-    <mergeCell ref="B34:CI34"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:X29"/>
-    <mergeCell ref="Y29:AH29"/>
-    <mergeCell ref="AI29:AR29"/>
-    <mergeCell ref="AS29:CI29"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/内部設計書/内部設計書_2_1_結果一覧画面.xlsx
+++ b/内部設計書/内部設計書_2_1_結果一覧画面.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7a503a00dd146cc3/文档/GitHub/sleepyProject/内部設計書/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_DDE9A6455236E76435B4D6B93463C206971341E2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BCF17EE-8BF0-447A-9480-BEA956037189}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="204" yWindow="1308" windowWidth="15792" windowHeight="9672" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2.処理内容" sheetId="6" r:id="rId1"/>
@@ -384,11 +390,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1211,9 +1217,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="TableStyleLight1" xfId="1"/>
+    <cellStyle name="TableStyleLight1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="2"/>
+    <cellStyle name="標準 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1551,29 +1557,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Z25" sqref="Z25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Y37" sqref="Y37:BK37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="0.625" style="4"/>
-    <col min="2" max="87" width="1.625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="0.6640625" style="4"/>
+    <col min="2" max="87" width="1.6640625" style="4" customWidth="1"/>
     <col min="88" max="1025" width="9" style="4"/>
     <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1025" ht="18" customHeight="1">
+    <row r="1" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="94" t="s">
         <v>0</v>
@@ -2612,7 +2618,7 @@
       <c r="AMJ1" s="1"/>
       <c r="AMK1" s="2"/>
     </row>
-    <row r="2" spans="1:1025" ht="18" customHeight="1" thickBot="1">
+    <row r="2" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1"/>
       <c r="B2" s="86" t="s">
         <v>3</v>
@@ -3651,7 +3657,7 @@
       <c r="AMJ2" s="1"/>
       <c r="AMK2" s="2"/>
     </row>
-    <row r="3" spans="1:1025" s="3" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
+    <row r="3" spans="1:1025" s="3" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
@@ -3739,7 +3745,7 @@
       <c r="CH3" s="20"/>
       <c r="CI3" s="20"/>
     </row>
-    <row r="4" spans="1:1025" ht="18" customHeight="1">
+    <row r="4" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2"/>
       <c r="B4" s="48" t="s">
         <v>6</v>
@@ -4774,7 +4780,7 @@
       <c r="AMJ4" s="2"/>
       <c r="AMK4" s="2"/>
     </row>
-    <row r="5" spans="1:1025" ht="18" customHeight="1" thickBot="1">
+    <row r="5" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="2"/>
       <c r="B5" s="53">
         <v>1</v>
@@ -5809,7 +5815,7 @@
       <c r="AMJ5" s="2"/>
       <c r="AMK5" s="2"/>
     </row>
-    <row r="6" spans="1:1025" s="3" customFormat="1" ht="13.9" customHeight="1" thickBot="1">
+    <row r="6" spans="1:1025" s="3" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
@@ -5897,7 +5903,7 @@
       <c r="CH6" s="20"/>
       <c r="CI6" s="20"/>
     </row>
-    <row r="7" spans="1:1025" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="7" spans="1:1025" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="26"/>
       <c r="B7" s="48" t="s">
         <v>6</v>
@@ -5996,7 +6002,7 @@
       <c r="CH7" s="58"/>
       <c r="CI7" s="58"/>
     </row>
-    <row r="8" spans="1:1025" ht="18" customHeight="1" thickBot="1">
+    <row r="8" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="27"/>
       <c r="B8" s="53">
         <v>1</v>
@@ -7032,7 +7038,7 @@
       <c r="AMI8" s="1"/>
       <c r="AMJ8" s="1"/>
     </row>
-    <row r="9" spans="1:1025" ht="18" customHeight="1">
+    <row r="9" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="28"/>
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
@@ -8058,7 +8064,7 @@
       <c r="AMI9" s="1"/>
       <c r="AMJ9" s="1"/>
     </row>
-    <row r="10" spans="1:1025" ht="18" customHeight="1">
+    <row r="10" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="28"/>
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
@@ -9088,7 +9094,7 @@
       <c r="AMI10" s="1"/>
       <c r="AMJ10" s="1"/>
     </row>
-    <row r="11" spans="1:1025" ht="18" customHeight="1">
+    <row r="11" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="28"/>
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
@@ -10120,7 +10126,7 @@
       <c r="AMI11" s="1"/>
       <c r="AMJ11" s="1"/>
     </row>
-    <row r="12" spans="1:1025" ht="18" customHeight="1">
+    <row r="12" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="28"/>
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
@@ -11152,7 +11158,7 @@
       <c r="AMI12" s="1"/>
       <c r="AMJ12" s="1"/>
     </row>
-    <row r="13" spans="1:1025" ht="18" customHeight="1">
+    <row r="13" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="28"/>
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
@@ -12178,7 +12184,7 @@
       <c r="AMI13" s="1"/>
       <c r="AMJ13" s="1"/>
     </row>
-    <row r="14" spans="1:1025" ht="18" customHeight="1" thickBot="1">
+    <row r="14" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="28"/>
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
@@ -13206,7 +13212,7 @@
       <c r="AMI14" s="1"/>
       <c r="AMJ14" s="1"/>
     </row>
-    <row r="15" spans="1:1025" ht="18" customHeight="1" thickBot="1">
+    <row r="15" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="28"/>
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
@@ -14234,7 +14240,7 @@
       <c r="AMI15" s="1"/>
       <c r="AMJ15" s="1"/>
     </row>
-    <row r="16" spans="1:1025" ht="18" customHeight="1">
+    <row r="16" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="28"/>
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
@@ -15262,7 +15268,7 @@
       <c r="AMI16" s="1"/>
       <c r="AMJ16" s="1"/>
     </row>
-    <row r="17" spans="1:1024" ht="18" customHeight="1">
+    <row r="17" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="28"/>
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
@@ -16288,7 +16294,7 @@
       <c r="AMI17" s="1"/>
       <c r="AMJ17" s="1"/>
     </row>
-    <row r="18" spans="1:1024" ht="18" customHeight="1" thickBot="1">
+    <row r="18" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="28"/>
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
@@ -17314,7 +17320,7 @@
       <c r="AMI18" s="1"/>
       <c r="AMJ18" s="1"/>
     </row>
-    <row r="19" spans="1:1024" ht="18" customHeight="1">
+    <row r="19" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="28"/>
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
@@ -18340,7 +18346,7 @@
       <c r="AMI19" s="1"/>
       <c r="AMJ19" s="1"/>
     </row>
-    <row r="20" spans="1:1024" ht="18" customHeight="1">
+    <row r="20" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="28"/>
       <c r="B20" s="76" t="s">
         <v>39</v>
@@ -19368,7 +19374,7 @@
       <c r="AMI20" s="1"/>
       <c r="AMJ20" s="1"/>
     </row>
-    <row r="21" spans="1:1024" ht="18" customHeight="1">
+    <row r="21" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="28"/>
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
@@ -20394,7 +20400,7 @@
       <c r="AMI21" s="1"/>
       <c r="AMJ21" s="1"/>
     </row>
-    <row r="22" spans="1:1024" ht="18" customHeight="1">
+    <row r="22" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="28"/>
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
@@ -21426,7 +21432,7 @@
       <c r="AMI22" s="1"/>
       <c r="AMJ22" s="1"/>
     </row>
-    <row r="23" spans="1:1024" ht="18" customHeight="1">
+    <row r="23" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="28"/>
       <c r="B23" s="8"/>
       <c r="C23" s="9"/>
@@ -22458,7 +22464,7 @@
       <c r="AMI23" s="1"/>
       <c r="AMJ23" s="1"/>
     </row>
-    <row r="24" spans="1:1024">
+    <row r="24" spans="1:1024" x14ac:dyDescent="0.45">
       <c r="A24" s="28"/>
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
@@ -23490,7 +23496,7 @@
       <c r="AMI24" s="1"/>
       <c r="AMJ24" s="1"/>
     </row>
-    <row r="25" spans="1:1024" ht="18" customHeight="1" thickBot="1">
+    <row r="25" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="23"/>
       <c r="B25" s="12"/>
       <c r="C25" s="13"/>
@@ -24516,7 +24522,7 @@
       <c r="AMI25" s="1"/>
       <c r="AMJ25" s="1"/>
     </row>
-    <row r="26" spans="1:1024">
+    <row r="26" spans="1:1024" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
       <c r="B26" s="10"/>
       <c r="C26" s="9"/>
@@ -25542,7 +25548,7 @@
       <c r="AMI26" s="1"/>
       <c r="AMJ26" s="1"/>
     </row>
-    <row r="27" spans="1:1024" ht="18" customHeight="1" thickBot="1">
+    <row r="27" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -26568,7 +26574,7 @@
       <c r="AMI27" s="1"/>
       <c r="AMJ27" s="1"/>
     </row>
-    <row r="28" spans="1:1024" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="28" spans="1:1024" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="48" t="s">
         <v>6</v>
       </c>
@@ -26666,7 +26672,7 @@
       <c r="CH28" s="58"/>
       <c r="CI28" s="58"/>
     </row>
-    <row r="29" spans="1:1024" ht="18" customHeight="1" thickBot="1">
+    <row r="29" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="2"/>
       <c r="B29" s="53">
         <v>2</v>
@@ -27702,7 +27708,7 @@
       <c r="AMI29" s="1"/>
       <c r="AMJ29" s="1"/>
     </row>
-    <row r="30" spans="1:1024" ht="18" customHeight="1">
+    <row r="30" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="1"/>
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
@@ -28728,7 +28734,7 @@
       <c r="AMI30" s="1"/>
       <c r="AMJ30" s="1"/>
     </row>
-    <row r="31" spans="1:1024">
+    <row r="31" spans="1:1024" x14ac:dyDescent="0.45">
       <c r="A31" s="1"/>
       <c r="B31" s="50" t="s">
         <v>41</v>
@@ -29756,7 +29762,7 @@
       <c r="AMI31" s="1"/>
       <c r="AMJ31" s="1"/>
     </row>
-    <row r="32" spans="1:1024" ht="18" customHeight="1">
+    <row r="32" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="1"/>
       <c r="B32" s="8"/>
       <c r="C32" s="9"/>
@@ -30782,7 +30788,7 @@
       <c r="AMI32" s="1"/>
       <c r="AMJ32" s="1"/>
     </row>
-    <row r="33" spans="1:1024" ht="18" customHeight="1">
+    <row r="33" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="1"/>
       <c r="B33" s="8"/>
       <c r="C33" s="9"/>
@@ -31808,7 +31814,7 @@
       <c r="AMI33" s="1"/>
       <c r="AMJ33" s="1"/>
     </row>
-    <row r="34" spans="1:1024" ht="18" customHeight="1">
+    <row r="34" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="1"/>
       <c r="B34" s="50" t="s">
         <v>40</v>
@@ -32836,7 +32842,7 @@
       <c r="AMI34" s="1"/>
       <c r="AMJ34" s="1"/>
     </row>
-    <row r="35" spans="1:1024" ht="18" customHeight="1">
+    <row r="35" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="1"/>
       <c r="B35" s="8"/>
       <c r="C35" s="9"/>
@@ -33862,7 +33868,7 @@
       <c r="AMI35" s="1"/>
       <c r="AMJ35" s="1"/>
     </row>
-    <row r="36" spans="1:1024" ht="18" customHeight="1">
+    <row r="36" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
       <c r="B36" s="8"/>
       <c r="C36" s="9"/>
@@ -34894,7 +34900,7 @@
       <c r="AMI36" s="1"/>
       <c r="AMJ36" s="1"/>
     </row>
-    <row r="37" spans="1:1024" ht="18" customHeight="1">
+    <row r="37" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="1"/>
       <c r="B37" s="8"/>
       <c r="C37" s="9"/>
@@ -35926,7 +35932,7 @@
       <c r="AMI37" s="1"/>
       <c r="AMJ37" s="1"/>
     </row>
-    <row r="38" spans="1:1024" ht="18" customHeight="1">
+    <row r="38" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="1"/>
       <c r="B38" s="8"/>
       <c r="C38" s="9"/>
@@ -36952,7 +36958,7 @@
       <c r="AMI38" s="1"/>
       <c r="AMJ38" s="1"/>
     </row>
-    <row r="39" spans="1:1024" ht="18" customHeight="1">
+    <row r="39" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="1"/>
       <c r="B39" s="35" t="s">
         <v>42</v>
@@ -37980,7 +37986,7 @@
       <c r="AMI39" s="1"/>
       <c r="AMJ39" s="1"/>
     </row>
-    <row r="40" spans="1:1024" ht="18" customHeight="1" thickBot="1">
+    <row r="40" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A40" s="1"/>
       <c r="B40" s="12"/>
       <c r="C40" s="13"/>
@@ -39006,7 +39012,7 @@
       <c r="AMI40" s="1"/>
       <c r="AMJ40" s="1"/>
     </row>
-    <row r="41" spans="1:1024" ht="18" customHeight="1">
+    <row r="41" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>

--- a/内部設計書/内部設計書_2_1_結果一覧画面.xlsx
+++ b/内部設計書/内部設計書_2_1_結果一覧画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7a503a00dd146cc3/文档/GitHub/sleepyProject/内部設計書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_DDE9A6455236E76435B4D6B93463C206971341E2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BCF17EE-8BF0-447A-9480-BEA956037189}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_DDE9A6455236E76435B4D6B93463C206971341E2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F998D5E-3187-492F-B0B6-D7BF8016EB29}"/>
   <bookViews>
-    <workbookView xWindow="204" yWindow="1308" windowWidth="15792" windowHeight="9672" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2.処理内容" sheetId="6" r:id="rId1"/>
@@ -236,19 +236,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>サービスには以下の引数を渡す</t>
-    <rPh sb="6" eb="8">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ワタ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ー</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -384,6 +371,16 @@
   </si>
   <si>
     <t>List&lt;点数&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sessionから以下の引数をもらう</t>
+    <rPh sb="9" eb="11">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒキスウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1036,138 +1033,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1214,6 +1086,131 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1567,8 +1564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Y37" sqref="Y37:BK37"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="BZ12" sqref="BZ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1581,104 +1578,104 @@
   <sheetData>
     <row r="1" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="95" t="s">
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
-      <c r="R1" s="95"/>
-      <c r="S1" s="95"/>
-      <c r="T1" s="95"/>
-      <c r="U1" s="95"/>
-      <c r="V1" s="95"/>
-      <c r="W1" s="96" t="s">
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="X1" s="96"/>
-      <c r="Y1" s="96"/>
-      <c r="Z1" s="96"/>
-      <c r="AA1" s="96"/>
-      <c r="AB1" s="96"/>
-      <c r="AC1" s="96"/>
-      <c r="AD1" s="96"/>
-      <c r="AE1" s="96"/>
-      <c r="AF1" s="96"/>
-      <c r="AG1" s="96"/>
-      <c r="AH1" s="96"/>
-      <c r="AI1" s="96"/>
-      <c r="AJ1" s="96"/>
-      <c r="AK1" s="96"/>
-      <c r="AL1" s="96"/>
-      <c r="AM1" s="96"/>
-      <c r="AN1" s="96"/>
-      <c r="AO1" s="96"/>
-      <c r="AP1" s="96"/>
-      <c r="AQ1" s="96"/>
-      <c r="AR1" s="96"/>
-      <c r="AS1" s="96"/>
-      <c r="AT1" s="96"/>
-      <c r="AU1" s="96"/>
-      <c r="AV1" s="96"/>
-      <c r="AW1" s="96"/>
-      <c r="AX1" s="96"/>
-      <c r="AY1" s="96"/>
-      <c r="AZ1" s="96"/>
-      <c r="BA1" s="96"/>
-      <c r="BB1" s="96"/>
-      <c r="BC1" s="96"/>
-      <c r="BD1" s="96"/>
-      <c r="BE1" s="96"/>
-      <c r="BF1" s="96"/>
-      <c r="BG1" s="96"/>
-      <c r="BH1" s="96"/>
-      <c r="BI1" s="96"/>
-      <c r="BJ1" s="96"/>
-      <c r="BK1" s="96"/>
-      <c r="BL1" s="97" t="s">
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="49"/>
+      <c r="AN1" s="49"/>
+      <c r="AO1" s="49"/>
+      <c r="AP1" s="49"/>
+      <c r="AQ1" s="49"/>
+      <c r="AR1" s="49"/>
+      <c r="AS1" s="49"/>
+      <c r="AT1" s="49"/>
+      <c r="AU1" s="49"/>
+      <c r="AV1" s="49"/>
+      <c r="AW1" s="49"/>
+      <c r="AX1" s="49"/>
+      <c r="AY1" s="49"/>
+      <c r="AZ1" s="49"/>
+      <c r="BA1" s="49"/>
+      <c r="BB1" s="49"/>
+      <c r="BC1" s="49"/>
+      <c r="BD1" s="49"/>
+      <c r="BE1" s="49"/>
+      <c r="BF1" s="49"/>
+      <c r="BG1" s="49"/>
+      <c r="BH1" s="49"/>
+      <c r="BI1" s="49"/>
+      <c r="BJ1" s="49"/>
+      <c r="BK1" s="49"/>
+      <c r="BL1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="BM1" s="97"/>
-      <c r="BN1" s="97"/>
-      <c r="BO1" s="97"/>
-      <c r="BP1" s="98" t="s">
+      <c r="BM1" s="50"/>
+      <c r="BN1" s="50"/>
+      <c r="BO1" s="50"/>
+      <c r="BP1" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="BQ1" s="98"/>
-      <c r="BR1" s="98"/>
-      <c r="BS1" s="98"/>
-      <c r="BT1" s="98"/>
-      <c r="BU1" s="98"/>
-      <c r="BV1" s="98"/>
-      <c r="BW1" s="98"/>
-      <c r="BX1" s="99" t="s">
+      <c r="BQ1" s="51"/>
+      <c r="BR1" s="51"/>
+      <c r="BS1" s="51"/>
+      <c r="BT1" s="51"/>
+      <c r="BU1" s="51"/>
+      <c r="BV1" s="51"/>
+      <c r="BW1" s="51"/>
+      <c r="BX1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="BY1" s="99"/>
-      <c r="BZ1" s="99"/>
-      <c r="CA1" s="99"/>
-      <c r="CB1" s="85"/>
-      <c r="CC1" s="85"/>
-      <c r="CD1" s="85"/>
-      <c r="CE1" s="85"/>
-      <c r="CF1" s="85"/>
-      <c r="CG1" s="85"/>
-      <c r="CH1" s="85"/>
-      <c r="CI1" s="85"/>
+      <c r="BY1" s="52"/>
+      <c r="BZ1" s="52"/>
+      <c r="CA1" s="52"/>
+      <c r="CB1" s="38"/>
+      <c r="CC1" s="38"/>
+      <c r="CD1" s="38"/>
+      <c r="CE1" s="38"/>
+      <c r="CF1" s="38"/>
+      <c r="CG1" s="38"/>
+      <c r="CH1" s="38"/>
+      <c r="CI1" s="38"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -2620,104 +2617,104 @@
     </row>
     <row r="2" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1"/>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="87" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="87"/>
-      <c r="S2" s="87"/>
-      <c r="T2" s="87"/>
-      <c r="U2" s="87"/>
-      <c r="V2" s="87"/>
-      <c r="W2" s="88" t="s">
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="88"/>
-      <c r="Y2" s="88"/>
-      <c r="Z2" s="88"/>
-      <c r="AA2" s="88"/>
-      <c r="AB2" s="88"/>
-      <c r="AC2" s="88"/>
-      <c r="AD2" s="88"/>
-      <c r="AE2" s="88"/>
-      <c r="AF2" s="88"/>
-      <c r="AG2" s="88"/>
-      <c r="AH2" s="88"/>
-      <c r="AI2" s="88"/>
-      <c r="AJ2" s="88"/>
-      <c r="AK2" s="88"/>
-      <c r="AL2" s="88"/>
-      <c r="AM2" s="88"/>
-      <c r="AN2" s="88"/>
-      <c r="AO2" s="88"/>
-      <c r="AP2" s="88"/>
-      <c r="AQ2" s="88"/>
-      <c r="AR2" s="88"/>
-      <c r="AS2" s="88"/>
-      <c r="AT2" s="88"/>
-      <c r="AU2" s="88"/>
-      <c r="AV2" s="88"/>
-      <c r="AW2" s="88"/>
-      <c r="AX2" s="88"/>
-      <c r="AY2" s="88"/>
-      <c r="AZ2" s="88"/>
-      <c r="BA2" s="88"/>
-      <c r="BB2" s="88"/>
-      <c r="BC2" s="88"/>
-      <c r="BD2" s="88"/>
-      <c r="BE2" s="88"/>
-      <c r="BF2" s="88"/>
-      <c r="BG2" s="88"/>
-      <c r="BH2" s="88"/>
-      <c r="BI2" s="88"/>
-      <c r="BJ2" s="88"/>
-      <c r="BK2" s="88"/>
-      <c r="BL2" s="89" t="s">
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="41"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="41"/>
+      <c r="AS2" s="41"/>
+      <c r="AT2" s="41"/>
+      <c r="AU2" s="41"/>
+      <c r="AV2" s="41"/>
+      <c r="AW2" s="41"/>
+      <c r="AX2" s="41"/>
+      <c r="AY2" s="41"/>
+      <c r="AZ2" s="41"/>
+      <c r="BA2" s="41"/>
+      <c r="BB2" s="41"/>
+      <c r="BC2" s="41"/>
+      <c r="BD2" s="41"/>
+      <c r="BE2" s="41"/>
+      <c r="BF2" s="41"/>
+      <c r="BG2" s="41"/>
+      <c r="BH2" s="41"/>
+      <c r="BI2" s="41"/>
+      <c r="BJ2" s="41"/>
+      <c r="BK2" s="41"/>
+      <c r="BL2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="89"/>
-      <c r="BN2" s="89"/>
-      <c r="BO2" s="89"/>
-      <c r="BP2" s="90">
+      <c r="BM2" s="42"/>
+      <c r="BN2" s="42"/>
+      <c r="BO2" s="42"/>
+      <c r="BP2" s="43">
         <v>44691</v>
       </c>
-      <c r="BQ2" s="90"/>
-      <c r="BR2" s="90"/>
-      <c r="BS2" s="90"/>
-      <c r="BT2" s="90"/>
-      <c r="BU2" s="90"/>
-      <c r="BV2" s="90"/>
-      <c r="BW2" s="90"/>
-      <c r="BX2" s="91" t="s">
+      <c r="BQ2" s="43"/>
+      <c r="BR2" s="43"/>
+      <c r="BS2" s="43"/>
+      <c r="BT2" s="43"/>
+      <c r="BU2" s="43"/>
+      <c r="BV2" s="43"/>
+      <c r="BW2" s="43"/>
+      <c r="BX2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="91"/>
-      <c r="BZ2" s="91"/>
-      <c r="CA2" s="91"/>
-      <c r="CB2" s="92"/>
-      <c r="CC2" s="93"/>
-      <c r="CD2" s="93"/>
-      <c r="CE2" s="93"/>
-      <c r="CF2" s="93"/>
-      <c r="CG2" s="93"/>
-      <c r="CH2" s="93"/>
-      <c r="CI2" s="93"/>
+      <c r="BY2" s="44"/>
+      <c r="BZ2" s="44"/>
+      <c r="CA2" s="44"/>
+      <c r="CB2" s="45"/>
+      <c r="CC2" s="46"/>
+      <c r="CD2" s="46"/>
+      <c r="CE2" s="46"/>
+      <c r="CF2" s="46"/>
+      <c r="CG2" s="46"/>
+      <c r="CH2" s="46"/>
+      <c r="CI2" s="46"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
@@ -3747,100 +3744,100 @@
     </row>
     <row r="4" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2"/>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="79" t="s">
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="79"/>
-      <c r="O4" s="79"/>
-      <c r="P4" s="79"/>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="79"/>
-      <c r="S4" s="79"/>
-      <c r="T4" s="79"/>
-      <c r="U4" s="79"/>
-      <c r="V4" s="79"/>
-      <c r="W4" s="79"/>
-      <c r="X4" s="79"/>
-      <c r="Y4" s="79" t="s">
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="56"/>
+      <c r="W4" s="56"/>
+      <c r="X4" s="56"/>
+      <c r="Y4" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="Z4" s="79"/>
-      <c r="AA4" s="79"/>
-      <c r="AB4" s="79"/>
-      <c r="AC4" s="79"/>
-      <c r="AD4" s="79"/>
-      <c r="AE4" s="79"/>
-      <c r="AF4" s="79"/>
-      <c r="AG4" s="79"/>
-      <c r="AH4" s="79"/>
-      <c r="AI4" s="79"/>
-      <c r="AJ4" s="79"/>
-      <c r="AK4" s="79"/>
-      <c r="AL4" s="79"/>
-      <c r="AM4" s="79"/>
-      <c r="AN4" s="79"/>
-      <c r="AO4" s="79"/>
-      <c r="AP4" s="79"/>
-      <c r="AQ4" s="79"/>
-      <c r="AR4" s="79"/>
-      <c r="AS4" s="58" t="s">
+      <c r="Z4" s="56"/>
+      <c r="AA4" s="56"/>
+      <c r="AB4" s="56"/>
+      <c r="AC4" s="56"/>
+      <c r="AD4" s="56"/>
+      <c r="AE4" s="56"/>
+      <c r="AF4" s="56"/>
+      <c r="AG4" s="56"/>
+      <c r="AH4" s="56"/>
+      <c r="AI4" s="56"/>
+      <c r="AJ4" s="56"/>
+      <c r="AK4" s="56"/>
+      <c r="AL4" s="56"/>
+      <c r="AM4" s="56"/>
+      <c r="AN4" s="56"/>
+      <c r="AO4" s="56"/>
+      <c r="AP4" s="56"/>
+      <c r="AQ4" s="56"/>
+      <c r="AR4" s="56"/>
+      <c r="AS4" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="AT4" s="58"/>
-      <c r="AU4" s="58"/>
-      <c r="AV4" s="58"/>
-      <c r="AW4" s="58"/>
-      <c r="AX4" s="58"/>
-      <c r="AY4" s="58"/>
-      <c r="AZ4" s="58"/>
-      <c r="BA4" s="58"/>
-      <c r="BB4" s="58"/>
-      <c r="BC4" s="58"/>
-      <c r="BD4" s="58"/>
-      <c r="BE4" s="58"/>
-      <c r="BF4" s="58"/>
-      <c r="BG4" s="58"/>
-      <c r="BH4" s="58"/>
-      <c r="BI4" s="58"/>
-      <c r="BJ4" s="58"/>
-      <c r="BK4" s="58"/>
-      <c r="BL4" s="58"/>
-      <c r="BM4" s="58"/>
-      <c r="BN4" s="58"/>
-      <c r="BO4" s="58"/>
-      <c r="BP4" s="58"/>
-      <c r="BQ4" s="58"/>
-      <c r="BR4" s="58"/>
-      <c r="BS4" s="58"/>
-      <c r="BT4" s="58"/>
-      <c r="BU4" s="58"/>
-      <c r="BV4" s="58"/>
-      <c r="BW4" s="58"/>
-      <c r="BX4" s="58"/>
-      <c r="BY4" s="58"/>
-      <c r="BZ4" s="58"/>
-      <c r="CA4" s="58"/>
-      <c r="CB4" s="58"/>
-      <c r="CC4" s="58"/>
-      <c r="CD4" s="58"/>
-      <c r="CE4" s="58"/>
-      <c r="CF4" s="58"/>
-      <c r="CG4" s="58"/>
-      <c r="CH4" s="58"/>
-      <c r="CI4" s="58"/>
+      <c r="AT4" s="55"/>
+      <c r="AU4" s="55"/>
+      <c r="AV4" s="55"/>
+      <c r="AW4" s="55"/>
+      <c r="AX4" s="55"/>
+      <c r="AY4" s="55"/>
+      <c r="AZ4" s="55"/>
+      <c r="BA4" s="55"/>
+      <c r="BB4" s="55"/>
+      <c r="BC4" s="55"/>
+      <c r="BD4" s="55"/>
+      <c r="BE4" s="55"/>
+      <c r="BF4" s="55"/>
+      <c r="BG4" s="55"/>
+      <c r="BH4" s="55"/>
+      <c r="BI4" s="55"/>
+      <c r="BJ4" s="55"/>
+      <c r="BK4" s="55"/>
+      <c r="BL4" s="55"/>
+      <c r="BM4" s="55"/>
+      <c r="BN4" s="55"/>
+      <c r="BO4" s="55"/>
+      <c r="BP4" s="55"/>
+      <c r="BQ4" s="55"/>
+      <c r="BR4" s="55"/>
+      <c r="BS4" s="55"/>
+      <c r="BT4" s="55"/>
+      <c r="BU4" s="55"/>
+      <c r="BV4" s="55"/>
+      <c r="BW4" s="55"/>
+      <c r="BX4" s="55"/>
+      <c r="BY4" s="55"/>
+      <c r="BZ4" s="55"/>
+      <c r="CA4" s="55"/>
+      <c r="CB4" s="55"/>
+      <c r="CC4" s="55"/>
+      <c r="CD4" s="55"/>
+      <c r="CE4" s="55"/>
+      <c r="CF4" s="55"/>
+      <c r="CG4" s="55"/>
+      <c r="CH4" s="55"/>
+      <c r="CI4" s="55"/>
       <c r="CJ4" s="2"/>
       <c r="CK4" s="2"/>
       <c r="CL4" s="2"/>
@@ -4782,100 +4779,100 @@
     </row>
     <row r="5" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="2"/>
-      <c r="B5" s="53">
+      <c r="B5" s="72">
         <v>1</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="80" t="s">
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="81"/>
-      <c r="T5" s="81"/>
-      <c r="U5" s="81"/>
-      <c r="V5" s="81"/>
-      <c r="W5" s="81"/>
-      <c r="X5" s="81"/>
-      <c r="Y5" s="81" t="s">
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="74"/>
+      <c r="T5" s="74"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
+      <c r="W5" s="74"/>
+      <c r="X5" s="74"/>
+      <c r="Y5" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="Z5" s="81"/>
-      <c r="AA5" s="81"/>
-      <c r="AB5" s="81"/>
-      <c r="AC5" s="81"/>
-      <c r="AD5" s="81"/>
-      <c r="AE5" s="81"/>
-      <c r="AF5" s="81"/>
-      <c r="AG5" s="81"/>
-      <c r="AH5" s="81"/>
-      <c r="AI5" s="81"/>
-      <c r="AJ5" s="81"/>
-      <c r="AK5" s="81"/>
-      <c r="AL5" s="81"/>
-      <c r="AM5" s="81"/>
-      <c r="AN5" s="81"/>
-      <c r="AO5" s="81"/>
-      <c r="AP5" s="81"/>
-      <c r="AQ5" s="81"/>
-      <c r="AR5" s="81"/>
-      <c r="AS5" s="59" t="s">
+      <c r="Z5" s="74"/>
+      <c r="AA5" s="74"/>
+      <c r="AB5" s="74"/>
+      <c r="AC5" s="74"/>
+      <c r="AD5" s="74"/>
+      <c r="AE5" s="74"/>
+      <c r="AF5" s="74"/>
+      <c r="AG5" s="74"/>
+      <c r="AH5" s="74"/>
+      <c r="AI5" s="74"/>
+      <c r="AJ5" s="74"/>
+      <c r="AK5" s="74"/>
+      <c r="AL5" s="74"/>
+      <c r="AM5" s="74"/>
+      <c r="AN5" s="74"/>
+      <c r="AO5" s="74"/>
+      <c r="AP5" s="74"/>
+      <c r="AQ5" s="74"/>
+      <c r="AR5" s="74"/>
+      <c r="AS5" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="AT5" s="59"/>
-      <c r="AU5" s="59"/>
-      <c r="AV5" s="59"/>
-      <c r="AW5" s="59"/>
-      <c r="AX5" s="59"/>
-      <c r="AY5" s="59"/>
-      <c r="AZ5" s="59"/>
-      <c r="BA5" s="59"/>
-      <c r="BB5" s="59"/>
-      <c r="BC5" s="59"/>
-      <c r="BD5" s="59"/>
-      <c r="BE5" s="59"/>
-      <c r="BF5" s="59"/>
-      <c r="BG5" s="59"/>
-      <c r="BH5" s="59"/>
-      <c r="BI5" s="59"/>
-      <c r="BJ5" s="59"/>
-      <c r="BK5" s="59"/>
-      <c r="BL5" s="59"/>
-      <c r="BM5" s="59"/>
-      <c r="BN5" s="59"/>
-      <c r="BO5" s="59"/>
-      <c r="BP5" s="59"/>
-      <c r="BQ5" s="59"/>
-      <c r="BR5" s="59"/>
-      <c r="BS5" s="59"/>
-      <c r="BT5" s="59"/>
-      <c r="BU5" s="59"/>
-      <c r="BV5" s="59"/>
-      <c r="BW5" s="59"/>
-      <c r="BX5" s="59"/>
-      <c r="BY5" s="59"/>
-      <c r="BZ5" s="59"/>
-      <c r="CA5" s="59"/>
-      <c r="CB5" s="59"/>
-      <c r="CC5" s="59"/>
-      <c r="CD5" s="59"/>
-      <c r="CE5" s="59"/>
-      <c r="CF5" s="59"/>
-      <c r="CG5" s="59"/>
-      <c r="CH5" s="59"/>
-      <c r="CI5" s="59"/>
+      <c r="AT5" s="75"/>
+      <c r="AU5" s="75"/>
+      <c r="AV5" s="75"/>
+      <c r="AW5" s="75"/>
+      <c r="AX5" s="75"/>
+      <c r="AY5" s="75"/>
+      <c r="AZ5" s="75"/>
+      <c r="BA5" s="75"/>
+      <c r="BB5" s="75"/>
+      <c r="BC5" s="75"/>
+      <c r="BD5" s="75"/>
+      <c r="BE5" s="75"/>
+      <c r="BF5" s="75"/>
+      <c r="BG5" s="75"/>
+      <c r="BH5" s="75"/>
+      <c r="BI5" s="75"/>
+      <c r="BJ5" s="75"/>
+      <c r="BK5" s="75"/>
+      <c r="BL5" s="75"/>
+      <c r="BM5" s="75"/>
+      <c r="BN5" s="75"/>
+      <c r="BO5" s="75"/>
+      <c r="BP5" s="75"/>
+      <c r="BQ5" s="75"/>
+      <c r="BR5" s="75"/>
+      <c r="BS5" s="75"/>
+      <c r="BT5" s="75"/>
+      <c r="BU5" s="75"/>
+      <c r="BV5" s="75"/>
+      <c r="BW5" s="75"/>
+      <c r="BX5" s="75"/>
+      <c r="BY5" s="75"/>
+      <c r="BZ5" s="75"/>
+      <c r="CA5" s="75"/>
+      <c r="CB5" s="75"/>
+      <c r="CC5" s="75"/>
+      <c r="CD5" s="75"/>
+      <c r="CE5" s="75"/>
+      <c r="CF5" s="75"/>
+      <c r="CG5" s="75"/>
+      <c r="CH5" s="75"/>
+      <c r="CI5" s="75"/>
       <c r="CJ5" s="2"/>
       <c r="CK5" s="2"/>
       <c r="CL5" s="2"/>
@@ -5905,201 +5902,201 @@
     </row>
     <row r="7" spans="1:1025" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="26"/>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49" t="s">
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="49"/>
-      <c r="T7" s="49"/>
-      <c r="U7" s="49"/>
-      <c r="V7" s="49"/>
-      <c r="W7" s="49"/>
-      <c r="X7" s="49"/>
-      <c r="Y7" s="60" t="s">
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="61"/>
+      <c r="V7" s="61"/>
+      <c r="W7" s="61"/>
+      <c r="X7" s="61"/>
+      <c r="Y7" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="Z7" s="61"/>
-      <c r="AA7" s="61"/>
-      <c r="AB7" s="61"/>
-      <c r="AC7" s="61"/>
-      <c r="AD7" s="61"/>
-      <c r="AE7" s="61"/>
-      <c r="AF7" s="61"/>
-      <c r="AG7" s="61"/>
-      <c r="AH7" s="62"/>
-      <c r="AI7" s="60" t="s">
+      <c r="Z7" s="63"/>
+      <c r="AA7" s="63"/>
+      <c r="AB7" s="63"/>
+      <c r="AC7" s="63"/>
+      <c r="AD7" s="63"/>
+      <c r="AE7" s="63"/>
+      <c r="AF7" s="63"/>
+      <c r="AG7" s="63"/>
+      <c r="AH7" s="64"/>
+      <c r="AI7" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="AJ7" s="61"/>
-      <c r="AK7" s="61"/>
-      <c r="AL7" s="61"/>
-      <c r="AM7" s="61"/>
-      <c r="AN7" s="61"/>
-      <c r="AO7" s="61"/>
-      <c r="AP7" s="61"/>
-      <c r="AQ7" s="61"/>
-      <c r="AR7" s="62"/>
-      <c r="AS7" s="58" t="s">
+      <c r="AJ7" s="63"/>
+      <c r="AK7" s="63"/>
+      <c r="AL7" s="63"/>
+      <c r="AM7" s="63"/>
+      <c r="AN7" s="63"/>
+      <c r="AO7" s="63"/>
+      <c r="AP7" s="63"/>
+      <c r="AQ7" s="63"/>
+      <c r="AR7" s="64"/>
+      <c r="AS7" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="AT7" s="58"/>
-      <c r="AU7" s="58"/>
-      <c r="AV7" s="58"/>
-      <c r="AW7" s="58"/>
-      <c r="AX7" s="58"/>
-      <c r="AY7" s="58"/>
-      <c r="AZ7" s="58"/>
-      <c r="BA7" s="58"/>
-      <c r="BB7" s="58"/>
-      <c r="BC7" s="58"/>
-      <c r="BD7" s="58"/>
-      <c r="BE7" s="58"/>
-      <c r="BF7" s="58"/>
-      <c r="BG7" s="58"/>
-      <c r="BH7" s="58"/>
-      <c r="BI7" s="58"/>
-      <c r="BJ7" s="58"/>
-      <c r="BK7" s="58"/>
-      <c r="BL7" s="58"/>
-      <c r="BM7" s="58"/>
-      <c r="BN7" s="58"/>
-      <c r="BO7" s="58"/>
-      <c r="BP7" s="58"/>
-      <c r="BQ7" s="58"/>
-      <c r="BR7" s="58"/>
-      <c r="BS7" s="58"/>
-      <c r="BT7" s="58"/>
-      <c r="BU7" s="58"/>
-      <c r="BV7" s="58"/>
-      <c r="BW7" s="58"/>
-      <c r="BX7" s="58"/>
-      <c r="BY7" s="58"/>
-      <c r="BZ7" s="58"/>
-      <c r="CA7" s="58"/>
-      <c r="CB7" s="58"/>
-      <c r="CC7" s="58"/>
-      <c r="CD7" s="58"/>
-      <c r="CE7" s="58"/>
-      <c r="CF7" s="58"/>
-      <c r="CG7" s="58"/>
-      <c r="CH7" s="58"/>
-      <c r="CI7" s="58"/>
+      <c r="AT7" s="55"/>
+      <c r="AU7" s="55"/>
+      <c r="AV7" s="55"/>
+      <c r="AW7" s="55"/>
+      <c r="AX7" s="55"/>
+      <c r="AY7" s="55"/>
+      <c r="AZ7" s="55"/>
+      <c r="BA7" s="55"/>
+      <c r="BB7" s="55"/>
+      <c r="BC7" s="55"/>
+      <c r="BD7" s="55"/>
+      <c r="BE7" s="55"/>
+      <c r="BF7" s="55"/>
+      <c r="BG7" s="55"/>
+      <c r="BH7" s="55"/>
+      <c r="BI7" s="55"/>
+      <c r="BJ7" s="55"/>
+      <c r="BK7" s="55"/>
+      <c r="BL7" s="55"/>
+      <c r="BM7" s="55"/>
+      <c r="BN7" s="55"/>
+      <c r="BO7" s="55"/>
+      <c r="BP7" s="55"/>
+      <c r="BQ7" s="55"/>
+      <c r="BR7" s="55"/>
+      <c r="BS7" s="55"/>
+      <c r="BT7" s="55"/>
+      <c r="BU7" s="55"/>
+      <c r="BV7" s="55"/>
+      <c r="BW7" s="55"/>
+      <c r="BX7" s="55"/>
+      <c r="BY7" s="55"/>
+      <c r="BZ7" s="55"/>
+      <c r="CA7" s="55"/>
+      <c r="CB7" s="55"/>
+      <c r="CC7" s="55"/>
+      <c r="CD7" s="55"/>
+      <c r="CE7" s="55"/>
+      <c r="CF7" s="55"/>
+      <c r="CG7" s="55"/>
+      <c r="CH7" s="55"/>
+      <c r="CI7" s="55"/>
     </row>
     <row r="8" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="27"/>
-      <c r="B8" s="53">
+      <c r="B8" s="72">
         <v>1</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="82" t="s">
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="66"/>
+      <c r="S8" s="66"/>
+      <c r="T8" s="66"/>
+      <c r="U8" s="66"/>
+      <c r="V8" s="66"/>
+      <c r="W8" s="66"/>
+      <c r="X8" s="67"/>
+      <c r="Y8" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z8" s="66"/>
+      <c r="AA8" s="66"/>
+      <c r="AB8" s="66"/>
+      <c r="AC8" s="66"/>
+      <c r="AD8" s="66"/>
+      <c r="AE8" s="66"/>
+      <c r="AF8" s="66"/>
+      <c r="AG8" s="66"/>
+      <c r="AH8" s="67"/>
+      <c r="AI8" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ8" s="66"/>
+      <c r="AK8" s="66"/>
+      <c r="AL8" s="66"/>
+      <c r="AM8" s="66"/>
+      <c r="AN8" s="66"/>
+      <c r="AO8" s="66"/>
+      <c r="AP8" s="66"/>
+      <c r="AQ8" s="66"/>
+      <c r="AR8" s="67"/>
+      <c r="AS8" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="83"/>
-      <c r="L8" s="83"/>
-      <c r="M8" s="83"/>
-      <c r="N8" s="83"/>
-      <c r="O8" s="83"/>
-      <c r="P8" s="83"/>
-      <c r="Q8" s="83"/>
-      <c r="R8" s="83"/>
-      <c r="S8" s="83"/>
-      <c r="T8" s="83"/>
-      <c r="U8" s="83"/>
-      <c r="V8" s="83"/>
-      <c r="W8" s="83"/>
-      <c r="X8" s="84"/>
-      <c r="Y8" s="82" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z8" s="83"/>
-      <c r="AA8" s="83"/>
-      <c r="AB8" s="83"/>
-      <c r="AC8" s="83"/>
-      <c r="AD8" s="83"/>
-      <c r="AE8" s="83"/>
-      <c r="AF8" s="83"/>
-      <c r="AG8" s="83"/>
-      <c r="AH8" s="84"/>
-      <c r="AI8" s="82" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ8" s="83"/>
-      <c r="AK8" s="83"/>
-      <c r="AL8" s="83"/>
-      <c r="AM8" s="83"/>
-      <c r="AN8" s="83"/>
-      <c r="AO8" s="83"/>
-      <c r="AP8" s="83"/>
-      <c r="AQ8" s="83"/>
-      <c r="AR8" s="84"/>
-      <c r="AS8" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="AT8" s="57"/>
-      <c r="AU8" s="57"/>
-      <c r="AV8" s="57"/>
-      <c r="AW8" s="57"/>
-      <c r="AX8" s="57"/>
-      <c r="AY8" s="57"/>
-      <c r="AZ8" s="57"/>
-      <c r="BA8" s="57"/>
-      <c r="BB8" s="57"/>
-      <c r="BC8" s="57"/>
-      <c r="BD8" s="57"/>
-      <c r="BE8" s="57"/>
-      <c r="BF8" s="57"/>
-      <c r="BG8" s="57"/>
-      <c r="BH8" s="57"/>
-      <c r="BI8" s="57"/>
-      <c r="BJ8" s="57"/>
-      <c r="BK8" s="57"/>
-      <c r="BL8" s="57"/>
-      <c r="BM8" s="57"/>
-      <c r="BN8" s="57"/>
-      <c r="BO8" s="57"/>
-      <c r="BP8" s="57"/>
-      <c r="BQ8" s="57"/>
-      <c r="BR8" s="57"/>
-      <c r="BS8" s="57"/>
-      <c r="BT8" s="57"/>
-      <c r="BU8" s="57"/>
-      <c r="BV8" s="57"/>
-      <c r="BW8" s="57"/>
-      <c r="BX8" s="57"/>
-      <c r="BY8" s="57"/>
-      <c r="BZ8" s="57"/>
-      <c r="CA8" s="57"/>
-      <c r="CB8" s="57"/>
-      <c r="CC8" s="57"/>
-      <c r="CD8" s="57"/>
-      <c r="CE8" s="57"/>
-      <c r="CF8" s="57"/>
-      <c r="CG8" s="57"/>
-      <c r="CH8" s="57"/>
-      <c r="CI8" s="57"/>
+      <c r="AT8" s="68"/>
+      <c r="AU8" s="68"/>
+      <c r="AV8" s="68"/>
+      <c r="AW8" s="68"/>
+      <c r="AX8" s="68"/>
+      <c r="AY8" s="68"/>
+      <c r="AZ8" s="68"/>
+      <c r="BA8" s="68"/>
+      <c r="BB8" s="68"/>
+      <c r="BC8" s="68"/>
+      <c r="BD8" s="68"/>
+      <c r="BE8" s="68"/>
+      <c r="BF8" s="68"/>
+      <c r="BG8" s="68"/>
+      <c r="BH8" s="68"/>
+      <c r="BI8" s="68"/>
+      <c r="BJ8" s="68"/>
+      <c r="BK8" s="68"/>
+      <c r="BL8" s="68"/>
+      <c r="BM8" s="68"/>
+      <c r="BN8" s="68"/>
+      <c r="BO8" s="68"/>
+      <c r="BP8" s="68"/>
+      <c r="BQ8" s="68"/>
+      <c r="BR8" s="68"/>
+      <c r="BS8" s="68"/>
+      <c r="BT8" s="68"/>
+      <c r="BU8" s="68"/>
+      <c r="BV8" s="68"/>
+      <c r="BW8" s="68"/>
+      <c r="BX8" s="68"/>
+      <c r="BY8" s="68"/>
+      <c r="BZ8" s="68"/>
+      <c r="CA8" s="68"/>
+      <c r="CB8" s="68"/>
+      <c r="CC8" s="68"/>
+      <c r="CD8" s="68"/>
+      <c r="CE8" s="68"/>
+      <c r="CF8" s="68"/>
+      <c r="CG8" s="68"/>
+      <c r="CH8" s="68"/>
+      <c r="CI8" s="68"/>
       <c r="CJ8" s="1"/>
       <c r="CK8" s="1"/>
       <c r="CL8" s="1"/>
@@ -8076,7 +8073,7 @@
       <c r="G10" s="9"/>
       <c r="H10" s="30"/>
       <c r="I10" s="9" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
@@ -9102,69 +9099,69 @@
       <c r="E11" s="29"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="37" t="s">
+      <c r="H11" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="38"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="40" t="s">
+      <c r="I11" s="57"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="41"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="38"/>
-      <c r="V11" s="38"/>
-      <c r="W11" s="38"/>
-      <c r="X11" s="38"/>
-      <c r="Y11" s="39"/>
-      <c r="Z11" s="37" t="s">
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="60"/>
+      <c r="R11" s="60"/>
+      <c r="S11" s="60"/>
+      <c r="T11" s="60"/>
+      <c r="U11" s="57"/>
+      <c r="V11" s="57"/>
+      <c r="W11" s="57"/>
+      <c r="X11" s="57"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="AA11" s="42"/>
-      <c r="AB11" s="42"/>
-      <c r="AC11" s="42"/>
-      <c r="AD11" s="42"/>
-      <c r="AE11" s="42"/>
-      <c r="AF11" s="42"/>
-      <c r="AG11" s="42"/>
-      <c r="AH11" s="42"/>
-      <c r="AI11" s="42"/>
-      <c r="AJ11" s="42"/>
-      <c r="AK11" s="42"/>
-      <c r="AL11" s="42"/>
-      <c r="AM11" s="42"/>
-      <c r="AN11" s="42"/>
-      <c r="AO11" s="42"/>
-      <c r="AP11" s="42"/>
-      <c r="AQ11" s="42"/>
-      <c r="AR11" s="42"/>
-      <c r="AS11" s="42"/>
-      <c r="AT11" s="42"/>
-      <c r="AU11" s="42"/>
-      <c r="AV11" s="42"/>
-      <c r="AW11" s="42"/>
-      <c r="AX11" s="42"/>
-      <c r="AY11" s="42"/>
-      <c r="AZ11" s="42"/>
-      <c r="BA11" s="42"/>
-      <c r="BB11" s="42"/>
-      <c r="BC11" s="42"/>
-      <c r="BD11" s="42"/>
-      <c r="BE11" s="42"/>
-      <c r="BF11" s="42"/>
-      <c r="BG11" s="42"/>
-      <c r="BH11" s="42"/>
-      <c r="BI11" s="42"/>
-      <c r="BJ11" s="42"/>
-      <c r="BK11" s="42"/>
-      <c r="BL11" s="43"/>
+      <c r="AA11" s="36"/>
+      <c r="AB11" s="36"/>
+      <c r="AC11" s="36"/>
+      <c r="AD11" s="36"/>
+      <c r="AE11" s="36"/>
+      <c r="AF11" s="36"/>
+      <c r="AG11" s="36"/>
+      <c r="AH11" s="36"/>
+      <c r="AI11" s="36"/>
+      <c r="AJ11" s="36"/>
+      <c r="AK11" s="36"/>
+      <c r="AL11" s="36"/>
+      <c r="AM11" s="36"/>
+      <c r="AN11" s="36"/>
+      <c r="AO11" s="36"/>
+      <c r="AP11" s="36"/>
+      <c r="AQ11" s="36"/>
+      <c r="AR11" s="36"/>
+      <c r="AS11" s="36"/>
+      <c r="AT11" s="36"/>
+      <c r="AU11" s="36"/>
+      <c r="AV11" s="36"/>
+      <c r="AW11" s="36"/>
+      <c r="AX11" s="36"/>
+      <c r="AY11" s="36"/>
+      <c r="AZ11" s="36"/>
+      <c r="BA11" s="36"/>
+      <c r="BB11" s="36"/>
+      <c r="BC11" s="36"/>
+      <c r="BD11" s="36"/>
+      <c r="BE11" s="36"/>
+      <c r="BF11" s="36"/>
+      <c r="BG11" s="36"/>
+      <c r="BH11" s="36"/>
+      <c r="BI11" s="36"/>
+      <c r="BJ11" s="36"/>
+      <c r="BK11" s="36"/>
+      <c r="BL11" s="37"/>
       <c r="BM11" s="9"/>
       <c r="BN11" s="9"/>
       <c r="BO11" s="9"/>
@@ -10134,69 +10131,69 @@
       <c r="E12" s="29"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="44">
+      <c r="H12" s="54">
         <v>1</v>
       </c>
-      <c r="I12" s="42"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="45" t="s">
-        <v>45</v>
+      <c r="I12" s="36"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="76" t="s">
+        <v>44</v>
       </c>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="46"/>
-      <c r="S12" s="46"/>
-      <c r="T12" s="46"/>
-      <c r="U12" s="46"/>
-      <c r="V12" s="46"/>
-      <c r="W12" s="46"/>
-      <c r="X12" s="46"/>
-      <c r="Y12" s="47"/>
-      <c r="Z12" s="44" t="s">
-        <v>43</v>
+      <c r="L12" s="77"/>
+      <c r="M12" s="77"/>
+      <c r="N12" s="77"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="77"/>
+      <c r="Q12" s="77"/>
+      <c r="R12" s="77"/>
+      <c r="S12" s="77"/>
+      <c r="T12" s="77"/>
+      <c r="U12" s="77"/>
+      <c r="V12" s="77"/>
+      <c r="W12" s="77"/>
+      <c r="X12" s="77"/>
+      <c r="Y12" s="78"/>
+      <c r="Z12" s="54" t="s">
+        <v>42</v>
       </c>
-      <c r="AA12" s="42"/>
-      <c r="AB12" s="42"/>
-      <c r="AC12" s="42"/>
-      <c r="AD12" s="42"/>
-      <c r="AE12" s="42"/>
-      <c r="AF12" s="42"/>
-      <c r="AG12" s="42"/>
-      <c r="AH12" s="42"/>
-      <c r="AI12" s="42"/>
-      <c r="AJ12" s="42"/>
-      <c r="AK12" s="42"/>
-      <c r="AL12" s="42"/>
-      <c r="AM12" s="42"/>
-      <c r="AN12" s="42"/>
-      <c r="AO12" s="42"/>
-      <c r="AP12" s="42"/>
-      <c r="AQ12" s="42"/>
-      <c r="AR12" s="42"/>
-      <c r="AS12" s="42"/>
-      <c r="AT12" s="42"/>
-      <c r="AU12" s="42"/>
-      <c r="AV12" s="42"/>
-      <c r="AW12" s="42"/>
-      <c r="AX12" s="42"/>
-      <c r="AY12" s="42"/>
-      <c r="AZ12" s="42"/>
-      <c r="BA12" s="42"/>
-      <c r="BB12" s="42"/>
-      <c r="BC12" s="42"/>
-      <c r="BD12" s="42"/>
-      <c r="BE12" s="42"/>
-      <c r="BF12" s="42"/>
-      <c r="BG12" s="42"/>
-      <c r="BH12" s="42"/>
-      <c r="BI12" s="42"/>
-      <c r="BJ12" s="42"/>
-      <c r="BK12" s="42"/>
-      <c r="BL12" s="43"/>
+      <c r="AA12" s="36"/>
+      <c r="AB12" s="36"/>
+      <c r="AC12" s="36"/>
+      <c r="AD12" s="36"/>
+      <c r="AE12" s="36"/>
+      <c r="AF12" s="36"/>
+      <c r="AG12" s="36"/>
+      <c r="AH12" s="36"/>
+      <c r="AI12" s="36"/>
+      <c r="AJ12" s="36"/>
+      <c r="AK12" s="36"/>
+      <c r="AL12" s="36"/>
+      <c r="AM12" s="36"/>
+      <c r="AN12" s="36"/>
+      <c r="AO12" s="36"/>
+      <c r="AP12" s="36"/>
+      <c r="AQ12" s="36"/>
+      <c r="AR12" s="36"/>
+      <c r="AS12" s="36"/>
+      <c r="AT12" s="36"/>
+      <c r="AU12" s="36"/>
+      <c r="AV12" s="36"/>
+      <c r="AW12" s="36"/>
+      <c r="AX12" s="36"/>
+      <c r="AY12" s="36"/>
+      <c r="AZ12" s="36"/>
+      <c r="BA12" s="36"/>
+      <c r="BB12" s="36"/>
+      <c r="BC12" s="36"/>
+      <c r="BD12" s="36"/>
+      <c r="BE12" s="36"/>
+      <c r="BF12" s="36"/>
+      <c r="BG12" s="36"/>
+      <c r="BH12" s="36"/>
+      <c r="BI12" s="36"/>
+      <c r="BJ12" s="36"/>
+      <c r="BK12" s="36"/>
+      <c r="BL12" s="37"/>
       <c r="BM12" s="9"/>
       <c r="BN12" s="9"/>
       <c r="BO12" s="9"/>
@@ -12190,75 +12187,75 @@
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="17"/>
-      <c r="F14" s="63" t="s">
-        <v>44</v>
+      <c r="F14" s="79" t="s">
+        <v>43</v>
       </c>
-      <c r="G14" s="63"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="64"/>
-      <c r="O14" s="64"/>
-      <c r="P14" s="64"/>
-      <c r="Q14" s="64"/>
-      <c r="R14" s="64"/>
-      <c r="S14" s="64"/>
-      <c r="T14" s="64"/>
-      <c r="U14" s="64"/>
-      <c r="V14" s="64"/>
-      <c r="W14" s="64"/>
-      <c r="X14" s="64"/>
-      <c r="Y14" s="64"/>
-      <c r="Z14" s="64"/>
-      <c r="AA14" s="64"/>
-      <c r="AB14" s="64"/>
-      <c r="AC14" s="64"/>
-      <c r="AD14" s="64"/>
-      <c r="AE14" s="64"/>
-      <c r="AF14" s="64"/>
-      <c r="AG14" s="64"/>
-      <c r="AH14" s="64"/>
-      <c r="AI14" s="64"/>
-      <c r="AJ14" s="64"/>
-      <c r="AK14" s="64"/>
-      <c r="AL14" s="64"/>
-      <c r="AM14" s="64"/>
-      <c r="AN14" s="64"/>
-      <c r="AO14" s="64"/>
-      <c r="AP14" s="64"/>
-      <c r="AQ14" s="64"/>
-      <c r="AR14" s="64"/>
-      <c r="AS14" s="64"/>
-      <c r="AT14" s="64"/>
-      <c r="AU14" s="64"/>
-      <c r="AV14" s="64"/>
-      <c r="AW14" s="64"/>
-      <c r="AX14" s="64"/>
-      <c r="AY14" s="64"/>
-      <c r="AZ14" s="64"/>
-      <c r="BA14" s="64"/>
-      <c r="BB14" s="64"/>
-      <c r="BC14" s="64"/>
-      <c r="BD14" s="64"/>
-      <c r="BE14" s="64"/>
-      <c r="BF14" s="64"/>
-      <c r="BG14" s="64"/>
-      <c r="BH14" s="64"/>
-      <c r="BI14" s="64"/>
-      <c r="BJ14" s="64"/>
-      <c r="BK14" s="64"/>
-      <c r="BL14" s="64"/>
-      <c r="BM14" s="63"/>
-      <c r="BN14" s="63"/>
-      <c r="BO14" s="63"/>
-      <c r="BP14" s="63"/>
-      <c r="BQ14" s="63"/>
-      <c r="BR14" s="63"/>
-      <c r="BS14" s="63"/>
-      <c r="BT14" s="63"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="80"/>
+      <c r="O14" s="80"/>
+      <c r="P14" s="80"/>
+      <c r="Q14" s="80"/>
+      <c r="R14" s="80"/>
+      <c r="S14" s="80"/>
+      <c r="T14" s="80"/>
+      <c r="U14" s="80"/>
+      <c r="V14" s="80"/>
+      <c r="W14" s="80"/>
+      <c r="X14" s="80"/>
+      <c r="Y14" s="80"/>
+      <c r="Z14" s="80"/>
+      <c r="AA14" s="80"/>
+      <c r="AB14" s="80"/>
+      <c r="AC14" s="80"/>
+      <c r="AD14" s="80"/>
+      <c r="AE14" s="80"/>
+      <c r="AF14" s="80"/>
+      <c r="AG14" s="80"/>
+      <c r="AH14" s="80"/>
+      <c r="AI14" s="80"/>
+      <c r="AJ14" s="80"/>
+      <c r="AK14" s="80"/>
+      <c r="AL14" s="80"/>
+      <c r="AM14" s="80"/>
+      <c r="AN14" s="80"/>
+      <c r="AO14" s="80"/>
+      <c r="AP14" s="80"/>
+      <c r="AQ14" s="80"/>
+      <c r="AR14" s="80"/>
+      <c r="AS14" s="80"/>
+      <c r="AT14" s="80"/>
+      <c r="AU14" s="80"/>
+      <c r="AV14" s="80"/>
+      <c r="AW14" s="80"/>
+      <c r="AX14" s="80"/>
+      <c r="AY14" s="80"/>
+      <c r="AZ14" s="80"/>
+      <c r="BA14" s="80"/>
+      <c r="BB14" s="80"/>
+      <c r="BC14" s="80"/>
+      <c r="BD14" s="80"/>
+      <c r="BE14" s="80"/>
+      <c r="BF14" s="80"/>
+      <c r="BG14" s="80"/>
+      <c r="BH14" s="80"/>
+      <c r="BI14" s="80"/>
+      <c r="BJ14" s="80"/>
+      <c r="BK14" s="80"/>
+      <c r="BL14" s="80"/>
+      <c r="BM14" s="79"/>
+      <c r="BN14" s="79"/>
+      <c r="BO14" s="79"/>
+      <c r="BP14" s="79"/>
+      <c r="BQ14" s="79"/>
+      <c r="BR14" s="79"/>
+      <c r="BS14" s="79"/>
+      <c r="BT14" s="79"/>
       <c r="BU14" s="17"/>
       <c r="BV14" s="17"/>
       <c r="BW14" s="17"/>
@@ -13220,64 +13217,64 @@
       <c r="E15" s="17"/>
       <c r="F15" s="32"/>
       <c r="G15" s="32"/>
-      <c r="H15" s="65" t="s">
+      <c r="H15" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="66"/>
-      <c r="S15" s="66"/>
-      <c r="T15" s="66"/>
-      <c r="U15" s="66"/>
-      <c r="V15" s="66"/>
-      <c r="W15" s="66"/>
-      <c r="X15" s="66"/>
-      <c r="Y15" s="66"/>
-      <c r="Z15" s="66"/>
-      <c r="AA15" s="66"/>
-      <c r="AB15" s="66"/>
-      <c r="AC15" s="66"/>
-      <c r="AD15" s="66"/>
-      <c r="AE15" s="66"/>
-      <c r="AF15" s="66"/>
-      <c r="AG15" s="66"/>
-      <c r="AH15" s="66"/>
-      <c r="AI15" s="66"/>
-      <c r="AJ15" s="66"/>
-      <c r="AK15" s="66"/>
-      <c r="AL15" s="66"/>
-      <c r="AM15" s="66"/>
-      <c r="AN15" s="66"/>
-      <c r="AO15" s="66"/>
-      <c r="AP15" s="66"/>
-      <c r="AQ15" s="66"/>
-      <c r="AR15" s="66"/>
-      <c r="AS15" s="66"/>
-      <c r="AT15" s="66"/>
-      <c r="AU15" s="66"/>
-      <c r="AV15" s="66"/>
-      <c r="AW15" s="66"/>
-      <c r="AX15" s="66"/>
-      <c r="AY15" s="66"/>
-      <c r="AZ15" s="66"/>
-      <c r="BA15" s="66"/>
-      <c r="BB15" s="66"/>
-      <c r="BC15" s="66"/>
-      <c r="BD15" s="66"/>
-      <c r="BE15" s="66"/>
-      <c r="BF15" s="66"/>
-      <c r="BG15" s="66"/>
-      <c r="BH15" s="66"/>
-      <c r="BI15" s="66"/>
-      <c r="BJ15" s="66"/>
-      <c r="BK15" s="66"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="82"/>
+      <c r="N15" s="82"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="82"/>
+      <c r="Q15" s="82"/>
+      <c r="R15" s="82"/>
+      <c r="S15" s="82"/>
+      <c r="T15" s="82"/>
+      <c r="U15" s="82"/>
+      <c r="V15" s="82"/>
+      <c r="W15" s="82"/>
+      <c r="X15" s="82"/>
+      <c r="Y15" s="82"/>
+      <c r="Z15" s="82"/>
+      <c r="AA15" s="82"/>
+      <c r="AB15" s="82"/>
+      <c r="AC15" s="82"/>
+      <c r="AD15" s="82"/>
+      <c r="AE15" s="82"/>
+      <c r="AF15" s="82"/>
+      <c r="AG15" s="82"/>
+      <c r="AH15" s="82"/>
+      <c r="AI15" s="82"/>
+      <c r="AJ15" s="82"/>
+      <c r="AK15" s="82"/>
+      <c r="AL15" s="82"/>
+      <c r="AM15" s="82"/>
+      <c r="AN15" s="82"/>
+      <c r="AO15" s="82"/>
+      <c r="AP15" s="82"/>
+      <c r="AQ15" s="82"/>
+      <c r="AR15" s="82"/>
+      <c r="AS15" s="82"/>
+      <c r="AT15" s="82"/>
+      <c r="AU15" s="82"/>
+      <c r="AV15" s="82"/>
+      <c r="AW15" s="82"/>
+      <c r="AX15" s="82"/>
+      <c r="AY15" s="82"/>
+      <c r="AZ15" s="82"/>
+      <c r="BA15" s="82"/>
+      <c r="BB15" s="82"/>
+      <c r="BC15" s="82"/>
+      <c r="BD15" s="82"/>
+      <c r="BE15" s="82"/>
+      <c r="BF15" s="82"/>
+      <c r="BG15" s="82"/>
+      <c r="BH15" s="82"/>
+      <c r="BI15" s="82"/>
+      <c r="BJ15" s="82"/>
+      <c r="BK15" s="82"/>
       <c r="BL15" s="21"/>
       <c r="BM15" s="32"/>
       <c r="BN15" s="32"/>
@@ -14248,65 +14245,65 @@
       <c r="E16" s="17"/>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
-      <c r="H16" s="67" t="s">
-        <v>46</v>
+      <c r="H16" s="83" t="s">
+        <v>45</v>
       </c>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="68"/>
-      <c r="R16" s="68"/>
-      <c r="S16" s="68"/>
-      <c r="T16" s="68"/>
-      <c r="U16" s="68"/>
-      <c r="V16" s="68"/>
-      <c r="W16" s="68"/>
-      <c r="X16" s="68"/>
-      <c r="Y16" s="68"/>
-      <c r="Z16" s="68"/>
-      <c r="AA16" s="68"/>
-      <c r="AB16" s="68"/>
-      <c r="AC16" s="68"/>
-      <c r="AD16" s="68"/>
-      <c r="AE16" s="68"/>
-      <c r="AF16" s="68"/>
-      <c r="AG16" s="68"/>
-      <c r="AH16" s="68"/>
-      <c r="AI16" s="68"/>
-      <c r="AJ16" s="68"/>
-      <c r="AK16" s="68"/>
-      <c r="AL16" s="68"/>
-      <c r="AM16" s="68"/>
-      <c r="AN16" s="68"/>
-      <c r="AO16" s="68"/>
-      <c r="AP16" s="68"/>
-      <c r="AQ16" s="68"/>
-      <c r="AR16" s="68"/>
-      <c r="AS16" s="68"/>
-      <c r="AT16" s="68"/>
-      <c r="AU16" s="68"/>
-      <c r="AV16" s="68"/>
-      <c r="AW16" s="68"/>
-      <c r="AX16" s="68"/>
-      <c r="AY16" s="68"/>
-      <c r="AZ16" s="68"/>
-      <c r="BA16" s="68"/>
-      <c r="BB16" s="68"/>
-      <c r="BC16" s="68"/>
-      <c r="BD16" s="68"/>
-      <c r="BE16" s="68"/>
-      <c r="BF16" s="68"/>
-      <c r="BG16" s="68"/>
-      <c r="BH16" s="68"/>
-      <c r="BI16" s="68"/>
-      <c r="BJ16" s="68"/>
-      <c r="BK16" s="68"/>
-      <c r="BL16" s="69"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="84"/>
+      <c r="N16" s="84"/>
+      <c r="O16" s="84"/>
+      <c r="P16" s="84"/>
+      <c r="Q16" s="84"/>
+      <c r="R16" s="84"/>
+      <c r="S16" s="84"/>
+      <c r="T16" s="84"/>
+      <c r="U16" s="84"/>
+      <c r="V16" s="84"/>
+      <c r="W16" s="84"/>
+      <c r="X16" s="84"/>
+      <c r="Y16" s="84"/>
+      <c r="Z16" s="84"/>
+      <c r="AA16" s="84"/>
+      <c r="AB16" s="84"/>
+      <c r="AC16" s="84"/>
+      <c r="AD16" s="84"/>
+      <c r="AE16" s="84"/>
+      <c r="AF16" s="84"/>
+      <c r="AG16" s="84"/>
+      <c r="AH16" s="84"/>
+      <c r="AI16" s="84"/>
+      <c r="AJ16" s="84"/>
+      <c r="AK16" s="84"/>
+      <c r="AL16" s="84"/>
+      <c r="AM16" s="84"/>
+      <c r="AN16" s="84"/>
+      <c r="AO16" s="84"/>
+      <c r="AP16" s="84"/>
+      <c r="AQ16" s="84"/>
+      <c r="AR16" s="84"/>
+      <c r="AS16" s="84"/>
+      <c r="AT16" s="84"/>
+      <c r="AU16" s="84"/>
+      <c r="AV16" s="84"/>
+      <c r="AW16" s="84"/>
+      <c r="AX16" s="84"/>
+      <c r="AY16" s="84"/>
+      <c r="AZ16" s="84"/>
+      <c r="BA16" s="84"/>
+      <c r="BB16" s="84"/>
+      <c r="BC16" s="84"/>
+      <c r="BD16" s="84"/>
+      <c r="BE16" s="84"/>
+      <c r="BF16" s="84"/>
+      <c r="BG16" s="84"/>
+      <c r="BH16" s="84"/>
+      <c r="BI16" s="84"/>
+      <c r="BJ16" s="84"/>
+      <c r="BK16" s="84"/>
+      <c r="BL16" s="85"/>
       <c r="BM16" s="32"/>
       <c r="BN16" s="32"/>
       <c r="BO16" s="32"/>
@@ -15276,63 +15273,63 @@
       <c r="E17" s="17"/>
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="71"/>
-      <c r="S17" s="71"/>
-      <c r="T17" s="71"/>
-      <c r="U17" s="71"/>
-      <c r="V17" s="71"/>
-      <c r="W17" s="71"/>
-      <c r="X17" s="71"/>
-      <c r="Y17" s="71"/>
-      <c r="Z17" s="71"/>
-      <c r="AA17" s="71"/>
-      <c r="AB17" s="71"/>
-      <c r="AC17" s="71"/>
-      <c r="AD17" s="71"/>
-      <c r="AE17" s="71"/>
-      <c r="AF17" s="71"/>
-      <c r="AG17" s="71"/>
-      <c r="AH17" s="71"/>
-      <c r="AI17" s="71"/>
-      <c r="AJ17" s="71"/>
-      <c r="AK17" s="71"/>
-      <c r="AL17" s="71"/>
-      <c r="AM17" s="71"/>
-      <c r="AN17" s="71"/>
-      <c r="AO17" s="71"/>
-      <c r="AP17" s="71"/>
-      <c r="AQ17" s="71"/>
-      <c r="AR17" s="71"/>
-      <c r="AS17" s="71"/>
-      <c r="AT17" s="71"/>
-      <c r="AU17" s="71"/>
-      <c r="AV17" s="71"/>
-      <c r="AW17" s="71"/>
-      <c r="AX17" s="71"/>
-      <c r="AY17" s="71"/>
-      <c r="AZ17" s="71"/>
-      <c r="BA17" s="71"/>
-      <c r="BB17" s="71"/>
-      <c r="BC17" s="71"/>
-      <c r="BD17" s="71"/>
-      <c r="BE17" s="71"/>
-      <c r="BF17" s="71"/>
-      <c r="BG17" s="71"/>
-      <c r="BH17" s="71"/>
-      <c r="BI17" s="71"/>
-      <c r="BJ17" s="71"/>
-      <c r="BK17" s="71"/>
-      <c r="BL17" s="72"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="87"/>
+      <c r="R17" s="87"/>
+      <c r="S17" s="87"/>
+      <c r="T17" s="87"/>
+      <c r="U17" s="87"/>
+      <c r="V17" s="87"/>
+      <c r="W17" s="87"/>
+      <c r="X17" s="87"/>
+      <c r="Y17" s="87"/>
+      <c r="Z17" s="87"/>
+      <c r="AA17" s="87"/>
+      <c r="AB17" s="87"/>
+      <c r="AC17" s="87"/>
+      <c r="AD17" s="87"/>
+      <c r="AE17" s="87"/>
+      <c r="AF17" s="87"/>
+      <c r="AG17" s="87"/>
+      <c r="AH17" s="87"/>
+      <c r="AI17" s="87"/>
+      <c r="AJ17" s="87"/>
+      <c r="AK17" s="87"/>
+      <c r="AL17" s="87"/>
+      <c r="AM17" s="87"/>
+      <c r="AN17" s="87"/>
+      <c r="AO17" s="87"/>
+      <c r="AP17" s="87"/>
+      <c r="AQ17" s="87"/>
+      <c r="AR17" s="87"/>
+      <c r="AS17" s="87"/>
+      <c r="AT17" s="87"/>
+      <c r="AU17" s="87"/>
+      <c r="AV17" s="87"/>
+      <c r="AW17" s="87"/>
+      <c r="AX17" s="87"/>
+      <c r="AY17" s="87"/>
+      <c r="AZ17" s="87"/>
+      <c r="BA17" s="87"/>
+      <c r="BB17" s="87"/>
+      <c r="BC17" s="87"/>
+      <c r="BD17" s="87"/>
+      <c r="BE17" s="87"/>
+      <c r="BF17" s="87"/>
+      <c r="BG17" s="87"/>
+      <c r="BH17" s="87"/>
+      <c r="BI17" s="87"/>
+      <c r="BJ17" s="87"/>
+      <c r="BK17" s="87"/>
+      <c r="BL17" s="88"/>
       <c r="BM17" s="32"/>
       <c r="BN17" s="32"/>
       <c r="BO17" s="32"/>
@@ -16302,63 +16299,63 @@
       <c r="E18" s="17"/>
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="74"/>
-      <c r="M18" s="74"/>
-      <c r="N18" s="74"/>
-      <c r="O18" s="74"/>
-      <c r="P18" s="74"/>
-      <c r="Q18" s="74"/>
-      <c r="R18" s="74"/>
-      <c r="S18" s="74"/>
-      <c r="T18" s="74"/>
-      <c r="U18" s="74"/>
-      <c r="V18" s="74"/>
-      <c r="W18" s="74"/>
-      <c r="X18" s="74"/>
-      <c r="Y18" s="74"/>
-      <c r="Z18" s="74"/>
-      <c r="AA18" s="74"/>
-      <c r="AB18" s="74"/>
-      <c r="AC18" s="74"/>
-      <c r="AD18" s="74"/>
-      <c r="AE18" s="74"/>
-      <c r="AF18" s="74"/>
-      <c r="AG18" s="74"/>
-      <c r="AH18" s="74"/>
-      <c r="AI18" s="74"/>
-      <c r="AJ18" s="74"/>
-      <c r="AK18" s="74"/>
-      <c r="AL18" s="74"/>
-      <c r="AM18" s="74"/>
-      <c r="AN18" s="74"/>
-      <c r="AO18" s="74"/>
-      <c r="AP18" s="74"/>
-      <c r="AQ18" s="74"/>
-      <c r="AR18" s="74"/>
-      <c r="AS18" s="74"/>
-      <c r="AT18" s="74"/>
-      <c r="AU18" s="74"/>
-      <c r="AV18" s="74"/>
-      <c r="AW18" s="74"/>
-      <c r="AX18" s="74"/>
-      <c r="AY18" s="74"/>
-      <c r="AZ18" s="74"/>
-      <c r="BA18" s="74"/>
-      <c r="BB18" s="74"/>
-      <c r="BC18" s="74"/>
-      <c r="BD18" s="74"/>
-      <c r="BE18" s="74"/>
-      <c r="BF18" s="74"/>
-      <c r="BG18" s="74"/>
-      <c r="BH18" s="74"/>
-      <c r="BI18" s="74"/>
-      <c r="BJ18" s="74"/>
-      <c r="BK18" s="74"/>
-      <c r="BL18" s="75"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="90"/>
+      <c r="L18" s="90"/>
+      <c r="M18" s="90"/>
+      <c r="N18" s="90"/>
+      <c r="O18" s="90"/>
+      <c r="P18" s="90"/>
+      <c r="Q18" s="90"/>
+      <c r="R18" s="90"/>
+      <c r="S18" s="90"/>
+      <c r="T18" s="90"/>
+      <c r="U18" s="90"/>
+      <c r="V18" s="90"/>
+      <c r="W18" s="90"/>
+      <c r="X18" s="90"/>
+      <c r="Y18" s="90"/>
+      <c r="Z18" s="90"/>
+      <c r="AA18" s="90"/>
+      <c r="AB18" s="90"/>
+      <c r="AC18" s="90"/>
+      <c r="AD18" s="90"/>
+      <c r="AE18" s="90"/>
+      <c r="AF18" s="90"/>
+      <c r="AG18" s="90"/>
+      <c r="AH18" s="90"/>
+      <c r="AI18" s="90"/>
+      <c r="AJ18" s="90"/>
+      <c r="AK18" s="90"/>
+      <c r="AL18" s="90"/>
+      <c r="AM18" s="90"/>
+      <c r="AN18" s="90"/>
+      <c r="AO18" s="90"/>
+      <c r="AP18" s="90"/>
+      <c r="AQ18" s="90"/>
+      <c r="AR18" s="90"/>
+      <c r="AS18" s="90"/>
+      <c r="AT18" s="90"/>
+      <c r="AU18" s="90"/>
+      <c r="AV18" s="90"/>
+      <c r="AW18" s="90"/>
+      <c r="AX18" s="90"/>
+      <c r="AY18" s="90"/>
+      <c r="AZ18" s="90"/>
+      <c r="BA18" s="90"/>
+      <c r="BB18" s="90"/>
+      <c r="BC18" s="90"/>
+      <c r="BD18" s="90"/>
+      <c r="BE18" s="90"/>
+      <c r="BF18" s="90"/>
+      <c r="BG18" s="90"/>
+      <c r="BH18" s="90"/>
+      <c r="BI18" s="90"/>
+      <c r="BJ18" s="90"/>
+      <c r="BK18" s="90"/>
+      <c r="BL18" s="91"/>
       <c r="BM18" s="32"/>
       <c r="BN18" s="32"/>
       <c r="BO18" s="32"/>
@@ -18348,94 +18345,94 @@
     </row>
     <row r="20" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="28"/>
-      <c r="B20" s="76" t="s">
-        <v>39</v>
+      <c r="B20" s="69" t="s">
+        <v>38</v>
       </c>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="77"/>
-      <c r="O20" s="77"/>
-      <c r="P20" s="77"/>
-      <c r="Q20" s="77"/>
-      <c r="R20" s="77"/>
-      <c r="S20" s="77"/>
-      <c r="T20" s="77"/>
-      <c r="U20" s="77"/>
-      <c r="V20" s="77"/>
-      <c r="W20" s="77"/>
-      <c r="X20" s="77"/>
-      <c r="Y20" s="77"/>
-      <c r="Z20" s="77"/>
-      <c r="AA20" s="77"/>
-      <c r="AB20" s="77"/>
-      <c r="AC20" s="77"/>
-      <c r="AD20" s="77"/>
-      <c r="AE20" s="77"/>
-      <c r="AF20" s="77"/>
-      <c r="AG20" s="77"/>
-      <c r="AH20" s="77"/>
-      <c r="AI20" s="77"/>
-      <c r="AJ20" s="77"/>
-      <c r="AK20" s="77"/>
-      <c r="AL20" s="77"/>
-      <c r="AM20" s="77"/>
-      <c r="AN20" s="77"/>
-      <c r="AO20" s="77"/>
-      <c r="AP20" s="77"/>
-      <c r="AQ20" s="77"/>
-      <c r="AR20" s="77"/>
-      <c r="AS20" s="77"/>
-      <c r="AT20" s="77"/>
-      <c r="AU20" s="77"/>
-      <c r="AV20" s="77"/>
-      <c r="AW20" s="77"/>
-      <c r="AX20" s="77"/>
-      <c r="AY20" s="77"/>
-      <c r="AZ20" s="77"/>
-      <c r="BA20" s="77"/>
-      <c r="BB20" s="77"/>
-      <c r="BC20" s="77"/>
-      <c r="BD20" s="77"/>
-      <c r="BE20" s="77"/>
-      <c r="BF20" s="77"/>
-      <c r="BG20" s="77"/>
-      <c r="BH20" s="77"/>
-      <c r="BI20" s="77"/>
-      <c r="BJ20" s="77"/>
-      <c r="BK20" s="77"/>
-      <c r="BL20" s="77"/>
-      <c r="BM20" s="77"/>
-      <c r="BN20" s="77"/>
-      <c r="BO20" s="77"/>
-      <c r="BP20" s="77"/>
-      <c r="BQ20" s="77"/>
-      <c r="BR20" s="77"/>
-      <c r="BS20" s="77"/>
-      <c r="BT20" s="77"/>
-      <c r="BU20" s="77"/>
-      <c r="BV20" s="77"/>
-      <c r="BW20" s="77"/>
-      <c r="BX20" s="77"/>
-      <c r="BY20" s="77"/>
-      <c r="BZ20" s="77"/>
-      <c r="CA20" s="77"/>
-      <c r="CB20" s="77"/>
-      <c r="CC20" s="77"/>
-      <c r="CD20" s="77"/>
-      <c r="CE20" s="77"/>
-      <c r="CF20" s="77"/>
-      <c r="CG20" s="77"/>
-      <c r="CH20" s="77"/>
-      <c r="CI20" s="78"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="70"/>
+      <c r="P20" s="70"/>
+      <c r="Q20" s="70"/>
+      <c r="R20" s="70"/>
+      <c r="S20" s="70"/>
+      <c r="T20" s="70"/>
+      <c r="U20" s="70"/>
+      <c r="V20" s="70"/>
+      <c r="W20" s="70"/>
+      <c r="X20" s="70"/>
+      <c r="Y20" s="70"/>
+      <c r="Z20" s="70"/>
+      <c r="AA20" s="70"/>
+      <c r="AB20" s="70"/>
+      <c r="AC20" s="70"/>
+      <c r="AD20" s="70"/>
+      <c r="AE20" s="70"/>
+      <c r="AF20" s="70"/>
+      <c r="AG20" s="70"/>
+      <c r="AH20" s="70"/>
+      <c r="AI20" s="70"/>
+      <c r="AJ20" s="70"/>
+      <c r="AK20" s="70"/>
+      <c r="AL20" s="70"/>
+      <c r="AM20" s="70"/>
+      <c r="AN20" s="70"/>
+      <c r="AO20" s="70"/>
+      <c r="AP20" s="70"/>
+      <c r="AQ20" s="70"/>
+      <c r="AR20" s="70"/>
+      <c r="AS20" s="70"/>
+      <c r="AT20" s="70"/>
+      <c r="AU20" s="70"/>
+      <c r="AV20" s="70"/>
+      <c r="AW20" s="70"/>
+      <c r="AX20" s="70"/>
+      <c r="AY20" s="70"/>
+      <c r="AZ20" s="70"/>
+      <c r="BA20" s="70"/>
+      <c r="BB20" s="70"/>
+      <c r="BC20" s="70"/>
+      <c r="BD20" s="70"/>
+      <c r="BE20" s="70"/>
+      <c r="BF20" s="70"/>
+      <c r="BG20" s="70"/>
+      <c r="BH20" s="70"/>
+      <c r="BI20" s="70"/>
+      <c r="BJ20" s="70"/>
+      <c r="BK20" s="70"/>
+      <c r="BL20" s="70"/>
+      <c r="BM20" s="70"/>
+      <c r="BN20" s="70"/>
+      <c r="BO20" s="70"/>
+      <c r="BP20" s="70"/>
+      <c r="BQ20" s="70"/>
+      <c r="BR20" s="70"/>
+      <c r="BS20" s="70"/>
+      <c r="BT20" s="70"/>
+      <c r="BU20" s="70"/>
+      <c r="BV20" s="70"/>
+      <c r="BW20" s="70"/>
+      <c r="BX20" s="70"/>
+      <c r="BY20" s="70"/>
+      <c r="BZ20" s="70"/>
+      <c r="CA20" s="70"/>
+      <c r="CB20" s="70"/>
+      <c r="CC20" s="70"/>
+      <c r="CD20" s="70"/>
+      <c r="CE20" s="70"/>
+      <c r="CF20" s="70"/>
+      <c r="CG20" s="70"/>
+      <c r="CH20" s="70"/>
+      <c r="CI20" s="71"/>
       <c r="CJ20" s="1"/>
       <c r="CK20" s="1"/>
       <c r="CL20" s="1"/>
@@ -20408,69 +20405,69 @@
       <c r="E22" s="17"/>
       <c r="F22" s="32"/>
       <c r="G22" s="32"/>
-      <c r="H22" s="37" t="s">
+      <c r="H22" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="I22" s="38"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="40" t="s">
+      <c r="I22" s="57"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="41"/>
-      <c r="U22" s="38"/>
-      <c r="V22" s="38"/>
-      <c r="W22" s="38"/>
-      <c r="X22" s="38"/>
-      <c r="Y22" s="39"/>
-      <c r="Z22" s="37" t="s">
+      <c r="L22" s="60"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="60"/>
+      <c r="P22" s="60"/>
+      <c r="Q22" s="60"/>
+      <c r="R22" s="60"/>
+      <c r="S22" s="60"/>
+      <c r="T22" s="60"/>
+      <c r="U22" s="57"/>
+      <c r="V22" s="57"/>
+      <c r="W22" s="57"/>
+      <c r="X22" s="57"/>
+      <c r="Y22" s="58"/>
+      <c r="Z22" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="AA22" s="42"/>
-      <c r="AB22" s="42"/>
-      <c r="AC22" s="42"/>
-      <c r="AD22" s="42"/>
-      <c r="AE22" s="42"/>
-      <c r="AF22" s="42"/>
-      <c r="AG22" s="42"/>
-      <c r="AH22" s="42"/>
-      <c r="AI22" s="42"/>
-      <c r="AJ22" s="42"/>
-      <c r="AK22" s="42"/>
-      <c r="AL22" s="42"/>
-      <c r="AM22" s="42"/>
-      <c r="AN22" s="42"/>
-      <c r="AO22" s="42"/>
-      <c r="AP22" s="42"/>
-      <c r="AQ22" s="42"/>
-      <c r="AR22" s="42"/>
-      <c r="AS22" s="42"/>
-      <c r="AT22" s="42"/>
-      <c r="AU22" s="42"/>
-      <c r="AV22" s="42"/>
-      <c r="AW22" s="42"/>
-      <c r="AX22" s="42"/>
-      <c r="AY22" s="42"/>
-      <c r="AZ22" s="42"/>
-      <c r="BA22" s="42"/>
-      <c r="BB22" s="42"/>
-      <c r="BC22" s="42"/>
-      <c r="BD22" s="42"/>
-      <c r="BE22" s="42"/>
-      <c r="BF22" s="42"/>
-      <c r="BG22" s="42"/>
-      <c r="BH22" s="42"/>
-      <c r="BI22" s="42"/>
-      <c r="BJ22" s="42"/>
-      <c r="BK22" s="42"/>
-      <c r="BL22" s="43"/>
+      <c r="AA22" s="36"/>
+      <c r="AB22" s="36"/>
+      <c r="AC22" s="36"/>
+      <c r="AD22" s="36"/>
+      <c r="AE22" s="36"/>
+      <c r="AF22" s="36"/>
+      <c r="AG22" s="36"/>
+      <c r="AH22" s="36"/>
+      <c r="AI22" s="36"/>
+      <c r="AJ22" s="36"/>
+      <c r="AK22" s="36"/>
+      <c r="AL22" s="36"/>
+      <c r="AM22" s="36"/>
+      <c r="AN22" s="36"/>
+      <c r="AO22" s="36"/>
+      <c r="AP22" s="36"/>
+      <c r="AQ22" s="36"/>
+      <c r="AR22" s="36"/>
+      <c r="AS22" s="36"/>
+      <c r="AT22" s="36"/>
+      <c r="AU22" s="36"/>
+      <c r="AV22" s="36"/>
+      <c r="AW22" s="36"/>
+      <c r="AX22" s="36"/>
+      <c r="AY22" s="36"/>
+      <c r="AZ22" s="36"/>
+      <c r="BA22" s="36"/>
+      <c r="BB22" s="36"/>
+      <c r="BC22" s="36"/>
+      <c r="BD22" s="36"/>
+      <c r="BE22" s="36"/>
+      <c r="BF22" s="36"/>
+      <c r="BG22" s="36"/>
+      <c r="BH22" s="36"/>
+      <c r="BI22" s="36"/>
+      <c r="BJ22" s="36"/>
+      <c r="BK22" s="36"/>
+      <c r="BL22" s="37"/>
       <c r="BM22" s="32"/>
       <c r="BN22" s="32"/>
       <c r="BO22" s="32"/>
@@ -21440,69 +21437,69 @@
       <c r="E23" s="17"/>
       <c r="F23" s="32"/>
       <c r="G23" s="32"/>
-      <c r="H23" s="44">
+      <c r="H23" s="54">
         <v>1</v>
       </c>
-      <c r="I23" s="42"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="45" t="s">
+      <c r="I23" s="36"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="46"/>
-      <c r="T23" s="46"/>
-      <c r="U23" s="46"/>
-      <c r="V23" s="46"/>
-      <c r="W23" s="46"/>
-      <c r="X23" s="46"/>
-      <c r="Y23" s="47"/>
-      <c r="Z23" s="44" t="s">
-        <v>47</v>
+      <c r="L23" s="77"/>
+      <c r="M23" s="77"/>
+      <c r="N23" s="77"/>
+      <c r="O23" s="77"/>
+      <c r="P23" s="77"/>
+      <c r="Q23" s="77"/>
+      <c r="R23" s="77"/>
+      <c r="S23" s="77"/>
+      <c r="T23" s="77"/>
+      <c r="U23" s="77"/>
+      <c r="V23" s="77"/>
+      <c r="W23" s="77"/>
+      <c r="X23" s="77"/>
+      <c r="Y23" s="78"/>
+      <c r="Z23" s="54" t="s">
+        <v>46</v>
       </c>
-      <c r="AA23" s="42"/>
-      <c r="AB23" s="42"/>
-      <c r="AC23" s="42"/>
-      <c r="AD23" s="42"/>
-      <c r="AE23" s="42"/>
-      <c r="AF23" s="42"/>
-      <c r="AG23" s="42"/>
-      <c r="AH23" s="42"/>
-      <c r="AI23" s="42"/>
-      <c r="AJ23" s="42"/>
-      <c r="AK23" s="42"/>
-      <c r="AL23" s="42"/>
-      <c r="AM23" s="42"/>
-      <c r="AN23" s="42"/>
-      <c r="AO23" s="42"/>
-      <c r="AP23" s="42"/>
-      <c r="AQ23" s="42"/>
-      <c r="AR23" s="42"/>
-      <c r="AS23" s="42"/>
-      <c r="AT23" s="42"/>
-      <c r="AU23" s="42"/>
-      <c r="AV23" s="42"/>
-      <c r="AW23" s="42"/>
-      <c r="AX23" s="42"/>
-      <c r="AY23" s="42"/>
-      <c r="AZ23" s="42"/>
-      <c r="BA23" s="42"/>
-      <c r="BB23" s="42"/>
-      <c r="BC23" s="42"/>
-      <c r="BD23" s="42"/>
-      <c r="BE23" s="42"/>
-      <c r="BF23" s="42"/>
-      <c r="BG23" s="42"/>
-      <c r="BH23" s="42"/>
-      <c r="BI23" s="42"/>
-      <c r="BJ23" s="42"/>
-      <c r="BK23" s="42"/>
-      <c r="BL23" s="43"/>
+      <c r="AA23" s="36"/>
+      <c r="AB23" s="36"/>
+      <c r="AC23" s="36"/>
+      <c r="AD23" s="36"/>
+      <c r="AE23" s="36"/>
+      <c r="AF23" s="36"/>
+      <c r="AG23" s="36"/>
+      <c r="AH23" s="36"/>
+      <c r="AI23" s="36"/>
+      <c r="AJ23" s="36"/>
+      <c r="AK23" s="36"/>
+      <c r="AL23" s="36"/>
+      <c r="AM23" s="36"/>
+      <c r="AN23" s="36"/>
+      <c r="AO23" s="36"/>
+      <c r="AP23" s="36"/>
+      <c r="AQ23" s="36"/>
+      <c r="AR23" s="36"/>
+      <c r="AS23" s="36"/>
+      <c r="AT23" s="36"/>
+      <c r="AU23" s="36"/>
+      <c r="AV23" s="36"/>
+      <c r="AW23" s="36"/>
+      <c r="AX23" s="36"/>
+      <c r="AY23" s="36"/>
+      <c r="AZ23" s="36"/>
+      <c r="BA23" s="36"/>
+      <c r="BB23" s="36"/>
+      <c r="BC23" s="36"/>
+      <c r="BD23" s="36"/>
+      <c r="BE23" s="36"/>
+      <c r="BF23" s="36"/>
+      <c r="BG23" s="36"/>
+      <c r="BH23" s="36"/>
+      <c r="BI23" s="36"/>
+      <c r="BJ23" s="36"/>
+      <c r="BK23" s="36"/>
+      <c r="BL23" s="37"/>
       <c r="BM23" s="32"/>
       <c r="BN23" s="32"/>
       <c r="BO23" s="32"/>
@@ -22472,69 +22469,69 @@
       <c r="E24" s="17"/>
       <c r="F24" s="32"/>
       <c r="G24" s="32"/>
-      <c r="H24" s="44">
+      <c r="H24" s="54">
         <v>2</v>
       </c>
-      <c r="I24" s="42"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="45" t="s">
+      <c r="I24" s="36"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="46"/>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="46"/>
-      <c r="S24" s="46"/>
-      <c r="T24" s="46"/>
-      <c r="U24" s="46"/>
-      <c r="V24" s="46"/>
-      <c r="W24" s="46"/>
-      <c r="X24" s="46"/>
-      <c r="Y24" s="47"/>
-      <c r="Z24" s="44" t="s">
-        <v>48</v>
+      <c r="L24" s="77"/>
+      <c r="M24" s="77"/>
+      <c r="N24" s="77"/>
+      <c r="O24" s="77"/>
+      <c r="P24" s="77"/>
+      <c r="Q24" s="77"/>
+      <c r="R24" s="77"/>
+      <c r="S24" s="77"/>
+      <c r="T24" s="77"/>
+      <c r="U24" s="77"/>
+      <c r="V24" s="77"/>
+      <c r="W24" s="77"/>
+      <c r="X24" s="77"/>
+      <c r="Y24" s="78"/>
+      <c r="Z24" s="54" t="s">
+        <v>47</v>
       </c>
-      <c r="AA24" s="42"/>
-      <c r="AB24" s="42"/>
-      <c r="AC24" s="42"/>
-      <c r="AD24" s="42"/>
-      <c r="AE24" s="42"/>
-      <c r="AF24" s="42"/>
-      <c r="AG24" s="42"/>
-      <c r="AH24" s="42"/>
-      <c r="AI24" s="42"/>
-      <c r="AJ24" s="42"/>
-      <c r="AK24" s="42"/>
-      <c r="AL24" s="42"/>
-      <c r="AM24" s="42"/>
-      <c r="AN24" s="42"/>
-      <c r="AO24" s="42"/>
-      <c r="AP24" s="42"/>
-      <c r="AQ24" s="42"/>
-      <c r="AR24" s="42"/>
-      <c r="AS24" s="42"/>
-      <c r="AT24" s="42"/>
-      <c r="AU24" s="42"/>
-      <c r="AV24" s="42"/>
-      <c r="AW24" s="42"/>
-      <c r="AX24" s="42"/>
-      <c r="AY24" s="42"/>
-      <c r="AZ24" s="42"/>
-      <c r="BA24" s="42"/>
-      <c r="BB24" s="42"/>
-      <c r="BC24" s="42"/>
-      <c r="BD24" s="42"/>
-      <c r="BE24" s="42"/>
-      <c r="BF24" s="42"/>
-      <c r="BG24" s="42"/>
-      <c r="BH24" s="42"/>
-      <c r="BI24" s="42"/>
-      <c r="BJ24" s="42"/>
-      <c r="BK24" s="42"/>
-      <c r="BL24" s="43"/>
+      <c r="AA24" s="36"/>
+      <c r="AB24" s="36"/>
+      <c r="AC24" s="36"/>
+      <c r="AD24" s="36"/>
+      <c r="AE24" s="36"/>
+      <c r="AF24" s="36"/>
+      <c r="AG24" s="36"/>
+      <c r="AH24" s="36"/>
+      <c r="AI24" s="36"/>
+      <c r="AJ24" s="36"/>
+      <c r="AK24" s="36"/>
+      <c r="AL24" s="36"/>
+      <c r="AM24" s="36"/>
+      <c r="AN24" s="36"/>
+      <c r="AO24" s="36"/>
+      <c r="AP24" s="36"/>
+      <c r="AQ24" s="36"/>
+      <c r="AR24" s="36"/>
+      <c r="AS24" s="36"/>
+      <c r="AT24" s="36"/>
+      <c r="AU24" s="36"/>
+      <c r="AV24" s="36"/>
+      <c r="AW24" s="36"/>
+      <c r="AX24" s="36"/>
+      <c r="AY24" s="36"/>
+      <c r="AZ24" s="36"/>
+      <c r="BA24" s="36"/>
+      <c r="BB24" s="36"/>
+      <c r="BC24" s="36"/>
+      <c r="BD24" s="36"/>
+      <c r="BE24" s="36"/>
+      <c r="BF24" s="36"/>
+      <c r="BG24" s="36"/>
+      <c r="BH24" s="36"/>
+      <c r="BI24" s="36"/>
+      <c r="BJ24" s="36"/>
+      <c r="BK24" s="36"/>
+      <c r="BL24" s="37"/>
       <c r="BM24" s="32"/>
       <c r="BN24" s="32"/>
       <c r="BO24" s="32"/>
@@ -26575,201 +26572,201 @@
       <c r="AMJ27" s="1"/>
     </row>
     <row r="28" spans="1:1024" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="48" t="s">
+      <c r="B28" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="49" t="s">
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="49"/>
-      <c r="P28" s="49"/>
-      <c r="Q28" s="49"/>
-      <c r="R28" s="49"/>
-      <c r="S28" s="49"/>
-      <c r="T28" s="49"/>
-      <c r="U28" s="49"/>
-      <c r="V28" s="49"/>
-      <c r="W28" s="49"/>
-      <c r="X28" s="49"/>
-      <c r="Y28" s="60" t="s">
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="61"/>
+      <c r="N28" s="61"/>
+      <c r="O28" s="61"/>
+      <c r="P28" s="61"/>
+      <c r="Q28" s="61"/>
+      <c r="R28" s="61"/>
+      <c r="S28" s="61"/>
+      <c r="T28" s="61"/>
+      <c r="U28" s="61"/>
+      <c r="V28" s="61"/>
+      <c r="W28" s="61"/>
+      <c r="X28" s="61"/>
+      <c r="Y28" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="Z28" s="61"/>
-      <c r="AA28" s="61"/>
-      <c r="AB28" s="61"/>
-      <c r="AC28" s="61"/>
-      <c r="AD28" s="61"/>
-      <c r="AE28" s="61"/>
-      <c r="AF28" s="61"/>
-      <c r="AG28" s="61"/>
-      <c r="AH28" s="62"/>
-      <c r="AI28" s="60" t="s">
+      <c r="Z28" s="63"/>
+      <c r="AA28" s="63"/>
+      <c r="AB28" s="63"/>
+      <c r="AC28" s="63"/>
+      <c r="AD28" s="63"/>
+      <c r="AE28" s="63"/>
+      <c r="AF28" s="63"/>
+      <c r="AG28" s="63"/>
+      <c r="AH28" s="64"/>
+      <c r="AI28" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="AJ28" s="61"/>
-      <c r="AK28" s="61"/>
-      <c r="AL28" s="61"/>
-      <c r="AM28" s="61"/>
-      <c r="AN28" s="61"/>
-      <c r="AO28" s="61"/>
-      <c r="AP28" s="61"/>
-      <c r="AQ28" s="61"/>
-      <c r="AR28" s="62"/>
-      <c r="AS28" s="58" t="s">
+      <c r="AJ28" s="63"/>
+      <c r="AK28" s="63"/>
+      <c r="AL28" s="63"/>
+      <c r="AM28" s="63"/>
+      <c r="AN28" s="63"/>
+      <c r="AO28" s="63"/>
+      <c r="AP28" s="63"/>
+      <c r="AQ28" s="63"/>
+      <c r="AR28" s="64"/>
+      <c r="AS28" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="AT28" s="58"/>
-      <c r="AU28" s="58"/>
-      <c r="AV28" s="58"/>
-      <c r="AW28" s="58"/>
-      <c r="AX28" s="58"/>
-      <c r="AY28" s="58"/>
-      <c r="AZ28" s="58"/>
-      <c r="BA28" s="58"/>
-      <c r="BB28" s="58"/>
-      <c r="BC28" s="58"/>
-      <c r="BD28" s="58"/>
-      <c r="BE28" s="58"/>
-      <c r="BF28" s="58"/>
-      <c r="BG28" s="58"/>
-      <c r="BH28" s="58"/>
-      <c r="BI28" s="58"/>
-      <c r="BJ28" s="58"/>
-      <c r="BK28" s="58"/>
-      <c r="BL28" s="58"/>
-      <c r="BM28" s="58"/>
-      <c r="BN28" s="58"/>
-      <c r="BO28" s="58"/>
-      <c r="BP28" s="58"/>
-      <c r="BQ28" s="58"/>
-      <c r="BR28" s="58"/>
-      <c r="BS28" s="58"/>
-      <c r="BT28" s="58"/>
-      <c r="BU28" s="58"/>
-      <c r="BV28" s="58"/>
-      <c r="BW28" s="58"/>
-      <c r="BX28" s="58"/>
-      <c r="BY28" s="58"/>
-      <c r="BZ28" s="58"/>
-      <c r="CA28" s="58"/>
-      <c r="CB28" s="58"/>
-      <c r="CC28" s="58"/>
-      <c r="CD28" s="58"/>
-      <c r="CE28" s="58"/>
-      <c r="CF28" s="58"/>
-      <c r="CG28" s="58"/>
-      <c r="CH28" s="58"/>
-      <c r="CI28" s="58"/>
+      <c r="AT28" s="55"/>
+      <c r="AU28" s="55"/>
+      <c r="AV28" s="55"/>
+      <c r="AW28" s="55"/>
+      <c r="AX28" s="55"/>
+      <c r="AY28" s="55"/>
+      <c r="AZ28" s="55"/>
+      <c r="BA28" s="55"/>
+      <c r="BB28" s="55"/>
+      <c r="BC28" s="55"/>
+      <c r="BD28" s="55"/>
+      <c r="BE28" s="55"/>
+      <c r="BF28" s="55"/>
+      <c r="BG28" s="55"/>
+      <c r="BH28" s="55"/>
+      <c r="BI28" s="55"/>
+      <c r="BJ28" s="55"/>
+      <c r="BK28" s="55"/>
+      <c r="BL28" s="55"/>
+      <c r="BM28" s="55"/>
+      <c r="BN28" s="55"/>
+      <c r="BO28" s="55"/>
+      <c r="BP28" s="55"/>
+      <c r="BQ28" s="55"/>
+      <c r="BR28" s="55"/>
+      <c r="BS28" s="55"/>
+      <c r="BT28" s="55"/>
+      <c r="BU28" s="55"/>
+      <c r="BV28" s="55"/>
+      <c r="BW28" s="55"/>
+      <c r="BX28" s="55"/>
+      <c r="BY28" s="55"/>
+      <c r="BZ28" s="55"/>
+      <c r="CA28" s="55"/>
+      <c r="CB28" s="55"/>
+      <c r="CC28" s="55"/>
+      <c r="CD28" s="55"/>
+      <c r="CE28" s="55"/>
+      <c r="CF28" s="55"/>
+      <c r="CG28" s="55"/>
+      <c r="CH28" s="55"/>
+      <c r="CI28" s="55"/>
     </row>
     <row r="29" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="2"/>
-      <c r="B29" s="53">
+      <c r="B29" s="72">
         <v>2</v>
       </c>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="54" t="s">
-        <v>36</v>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="97" t="s">
+        <v>35</v>
       </c>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="54"/>
-      <c r="N29" s="54"/>
-      <c r="O29" s="54"/>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="54"/>
-      <c r="R29" s="54"/>
-      <c r="S29" s="54"/>
-      <c r="T29" s="54"/>
-      <c r="U29" s="54"/>
-      <c r="V29" s="54"/>
-      <c r="W29" s="54"/>
-      <c r="X29" s="54"/>
-      <c r="Y29" s="44" t="s">
+      <c r="F29" s="97"/>
+      <c r="G29" s="97"/>
+      <c r="H29" s="97"/>
+      <c r="I29" s="97"/>
+      <c r="J29" s="97"/>
+      <c r="K29" s="97"/>
+      <c r="L29" s="97"/>
+      <c r="M29" s="97"/>
+      <c r="N29" s="97"/>
+      <c r="O29" s="97"/>
+      <c r="P29" s="97"/>
+      <c r="Q29" s="97"/>
+      <c r="R29" s="97"/>
+      <c r="S29" s="97"/>
+      <c r="T29" s="97"/>
+      <c r="U29" s="97"/>
+      <c r="V29" s="97"/>
+      <c r="W29" s="97"/>
+      <c r="X29" s="97"/>
+      <c r="Y29" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="Z29" s="55"/>
-      <c r="AA29" s="55"/>
-      <c r="AB29" s="55"/>
-      <c r="AC29" s="55"/>
-      <c r="AD29" s="55"/>
-      <c r="AE29" s="55"/>
-      <c r="AF29" s="55"/>
-      <c r="AG29" s="55"/>
-      <c r="AH29" s="56"/>
-      <c r="AI29" s="44" t="s">
+      <c r="Z29" s="98"/>
+      <c r="AA29" s="98"/>
+      <c r="AB29" s="98"/>
+      <c r="AC29" s="98"/>
+      <c r="AD29" s="98"/>
+      <c r="AE29" s="98"/>
+      <c r="AF29" s="98"/>
+      <c r="AG29" s="98"/>
+      <c r="AH29" s="99"/>
+      <c r="AI29" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="AJ29" s="55"/>
-      <c r="AK29" s="55"/>
-      <c r="AL29" s="55"/>
-      <c r="AM29" s="55"/>
-      <c r="AN29" s="55"/>
-      <c r="AO29" s="55"/>
-      <c r="AP29" s="55"/>
-      <c r="AQ29" s="55"/>
-      <c r="AR29" s="56"/>
-      <c r="AS29" s="57" t="s">
+      <c r="AJ29" s="98"/>
+      <c r="AK29" s="98"/>
+      <c r="AL29" s="98"/>
+      <c r="AM29" s="98"/>
+      <c r="AN29" s="98"/>
+      <c r="AO29" s="98"/>
+      <c r="AP29" s="98"/>
+      <c r="AQ29" s="98"/>
+      <c r="AR29" s="99"/>
+      <c r="AS29" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="AT29" s="57"/>
-      <c r="AU29" s="57"/>
-      <c r="AV29" s="57"/>
-      <c r="AW29" s="57"/>
-      <c r="AX29" s="57"/>
-      <c r="AY29" s="57"/>
-      <c r="AZ29" s="57"/>
-      <c r="BA29" s="57"/>
-      <c r="BB29" s="57"/>
-      <c r="BC29" s="57"/>
-      <c r="BD29" s="57"/>
-      <c r="BE29" s="57"/>
-      <c r="BF29" s="57"/>
-      <c r="BG29" s="57"/>
-      <c r="BH29" s="57"/>
-      <c r="BI29" s="57"/>
-      <c r="BJ29" s="57"/>
-      <c r="BK29" s="57"/>
-      <c r="BL29" s="57"/>
-      <c r="BM29" s="57"/>
-      <c r="BN29" s="57"/>
-      <c r="BO29" s="57"/>
-      <c r="BP29" s="57"/>
-      <c r="BQ29" s="57"/>
-      <c r="BR29" s="57"/>
-      <c r="BS29" s="57"/>
-      <c r="BT29" s="57"/>
-      <c r="BU29" s="57"/>
-      <c r="BV29" s="57"/>
-      <c r="BW29" s="57"/>
-      <c r="BX29" s="57"/>
-      <c r="BY29" s="57"/>
-      <c r="BZ29" s="57"/>
-      <c r="CA29" s="57"/>
-      <c r="CB29" s="57"/>
-      <c r="CC29" s="57"/>
-      <c r="CD29" s="57"/>
-      <c r="CE29" s="57"/>
-      <c r="CF29" s="57"/>
-      <c r="CG29" s="57"/>
-      <c r="CH29" s="57"/>
-      <c r="CI29" s="57"/>
+      <c r="AT29" s="68"/>
+      <c r="AU29" s="68"/>
+      <c r="AV29" s="68"/>
+      <c r="AW29" s="68"/>
+      <c r="AX29" s="68"/>
+      <c r="AY29" s="68"/>
+      <c r="AZ29" s="68"/>
+      <c r="BA29" s="68"/>
+      <c r="BB29" s="68"/>
+      <c r="BC29" s="68"/>
+      <c r="BD29" s="68"/>
+      <c r="BE29" s="68"/>
+      <c r="BF29" s="68"/>
+      <c r="BG29" s="68"/>
+      <c r="BH29" s="68"/>
+      <c r="BI29" s="68"/>
+      <c r="BJ29" s="68"/>
+      <c r="BK29" s="68"/>
+      <c r="BL29" s="68"/>
+      <c r="BM29" s="68"/>
+      <c r="BN29" s="68"/>
+      <c r="BO29" s="68"/>
+      <c r="BP29" s="68"/>
+      <c r="BQ29" s="68"/>
+      <c r="BR29" s="68"/>
+      <c r="BS29" s="68"/>
+      <c r="BT29" s="68"/>
+      <c r="BU29" s="68"/>
+      <c r="BV29" s="68"/>
+      <c r="BW29" s="68"/>
+      <c r="BX29" s="68"/>
+      <c r="BY29" s="68"/>
+      <c r="BZ29" s="68"/>
+      <c r="CA29" s="68"/>
+      <c r="CB29" s="68"/>
+      <c r="CC29" s="68"/>
+      <c r="CD29" s="68"/>
+      <c r="CE29" s="68"/>
+      <c r="CF29" s="68"/>
+      <c r="CG29" s="68"/>
+      <c r="CH29" s="68"/>
+      <c r="CI29" s="68"/>
       <c r="CJ29" s="1"/>
       <c r="CK29" s="1"/>
       <c r="CL29" s="1"/>
@@ -28736,94 +28733,94 @@
     </row>
     <row r="31" spans="1:1024" x14ac:dyDescent="0.45">
       <c r="A31" s="1"/>
-      <c r="B31" s="50" t="s">
-        <v>41</v>
+      <c r="B31" s="94" t="s">
+        <v>40</v>
       </c>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="51"/>
-      <c r="N31" s="51"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="51"/>
-      <c r="Q31" s="51"/>
-      <c r="R31" s="51"/>
-      <c r="S31" s="51"/>
-      <c r="T31" s="51"/>
-      <c r="U31" s="51"/>
-      <c r="V31" s="51"/>
-      <c r="W31" s="51"/>
-      <c r="X31" s="51"/>
-      <c r="Y31" s="51"/>
-      <c r="Z31" s="51"/>
-      <c r="AA31" s="51"/>
-      <c r="AB31" s="51"/>
-      <c r="AC31" s="51"/>
-      <c r="AD31" s="51"/>
-      <c r="AE31" s="51"/>
-      <c r="AF31" s="51"/>
-      <c r="AG31" s="51"/>
-      <c r="AH31" s="51"/>
-      <c r="AI31" s="51"/>
-      <c r="AJ31" s="51"/>
-      <c r="AK31" s="51"/>
-      <c r="AL31" s="51"/>
-      <c r="AM31" s="51"/>
-      <c r="AN31" s="51"/>
-      <c r="AO31" s="51"/>
-      <c r="AP31" s="51"/>
-      <c r="AQ31" s="51"/>
-      <c r="AR31" s="51"/>
-      <c r="AS31" s="51"/>
-      <c r="AT31" s="51"/>
-      <c r="AU31" s="51"/>
-      <c r="AV31" s="51"/>
-      <c r="AW31" s="51"/>
-      <c r="AX31" s="51"/>
-      <c r="AY31" s="51"/>
-      <c r="AZ31" s="51"/>
-      <c r="BA31" s="51"/>
-      <c r="BB31" s="51"/>
-      <c r="BC31" s="51"/>
-      <c r="BD31" s="51"/>
-      <c r="BE31" s="51"/>
-      <c r="BF31" s="51"/>
-      <c r="BG31" s="51"/>
-      <c r="BH31" s="51"/>
-      <c r="BI31" s="51"/>
-      <c r="BJ31" s="51"/>
-      <c r="BK31" s="51"/>
-      <c r="BL31" s="51"/>
-      <c r="BM31" s="51"/>
-      <c r="BN31" s="51"/>
-      <c r="BO31" s="51"/>
-      <c r="BP31" s="51"/>
-      <c r="BQ31" s="51"/>
-      <c r="BR31" s="51"/>
-      <c r="BS31" s="51"/>
-      <c r="BT31" s="51"/>
-      <c r="BU31" s="51"/>
-      <c r="BV31" s="51"/>
-      <c r="BW31" s="51"/>
-      <c r="BX31" s="51"/>
-      <c r="BY31" s="51"/>
-      <c r="BZ31" s="51"/>
-      <c r="CA31" s="51"/>
-      <c r="CB31" s="51"/>
-      <c r="CC31" s="51"/>
-      <c r="CD31" s="51"/>
-      <c r="CE31" s="51"/>
-      <c r="CF31" s="51"/>
-      <c r="CG31" s="51"/>
-      <c r="CH31" s="51"/>
-      <c r="CI31" s="52"/>
+      <c r="C31" s="95"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="95"/>
+      <c r="G31" s="95"/>
+      <c r="H31" s="95"/>
+      <c r="I31" s="95"/>
+      <c r="J31" s="95"/>
+      <c r="K31" s="95"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="95"/>
+      <c r="P31" s="95"/>
+      <c r="Q31" s="95"/>
+      <c r="R31" s="95"/>
+      <c r="S31" s="95"/>
+      <c r="T31" s="95"/>
+      <c r="U31" s="95"/>
+      <c r="V31" s="95"/>
+      <c r="W31" s="95"/>
+      <c r="X31" s="95"/>
+      <c r="Y31" s="95"/>
+      <c r="Z31" s="95"/>
+      <c r="AA31" s="95"/>
+      <c r="AB31" s="95"/>
+      <c r="AC31" s="95"/>
+      <c r="AD31" s="95"/>
+      <c r="AE31" s="95"/>
+      <c r="AF31" s="95"/>
+      <c r="AG31" s="95"/>
+      <c r="AH31" s="95"/>
+      <c r="AI31" s="95"/>
+      <c r="AJ31" s="95"/>
+      <c r="AK31" s="95"/>
+      <c r="AL31" s="95"/>
+      <c r="AM31" s="95"/>
+      <c r="AN31" s="95"/>
+      <c r="AO31" s="95"/>
+      <c r="AP31" s="95"/>
+      <c r="AQ31" s="95"/>
+      <c r="AR31" s="95"/>
+      <c r="AS31" s="95"/>
+      <c r="AT31" s="95"/>
+      <c r="AU31" s="95"/>
+      <c r="AV31" s="95"/>
+      <c r="AW31" s="95"/>
+      <c r="AX31" s="95"/>
+      <c r="AY31" s="95"/>
+      <c r="AZ31" s="95"/>
+      <c r="BA31" s="95"/>
+      <c r="BB31" s="95"/>
+      <c r="BC31" s="95"/>
+      <c r="BD31" s="95"/>
+      <c r="BE31" s="95"/>
+      <c r="BF31" s="95"/>
+      <c r="BG31" s="95"/>
+      <c r="BH31" s="95"/>
+      <c r="BI31" s="95"/>
+      <c r="BJ31" s="95"/>
+      <c r="BK31" s="95"/>
+      <c r="BL31" s="95"/>
+      <c r="BM31" s="95"/>
+      <c r="BN31" s="95"/>
+      <c r="BO31" s="95"/>
+      <c r="BP31" s="95"/>
+      <c r="BQ31" s="95"/>
+      <c r="BR31" s="95"/>
+      <c r="BS31" s="95"/>
+      <c r="BT31" s="95"/>
+      <c r="BU31" s="95"/>
+      <c r="BV31" s="95"/>
+      <c r="BW31" s="95"/>
+      <c r="BX31" s="95"/>
+      <c r="BY31" s="95"/>
+      <c r="BZ31" s="95"/>
+      <c r="CA31" s="95"/>
+      <c r="CB31" s="95"/>
+      <c r="CC31" s="95"/>
+      <c r="CD31" s="95"/>
+      <c r="CE31" s="95"/>
+      <c r="CF31" s="95"/>
+      <c r="CG31" s="95"/>
+      <c r="CH31" s="95"/>
+      <c r="CI31" s="96"/>
       <c r="CJ31" s="1"/>
       <c r="CK31" s="1"/>
       <c r="CL31" s="1"/>
@@ -31816,94 +31813,94 @@
     </row>
     <row r="34" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="1"/>
-      <c r="B34" s="50" t="s">
-        <v>40</v>
+      <c r="B34" s="94" t="s">
+        <v>39</v>
       </c>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="51"/>
-      <c r="N34" s="51"/>
-      <c r="O34" s="51"/>
-      <c r="P34" s="51"/>
-      <c r="Q34" s="51"/>
-      <c r="R34" s="51"/>
-      <c r="S34" s="51"/>
-      <c r="T34" s="51"/>
-      <c r="U34" s="51"/>
-      <c r="V34" s="51"/>
-      <c r="W34" s="51"/>
-      <c r="X34" s="51"/>
-      <c r="Y34" s="51"/>
-      <c r="Z34" s="51"/>
-      <c r="AA34" s="51"/>
-      <c r="AB34" s="51"/>
-      <c r="AC34" s="51"/>
-      <c r="AD34" s="51"/>
-      <c r="AE34" s="51"/>
-      <c r="AF34" s="51"/>
-      <c r="AG34" s="51"/>
-      <c r="AH34" s="51"/>
-      <c r="AI34" s="51"/>
-      <c r="AJ34" s="51"/>
-      <c r="AK34" s="51"/>
-      <c r="AL34" s="51"/>
-      <c r="AM34" s="51"/>
-      <c r="AN34" s="51"/>
-      <c r="AO34" s="51"/>
-      <c r="AP34" s="51"/>
-      <c r="AQ34" s="51"/>
-      <c r="AR34" s="51"/>
-      <c r="AS34" s="51"/>
-      <c r="AT34" s="51"/>
-      <c r="AU34" s="51"/>
-      <c r="AV34" s="51"/>
-      <c r="AW34" s="51"/>
-      <c r="AX34" s="51"/>
-      <c r="AY34" s="51"/>
-      <c r="AZ34" s="51"/>
-      <c r="BA34" s="51"/>
-      <c r="BB34" s="51"/>
-      <c r="BC34" s="51"/>
-      <c r="BD34" s="51"/>
-      <c r="BE34" s="51"/>
-      <c r="BF34" s="51"/>
-      <c r="BG34" s="51"/>
-      <c r="BH34" s="51"/>
-      <c r="BI34" s="51"/>
-      <c r="BJ34" s="51"/>
-      <c r="BK34" s="51"/>
-      <c r="BL34" s="51"/>
-      <c r="BM34" s="51"/>
-      <c r="BN34" s="51"/>
-      <c r="BO34" s="51"/>
-      <c r="BP34" s="51"/>
-      <c r="BQ34" s="51"/>
-      <c r="BR34" s="51"/>
-      <c r="BS34" s="51"/>
-      <c r="BT34" s="51"/>
-      <c r="BU34" s="51"/>
-      <c r="BV34" s="51"/>
-      <c r="BW34" s="51"/>
-      <c r="BX34" s="51"/>
-      <c r="BY34" s="51"/>
-      <c r="BZ34" s="51"/>
-      <c r="CA34" s="51"/>
-      <c r="CB34" s="51"/>
-      <c r="CC34" s="51"/>
-      <c r="CD34" s="51"/>
-      <c r="CE34" s="51"/>
-      <c r="CF34" s="51"/>
-      <c r="CG34" s="51"/>
-      <c r="CH34" s="51"/>
-      <c r="CI34" s="52"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="95"/>
+      <c r="E34" s="95"/>
+      <c r="F34" s="95"/>
+      <c r="G34" s="95"/>
+      <c r="H34" s="95"/>
+      <c r="I34" s="95"/>
+      <c r="J34" s="95"/>
+      <c r="K34" s="95"/>
+      <c r="L34" s="95"/>
+      <c r="M34" s="95"/>
+      <c r="N34" s="95"/>
+      <c r="O34" s="95"/>
+      <c r="P34" s="95"/>
+      <c r="Q34" s="95"/>
+      <c r="R34" s="95"/>
+      <c r="S34" s="95"/>
+      <c r="T34" s="95"/>
+      <c r="U34" s="95"/>
+      <c r="V34" s="95"/>
+      <c r="W34" s="95"/>
+      <c r="X34" s="95"/>
+      <c r="Y34" s="95"/>
+      <c r="Z34" s="95"/>
+      <c r="AA34" s="95"/>
+      <c r="AB34" s="95"/>
+      <c r="AC34" s="95"/>
+      <c r="AD34" s="95"/>
+      <c r="AE34" s="95"/>
+      <c r="AF34" s="95"/>
+      <c r="AG34" s="95"/>
+      <c r="AH34" s="95"/>
+      <c r="AI34" s="95"/>
+      <c r="AJ34" s="95"/>
+      <c r="AK34" s="95"/>
+      <c r="AL34" s="95"/>
+      <c r="AM34" s="95"/>
+      <c r="AN34" s="95"/>
+      <c r="AO34" s="95"/>
+      <c r="AP34" s="95"/>
+      <c r="AQ34" s="95"/>
+      <c r="AR34" s="95"/>
+      <c r="AS34" s="95"/>
+      <c r="AT34" s="95"/>
+      <c r="AU34" s="95"/>
+      <c r="AV34" s="95"/>
+      <c r="AW34" s="95"/>
+      <c r="AX34" s="95"/>
+      <c r="AY34" s="95"/>
+      <c r="AZ34" s="95"/>
+      <c r="BA34" s="95"/>
+      <c r="BB34" s="95"/>
+      <c r="BC34" s="95"/>
+      <c r="BD34" s="95"/>
+      <c r="BE34" s="95"/>
+      <c r="BF34" s="95"/>
+      <c r="BG34" s="95"/>
+      <c r="BH34" s="95"/>
+      <c r="BI34" s="95"/>
+      <c r="BJ34" s="95"/>
+      <c r="BK34" s="95"/>
+      <c r="BL34" s="95"/>
+      <c r="BM34" s="95"/>
+      <c r="BN34" s="95"/>
+      <c r="BO34" s="95"/>
+      <c r="BP34" s="95"/>
+      <c r="BQ34" s="95"/>
+      <c r="BR34" s="95"/>
+      <c r="BS34" s="95"/>
+      <c r="BT34" s="95"/>
+      <c r="BU34" s="95"/>
+      <c r="BV34" s="95"/>
+      <c r="BW34" s="95"/>
+      <c r="BX34" s="95"/>
+      <c r="BY34" s="95"/>
+      <c r="BZ34" s="95"/>
+      <c r="CA34" s="95"/>
+      <c r="CB34" s="95"/>
+      <c r="CC34" s="95"/>
+      <c r="CD34" s="95"/>
+      <c r="CE34" s="95"/>
+      <c r="CF34" s="95"/>
+      <c r="CG34" s="95"/>
+      <c r="CH34" s="95"/>
+      <c r="CI34" s="96"/>
       <c r="CJ34" s="1"/>
       <c r="CK34" s="1"/>
       <c r="CL34" s="1"/>
@@ -33875,69 +33872,69 @@
       <c r="D36" s="17"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="37" t="s">
+      <c r="G36" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="H36" s="38"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="40" t="s">
+      <c r="H36" s="57"/>
+      <c r="I36" s="58"/>
+      <c r="J36" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="K36" s="41"/>
-      <c r="L36" s="41"/>
-      <c r="M36" s="41"/>
-      <c r="N36" s="41"/>
-      <c r="O36" s="41"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="41"/>
-      <c r="S36" s="41"/>
-      <c r="T36" s="38"/>
-      <c r="U36" s="38"/>
-      <c r="V36" s="38"/>
-      <c r="W36" s="38"/>
-      <c r="X36" s="39"/>
-      <c r="Y36" s="37" t="s">
+      <c r="K36" s="60"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="60"/>
+      <c r="N36" s="60"/>
+      <c r="O36" s="60"/>
+      <c r="P36" s="60"/>
+      <c r="Q36" s="60"/>
+      <c r="R36" s="60"/>
+      <c r="S36" s="60"/>
+      <c r="T36" s="57"/>
+      <c r="U36" s="57"/>
+      <c r="V36" s="57"/>
+      <c r="W36" s="57"/>
+      <c r="X36" s="58"/>
+      <c r="Y36" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="Z36" s="42"/>
-      <c r="AA36" s="42"/>
-      <c r="AB36" s="42"/>
-      <c r="AC36" s="42"/>
-      <c r="AD36" s="42"/>
-      <c r="AE36" s="42"/>
-      <c r="AF36" s="42"/>
-      <c r="AG36" s="42"/>
-      <c r="AH36" s="42"/>
-      <c r="AI36" s="42"/>
-      <c r="AJ36" s="42"/>
-      <c r="AK36" s="42"/>
-      <c r="AL36" s="42"/>
-      <c r="AM36" s="42"/>
-      <c r="AN36" s="42"/>
-      <c r="AO36" s="42"/>
-      <c r="AP36" s="42"/>
-      <c r="AQ36" s="42"/>
-      <c r="AR36" s="42"/>
-      <c r="AS36" s="42"/>
-      <c r="AT36" s="42"/>
-      <c r="AU36" s="42"/>
-      <c r="AV36" s="42"/>
-      <c r="AW36" s="42"/>
-      <c r="AX36" s="42"/>
-      <c r="AY36" s="42"/>
-      <c r="AZ36" s="42"/>
-      <c r="BA36" s="42"/>
-      <c r="BB36" s="42"/>
-      <c r="BC36" s="42"/>
-      <c r="BD36" s="42"/>
-      <c r="BE36" s="42"/>
-      <c r="BF36" s="42"/>
-      <c r="BG36" s="42"/>
-      <c r="BH36" s="42"/>
-      <c r="BI36" s="42"/>
-      <c r="BJ36" s="42"/>
-      <c r="BK36" s="43"/>
+      <c r="Z36" s="36"/>
+      <c r="AA36" s="36"/>
+      <c r="AB36" s="36"/>
+      <c r="AC36" s="36"/>
+      <c r="AD36" s="36"/>
+      <c r="AE36" s="36"/>
+      <c r="AF36" s="36"/>
+      <c r="AG36" s="36"/>
+      <c r="AH36" s="36"/>
+      <c r="AI36" s="36"/>
+      <c r="AJ36" s="36"/>
+      <c r="AK36" s="36"/>
+      <c r="AL36" s="36"/>
+      <c r="AM36" s="36"/>
+      <c r="AN36" s="36"/>
+      <c r="AO36" s="36"/>
+      <c r="AP36" s="36"/>
+      <c r="AQ36" s="36"/>
+      <c r="AR36" s="36"/>
+      <c r="AS36" s="36"/>
+      <c r="AT36" s="36"/>
+      <c r="AU36" s="36"/>
+      <c r="AV36" s="36"/>
+      <c r="AW36" s="36"/>
+      <c r="AX36" s="36"/>
+      <c r="AY36" s="36"/>
+      <c r="AZ36" s="36"/>
+      <c r="BA36" s="36"/>
+      <c r="BB36" s="36"/>
+      <c r="BC36" s="36"/>
+      <c r="BD36" s="36"/>
+      <c r="BE36" s="36"/>
+      <c r="BF36" s="36"/>
+      <c r="BG36" s="36"/>
+      <c r="BH36" s="36"/>
+      <c r="BI36" s="36"/>
+      <c r="BJ36" s="36"/>
+      <c r="BK36" s="37"/>
       <c r="BL36" s="17"/>
       <c r="BM36" s="17"/>
       <c r="BN36" s="17"/>
@@ -34907,69 +34904,69 @@
       <c r="D37" s="17"/>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
-      <c r="G37" s="44">
+      <c r="G37" s="54">
         <v>1</v>
       </c>
-      <c r="H37" s="42"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="44" t="s">
+      <c r="H37" s="36"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="K37" s="42"/>
-      <c r="L37" s="42"/>
-      <c r="M37" s="42"/>
-      <c r="N37" s="42"/>
-      <c r="O37" s="42"/>
-      <c r="P37" s="42"/>
-      <c r="Q37" s="42"/>
-      <c r="R37" s="42"/>
-      <c r="S37" s="42"/>
-      <c r="T37" s="42"/>
-      <c r="U37" s="42"/>
-      <c r="V37" s="42"/>
-      <c r="W37" s="42"/>
-      <c r="X37" s="43"/>
-      <c r="Y37" s="44" t="s">
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="36"/>
+      <c r="S37" s="36"/>
+      <c r="T37" s="36"/>
+      <c r="U37" s="36"/>
+      <c r="V37" s="36"/>
+      <c r="W37" s="36"/>
+      <c r="X37" s="37"/>
+      <c r="Y37" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="Z37" s="42"/>
-      <c r="AA37" s="42"/>
-      <c r="AB37" s="42"/>
-      <c r="AC37" s="42"/>
-      <c r="AD37" s="42"/>
-      <c r="AE37" s="42"/>
-      <c r="AF37" s="42"/>
-      <c r="AG37" s="42"/>
-      <c r="AH37" s="42"/>
-      <c r="AI37" s="42"/>
-      <c r="AJ37" s="42"/>
-      <c r="AK37" s="42"/>
-      <c r="AL37" s="42"/>
-      <c r="AM37" s="42"/>
-      <c r="AN37" s="42"/>
-      <c r="AO37" s="42"/>
-      <c r="AP37" s="42"/>
-      <c r="AQ37" s="42"/>
-      <c r="AR37" s="42"/>
-      <c r="AS37" s="42"/>
-      <c r="AT37" s="42"/>
-      <c r="AU37" s="42"/>
-      <c r="AV37" s="42"/>
-      <c r="AW37" s="42"/>
-      <c r="AX37" s="42"/>
-      <c r="AY37" s="42"/>
-      <c r="AZ37" s="42"/>
-      <c r="BA37" s="42"/>
-      <c r="BB37" s="42"/>
-      <c r="BC37" s="42"/>
-      <c r="BD37" s="42"/>
-      <c r="BE37" s="42"/>
-      <c r="BF37" s="42"/>
-      <c r="BG37" s="42"/>
-      <c r="BH37" s="42"/>
-      <c r="BI37" s="42"/>
-      <c r="BJ37" s="42"/>
-      <c r="BK37" s="43"/>
+      <c r="Z37" s="36"/>
+      <c r="AA37" s="36"/>
+      <c r="AB37" s="36"/>
+      <c r="AC37" s="36"/>
+      <c r="AD37" s="36"/>
+      <c r="AE37" s="36"/>
+      <c r="AF37" s="36"/>
+      <c r="AG37" s="36"/>
+      <c r="AH37" s="36"/>
+      <c r="AI37" s="36"/>
+      <c r="AJ37" s="36"/>
+      <c r="AK37" s="36"/>
+      <c r="AL37" s="36"/>
+      <c r="AM37" s="36"/>
+      <c r="AN37" s="36"/>
+      <c r="AO37" s="36"/>
+      <c r="AP37" s="36"/>
+      <c r="AQ37" s="36"/>
+      <c r="AR37" s="36"/>
+      <c r="AS37" s="36"/>
+      <c r="AT37" s="36"/>
+      <c r="AU37" s="36"/>
+      <c r="AV37" s="36"/>
+      <c r="AW37" s="36"/>
+      <c r="AX37" s="36"/>
+      <c r="AY37" s="36"/>
+      <c r="AZ37" s="36"/>
+      <c r="BA37" s="36"/>
+      <c r="BB37" s="36"/>
+      <c r="BC37" s="36"/>
+      <c r="BD37" s="36"/>
+      <c r="BE37" s="36"/>
+      <c r="BF37" s="36"/>
+      <c r="BG37" s="36"/>
+      <c r="BH37" s="36"/>
+      <c r="BI37" s="36"/>
+      <c r="BJ37" s="36"/>
+      <c r="BK37" s="37"/>
       <c r="BL37" s="17"/>
       <c r="BM37" s="17"/>
       <c r="BN37" s="17"/>
@@ -36960,70 +36957,70 @@
     </row>
     <row r="39" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="1"/>
-      <c r="B39" s="35" t="s">
-        <v>42</v>
+      <c r="B39" s="92" t="s">
+        <v>41</v>
       </c>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="36"/>
-      <c r="O39" s="36"/>
-      <c r="P39" s="36"/>
-      <c r="Q39" s="36"/>
-      <c r="R39" s="36"/>
-      <c r="S39" s="36"/>
-      <c r="T39" s="36"/>
-      <c r="U39" s="36"/>
-      <c r="V39" s="36"/>
-      <c r="W39" s="36"/>
-      <c r="X39" s="36"/>
-      <c r="Y39" s="36"/>
-      <c r="Z39" s="36"/>
-      <c r="AA39" s="36"/>
-      <c r="AB39" s="36"/>
-      <c r="AC39" s="36"/>
-      <c r="AD39" s="36"/>
-      <c r="AE39" s="36"/>
-      <c r="AF39" s="36"/>
-      <c r="AG39" s="36"/>
-      <c r="AH39" s="36"/>
-      <c r="AI39" s="36"/>
-      <c r="AJ39" s="36"/>
-      <c r="AK39" s="36"/>
-      <c r="AL39" s="36"/>
-      <c r="AM39" s="36"/>
-      <c r="AN39" s="36"/>
-      <c r="AO39" s="36"/>
-      <c r="AP39" s="36"/>
-      <c r="AQ39" s="36"/>
-      <c r="AR39" s="36"/>
-      <c r="AS39" s="36"/>
-      <c r="AT39" s="36"/>
-      <c r="AU39" s="36"/>
-      <c r="AV39" s="36"/>
-      <c r="AW39" s="36"/>
-      <c r="AX39" s="36"/>
-      <c r="AY39" s="36"/>
-      <c r="AZ39" s="36"/>
-      <c r="BA39" s="36"/>
-      <c r="BB39" s="36"/>
-      <c r="BC39" s="36"/>
-      <c r="BD39" s="36"/>
-      <c r="BE39" s="36"/>
-      <c r="BF39" s="36"/>
-      <c r="BG39" s="36"/>
-      <c r="BH39" s="36"/>
-      <c r="BI39" s="36"/>
-      <c r="BJ39" s="36"/>
-      <c r="BK39" s="36"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="93"/>
+      <c r="E39" s="93"/>
+      <c r="F39" s="93"/>
+      <c r="G39" s="93"/>
+      <c r="H39" s="93"/>
+      <c r="I39" s="93"/>
+      <c r="J39" s="93"/>
+      <c r="K39" s="93"/>
+      <c r="L39" s="93"/>
+      <c r="M39" s="93"/>
+      <c r="N39" s="93"/>
+      <c r="O39" s="93"/>
+      <c r="P39" s="93"/>
+      <c r="Q39" s="93"/>
+      <c r="R39" s="93"/>
+      <c r="S39" s="93"/>
+      <c r="T39" s="93"/>
+      <c r="U39" s="93"/>
+      <c r="V39" s="93"/>
+      <c r="W39" s="93"/>
+      <c r="X39" s="93"/>
+      <c r="Y39" s="93"/>
+      <c r="Z39" s="93"/>
+      <c r="AA39" s="93"/>
+      <c r="AB39" s="93"/>
+      <c r="AC39" s="93"/>
+      <c r="AD39" s="93"/>
+      <c r="AE39" s="93"/>
+      <c r="AF39" s="93"/>
+      <c r="AG39" s="93"/>
+      <c r="AH39" s="93"/>
+      <c r="AI39" s="93"/>
+      <c r="AJ39" s="93"/>
+      <c r="AK39" s="93"/>
+      <c r="AL39" s="93"/>
+      <c r="AM39" s="93"/>
+      <c r="AN39" s="93"/>
+      <c r="AO39" s="93"/>
+      <c r="AP39" s="93"/>
+      <c r="AQ39" s="93"/>
+      <c r="AR39" s="93"/>
+      <c r="AS39" s="93"/>
+      <c r="AT39" s="93"/>
+      <c r="AU39" s="93"/>
+      <c r="AV39" s="93"/>
+      <c r="AW39" s="93"/>
+      <c r="AX39" s="93"/>
+      <c r="AY39" s="93"/>
+      <c r="AZ39" s="93"/>
+      <c r="BA39" s="93"/>
+      <c r="BB39" s="93"/>
+      <c r="BC39" s="93"/>
+      <c r="BD39" s="93"/>
+      <c r="BE39" s="93"/>
+      <c r="BF39" s="93"/>
+      <c r="BG39" s="93"/>
+      <c r="BH39" s="93"/>
+      <c r="BI39" s="93"/>
+      <c r="BJ39" s="93"/>
+      <c r="BK39" s="93"/>
       <c r="BL39" s="17"/>
       <c r="BM39" s="17"/>
       <c r="BN39" s="17"/>
@@ -40040,6 +40037,60 @@
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="B39:BK39"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:Y22"/>
+    <mergeCell ref="Z22:BL22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:Y23"/>
+    <mergeCell ref="Z23:BL23"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:X28"/>
+    <mergeCell ref="B31:CI31"/>
+    <mergeCell ref="B34:CI34"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:X29"/>
+    <mergeCell ref="Y29:AH29"/>
+    <mergeCell ref="AI29:AR29"/>
+    <mergeCell ref="AS29:CI29"/>
+    <mergeCell ref="AS28:CI28"/>
+    <mergeCell ref="AS5:CI5"/>
+    <mergeCell ref="Y28:AH28"/>
+    <mergeCell ref="AI28:AR28"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:Y11"/>
+    <mergeCell ref="Z11:BL11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:Y12"/>
+    <mergeCell ref="Z12:BL12"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:Y24"/>
+    <mergeCell ref="Z24:BL24"/>
+    <mergeCell ref="F14:BT14"/>
+    <mergeCell ref="H15:BK15"/>
+    <mergeCell ref="H16:BL18"/>
+    <mergeCell ref="B20:CI20"/>
+    <mergeCell ref="E4:X4"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:X5"/>
+    <mergeCell ref="Y5:AR5"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:X37"/>
+    <mergeCell ref="Y37:BK37"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="AS4:CI4"/>
+    <mergeCell ref="Y4:AR4"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:X36"/>
+    <mergeCell ref="E7:X7"/>
+    <mergeCell ref="Y7:AH7"/>
+    <mergeCell ref="AI7:AR7"/>
+    <mergeCell ref="AS7:CI7"/>
+    <mergeCell ref="E8:X8"/>
+    <mergeCell ref="Y8:AH8"/>
+    <mergeCell ref="AI8:AR8"/>
+    <mergeCell ref="AS8:CI8"/>
     <mergeCell ref="Y36:BK36"/>
     <mergeCell ref="CB1:CI1"/>
     <mergeCell ref="B2:G2"/>
@@ -40056,60 +40107,6 @@
     <mergeCell ref="BP1:BW1"/>
     <mergeCell ref="BX1:CA1"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:X37"/>
-    <mergeCell ref="Y37:BK37"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="AS4:CI4"/>
-    <mergeCell ref="Y4:AR4"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:X36"/>
-    <mergeCell ref="E7:X7"/>
-    <mergeCell ref="Y7:AH7"/>
-    <mergeCell ref="AI7:AR7"/>
-    <mergeCell ref="AS7:CI7"/>
-    <mergeCell ref="E8:X8"/>
-    <mergeCell ref="Y8:AH8"/>
-    <mergeCell ref="AI8:AR8"/>
-    <mergeCell ref="AS8:CI8"/>
-    <mergeCell ref="B20:CI20"/>
-    <mergeCell ref="E4:X4"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:X5"/>
-    <mergeCell ref="Y5:AR5"/>
-    <mergeCell ref="AS28:CI28"/>
-    <mergeCell ref="AS5:CI5"/>
-    <mergeCell ref="Y28:AH28"/>
-    <mergeCell ref="AI28:AR28"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:Y11"/>
-    <mergeCell ref="Z11:BL11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:Y12"/>
-    <mergeCell ref="Z12:BL12"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:Y24"/>
-    <mergeCell ref="Z24:BL24"/>
-    <mergeCell ref="F14:BT14"/>
-    <mergeCell ref="H15:BK15"/>
-    <mergeCell ref="H16:BL18"/>
-    <mergeCell ref="B39:BK39"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:Y22"/>
-    <mergeCell ref="Z22:BL22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:Y23"/>
-    <mergeCell ref="Z23:BL23"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:X28"/>
-    <mergeCell ref="B31:CI31"/>
-    <mergeCell ref="B34:CI34"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:X29"/>
-    <mergeCell ref="Y29:AH29"/>
-    <mergeCell ref="AI29:AR29"/>
-    <mergeCell ref="AS29:CI29"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
